--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13912" windowHeight="6489" activeTab="1" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13912" windowHeight="6489" activeTab="0" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="259">
   <si>
     <t>动作</t>
   </si>
@@ -633,7 +633,7 @@
     <t>check_result(积分使用是否合法</t>
   </si>
   <si>
-    <t>shopping/add_to_cart</t>
+    <t>cart/add_to_cart</t>
   </si>
   <si>
     <t>将商品添加到购物车不跳转</t>
@@ -645,7 +645,19 @@
     <t>add_result:boolean(商品添加是否成功）</t>
   </si>
   <si>
-    <t>order/delete_favorite</t>
+    <t>cart/delete</t>
+  </si>
+  <si>
+    <t>删除购物车的商品</t>
+  </si>
+  <si>
+    <t>item_id:商品ID</t>
+  </si>
+  <si>
+    <t>delete_result:boolean(商品删除是否成功）</t>
+  </si>
+  <si>
+    <t>favortite/delete_favorite</t>
   </si>
   <si>
     <t>提交收藏夹删除</t>
@@ -690,6 +702,15 @@
     <t>delete_result:boolean(收藏夹删除成功与否）</t>
   </si>
   <si>
+    <t>favortite/add_favorite</t>
+  </si>
+  <si>
+    <t>添加至收藏夹</t>
+  </si>
+  <si>
+    <t>add_result:boolean(商品添加至收藏夹是否成功）</t>
+  </si>
+  <si>
     <t>item/comment</t>
   </si>
   <si>
@@ -1256,75 +1277,6 @@
     <t>页面跳转会订单详情详情页面</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>进入收藏夹</t>
-  </si>
-  <si>
-    <t>items:一维数组（商品ID（item_id),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picture_path) ,出版日期(publish_time), 出版社(publisher),作者(author),用户评分(score),市场价（market_price))</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>地址簿地址</t>
-  </si>
-  <si>
-    <t>address_list:一维的数组（地址的字符串address，地址的ID ）,level1_districts:一维数组（包含一个地区id(id),地区名字(name))</t>
-  </si>
-  <si>
-    <t>submit_address</t>
-  </si>
-  <si>
-    <t>添加地址</t>
-  </si>
-  <si>
-    <t>姓名name ，省份 district_level1,城市 district_level2 ,地区 district_level3 ，邮政编码 zipcode ,电话号码 phone_num ,手机号码mobile_num</t>
-  </si>
-  <si>
-    <t>跳转到地址簿</t>
-  </si>
-  <si>
-    <t>address_edit</t>
-  </si>
-  <si>
-    <t>进入地址修改</t>
-  </si>
-  <si>
-    <t>address_id;地址ID</t>
-  </si>
-  <si>
-    <t>姓名name ，省份 district_level1,城市 district_level2 ,地区 district_level3 ，邮政编码 zipcode ,电话号码 phone_num ,手机号码mobile_num,address_id:地址ID</t>
-  </si>
-  <si>
-    <t>address_edit_submit</t>
-  </si>
-  <si>
-    <t>提交地址修改</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>送货说明</t>
-  </si>
-  <si>
-    <t>information：string的变量</t>
-  </si>
-  <si>
-    <t>items_details</t>
-  </si>
-  <si>
-    <t>商品详情</t>
-  </si>
-  <si>
-    <t xml:space="preserve">itme_id(商品ID） </t>
-  </si>
-  <si>
-    <t>ISBN ，item_name(书名）， item_author（作者姓名） ,item_publishing（出版社） ,item_publishing_time（出版时间） , item_edition（版次）， item_page（页数） ,item_binding（装帧） , item_format（开本） ,item_price（价格） , itme_publishing_price（出版价格） , item_discount（折扣） , item_stock（库存） ,item_book_describe （书籍描述）,item_book_classify （书籍分类）, item_user_discuss（用户评论），item_comprehensive_rate（综合评级）,comment_list(一维数组包含用户名(username),级别(rating),内容(content),时间(date))</t>
-  </si>
-  <si>
     <t>order</t>
   </si>
   <si>
@@ -1334,22 +1286,7 @@
     <t>跳转到下单页面</t>
   </si>
   <si>
-    <t>order_conform</t>
-  </si>
-  <si>
-    <t>下单成功</t>
-  </si>
-  <si>
-    <t>cart</t>
-  </si>
-  <si>
-    <t>购物车</t>
-  </si>
-  <si>
-    <t>items:一维数组（一个包含商品ID（item_id),商品名字（item_name),商品单价(price),商品小计(item_total_price),商品数量（item_number),节省金额(save_price)),总价total_price</t>
-  </si>
-  <si>
-    <t>submit_oder</t>
+    <t>order_submit</t>
   </si>
   <si>
     <t>提交订单</t>
@@ -1583,7 +1520,85 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>跳转到下单成功</t>
+    <t>order_id:订单号；用户名(username);下单时间(order_time字符串);订单金额(price)；跳转下单成功。</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>进入收藏夹</t>
+  </si>
+  <si>
+    <t>items:一维数组（商品ID（item_id),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picture_path) ,出版日期(publish_time), 出版社(publisher),作者(author),用户评分(score),市场价（market_price))</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>地址簿地址</t>
+  </si>
+  <si>
+    <t>address_list:一维的数组（地址的字符串address，地址的ID ）,level1_districts:一维数组（包含一个地区id(id),地区名字(name))</t>
+  </si>
+  <si>
+    <t>submit_address</t>
+  </si>
+  <si>
+    <t>添加地址</t>
+  </si>
+  <si>
+    <t>姓名name ，省份 district_level1,城市 district_level2 ,地区 district_level3 ，邮政编码 zipcode ,电话号码 phone_num ,手机号码mobile_num</t>
+  </si>
+  <si>
+    <t>跳转到地址簿</t>
+  </si>
+  <si>
+    <t>address_edit</t>
+  </si>
+  <si>
+    <t>进入地址修改</t>
+  </si>
+  <si>
+    <t>address_id;地址ID</t>
+  </si>
+  <si>
+    <t>姓名name ，省份 district_level1,城市 district_level2 ,地区 district_level3 ，邮政编码 zipcode ,电话号码 phone_num ,手机号码mobile_num,address_id:地址ID</t>
+  </si>
+  <si>
+    <t>address_edit_submit</t>
+  </si>
+  <si>
+    <t>提交地址修改</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>送货说明</t>
+  </si>
+  <si>
+    <t>information：string的变量</t>
+  </si>
+  <si>
+    <t>items_details</t>
+  </si>
+  <si>
+    <t>商品详情</t>
+  </si>
+  <si>
+    <t xml:space="preserve">itme_id(商品ID） </t>
+  </si>
+  <si>
+    <t>ISBN ，item_name(书名）， item_author（作者姓名） ,item_publishing（出版社） ,item_publishing_time（出版时间） , item_edition（版次）， item_page（页数） ,item_binding（装帧） , item_format（开本） ,item_price（价格） , itme_publishing_price（出版价格） , item_discount（折扣） , item_stock（库存） ,item_book_describe （书籍描述）,item_book_classify （书籍分类）, item_user_discuss（用户评论），item_comprehensive_rate（综合评级）,comment_list(一维数组包含用户名(username),级别(rating),内容(content),时间(date))</t>
+  </si>
+  <si>
+    <t>cart</t>
+  </si>
+  <si>
+    <t>购物车</t>
+  </si>
+  <si>
+    <t>items:一维数组（一个包含商品ID（item_id),商品名字（item_name),商品单价(price),商品小计(item_total_price),商品数量（item_number),节省金额(save_price)),总价total_price</t>
   </si>
   <si>
     <t>quick_search</t>
@@ -1596,6 +1611,15 @@
   </si>
   <si>
     <t>跳转商品列表</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>进入用户信息</t>
+  </si>
+  <si>
+    <t>userName:用户名，nickName：昵称;total_score积分;order_list:一维数组包含（订单号(order_id),订单金额(order_price),下单时间(order_time),获得积分（score))</t>
   </si>
   <si>
     <t>接口</t>
@@ -2064,10 +2088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV16"/>
+  <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2262,7 +2286,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="21" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2276,16 +2300,16 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="21" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="21" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2301,6 +2325,34 @@
       </c>
       <c r="D16" s="1" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2312,10 +2364,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV21"/>
+  <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2343,282 +2395,361 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>64</v>
+        <v>70</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>68</v>
+        <v>74</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>98</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>102</v>
+        <v>6</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="1"/>
+      <c r="AY18" s="1"/>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="1"/>
+      <c r="BC18" s="1"/>
+      <c r="BD18" s="1"/>
+      <c r="BE18" s="1"/>
+      <c r="BF18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>128</v>
+      <c r="A21" s="21" t="s">
+        <v>137</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2647,506 +2778,506 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -2,14 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13912" windowHeight="6489" activeTab="0" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13905" windowHeight="6495" tabRatio="618" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
-    <sheet name="default" sheetId="2" r:id="rId3"/>
-    <sheet name="LRInterface" sheetId="3" r:id="rId4"/>
+    <sheet name="PLInterface_function" sheetId="1" r:id="rId1"/>
+    <sheet name="default" sheetId="2" r:id="rId2"/>
+    <sheet name="LRInterface" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -48,7 +50,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -56,19 +58,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">验证码-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证码_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -76,12 +77,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">表示验证码是否正确）-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示验证码是否正确）_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -91,7 +91,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -99,7 +99,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -107,19 +107,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">信息-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -127,7 +126,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -135,7 +134,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -143,7 +142,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -151,7 +150,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -159,12 +158,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">错误次数-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错误次数_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -177,7 +175,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -185,19 +183,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">用户名-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户名_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -205,12 +202,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">表示用户名是否已经被使用）-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示用户名是否已经被使用）_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -220,7 +216,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -228,7 +224,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -236,19 +232,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">的修改-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的修改_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -256,19 +251,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">昵称-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>昵称_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -276,7 +270,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -284,7 +278,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -292,12 +286,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">修改成功与否）-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改成功与否）_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -307,7 +300,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -315,7 +308,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -323,19 +316,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">的修改-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的修改_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -343,7 +335,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -351,7 +343,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -359,7 +351,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -367,7 +359,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -375,19 +367,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">新密码确认-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新密码确认_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -395,12 +386,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">表示密码修改成功与否）-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示密码修改成功与否）_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -413,7 +403,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -421,12 +411,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -439,7 +428,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -447,19 +436,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">上一级的地区id-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上一级的地区id_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -467,12 +455,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -485,7 +472,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -493,7 +480,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -501,19 +488,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ID-</t>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -521,12 +507,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">地址删除与否）-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址删除与否）_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -539,7 +524,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -547,7 +532,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -555,7 +540,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -563,7 +548,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -571,7 +556,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -579,19 +564,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">商品数量（总量）-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品数量（总量）_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -599,12 +583,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">表示库存是否足够）-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示库存是否足够）_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -665,7 +648,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -673,7 +656,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -681,7 +664,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -689,12 +672,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">json-</t>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>json_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -731,7 +713,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -739,7 +721,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -747,7 +729,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -755,7 +737,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -763,7 +745,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -771,19 +753,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">验证码；to_url:成功后跳转页面-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证码；to_url:成功后跳转页面_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -791,12 +772,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">表示登陆成功与否)，成功后跳转登陆前页面-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示登陆成功与否)，成功后跳转登陆前页面_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -809,7 +789,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -817,7 +797,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -825,7 +805,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -833,7 +813,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -841,7 +821,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -849,7 +829,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -857,7 +837,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -865,7 +845,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -873,7 +853,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -881,7 +861,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -889,7 +869,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -897,7 +877,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -905,7 +885,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -913,19 +893,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">验证码;to_url:成功后跳转页面-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证码;to_url:成功后跳转页面_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -933,7 +912,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -941,12 +920,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">),成功后跳转注册前页面-</t>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>),成功后跳转注册前页面_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1016,7 +994,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1024,7 +1002,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1032,7 +1010,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1040,7 +1018,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1048,7 +1026,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1056,7 +1034,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1064,7 +1042,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1072,7 +1050,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1080,7 +1058,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1088,7 +1066,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1096,7 +1074,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1104,7 +1082,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1112,7 +1090,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1120,7 +1098,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1128,7 +1106,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1136,7 +1114,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1144,7 +1122,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1152,7 +1130,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1160,7 +1138,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1168,7 +1146,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1176,7 +1154,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1184,7 +1162,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1192,7 +1170,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1200,7 +1178,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1208,7 +1186,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1216,7 +1194,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1224,7 +1202,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1232,7 +1210,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1240,7 +1218,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1248,7 +1226,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1256,7 +1234,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1264,12 +1242,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">的时候加回去））-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的时候加回去））_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1294,7 +1271,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1302,7 +1279,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1310,7 +1287,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1318,7 +1295,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1326,7 +1303,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1334,7 +1311,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1342,7 +1319,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1350,7 +1327,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1358,7 +1335,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1366,7 +1343,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1374,7 +1351,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1382,7 +1359,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1390,7 +1367,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1398,7 +1375,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1406,7 +1383,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1414,7 +1391,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1422,7 +1399,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1430,7 +1407,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1438,7 +1415,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1446,7 +1423,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1454,7 +1431,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1462,7 +1439,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1470,7 +1447,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1478,7 +1455,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1486,7 +1463,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1494,7 +1471,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1502,7 +1479,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1510,12 +1487,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">值数组;score:使用的积分-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值数组;score:使用的积分_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1631,9 +1607,6 @@
     <t>返回</t>
   </si>
   <si>
-    <t>AdoUser.validateUser</t>
-  </si>
-  <si>
     <t>验证用户名与密码是否匹配</t>
   </si>
   <si>
@@ -1643,9 +1616,6 @@
     <t>Boolean(表示用户名和密码匹配与否）</t>
   </si>
   <si>
-    <t>AdoUser.validateUserName</t>
-  </si>
-  <si>
     <t>验证用户名是否已经存在</t>
   </si>
   <si>
@@ -1655,9 +1625,6 @@
     <t>Boolean(表示用户名是否已经存在）</t>
   </si>
   <si>
-    <t>AdoUser.addUser</t>
-  </si>
-  <si>
     <t>添加用户</t>
   </si>
   <si>
@@ -1667,9 +1634,6 @@
     <t>Boolean(表示用户是否添加成功）</t>
   </si>
   <si>
-    <t>AdoUser.updateNickname</t>
-  </si>
-  <si>
     <t>修改昵称</t>
   </si>
   <si>
@@ -1679,9 +1643,6 @@
     <t>Boolean(表示昵称是否修改成功）</t>
   </si>
   <si>
-    <t>AdoUser.updatePassword</t>
-  </si>
-  <si>
     <t>修改密码</t>
   </si>
   <si>
@@ -1691,18 +1652,12 @@
     <t>Boolean(表示密码修改是否成功）</t>
   </si>
   <si>
-    <t>AdoUser.getScore</t>
-  </si>
-  <si>
     <t>获得指定用户积分</t>
   </si>
   <si>
     <t>int用户积分</t>
   </si>
   <si>
-    <t>AdoDistrict.getDistrict</t>
-  </si>
-  <si>
     <t>返回地址</t>
   </si>
   <si>
@@ -1712,9 +1667,6 @@
     <t>List&lt;BeanDistrict&gt;地址</t>
   </si>
   <si>
-    <t>AdoUserAddress.addAddress</t>
-  </si>
-  <si>
     <t>地址簿添加地址</t>
   </si>
   <si>
@@ -1724,42 +1676,27 @@
     <t>Boolean(表示成功与否）</t>
   </si>
   <si>
-    <t>AdoUserAddress.deleteAddress</t>
-  </si>
-  <si>
     <t>地址簿删除地址</t>
   </si>
   <si>
     <t>addressID:int</t>
   </si>
   <si>
-    <t>AdoUserAddress.modifyAddress</t>
-  </si>
-  <si>
     <t>地址簿修改地址</t>
   </si>
   <si>
-    <t>AdoUserAddress.getAddressNumber</t>
-  </si>
-  <si>
     <t>获得地址簿的地址项数目</t>
   </si>
   <si>
     <t>int 地址数</t>
   </si>
   <si>
-    <t>AdoUserAddress.listAddress</t>
-  </si>
-  <si>
     <t>列出地址簿的地址</t>
   </si>
   <si>
     <t>List&lt;BeanAddress&gt;</t>
   </si>
   <si>
-    <t>AdoUserAddress.getAddressDetail</t>
-  </si>
-  <si>
     <t>获得指定地址详情</t>
   </si>
   <si>
@@ -1769,9 +1706,6 @@
     <t>BeanAddress</t>
   </si>
   <si>
-    <t>AdoOrder.search</t>
-  </si>
-  <si>
     <t>搜索订单</t>
   </si>
   <si>
@@ -1781,9 +1715,6 @@
     <t>List&lt;Order&gt;(订单列表,Order中的Detail为NULL）</t>
   </si>
   <si>
-    <t>AdoOrder.getOrderDetail</t>
-  </si>
-  <si>
     <t>获得订单详情</t>
   </si>
   <si>
@@ -1793,9 +1724,6 @@
     <t>Order(内有Order的detail)</t>
   </si>
   <si>
-    <t>AdoOrder.getRowNumber</t>
-  </si>
-  <si>
     <t>获得符合搜索条件的订单总数</t>
   </si>
   <si>
@@ -1805,33 +1733,21 @@
     <t>int符合条件的订单总数</t>
   </si>
   <si>
-    <t>AdoOrder.addOrder</t>
-  </si>
-  <si>
     <t>userName:Stirng, order:Order</t>
   </si>
   <si>
-    <t>AdoOrder.updateOrder</t>
-  </si>
-  <si>
     <t>修改订单</t>
   </si>
   <si>
     <t>userName:String,order:Order</t>
   </si>
   <si>
-    <t>AdoOrder.deleteOrder</t>
-  </si>
-  <si>
     <t>删除订单</t>
   </si>
   <si>
     <t>userName:String,orderID:int</t>
   </si>
   <si>
-    <t>AdoBook.getInventory</t>
-  </si>
-  <si>
     <t>获得库存数</t>
   </si>
   <si>
@@ -1841,36 +1757,24 @@
     <t>int库存数</t>
   </si>
   <si>
-    <t>AdoBook.addBook</t>
-  </si>
-  <si>
     <t>添加书</t>
   </si>
   <si>
     <t>book:BeanBook</t>
   </si>
   <si>
-    <t>AdoBook.setInventory</t>
-  </si>
-  <si>
     <t>设置对应书的库存</t>
   </si>
   <si>
     <t>bookID:int; inventory:int(设置的库存数）</t>
   </si>
   <si>
-    <t>AdoBook.getDetail</t>
-  </si>
-  <si>
     <t>获得书籍详情</t>
   </si>
   <si>
     <t>book:BeanBook(书籍详情类）</t>
   </si>
   <si>
-    <t>AdoBook.search</t>
-  </si>
-  <si>
     <t>搜索书籍</t>
   </si>
   <si>
@@ -1880,9 +1784,6 @@
     <t>List&lt;BeanBook&gt;</t>
   </si>
   <si>
-    <t>AdoBook.getSearchRowNumber</t>
-  </si>
-  <si>
     <t>获得符合搜索条件的书籍条目总数</t>
   </si>
   <si>
@@ -1892,18 +1793,12 @@
     <t>int书籍搜索结果的条数</t>
   </si>
   <si>
-    <t>AdoBook.getCommentRowNumber</t>
-  </si>
-  <si>
     <t>获得指定书籍的评论总数</t>
   </si>
   <si>
     <t>int书籍评论总数</t>
   </si>
   <si>
-    <t>AdoBook.getComment</t>
-  </si>
-  <si>
     <t>获得书籍评论</t>
   </si>
   <si>
@@ -1913,99 +1808,184 @@
     <t>List&lt;BeanComment&gt;</t>
   </si>
   <si>
-    <t>AdoBook.publishComment</t>
-  </si>
-  <si>
     <t>发表指定书籍的评论</t>
   </si>
   <si>
     <t>bookID:int;comment:BeanComment</t>
   </si>
   <si>
-    <t>AdoCart.addBook</t>
-  </si>
-  <si>
     <t>往指定用户的购物车中添加书籍记录</t>
   </si>
   <si>
     <t>userName:String;bookID:int;bookNumber:int</t>
   </si>
   <si>
-    <t>AdoCart.deleteBook</t>
-  </si>
-  <si>
     <t>从指定用户的购物车中删除书籍记录</t>
   </si>
   <si>
-    <t>AdoCart.modifyBook</t>
-  </si>
-  <si>
     <t>修改指定用户的购物车修改书籍数量</t>
   </si>
   <si>
-    <t>AdoCart.clean</t>
-  </si>
-  <si>
     <t>清除指定用户的购物车数据库数据</t>
   </si>
   <si>
     <t>userName:String;</t>
   </si>
   <si>
-    <t>AdoCatalog.getCatalog</t>
-  </si>
-  <si>
     <t>获得所有目录</t>
   </si>
   <si>
     <t>BeanCatalog(书籍目录）</t>
   </si>
   <si>
-    <t>AdoFavorityFolder.add</t>
-  </si>
-  <si>
     <t>添加书籍进入收藏夹</t>
   </si>
   <si>
     <t>userName:String;bookID:int;</t>
   </si>
   <si>
-    <t>AdoFavorityFolder.delete</t>
-  </si>
-  <si>
     <t>删除指定用户的收藏夹书籍</t>
   </si>
   <si>
     <t>userName:String;bookIDList:List&lt;Integer&gt;</t>
+  </si>
+  <si>
+    <t>DaoUser.validateUser</t>
+  </si>
+  <si>
+    <t>DaoUser.validateUserName</t>
+  </si>
+  <si>
+    <t>DaoUser.addUser</t>
+  </si>
+  <si>
+    <t>DaoUser.updateNickname</t>
+  </si>
+  <si>
+    <t>DaoUser.updatePassword</t>
+  </si>
+  <si>
+    <t>DaoUser.getScore</t>
+  </si>
+  <si>
+    <t>DaoDistrict.getDistrict</t>
+  </si>
+  <si>
+    <t>DaoUserAddress.addAddress</t>
+  </si>
+  <si>
+    <t>DaoUserAddress.deleteAddress</t>
+  </si>
+  <si>
+    <t>DaoUserAddress.modifyAddress</t>
+  </si>
+  <si>
+    <t>DaoUserAddress.getAddressNumber</t>
+  </si>
+  <si>
+    <t>DaoUserAddress.listAddress</t>
+  </si>
+  <si>
+    <t>DaoUserAddress.getAddressDetail</t>
+  </si>
+  <si>
+    <t>DaoOrder.search</t>
+  </si>
+  <si>
+    <t>DaoOrder.getOrderDetail</t>
+  </si>
+  <si>
+    <t>DaoOrder.getRowNumber</t>
+  </si>
+  <si>
+    <t>DaoOrder.addOrder</t>
+  </si>
+  <si>
+    <t>DaoOrder.updateOrder</t>
+  </si>
+  <si>
+    <t>DaoOrder.deleteOrder</t>
+  </si>
+  <si>
+    <t>DaoBook.getInventory</t>
+  </si>
+  <si>
+    <t>DaoBook.addBook</t>
+  </si>
+  <si>
+    <t>DaoBook.setInventory</t>
+  </si>
+  <si>
+    <t>DaoBook.getDetail</t>
+  </si>
+  <si>
+    <t>DaoBook.search</t>
+  </si>
+  <si>
+    <t>DaoBook.getSearchRowNumber</t>
+  </si>
+  <si>
+    <t>DaoBook.getCommentRowNumber</t>
+  </si>
+  <si>
+    <t>DaoBook.getComment</t>
+  </si>
+  <si>
+    <t>DaoBook.publishComment</t>
+  </si>
+  <si>
+    <t>DaoCart.addBook</t>
+  </si>
+  <si>
+    <t>DaoCart.deleteBook</t>
+  </si>
+  <si>
+    <t>DaoCart.modifyBook</t>
+  </si>
+  <si>
+    <t>DaoCart.clean</t>
+  </si>
+  <si>
+    <t>DaoCatalog.getCatalog</t>
+  </si>
+  <si>
+    <t>DaoFavorityFolder.add</t>
+  </si>
+  <si>
+    <t>DaoFavorityFolder.delete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0%"/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * -#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="3">
+  <fonts count="4">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <b/>
+      <sz val="12"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
-      <b/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2026,55 +2006,34 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="177" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="178" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="179" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="180" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="1"/>
-    <xf numFmtId="177" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="2"/>
-    <xf numFmtId="178" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="3"/>
-    <xf numFmtId="179" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="4"/>
-    <xf numFmtId="180" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="5"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
-    <xf numFmtId="177" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
-    <xf numFmtId="178" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
-    <xf numFmtId="179" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
-    <xf numFmtId="180" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
-    <xf numFmtId="177" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
-    <xf numFmtId="178" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
-    <xf numFmtId="179" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
-    <xf numFmtId="180" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="百分比" xfId="1"/>
     <cellStyle name="货币" xfId="2"/>
     <cellStyle name="货币[0]" xfId="3"/>
@@ -2083,31 +2042,321 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="48.875" customWidth="1" style="1"/>
-    <col min="2" max="2" width="52.25" customWidth="1" style="1"/>
-    <col min="3" max="3" width="107.0" customWidth="1" style="1"/>
-    <col min="4" max="4" width="70.0" customWidth="1" style="1"/>
-    <col min="5" max="256" width="10.0" customWidth="1" style="1"/>
+    <col min="1" max="1" width="48.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="107" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70" style="1" customWidth="1"/>
+    <col min="5" max="256" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" ht="16.5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2117,7 +2366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="16.5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2131,7 +2380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="16.5">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2145,7 +2394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -2159,7 +2408,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="16.5">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -2173,7 +2422,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -2187,7 +2436,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -2201,7 +2450,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -2215,7 +2464,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -2229,7 +2478,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="15">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -2243,7 +2492,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -2257,7 +2506,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="16.5">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -2271,7 +2520,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="16.5">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,8 +2534,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="21" t="s">
+    <row r="14" spans="1:4" ht="16.5">
+      <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2299,21 +2548,21 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="21" t="s">
+    <row r="15" spans="1:4" ht="16.5">
+      <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="15">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
@@ -2327,21 +2576,21 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="21" t="s">
+    <row r="17" spans="1:4" ht="16.5">
+      <c r="A17" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="16.5">
       <c r="A18" s="1" t="s">
         <v>65</v>
       </c>
@@ -2357,33 +2606,33 @@
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="1.247760630029393" right="1.247760630029393" top="0.9998749560258521" bottom="0.9998749560258521" header="0.49993747801292604" footer="0.49993747801292604"/>
+  <pageMargins left="1.2477606300293931" right="1.2477606300293931" top="0.99987495602585208" bottom="0.99987495602585208" header="0.49993747801292604" footer="0.49993747801292604"/>
   <pageSetup paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.25" customWidth="1" style="1"/>
-    <col min="2" max="2" width="34.625" customWidth="1" style="1"/>
-    <col min="3" max="3" width="72.625" customWidth="1" style="1"/>
-    <col min="4" max="4" width="79.75" customWidth="1" style="1"/>
-    <col min="5" max="256" width="10.0" customWidth="1" style="1"/>
+    <col min="1" max="1" width="31.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="72.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="79.75" style="1" customWidth="1"/>
+    <col min="5" max="256" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" ht="16.5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2393,7 +2642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
@@ -2407,7 +2656,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
@@ -2421,7 +2670,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="16.5">
       <c r="A4" s="1" t="s">
         <v>77</v>
       </c>
@@ -2435,7 +2684,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="16.5">
       <c r="A5" s="1" t="s">
         <v>80</v>
       </c>
@@ -2449,7 +2698,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="16.5">
       <c r="A6" s="1" t="s">
         <v>84</v>
       </c>
@@ -2463,7 +2712,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="16.5">
       <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
@@ -2477,7 +2726,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="16.5">
       <c r="A8" s="1" t="s">
         <v>92</v>
       </c>
@@ -2491,7 +2740,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="1" t="s">
         <v>96</v>
       </c>
@@ -2505,7 +2754,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="16.5">
       <c r="A10" s="1" t="s">
         <v>100</v>
       </c>
@@ -2518,33 +2767,8 @@
       <c r="D10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" s="1" t="s">
         <v>103</v>
       </c>
@@ -2554,36 +2778,11 @@
       <c r="C11" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:4" ht="16.5">
       <c r="A12" s="1" t="s">
         <v>107</v>
       </c>
@@ -2593,11 +2792,11 @@
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="16.5">
       <c r="A13" s="1" t="s">
         <v>110</v>
       </c>
@@ -2611,7 +2810,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="16.5">
       <c r="A14" s="1" t="s">
         <v>113</v>
       </c>
@@ -2625,7 +2824,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="16.5">
       <c r="A15" s="1" t="s">
         <v>117</v>
       </c>
@@ -2639,7 +2838,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="16.5">
       <c r="A16" s="1" t="s">
         <v>121</v>
       </c>
@@ -2653,7 +2852,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="16.5">
       <c r="A17" s="1" t="s">
         <v>123</v>
       </c>
@@ -2667,7 +2866,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="16.5">
       <c r="A18" s="1" t="s">
         <v>126</v>
       </c>
@@ -2680,37 +2879,8 @@
       <c r="D18" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="1"/>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="1"/>
-      <c r="AM18" s="1"/>
-      <c r="AN18" s="1"/>
-      <c r="AO18" s="1"/>
-      <c r="AP18" s="1"/>
-      <c r="AQ18" s="1"/>
-      <c r="AR18" s="1"/>
-      <c r="AS18" s="1"/>
-      <c r="AT18" s="1"/>
-      <c r="AU18" s="1"/>
-      <c r="AV18" s="1"/>
-      <c r="AW18" s="1"/>
-      <c r="AX18" s="1"/>
-      <c r="AY18" s="1"/>
-      <c r="AZ18" s="1"/>
-      <c r="BA18" s="1"/>
-      <c r="BB18" s="1"/>
-      <c r="BC18" s="1"/>
-      <c r="BD18" s="1"/>
-      <c r="BE18" s="1"/>
-      <c r="BF18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:4" ht="16.5">
       <c r="A19" s="1" t="s">
         <v>130</v>
       </c>
@@ -2724,7 +2894,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="16.5">
       <c r="A20" s="1" t="s">
         <v>133</v>
       </c>
@@ -2738,45 +2908,45 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="21" t="s">
+    <row r="21" spans="1:4" ht="16.5">
+      <c r="A21" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="4" t="s">
         <v>139</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="1.247760630029393" right="1.247760630029393" top="0.9998749560258521" bottom="0.9998749560258521" header="0.49993747801292604" footer="0.49993747801292604"/>
+  <pageMargins left="1.2477606300293931" right="1.2477606300293931" top="0.99987495602585208" bottom="0.99987495602585208" header="0.49993747801292604" footer="0.49993747801292604"/>
   <pageSetup paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="37.625" customWidth="1" style="1"/>
-    <col min="2" max="2" width="43.625" customWidth="1" style="1"/>
-    <col min="3" max="3" width="49.625" customWidth="1" style="1"/>
-    <col min="4" max="4" width="24.75" customWidth="1" style="1"/>
-    <col min="5" max="256" width="10.0" customWidth="1" style="1"/>
+    <col min="1" max="1" width="37.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.75" style="1" customWidth="1"/>
+    <col min="5" max="256" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>140</v>
       </c>
@@ -2790,502 +2960,500 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C19" s="1" t="s">
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B20" s="1" t="s">
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B21" s="1" t="s">
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="1"/>
-    </row>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4"/>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="1.247760630029393" right="1.247760630029393" top="0.9998749560258521" bottom="0.9998749560258521" header="0.49993747801292604" footer="0.49993747801292604"/>
+  <pageMargins left="1.2477606300293931" right="1.2477606300293931" top="0.99987495602585208" bottom="0.99987495602585208" header="0.49993747801292604" footer="0.49993747801292604"/>
   <pageSetup paperSize="9"/>
 </worksheet>
 </file>
--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13905" windowHeight="6495" tabRatio="618" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="13905" windowHeight="6435" tabRatio="618" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId1"/>
@@ -1700,18 +1700,12 @@
     <t>获得指定地址详情</t>
   </si>
   <si>
-    <t>userName:String;address_id:地址ID</t>
-  </si>
-  <si>
     <t>BeanAddress</t>
   </si>
   <si>
     <t>搜索订单</t>
   </si>
   <si>
-    <t>lineNumber:int, page:int,userName:String;startTime:String;endTime:String;orderStatus:int</t>
-  </si>
-  <si>
     <t>List&lt;Order&gt;(订单列表,Order中的Detail为NULL）</t>
   </si>
   <si>
@@ -1727,9 +1721,6 @@
     <t>获得符合搜索条件的订单总数</t>
   </si>
   <si>
-    <t>lineNumber:int,userName:String;startTime:String;endTime:String;orderStatus:int</t>
-  </si>
-  <si>
     <t>int符合条件的订单总数</t>
   </si>
   <si>
@@ -1953,6 +1944,15 @@
   </si>
   <si>
     <t>DaoFavorityFolder.delete</t>
+  </si>
+  <si>
+    <t>username:String</t>
+  </si>
+  <si>
+    <t>userName:String;addressID:地址ID</t>
+  </si>
+  <si>
+    <t>req:OrderRequire;userName:String</t>
   </si>
 </sst>
 </file>
@@ -2933,8 +2933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>143</v>
@@ -2976,7 +2976,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>146</v>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>149</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>152</v>
@@ -3018,7 +3018,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>155</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>158</v>
@@ -3046,7 +3046,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>160</v>
@@ -3060,7 +3060,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>163</v>
@@ -3074,7 +3074,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>166</v>
@@ -3088,7 +3088,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>168</v>
@@ -3102,13 +3102,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>256</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>170</v>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>171</v>
@@ -3130,69 +3130,69 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>183</v>
+        <v>258</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>165</v>
@@ -3200,13 +3200,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>165</v>
@@ -3214,13 +3214,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>165</v>
@@ -3228,27 +3228,27 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>165</v>
@@ -3256,13 +3256,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>165</v>
@@ -3270,83 +3270,83 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>165</v>
@@ -3354,13 +3354,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>165</v>
@@ -3368,13 +3368,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>165</v>
@@ -3382,13 +3382,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>165</v>
@@ -3396,13 +3396,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>165</v>
@@ -3410,27 +3410,27 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>165</v>
@@ -3438,13 +3438,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>165</v>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -1769,18 +1769,12 @@
     <t>搜索书籍</t>
   </si>
   <si>
-    <t>searchData:SearchData,lineNumber:int,page:int</t>
-  </si>
-  <si>
     <t>List&lt;BeanBook&gt;</t>
   </si>
   <si>
     <t>获得符合搜索条件的书籍条目总数</t>
   </si>
   <si>
-    <t>searchData:SearchData,lineNumber:int</t>
-  </si>
-  <si>
     <t>int书籍搜索结果的条数</t>
   </si>
   <si>
@@ -1793,9 +1787,6 @@
     <t>获得书籍评论</t>
   </si>
   <si>
-    <t>bookID:int;page:int</t>
-  </si>
-  <si>
     <t>List&lt;BeanComment&gt;</t>
   </si>
   <si>
@@ -1826,9 +1817,6 @@
     <t>获得所有目录</t>
   </si>
   <si>
-    <t>BeanCatalog(书籍目录）</t>
-  </si>
-  <si>
     <t>添加书籍进入收藏夹</t>
   </si>
   <si>
@@ -1953,6 +1941,18 @@
   </si>
   <si>
     <t>req:OrderRequire;userName:String</t>
+  </si>
+  <si>
+    <t>req:BookRequire</t>
+  </si>
+  <si>
+    <t>bookID:int;page:int;lines:int</t>
+  </si>
+  <si>
+    <t>userName:String;bookID:int</t>
+  </si>
+  <si>
+    <t>List&lt;BeanCatalog&gt;(书籍目录）</t>
   </si>
 </sst>
 </file>
@@ -2933,8 +2933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>143</v>
@@ -2976,7 +2976,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>146</v>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>149</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>152</v>
@@ -3018,7 +3018,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>155</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>158</v>
@@ -3046,7 +3046,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>160</v>
@@ -3060,7 +3060,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>163</v>
@@ -3074,7 +3074,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>166</v>
@@ -3088,7 +3088,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>168</v>
@@ -3102,13 +3102,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>170</v>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>171</v>
@@ -3130,13 +3130,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>174</v>
@@ -3144,13 +3144,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>176</v>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>177</v>
@@ -3172,13 +3172,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>181</v>
@@ -3186,7 +3186,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>104</v>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>183</v>
@@ -3214,7 +3214,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>185</v>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>187</v>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>190</v>
@@ -3256,7 +3256,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>192</v>
@@ -3270,7 +3270,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>194</v>
@@ -3284,69 +3284,69 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>188</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>165</v>
@@ -3354,13 +3354,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>165</v>
@@ -3368,13 +3368,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>165</v>
@@ -3382,13 +3382,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>165</v>
@@ -3396,13 +3396,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>165</v>
@@ -3410,27 +3410,27 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>165</v>
@@ -3438,13 +3438,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>165</v>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -2933,8 +2933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -2,16 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="13905" windowHeight="6435" tabRatio="618" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="46" windowWidth="13896" windowHeight="6427" activeTab="1" tabRatio="618"/>
   </bookViews>
   <sheets>
-    <sheet name="PLInterface_function" sheetId="1" r:id="rId1"/>
-    <sheet name="default" sheetId="2" r:id="rId2"/>
-    <sheet name="LRInterface" sheetId="3" r:id="rId3"/>
+    <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
+    <sheet name="default" sheetId="2" r:id="rId3"/>
+    <sheet name="LRInterface" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -50,38 +48,40 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>captcha_value:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>验证码_x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>captchaValue:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">验证码+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>captcha_result:boolean(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表示验证码是否正确）_x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>captchaResult:boolean(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">表示验证码是否正确）_x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -91,7 +91,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -99,7 +99,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -107,26 +107,27 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>信息_x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">信息_x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>user_name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>userName:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -134,15 +135,15 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>;nick_name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>;nickName:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -150,19 +151,20 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>;login_error_times:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>错误次数_x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>;loginErrorTimes:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">错误次数_x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -175,7 +177,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -183,30 +185,32 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户名_x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">用户名+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>check_result:boolean(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表示用户名是否已经被使用）_x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>checkResult:boolean(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">表示用户名是否已经被使用）_x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -216,7 +220,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -224,7 +228,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -232,18 +236,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的修改_x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的修改_x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -251,26 +256,27 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>昵称_x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">昵称+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>update_nickname_result:boolean</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>updateNicknameResult:boolean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -278,7 +284,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -286,11 +292,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>修改成功与否）_x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">修改成功与否）_x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -300,7 +307,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -308,7 +315,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -316,18 +323,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的修改_x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的修改_x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -335,7 +343,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -343,15 +351,15 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>new_password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>newPassword</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -359,38 +367,40 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>;new_password_confirm:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>新密码确认_x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>;newPasswordConfirm:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">新密码确认+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>update_password_result:boolean (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表示密码修改成功与否）_x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>updatePasswordResult:boolean (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">表示密码修改成功与否）_x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -403,19 +413,20 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>first_level_list:json_array,元素包含地区id(id)和名字(name)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>_x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>firstLevelList:json_array,元素包含地区id(id)和名字(name)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -428,7 +439,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -436,30 +447,32 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上一级的地区id_x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">上一级的地区id+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>next_level_list:json_array,元素包含地区id(id)和名字(name)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>_x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nextLevelList:json_array,元素包含地区id(id)和名字(name)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -472,15 +485,15 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>address_id:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>addressId:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -488,30 +501,32 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID_x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ID+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>delete_result:boolean(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地址删除与否）_x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>deleteResult:boolean(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">地址删除与否）_x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -524,15 +539,15 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>item_id:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>itemId:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -540,7 +555,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -548,7 +563,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -556,38 +571,40 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> item_number:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>商品数量（总量）_x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> itemNumber:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">商品数量（总量）_x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>check_result:boolean(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表示库存是否足够）_x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>checkResult:boolean(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">表示库存是否足够）_x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -598,10 +615,10 @@
     <t>提交订单删除</t>
   </si>
   <si>
-    <t>order_id:订单号；</t>
-  </si>
-  <si>
-    <t>delete_result:boolean(订单删除与否）</t>
+    <t>orderId:订单号；</t>
+  </si>
+  <si>
+    <t>deleteResult:boolean(订单删除与否）</t>
   </si>
   <si>
     <t>order/check_score</t>
@@ -613,7 +630,7 @@
     <t>score:积分</t>
   </si>
   <si>
-    <t>check_result(积分使用是否合法</t>
+    <t>checkResult(积分使用是否合法</t>
   </si>
   <si>
     <t>cart/add_to_cart</t>
@@ -622,10 +639,10 @@
     <t>将商品添加到购物车不跳转</t>
   </si>
   <si>
-    <t>item_id:商品ID， item_number:商品数量</t>
-  </si>
-  <si>
-    <t>add_result:boolean(商品添加是否成功）</t>
+    <t>itemId:商品ID， itemNumber:商品数量</t>
+  </si>
+  <si>
+    <t>addResult:boolean(商品添加是否成功）</t>
   </si>
   <si>
     <t>cart/delete</t>
@@ -634,10 +651,10 @@
     <t>删除购物车的商品</t>
   </si>
   <si>
-    <t>item_id:商品ID</t>
-  </si>
-  <si>
-    <t>delete_result:boolean(商品删除是否成功）</t>
+    <t>itemId:商品ID</t>
+  </si>
+  <si>
+    <t>deleteResult:boolean(商品删除是否成功）</t>
   </si>
   <si>
     <t>favortite/delete_favorite</t>
@@ -648,15 +665,15 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>item_id:商品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>itemId:商品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -664,7 +681,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -672,16 +689,17 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>json_x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">json_x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>delete_result:boolean(收藏夹删除成功与否）</t>
+    <t>deleteResult:boolean(收藏夹删除成功与否）</t>
   </si>
   <si>
     <t>favortite/add_favorite</t>
@@ -690,7 +708,7 @@
     <t>添加至收藏夹</t>
   </si>
   <si>
-    <t>add_result:boolean(商品添加至收藏夹是否成功）</t>
+    <t>addResult:boolean(商品添加至收藏夹是否成功）</t>
   </si>
   <si>
     <t>item/comment</t>
@@ -699,10 +717,10 @@
     <t>用户提交评论</t>
   </si>
   <si>
-    <t>item_id:商品ID,content:评论内容；rating:int(0-5的整数）</t>
-  </si>
-  <si>
-    <t>submit_result:boolean(评论提交成功与否）</t>
+    <t>itemId:商品ID,content:评论内容；rating:int(0-5的整数）</t>
+  </si>
+  <si>
+    <t>submitResult:boolean(评论提交成功与否）</t>
   </si>
   <si>
     <t>login</t>
@@ -713,7 +731,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -721,7 +739,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -729,7 +747,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -737,7 +755,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -745,38 +763,40 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>captcha_value:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>验证码；to_url:成功后跳转页面_x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>captchaValue:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">验证码；toUrl:成功后跳转页面_x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>login_result:boolean(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表示登陆成功与否)，成功后跳转登陆前页面_x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>loginResult:boolean(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">表示登陆成功与否)，成功后跳转登陆前页面_x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -789,7 +809,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -797,7 +817,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -805,7 +825,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -813,7 +833,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -821,15 +841,15 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>password_confirm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>passwordConfirm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -837,7 +857,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -845,7 +865,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -853,15 +873,15 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>;security_question:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>;securityQuestion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -869,15 +889,15 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>;security_answer:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>;securityAnswer:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -885,26 +905,27 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>;captcha_value:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>验证码;to_url:成功后跳转页面_x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>;captchaValue:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">验证码;toUrl:成功后跳转页面_x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -912,7 +933,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -920,11 +941,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>),成功后跳转注册前页面_x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">),成功后跳转注册前页面_x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -935,7 +957,7 @@
     <t>首页列出信息</t>
   </si>
   <si>
-    <t>nickname:String;shop_item_number:int;catalog:二维数组（一个含有名字(name)和简介(desc)的类）;recommend_item:一维数组（商品ID（item_id),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picture_path) )；new_book:一维数组（类与recommend_item相同）；hot_book:一维数组（类与recommend_item相同）</t>
+    <t>nickname:String;shopItemNumber:int;catalog:二维数组（一个含有名字(name)和简介(desc)的类）;recommendItem:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) )；newBook:一维数组（类与recommendItem相同）；hotBook:一维数组（类与recommendItem相同）</t>
   </si>
   <si>
     <t>item_list</t>
@@ -944,10 +966,10 @@
     <t>列出搜索商品</t>
   </si>
   <si>
-    <t>book_name:string;item_name:publisher:class;publish_time;version;search_page(页数);binding;booksize;price;discount(待定）;page（第几页)</t>
-  </si>
-  <si>
-    <t>catalog:一维数组（去除重复）；items:一维数组（商品ID（item_id),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picture_path) ,出版日期(publish_time), 出版社(publisher),作者(author),用户评分(score),市场价（market_price))</t>
+    <t>bookName:string;itemName:publisher:class;publishTime;version;searchPage(页数);binding;booksize;price;discount(待定）;page（第几页)</t>
+  </si>
+  <si>
+    <t>catalog:一维数组（去除重复）；items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(score),市场价（marketPrice))</t>
   </si>
   <si>
     <t>order_list</t>
@@ -959,7 +981,7 @@
     <t>time:索引时间(0:所有，1：近一个月，2：近三个月，3：近一年），order_state:订单状态(0：未指定，1：已下单，2：已审核，3：交易成功，4：交易失败）,page:分页</t>
   </si>
   <si>
-    <t>order_list:一维数组（一个含有订单号(order_id)，收货人(receiver)，下单时间(order_time)，订单状态（order_status字符串),订单总价(total_price)的类)</t>
+    <t>orderList:一维数组（一个含有订单号(orderId)，收货人(receiver)，下单时间(orderTime)，订单状态（orderStatus字符串),订单总价(totalPrice)的类)</t>
   </si>
   <si>
     <t>order_detail</t>
@@ -968,10 +990,10 @@
     <t>订单详情</t>
   </si>
   <si>
-    <t>order_id:int</t>
-  </si>
-  <si>
-    <t>order_id:订单号；用户名(username);下单时间(order_time字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliver_way送货方式）；收货人(receiver);收货人地址(receiver_address),订单状态(order_status),收货人手机(receiver_mobile),收货人电话(receiver_phone),items:一维数组(商品ID,</t>
+    <t>orderId:int</t>
+  </si>
+  <si>
+    <t>orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组(商品ID,</t>
   </si>
   <si>
     <t>order_edit</t>
@@ -980,10 +1002,10 @@
     <t>订单修改</t>
   </si>
   <si>
-    <t>order_id:订单号</t>
-  </si>
-  <si>
-    <t>用户名(username);下单时间(order_time字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliver_way送货方式）；收货人(receiver);收货人地址(receiver_address),订单状态(order_status),收货人手机(receiver_mobile),收货人电话(receiver_phone),items:一维数组(商品ID,</t>
+    <t>orderId:订单号</t>
+  </si>
+  <si>
+    <t>用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组(商品ID,</t>
   </si>
   <si>
     <t>order_update</t>
@@ -994,15 +1016,15 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>order_id:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>orderId:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1010,15 +1032,15 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>address_id:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>addressId:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1026,7 +1048,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1034,7 +1056,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1042,7 +1064,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1050,7 +1072,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1058,15 +1080,15 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>receiver_name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>receiverName:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1074,15 +1096,15 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>level1_name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>level1Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1090,15 +1112,15 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>level2_name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>level2Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1106,15 +1128,15 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>;level3_name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>;level3Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1122,15 +1144,15 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>address_detail:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>addressDetail:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1138,7 +1160,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1146,7 +1168,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1154,15 +1176,15 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>phone_number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>phoneNumber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1170,15 +1192,15 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>mobile_number:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>mobileNumber:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1186,15 +1208,15 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>;item_id_array:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>;itemIdArray:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1202,7 +1224,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1210,7 +1232,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1218,15 +1240,15 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>item_value_array:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>itemValueArray:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1234,7 +1256,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1242,11 +1264,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的时候加回去））_x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的时候加回去））_x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1271,15 +1294,15 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>address_id:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>addressId:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1287,7 +1310,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1295,7 +1318,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1303,7 +1326,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1311,7 +1334,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1319,15 +1342,15 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>receiver_name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>receiverName:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1335,15 +1358,15 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>level1_name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>level1Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1351,15 +1374,15 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>level2_name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>level2Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1367,15 +1390,15 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>;level3_name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>;level3Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1383,15 +1406,15 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>address_detail:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>addressDetail:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1399,7 +1422,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1407,7 +1430,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1415,15 +1438,15 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>phone_number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>phoneNumber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1431,15 +1454,15 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>mobile_number:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>mobileNumber:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1447,15 +1470,15 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>;item_id_array:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>;itemIdArray:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1463,7 +1486,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1471,7 +1494,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1479,24 +1502,25 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>item_value_array:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>值数组;score:使用的积分_x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>itemValueArray:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">值数组;score:使用的积分_x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>order_id:订单号；用户名(username);下单时间(order_time字符串);订单金额(price)；跳转下单成功。</t>
+    <t>orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；跳转下单成功。</t>
   </si>
   <si>
     <t>favorite</t>
@@ -1505,7 +1529,7 @@
     <t>进入收藏夹</t>
   </si>
   <si>
-    <t>items:一维数组（商品ID（item_id),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picture_path) ,出版日期(publish_time), 出版社(publisher),作者(author),用户评分(score),市场价（market_price))</t>
+    <t>items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(score),市场价（marketPrice))</t>
   </si>
   <si>
     <t>address</t>
@@ -1514,7 +1538,7 @@
     <t>地址簿地址</t>
   </si>
   <si>
-    <t>address_list:一维的数组（地址的字符串address，地址的ID ）,level1_districts:一维数组（包含一个地区id(id),地区名字(name))</t>
+    <t>addressList:一维的数组（地址的字符串address，地址的ID ）,level1Districts:一维数组（包含一个地区id(id),地区名字(name))</t>
   </si>
   <si>
     <t>submit_address</t>
@@ -1523,7 +1547,7 @@
     <t>添加地址</t>
   </si>
   <si>
-    <t>姓名name ，省份 district_level1,城市 district_level2 ,地区 district_level3 ，邮政编码 zipcode ,电话号码 phone_num ,手机号码mobile_num</t>
+    <t>姓名name ，省份 districtLevel1,城市 districtLevel2 ,地区 districtLevel3 ，邮政编码 zipcode ,电话号码 phoneNum ,手机号码mobileNum</t>
   </si>
   <si>
     <t>跳转到地址簿</t>
@@ -1538,7 +1562,7 @@
     <t>address_id;地址ID</t>
   </si>
   <si>
-    <t>姓名name ，省份 district_level1,城市 district_level2 ,地区 district_level3 ，邮政编码 zipcode ,电话号码 phone_num ,手机号码mobile_num,address_id:地址ID</t>
+    <t>姓名name ，省份 districtLevel1,城市 districtLevel2 ,地区 districtLevel3 ，邮政编码 zipcode ,电话号码 phoneNum ,手机号码mobileNum,addressId:地址ID</t>
   </si>
   <si>
     <t>address_edit_submit</t>
@@ -1562,10 +1586,10 @@
     <t>商品详情</t>
   </si>
   <si>
-    <t xml:space="preserve">itme_id(商品ID） </t>
-  </si>
-  <si>
-    <t>ISBN ，item_name(书名）， item_author（作者姓名） ,item_publishing（出版社） ,item_publishing_time（出版时间） , item_edition（版次）， item_page（页数） ,item_binding（装帧） , item_format（开本） ,item_price（价格） , itme_publishing_price（出版价格） , item_discount（折扣） , item_stock（库存） ,item_book_describe （书籍描述）,item_book_classify （书籍分类）, item_user_discuss（用户评论），item_comprehensive_rate（综合评级）,comment_list(一维数组包含用户名(username),级别(rating),内容(content),时间(date))</t>
+    <t xml:space="preserve">itmeId(商品ID） </t>
+  </si>
+  <si>
+    <t>ISBN ，itemName(书名）， itemAuthor（作者姓名） ,itemPublishing（出版社） ,itemPublishingTime（出版时间） , itemEdition（版次）， itemPage（页数） ,itemBinding（装帧） , itemFormat（开本） ,itemPrice（价格） , itmePublishingPrice（出版价格） , itemDiscount（折扣） , itemStock（库存） ,itemBookDescribe （书籍描述）,itemBookClassify （书籍分类）, itemUserDiscuss（用户评论），itemComprehensiveRate（综合评级）,commentList(一维数组包含用户名(username),级别(rating),内容(content),时间(date))</t>
   </si>
   <si>
     <t>cart</t>
@@ -1574,7 +1598,7 @@
     <t>购物车</t>
   </si>
   <si>
-    <t>items:一维数组（一个包含商品ID（item_id),商品名字（item_name),商品单价(price),商品小计(item_total_price),商品数量（item_number),节省金额(save_price)),总价total_price</t>
+    <t>items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber),节省金额(savePrice)),总价totalPrice</t>
   </si>
   <si>
     <t>quick_search</t>
@@ -1595,7 +1619,7 @@
     <t>进入用户信息</t>
   </si>
   <si>
-    <t>userName:用户名，nickName：昵称;total_score积分;order_list:一维数组包含（订单号(order_id),订单金额(order_price),下单时间(order_time),获得积分（score))</t>
+    <t>userName:用户名，nickName：昵称;totalScore积分;orderList:一维数组包含（订单号(orderId),订单金额(orderPrice),下单时间(orderTime),获得积分（score))</t>
   </si>
   <si>
     <t>接口</t>
@@ -1607,6 +1631,9 @@
     <t>返回</t>
   </si>
   <si>
+    <t>DaoUser.validateUser</t>
+  </si>
+  <si>
     <t>验证用户名与密码是否匹配</t>
   </si>
   <si>
@@ -1616,6 +1643,9 @@
     <t>Boolean(表示用户名和密码匹配与否）</t>
   </si>
   <si>
+    <t>DaoUser.validateUserName</t>
+  </si>
+  <si>
     <t>验证用户名是否已经存在</t>
   </si>
   <si>
@@ -1625,6 +1655,9 @@
     <t>Boolean(表示用户名是否已经存在）</t>
   </si>
   <si>
+    <t>DaoUser.addUser</t>
+  </si>
+  <si>
     <t>添加用户</t>
   </si>
   <si>
@@ -1634,6 +1667,9 @@
     <t>Boolean(表示用户是否添加成功）</t>
   </si>
   <si>
+    <t>DaoUser.updateNickname</t>
+  </si>
+  <si>
     <t>修改昵称</t>
   </si>
   <si>
@@ -1643,6 +1679,9 @@
     <t>Boolean(表示昵称是否修改成功）</t>
   </si>
   <si>
+    <t>DaoUser.updatePassword</t>
+  </si>
+  <si>
     <t>修改密码</t>
   </si>
   <si>
@@ -1652,12 +1691,18 @@
     <t>Boolean(表示密码修改是否成功）</t>
   </si>
   <si>
+    <t>DaoUser.getScore</t>
+  </si>
+  <si>
     <t>获得指定用户积分</t>
   </si>
   <si>
     <t>int用户积分</t>
   </si>
   <si>
+    <t>DaoDistrict.getDistrict</t>
+  </si>
+  <si>
     <t>返回地址</t>
   </si>
   <si>
@@ -1667,6 +1712,9 @@
     <t>List&lt;BeanDistrict&gt;地址</t>
   </si>
   <si>
+    <t>DaoUserAddress.addAddress</t>
+  </si>
+  <si>
     <t>地址簿添加地址</t>
   </si>
   <si>
@@ -1676,39 +1724,69 @@
     <t>Boolean(表示成功与否）</t>
   </si>
   <si>
+    <t>DaoUserAddress.deleteAddress</t>
+  </si>
+  <si>
     <t>地址簿删除地址</t>
   </si>
   <si>
     <t>addressID:int</t>
   </si>
   <si>
+    <t>DaoUserAddress.modifyAddress</t>
+  </si>
+  <si>
     <t>地址簿修改地址</t>
   </si>
   <si>
+    <t>DaoUserAddress.getAddressNumber</t>
+  </si>
+  <si>
     <t>获得地址簿的地址项数目</t>
   </si>
   <si>
+    <t>username:String</t>
+  </si>
+  <si>
     <t>int 地址数</t>
   </si>
   <si>
+    <t>DaoUserAddress.listAddress</t>
+  </si>
+  <si>
     <t>列出地址簿的地址</t>
   </si>
   <si>
     <t>List&lt;BeanAddress&gt;</t>
   </si>
   <si>
+    <t>DaoUserAddress.getAddressDetail</t>
+  </si>
+  <si>
     <t>获得指定地址详情</t>
   </si>
   <si>
+    <t>userName:String;addressID:地址ID</t>
+  </si>
+  <si>
     <t>BeanAddress</t>
   </si>
   <si>
+    <t>DaoOrder.search</t>
+  </si>
+  <si>
     <t>搜索订单</t>
   </si>
   <si>
+    <t>req:OrderRequire;userName:String</t>
+  </si>
+  <si>
     <t>List&lt;Order&gt;(订单列表,Order中的Detail为NULL）</t>
   </si>
   <si>
+    <t>DaoOrder.getOrderDetail</t>
+  </si>
+  <si>
     <t>获得订单详情</t>
   </si>
   <si>
@@ -1718,27 +1796,42 @@
     <t>Order(内有Order的detail)</t>
   </si>
   <si>
+    <t>DaoOrder.getRowNumber</t>
+  </si>
+  <si>
     <t>获得符合搜索条件的订单总数</t>
   </si>
   <si>
     <t>int符合条件的订单总数</t>
   </si>
   <si>
+    <t>DaoOrder.addOrder</t>
+  </si>
+  <si>
     <t>userName:Stirng, order:Order</t>
   </si>
   <si>
+    <t>DaoOrder.updateOrder</t>
+  </si>
+  <si>
     <t>修改订单</t>
   </si>
   <si>
     <t>userName:String,order:Order</t>
   </si>
   <si>
+    <t>DaoOrder.deleteOrder</t>
+  </si>
+  <si>
     <t>删除订单</t>
   </si>
   <si>
     <t>userName:String,orderID:int</t>
   </si>
   <si>
+    <t>DaoBook.getInventory</t>
+  </si>
+  <si>
     <t>获得库存数</t>
   </si>
   <si>
@@ -1748,244 +1841,171 @@
     <t>int库存数</t>
   </si>
   <si>
+    <t>DaoBook.addBook</t>
+  </si>
+  <si>
     <t>添加书</t>
   </si>
   <si>
     <t>book:BeanBook</t>
   </si>
   <si>
+    <t>DaoBook.setInventory</t>
+  </si>
+  <si>
     <t>设置对应书的库存</t>
   </si>
   <si>
     <t>bookID:int; inventory:int(设置的库存数）</t>
   </si>
   <si>
+    <t>DaoBook.getDetail</t>
+  </si>
+  <si>
     <t>获得书籍详情</t>
   </si>
   <si>
     <t>book:BeanBook(书籍详情类）</t>
   </si>
   <si>
+    <t>DaoBook.search</t>
+  </si>
+  <si>
     <t>搜索书籍</t>
   </si>
   <si>
+    <t>req:BookRequire</t>
+  </si>
+  <si>
     <t>List&lt;BeanBook&gt;</t>
   </si>
   <si>
+    <t>DaoBook.getSearchRowNumber</t>
+  </si>
+  <si>
     <t>获得符合搜索条件的书籍条目总数</t>
   </si>
   <si>
     <t>int书籍搜索结果的条数</t>
   </si>
   <si>
+    <t>DaoBook.getCommentRowNumber</t>
+  </si>
+  <si>
     <t>获得指定书籍的评论总数</t>
   </si>
   <si>
     <t>int书籍评论总数</t>
   </si>
   <si>
+    <t>DaoBook.getComment</t>
+  </si>
+  <si>
     <t>获得书籍评论</t>
   </si>
   <si>
+    <t>bookID:int;page:int;lines:int</t>
+  </si>
+  <si>
     <t>List&lt;BeanComment&gt;</t>
   </si>
   <si>
+    <t>DaoBook.publishComment</t>
+  </si>
+  <si>
     <t>发表指定书籍的评论</t>
   </si>
   <si>
     <t>bookID:int;comment:BeanComment</t>
   </si>
   <si>
+    <t>DaoCart.addBook</t>
+  </si>
+  <si>
     <t>往指定用户的购物车中添加书籍记录</t>
   </si>
   <si>
     <t>userName:String;bookID:int;bookNumber:int</t>
   </si>
   <si>
+    <t>DaoCart.deleteBook</t>
+  </si>
+  <si>
     <t>从指定用户的购物车中删除书籍记录</t>
   </si>
   <si>
+    <t>userName:String;bookID:int</t>
+  </si>
+  <si>
+    <t>DaoCart.modifyBook</t>
+  </si>
+  <si>
     <t>修改指定用户的购物车修改书籍数量</t>
   </si>
   <si>
+    <t>DaoCart.clean</t>
+  </si>
+  <si>
     <t>清除指定用户的购物车数据库数据</t>
   </si>
   <si>
     <t>userName:String;</t>
   </si>
   <si>
+    <t>DaoCatalog.getCatalog</t>
+  </si>
+  <si>
     <t>获得所有目录</t>
   </si>
   <si>
+    <t>List&lt;BeanCatalog&gt;(书籍目录）</t>
+  </si>
+  <si>
+    <t>DaoFavorityFolder.add</t>
+  </si>
+  <si>
     <t>添加书籍进入收藏夹</t>
   </si>
   <si>
     <t>userName:String;bookID:int;</t>
   </si>
   <si>
+    <t>DaoFavorityFolder.delete</t>
+  </si>
+  <si>
     <t>删除指定用户的收藏夹书籍</t>
   </si>
   <si>
     <t>userName:String;bookIDList:List&lt;Integer&gt;</t>
-  </si>
-  <si>
-    <t>DaoUser.validateUser</t>
-  </si>
-  <si>
-    <t>DaoUser.validateUserName</t>
-  </si>
-  <si>
-    <t>DaoUser.addUser</t>
-  </si>
-  <si>
-    <t>DaoUser.updateNickname</t>
-  </si>
-  <si>
-    <t>DaoUser.updatePassword</t>
-  </si>
-  <si>
-    <t>DaoUser.getScore</t>
-  </si>
-  <si>
-    <t>DaoDistrict.getDistrict</t>
-  </si>
-  <si>
-    <t>DaoUserAddress.addAddress</t>
-  </si>
-  <si>
-    <t>DaoUserAddress.deleteAddress</t>
-  </si>
-  <si>
-    <t>DaoUserAddress.modifyAddress</t>
-  </si>
-  <si>
-    <t>DaoUserAddress.getAddressNumber</t>
-  </si>
-  <si>
-    <t>DaoUserAddress.listAddress</t>
-  </si>
-  <si>
-    <t>DaoUserAddress.getAddressDetail</t>
-  </si>
-  <si>
-    <t>DaoOrder.search</t>
-  </si>
-  <si>
-    <t>DaoOrder.getOrderDetail</t>
-  </si>
-  <si>
-    <t>DaoOrder.getRowNumber</t>
-  </si>
-  <si>
-    <t>DaoOrder.addOrder</t>
-  </si>
-  <si>
-    <t>DaoOrder.updateOrder</t>
-  </si>
-  <si>
-    <t>DaoOrder.deleteOrder</t>
-  </si>
-  <si>
-    <t>DaoBook.getInventory</t>
-  </si>
-  <si>
-    <t>DaoBook.addBook</t>
-  </si>
-  <si>
-    <t>DaoBook.setInventory</t>
-  </si>
-  <si>
-    <t>DaoBook.getDetail</t>
-  </si>
-  <si>
-    <t>DaoBook.search</t>
-  </si>
-  <si>
-    <t>DaoBook.getSearchRowNumber</t>
-  </si>
-  <si>
-    <t>DaoBook.getCommentRowNumber</t>
-  </si>
-  <si>
-    <t>DaoBook.getComment</t>
-  </si>
-  <si>
-    <t>DaoBook.publishComment</t>
-  </si>
-  <si>
-    <t>DaoCart.addBook</t>
-  </si>
-  <si>
-    <t>DaoCart.deleteBook</t>
-  </si>
-  <si>
-    <t>DaoCart.modifyBook</t>
-  </si>
-  <si>
-    <t>DaoCart.clean</t>
-  </si>
-  <si>
-    <t>DaoCatalog.getCatalog</t>
-  </si>
-  <si>
-    <t>DaoFavorityFolder.add</t>
-  </si>
-  <si>
-    <t>DaoFavorityFolder.delete</t>
-  </si>
-  <si>
-    <t>username:String</t>
-  </si>
-  <si>
-    <t>userName:String;addressID:地址ID</t>
-  </si>
-  <si>
-    <t>req:OrderRequire;userName:String</t>
-  </si>
-  <si>
-    <t>req:BookRequire</t>
-  </si>
-  <si>
-    <t>bookID:int;page:int;lines:int</t>
-  </si>
-  <si>
-    <t>userName:String;bookID:int</t>
-  </si>
-  <si>
-    <t>List&lt;BeanCatalog&gt;(书籍目录）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0%"/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * -#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="3">
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
+      <b/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Lucida Sans"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2005,354 +2025,65 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
+    <xf numFmtId="177" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
+    <xf numFmtId="178" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
+    <xf numFmtId="179" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
+    <xf numFmtId="180" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="百分比" xfId="1"/>
-    <cellStyle name="货币" xfId="2"/>
-    <cellStyle name="货币[0]" xfId="3"/>
-    <cellStyle name="千位分隔" xfId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScaleNormal="100" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="48.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="107" style="1" customWidth="1"/>
-    <col min="4" max="4" width="70" style="1" customWidth="1"/>
-    <col min="5" max="256" width="10" style="1" customWidth="1"/>
+    <col min="1" max="1" width="48.875" customWidth="1" style="1"/>
+    <col min="2" max="2" width="52.25" customWidth="1" style="1"/>
+    <col min="3" max="3" width="107.0" customWidth="1" style="1"/>
+    <col min="4" max="4" width="70.0" customWidth="1" style="1"/>
+    <col min="5" max="256" width="10.0" customWidth="1" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5">
+    <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2366,7 +2097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5">
+    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2380,21 +2111,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5">
+    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -2408,49 +2139,49 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5">
+    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -2460,39 +2191,39 @@
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15">
+    <row r="10" spans="1:4" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="11" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -2506,21 +2237,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5">
+    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5">
+    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -2534,35 +2265,35 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15">
+    <row r="16" spans="1:4" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
@@ -2576,21 +2307,21 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5">
+    <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>65</v>
       </c>
@@ -2606,29 +2337,29 @@
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="1.2477606300293931" right="1.2477606300293931" top="0.99987495602585208" bottom="0.99987495602585208" header="0.49993747801292604" footer="0.49993747801292604"/>
+  <pageMargins left="1.247760630029393" right="1.247760630029393" top="0.9998749560258521" bottom="0.9998749560258521" header="0.49993747801292604" footer="0.49993747801292604"/>
   <pageSetup paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="72.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="79.75" style="1" customWidth="1"/>
-    <col min="5" max="256" width="10" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.25" customWidth="1" style="1"/>
+    <col min="2" max="2" width="34.625" customWidth="1" style="1"/>
+    <col min="3" max="3" width="72.625" customWidth="1" style="1"/>
+    <col min="4" max="4" width="79.75" customWidth="1" style="1"/>
+    <col min="5" max="256" width="10.0" customWidth="1" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5">
+    <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2642,7 +2373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
@@ -2656,7 +2387,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
@@ -2670,7 +2401,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5">
+    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>77</v>
       </c>
@@ -2680,25 +2411,25 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5">
+    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="11" t="s">
         <v>82</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5">
+    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>84</v>
       </c>
@@ -2708,11 +2439,11 @@
       <c r="C6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5">
+    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
@@ -2722,11 +2453,11 @@
       <c r="C7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5">
+    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>92</v>
       </c>
@@ -2736,25 +2467,25 @@
       <c r="C8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="11" t="s">
         <v>98</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5">
+    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>100</v>
       </c>
@@ -2768,7 +2499,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>103</v>
       </c>
@@ -2778,11 +2509,11 @@
       <c r="C11" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5">
+    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>107</v>
       </c>
@@ -2796,7 +2527,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5">
+    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>110</v>
       </c>
@@ -2806,25 +2537,25 @@
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5">
+    <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="11" t="s">
         <v>115</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5">
+    <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>117</v>
       </c>
@@ -2834,25 +2565,25 @@
       <c r="C15" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5">
+    <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="11" t="s">
         <v>120</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5">
+    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>123</v>
       </c>
@@ -2866,7 +2597,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5">
+    <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>126</v>
       </c>
@@ -2876,11 +2607,11 @@
       <c r="C18" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="11" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.5">
+    <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>130</v>
       </c>
@@ -2890,11 +2621,11 @@
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5">
+    <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>133</v>
       </c>
@@ -2908,45 +2639,45 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="11" t="s">
         <v>139</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="1.2477606300293931" right="1.2477606300293931" top="0.99987495602585208" bottom="0.99987495602585208" header="0.49993747801292604" footer="0.49993747801292604"/>
+  <pageMargins left="1.247760630029393" right="1.247760630029393" top="0.9998749560258521" bottom="0.9998749560258521" header="0.49993747801292604" footer="0.49993747801292604"/>
   <pageSetup paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="37.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.75" style="1" customWidth="1"/>
-    <col min="5" max="256" width="10" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.625" customWidth="1" style="1"/>
+    <col min="2" max="2" width="43.625" customWidth="1" style="1"/>
+    <col min="3" max="3" width="49.625" customWidth="1" style="1"/>
+    <col min="4" max="4" width="24.75" customWidth="1" style="1"/>
+    <col min="5" max="256" width="10.0" customWidth="1" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>140</v>
       </c>
@@ -2960,500 +2691,499 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>217</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>218</v>
+        <v>147</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>219</v>
+        <v>151</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>226</v>
+        <v>177</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>252</v>
+        <v>181</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>253</v>
+        <v>188</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
+    </row>
+    <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
+      <c r="D31" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4"/>
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="1.2477606300293931" right="1.2477606300293931" top="0.99987495602585208" bottom="0.99987495602585208" header="0.49993747801292604" footer="0.49993747801292604"/>
+  <pageMargins left="1.247760630029393" right="1.247760630029393" top="0.9998749560258521" bottom="0.9998749560258521" header="0.49993747801292604" footer="0.49993747801292604"/>
   <pageSetup paperSize="9"/>
 </worksheet>
 </file>
--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="46" windowWidth="13896" windowHeight="6427" activeTab="1" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="13881" windowHeight="6411" activeTab="1" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
@@ -775,7 +775,7 @@
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">验证码；toUrl:成功后跳转页面_x000D_+      <t xml:space="preserve">验证码；toURL:成功后跳转页面_x000D_ </t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -917,7 +917,7 @@
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">验证码;toUrl:成功后跳转页面_x000D_+      <t xml:space="preserve">验证码;toURL:成功后跳转页面_x000D_ </t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -978,7 +978,7 @@
     <t>列出订单</t>
   </si>
   <si>
-    <t>time:索引时间(0:所有，1：近一个月，2：近三个月，3：近一年），order_state:订单状态(0：未指定，1：已下单，2：已审核，3：交易成功，4：交易失败）,page:分页</t>
+    <t>time:索引时间(0:所有，1：近一个月，2：近三个月，3：近一年），orderState:订单状态(0：未指定，1：已下单，2：已审核，3：交易成功，4：交易失败）,page:分页</t>
   </si>
   <si>
     <t>orderList:一维数组（一个含有订单号(orderId)，收货人(receiver)，下单时间(orderTime)，订单状态（orderStatus字符串),订单总价(totalPrice)的类)</t>
@@ -1559,7 +1559,7 @@
     <t>进入地址修改</t>
   </si>
   <si>
-    <t>address_id;地址ID</t>
+    <t>addressId;地址ID</t>
   </si>
   <si>
     <t>姓名name ，省份 districtLevel1,城市 districtLevel2 ,地区 districtLevel3 ，邮政编码 zipcode ,电话号码 phoneNum ,手机号码mobileNum,addressId:地址ID</t>
@@ -2043,14 +2043,14 @@
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
     <xf numFmtId="177" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
     <xf numFmtId="178" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
     <xf numFmtId="179" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
     <xf numFmtId="180" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2118,10 +2118,10 @@
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2160,7 +2160,7 @@
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -2174,7 +2174,7 @@
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -2191,7 +2191,7 @@
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
       <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2216,7 +2216,7 @@
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2244,7 +2244,7 @@
       <c r="B12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -2272,7 +2272,7 @@
       <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2286,7 +2286,7 @@
       <c r="B15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2347,7 +2347,7 @@
   <dimension ref="A1:IV21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2394,7 +2394,7 @@
       <c r="B3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="11" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -2411,7 +2411,7 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2422,7 +2422,7 @@
       <c r="B5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2436,10 +2436,10 @@
       <c r="B6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
       <c r="C7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="1" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       <c r="C8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2478,7 +2478,7 @@
       <c r="B9" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2509,7 +2509,7 @@
       <c r="C11" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="1" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2548,7 +2548,7 @@
       <c r="B14" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2565,7 +2565,7 @@
       <c r="C15" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="1" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2576,7 +2576,7 @@
       <c r="B16" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -2607,7 +2607,7 @@
       <c r="C18" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="1" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2621,7 +2621,7 @@
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="1" t="s">
         <v>139</v>
       </c>
     </row>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="13881" windowHeight="6411" activeTab="1" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="13866" windowHeight="6396" activeTab="1" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
@@ -969,7 +969,7 @@
     <t>bookName:string;itemName:publisher:class;publishTime;version;searchPage(页数);binding;booksize;price;discount(待定）;page（第几页)</t>
   </si>
   <si>
-    <t>catalog:一维数组（去除重复）；items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(score),市场价（marketPrice))</t>
+    <t>catalog:二维数组（一个含有名字(name)和简介(desc)的类）；items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(score),市场价（marketPrice))</t>
   </si>
   <si>
     <t>order_list</t>
@@ -981,7 +981,7 @@
     <t>time:索引时间(0:所有，1：近一个月，2：近三个月，3：近一年），orderState:订单状态(0：未指定，1：已下单，2：已审核，3：交易成功，4：交易失败）,page:分页</t>
   </si>
   <si>
-    <t>orderList:一维数组（一个含有订单号(orderId)，收货人(receiver)，下单时间(orderTime)，订单状态（orderStatus字符串),订单总价(totalPrice)的类)</t>
+    <t>orderList:一维数组（一个含有订单号(orderId)，收货人(receiver)，下单时间(orderTime)，订单状态（orderStatus字符串),订单总价(totalPrice)的类),catalog:二维数组（一个含有名字(name)和简介(desc)的类）</t>
   </si>
   <si>
     <t>order_detail</t>
@@ -993,7 +993,7 @@
     <t>orderId:int</t>
   </si>
   <si>
-    <t>orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组(商品ID,</t>
+    <t>catalog:二维数组（一个含有名字(name)和简介(desc)的类）;orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber))</t>
   </si>
   <si>
     <t>order_edit</t>
@@ -1005,7 +1005,7 @@
     <t>orderId:订单号</t>
   </si>
   <si>
-    <t>用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组(商品ID,</t>
+    <t>catalog:二维数组（一个含有名字(name)和简介(desc)的类）;用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber))</t>
   </si>
   <si>
     <t>order_update</t>
@@ -1283,7 +1283,7 @@
     <t>下单</t>
   </si>
   <si>
-    <t>跳转到下单页面</t>
+    <t>catalog:二维数组（一个含有名字(name)和简介(desc)的类）;orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));跳转到下单页面</t>
   </si>
   <si>
     <t>order_submit</t>
@@ -2070,7 +2070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" topLeftCell="D1" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -2346,8 +2346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2394,7 +2394,7 @@
       <c r="B3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -2425,7 +2425,7 @@
       <c r="C5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="11" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       <c r="B6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -2467,7 +2467,7 @@
       <c r="C8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="11" t="s">
         <v>95</v>
       </c>
     </row>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -2,14 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="13866" windowHeight="6396" activeTab="1" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="13860" windowHeight="6330" tabRatio="618" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
-    <sheet name="default" sheetId="2" r:id="rId3"/>
-    <sheet name="LRInterface" sheetId="3" r:id="rId4"/>
+    <sheet name="PLInterface_function" sheetId="1" r:id="rId1"/>
+    <sheet name="default" sheetId="2" r:id="rId2"/>
+    <sheet name="LRInterface" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -48,7 +50,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -56,19 +58,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">验证码-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证码_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -76,12 +77,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">表示验证码是否正确）_x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示验证码是否正确）_x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -91,7 +91,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -99,7 +99,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -107,19 +107,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">信息_x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息_x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -127,7 +126,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -135,7 +134,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -143,7 +142,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -151,7 +150,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -159,12 +158,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">错误次数_x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错误次数_x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -177,7 +175,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -185,19 +183,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">用户名-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户名_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -205,12 +202,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">表示用户名是否已经被使用）_x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示用户名是否已经被使用）_x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -220,7 +216,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -228,7 +224,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -236,19 +232,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">的修改_x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的修改_x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -256,19 +251,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">昵称-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>昵称_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -276,7 +270,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -284,7 +278,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -292,12 +286,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">修改成功与否）_x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改成功与否）_x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -307,7 +300,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -315,7 +308,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -323,19 +316,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">的修改_x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的修改_x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -343,7 +335,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -351,7 +343,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -359,7 +351,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -367,7 +359,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -375,19 +367,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">新密码确认-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新密码确认_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -395,12 +386,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">表示密码修改成功与否）_x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示密码修改成功与否）_x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -413,7 +403,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -421,12 +411,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_x000D_-</t>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>_x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -439,7 +428,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -447,19 +436,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">上一级的地区id-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上一级的地区id_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -467,12 +455,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_x000D_-</t>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>_x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -485,7 +472,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -493,7 +480,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -501,19 +488,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ID-</t>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -521,12 +507,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">地址删除与否）_x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址删除与否）_x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -539,7 +524,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -547,7 +532,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -555,7 +540,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -563,7 +548,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -571,7 +556,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -579,19 +564,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">商品数量（总量）_x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品数量（总量）_x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -599,12 +583,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">表示库存是否足够）_x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示库存是否足够）_x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -665,7 +648,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -673,7 +656,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -681,7 +664,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -689,12 +672,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">json_x000D_-</t>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>json_x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -731,7 +713,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -739,7 +721,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -747,7 +729,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -755,7 +737,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -763,7 +745,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -771,19 +753,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">验证码；toURL:成功后跳转页面_x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证码；toURL:成功后跳转页面_x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -791,12 +772,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">表示登陆成功与否)，成功后跳转登陆前页面_x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示登陆成功与否)，成功后跳转登陆前页面_x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -809,7 +789,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -817,7 +797,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -825,7 +805,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -833,7 +813,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -841,7 +821,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -849,7 +829,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -857,7 +837,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -865,7 +845,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -873,7 +853,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -881,7 +861,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -889,7 +869,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -897,7 +877,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -905,7 +885,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -913,19 +893,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">验证码;toURL:成功后跳转页面_x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证码;toURL:成功后跳转页面_x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -933,7 +912,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -941,12 +920,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">),成功后跳转注册前页面_x000D_-</t>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>),成功后跳转注册前页面_x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1016,7 +994,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1024,7 +1002,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1032,7 +1010,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1040,7 +1018,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1048,7 +1026,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1056,7 +1034,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1064,7 +1042,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1072,7 +1050,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1080,7 +1058,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1088,7 +1066,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1096,7 +1074,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1104,7 +1082,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1112,7 +1090,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1120,7 +1098,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1128,7 +1106,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1136,7 +1114,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1144,7 +1122,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1152,7 +1130,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1160,7 +1138,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1168,7 +1146,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1176,7 +1154,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1184,7 +1162,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1192,7 +1170,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1200,7 +1178,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1208,7 +1186,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1216,7 +1194,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1224,7 +1202,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1232,7 +1210,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1240,7 +1218,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1248,7 +1226,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1256,7 +1234,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1264,12 +1242,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">的时候加回去））_x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的时候加回去））_x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1294,7 +1271,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1302,7 +1279,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1310,7 +1287,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1318,7 +1295,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1326,7 +1303,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1334,7 +1311,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1342,7 +1319,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1350,7 +1327,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1358,7 +1335,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1366,7 +1343,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1374,7 +1351,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1382,7 +1359,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1390,7 +1367,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1398,7 +1375,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1406,7 +1383,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1414,7 +1391,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1422,7 +1399,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1430,7 +1407,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1438,7 +1415,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1446,7 +1423,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1454,7 +1431,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1462,7 +1439,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1470,7 +1447,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1478,7 +1455,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1486,7 +1463,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1494,7 +1471,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1502,7 +1479,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1510,12 +1487,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">值数组;score:使用的积分_x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值数组;score:使用的积分_x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1983,27 +1959,31 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0%"/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * -#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="3">
+  <fonts count="5">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <b/>
+      <sz val="12"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
-      <b/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <name val="文泉驿正黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
@@ -2026,35 +2006,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
-    <xf numFmtId="177" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
-    <xf numFmtId="178" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
-    <xf numFmtId="179" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
-    <xf numFmtId="180" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2063,27 +2035,317 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="48.875" customWidth="1" style="1"/>
-    <col min="2" max="2" width="52.25" customWidth="1" style="1"/>
-    <col min="3" max="3" width="107.0" customWidth="1" style="1"/>
-    <col min="4" max="4" width="70.0" customWidth="1" style="1"/>
-    <col min="5" max="256" width="10.0" customWidth="1" style="1"/>
+    <col min="1" max="1" width="48.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="107" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70" style="1" customWidth="1"/>
+    <col min="5" max="256" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="16.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2097,7 +2359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2111,7 +2373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2125,7 +2387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -2139,7 +2401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -2153,7 +2415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -2167,7 +2429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,7 +2443,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -2195,7 +2457,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -2209,7 +2471,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -2223,7 +2485,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -2237,7 +2499,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="16.5" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -2251,7 +2513,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="16.5" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -2265,7 +2527,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="16.5" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
@@ -2279,7 +2541,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="16.5" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
@@ -2293,7 +2555,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
@@ -2307,7 +2569,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="16.5" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>62</v>
       </c>
@@ -2321,7 +2583,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="16.5" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>65</v>
       </c>
@@ -2337,29 +2599,29 @@
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="1.247760630029393" right="1.247760630029393" top="0.9998749560258521" bottom="0.9998749560258521" header="0.49993747801292604" footer="0.49993747801292604"/>
+  <pageMargins left="1.2477606300293931" right="1.2477606300293931" top="0.99987495602585208" bottom="0.99987495602585208" header="0.49993747801292604" footer="0.49993747801292604"/>
   <pageSetup paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.25" customWidth="1" style="1"/>
-    <col min="2" max="2" width="34.625" customWidth="1" style="1"/>
-    <col min="3" max="3" width="72.625" customWidth="1" style="1"/>
-    <col min="4" max="4" width="79.75" customWidth="1" style="1"/>
-    <col min="5" max="256" width="10.0" customWidth="1" style="1"/>
+    <col min="1" max="1" width="31.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="72.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="79.75" style="1" customWidth="1"/>
+    <col min="5" max="256" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="16.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2373,7 +2635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
@@ -2387,7 +2649,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
@@ -2401,7 +2663,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>77</v>
       </c>
@@ -2415,7 +2677,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>80</v>
       </c>
@@ -2425,11 +2687,11 @@
       <c r="C5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>84</v>
       </c>
@@ -2443,7 +2705,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="16.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
@@ -2457,7 +2719,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="16.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>92</v>
       </c>
@@ -2467,11 +2729,11 @@
       <c r="C8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>96</v>
       </c>
@@ -2485,7 +2747,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="16.5" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>100</v>
       </c>
@@ -2499,7 +2761,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>103</v>
       </c>
@@ -2513,7 +2775,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="16.5" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>107</v>
       </c>
@@ -2527,7 +2789,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="16.5" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>110</v>
       </c>
@@ -2541,7 +2803,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="16.5" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>113</v>
       </c>
@@ -2555,7 +2817,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="16.5" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>117</v>
       </c>
@@ -2569,7 +2831,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="16.5" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>121</v>
       </c>
@@ -2583,7 +2845,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="16.5" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>123</v>
       </c>
@@ -2597,7 +2859,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="16.5" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>126</v>
       </c>
@@ -2611,7 +2873,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="16.5" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>130</v>
       </c>
@@ -2625,7 +2887,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="16.5" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>133</v>
       </c>
@@ -2639,7 +2901,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="16.5" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>137</v>
       </c>
@@ -2655,29 +2917,29 @@
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="1.247760630029393" right="1.247760630029393" top="0.9998749560258521" bottom="0.9998749560258521" header="0.49993747801292604" footer="0.49993747801292604"/>
+  <pageMargins left="1.2477606300293931" right="1.2477606300293931" top="0.99987495602585208" bottom="0.99987495602585208" header="0.49993747801292604" footer="0.49993747801292604"/>
   <pageSetup paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="37.625" customWidth="1" style="1"/>
-    <col min="2" max="2" width="43.625" customWidth="1" style="1"/>
-    <col min="3" max="3" width="49.625" customWidth="1" style="1"/>
-    <col min="4" max="4" width="24.75" customWidth="1" style="1"/>
-    <col min="5" max="256" width="10.0" customWidth="1" style="1"/>
+    <col min="1" max="1" width="37.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.75" style="1" customWidth="1"/>
+    <col min="5" max="256" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>140</v>
       </c>
@@ -2691,8 +2953,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2705,8 +2967,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2719,8 +2981,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2733,8 +2995,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2747,8 +3009,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>159</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2761,8 +3023,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>163</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2775,7 +3037,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="16.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>166</v>
       </c>
@@ -2789,7 +3051,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="16.5" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>170</v>
       </c>
@@ -2803,7 +3065,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="16.5" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>174</v>
       </c>
@@ -2817,7 +3079,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="16.5" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>177</v>
       </c>
@@ -2831,7 +3093,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="16.5" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>179</v>
       </c>
@@ -2845,7 +3107,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="16.5" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>183</v>
       </c>
@@ -2859,7 +3121,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="16.5" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>186</v>
       </c>
@@ -2873,7 +3135,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="16.5" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>190</v>
       </c>
@@ -2887,7 +3149,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="16.5" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>194</v>
       </c>
@@ -2901,7 +3163,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="16.5" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>198</v>
       </c>
@@ -2915,7 +3177,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="16.5" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>201</v>
       </c>
@@ -2929,7 +3191,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="16.5" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>203</v>
       </c>
@@ -2943,7 +3205,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="16.5" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>206</v>
       </c>
@@ -2957,8 +3219,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>209</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2971,8 +3233,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A22" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2985,8 +3247,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>216</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2999,8 +3261,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A24" s="5" t="s">
         <v>219</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3013,7 +3275,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="16.5" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>222</v>
       </c>
@@ -3027,7 +3289,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="16.5" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>226</v>
       </c>
@@ -3041,8 +3303,8 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A27" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3055,7 +3317,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="16.5" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>232</v>
       </c>
@@ -3069,7 +3331,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="16.5" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>236</v>
       </c>
@@ -3083,7 +3345,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="16.5" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>239</v>
       </c>
@@ -3097,7 +3359,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="16.5" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>242</v>
       </c>
@@ -3111,7 +3373,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="16.5" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>245</v>
       </c>
@@ -3125,7 +3387,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="16.5" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>247</v>
       </c>
@@ -3139,7 +3401,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="16.5" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>250</v>
       </c>
@@ -3153,7 +3415,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="16.5" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>253</v>
       </c>
@@ -3167,7 +3429,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="16.5" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>256</v>
       </c>
@@ -3183,7 +3445,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="1.247760630029393" right="1.247760630029393" top="0.9998749560258521" bottom="0.9998749560258521" header="0.49993747801292604" footer="0.49993747801292604"/>
-  <pageSetup paperSize="9"/>
+  <pageMargins left="1.2477606300293931" right="1.2477606300293931" top="0.99987495602585208" bottom="0.99987495602585208" header="0.49993747801292604" footer="0.49993747801292604"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="13860" windowHeight="6390" tabRatio="618" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13851" windowHeight="6380" activeTab="1" tabRatio="618"/>
   </bookViews>
   <sheets>
-    <sheet name="PLInterface_function" sheetId="1" r:id="rId1"/>
-    <sheet name="default" sheetId="2" r:id="rId2"/>
-    <sheet name="LRInterface" sheetId="3" r:id="rId3"/>
+    <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
+    <sheet name="default" sheetId="2" r:id="rId3"/>
+    <sheet name="LRInterface" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="303">
   <si>
     <t>动作</t>
   </si>
@@ -30,6 +28,12 @@
     <t>传出参数</t>
   </si>
   <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
     <t>captcha_get_captcha</t>
   </si>
   <si>
@@ -42,6 +46,12 @@
     <t>图片</t>
   </si>
   <si>
+    <t>GenetateCapthaAction</t>
+  </si>
+  <si>
+    <t>GenerateCaptchaAction</t>
+  </si>
+  <si>
     <t>captcha_check_captcha</t>
   </si>
   <si>
@@ -50,7 +60,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -58,18 +68,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>验证码_x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">验证码_x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -77,21 +88,25 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表示验证码是否正确）_x000D__x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">表示验证码是否正确）_x000D__x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>CheckCaptchaAction</t>
+  </si>
+  <si>
     <t>get_session_info</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -99,7 +114,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -107,18 +122,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>信息_x000D__x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">信息_x000D__x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -126,7 +142,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -134,7 +150,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -142,7 +158,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -150,7 +166,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -158,15 +174,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>错误次数_x000D__x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">错误次数_x000D__x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>GetSessionInfoAction</t>
+  </si>
+  <si>
     <t>regist/check_name</t>
   </si>
   <si>
@@ -175,7 +195,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -183,18 +203,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户名_x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">用户名_x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -202,21 +223,25 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表示用户名是否已经被使用）_x000D__x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">表示用户名是否已经被使用）_x000D__x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>CheckUserNameAction</t>
+  </si>
+  <si>
     <t>user/update_nickname</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -224,7 +249,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -232,18 +257,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的修改_x000D__x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的修改_x000D__x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -251,18 +277,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>昵称_x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">昵称_x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -270,7 +297,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -278,7 +305,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -286,21 +313,25 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>修改成功与否）_x000D__x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">修改成功与否）_x000D__x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>UpdateNicknameAction</t>
+  </si>
+  <si>
     <t>user/update_password</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -308,7 +339,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -316,18 +347,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的修改_x000D__x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的修改_x000D__x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -335,7 +367,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -343,7 +375,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -351,7 +383,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -359,7 +391,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -367,18 +399,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>新密码确认_x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">新密码确认_x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -386,15 +419,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表示密码修改成功与否）_x000D__x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">表示密码修改成功与否）_x000D__x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>UpdatePasswordAction</t>
+  </si>
+  <si>
     <t>address/get_first_level</t>
   </si>
   <si>
@@ -403,7 +440,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -411,15 +448,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>_x000D__x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_x000D__x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>GetFirstLevelAction</t>
+  </si>
+  <si>
     <t>address/get_next_level</t>
   </si>
   <si>
@@ -428,7 +469,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -436,18 +477,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上一级的地区id_x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">上一级的地区id_x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -455,15 +497,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>_x000D__x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_x000D__x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>GetNextLevelAction</t>
+  </si>
+  <si>
     <t>address/delete_address</t>
   </si>
   <si>
@@ -472,7 +518,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -480,7 +526,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -488,18 +534,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID_x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ID_x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -507,21 +554,28 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地址删除与否）_x000D__x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">地址删除与否）_x000D__x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>AddressDeleteAction</t>
+  </si>
+  <si>
+    <t>order/check_item</t>
+  </si>
+  <si>
     <t>检查商品库存是否够</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -529,7 +583,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -537,7 +591,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -545,7 +599,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -553,7 +607,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -561,18 +615,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>商品数量（总量）_x000D__x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">商品数量（总量）_x000D__x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -580,15 +635,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表示库存是否足够）_x000D__x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">表示库存是否足够）_x000D__x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>ItemCheckInventoryAction</t>
+  </si>
+  <si>
     <t>order/delete_order</t>
   </si>
   <si>
@@ -601,6 +660,9 @@
     <t>deleteResult:boolean(订单删除与否）</t>
   </si>
   <si>
+    <t>OrderDeleteAction</t>
+  </si>
+  <si>
     <t>order/check_score</t>
   </si>
   <si>
@@ -613,6 +675,9 @@
     <t>checkResult(积分使用是否合法</t>
   </si>
   <si>
+    <t>CheckScoreAction</t>
+  </si>
+  <si>
     <t>cart/add_to_cart</t>
   </si>
   <si>
@@ -625,6 +690,9 @@
     <t>addResult:boolean(商品添加是否成功）</t>
   </si>
   <si>
+    <t>CartAddItemAction</t>
+  </si>
+  <si>
     <t>cart/delete</t>
   </si>
   <si>
@@ -637,6 +705,9 @@
     <t>deleteResult:boolean(商品删除是否成功）</t>
   </si>
   <si>
+    <t>CartDeleteItemAction</t>
+  </si>
+  <si>
     <t>favortite/delete_favorite</t>
   </si>
   <si>
@@ -645,7 +716,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -653,7 +724,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -661,7 +732,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -669,11 +740,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>json_x000D__x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">json_x000D__x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -681,6 +753,9 @@
     <t>deleteResult:boolean(收藏夹删除成功与否）</t>
   </si>
   <si>
+    <t>FavoriteDeleteAction</t>
+  </si>
+  <si>
     <t>favortite/add_favorite</t>
   </si>
   <si>
@@ -690,6 +765,9 @@
     <t>addResult:boolean(商品添加至收藏夹是否成功）</t>
   </si>
   <si>
+    <t>FavoriteAddAction</t>
+  </si>
+  <si>
     <t>item/comment</t>
   </si>
   <si>
@@ -702,6 +780,9 @@
     <t>submitResult:boolean(评论提交成功与否）</t>
   </si>
   <si>
+    <t>ItemCommentAction</t>
+  </si>
+  <si>
     <t>login</t>
   </si>
   <si>
@@ -710,7 +791,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -718,7 +799,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -726,7 +807,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -734,7 +815,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -742,7 +823,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -750,18 +831,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>验证码；toURL:成功后跳转页面_x000D__x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">验证码；toURL:成功后跳转页面_x000D__x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -769,15 +851,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表示登陆成功与否)，成功后跳转登陆前页面_x000D__x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">表示登陆成功与否)，成功后跳转登陆前页面_x000D__x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>LoginAction</t>
+  </si>
+  <si>
     <t>regist</t>
   </si>
   <si>
@@ -786,7 +872,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -794,7 +880,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -802,7 +888,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -810,7 +896,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -818,7 +904,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -826,7 +912,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -834,7 +920,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -842,7 +928,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -850,7 +936,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -858,7 +944,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -866,7 +952,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -874,7 +960,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -882,7 +968,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -890,18 +976,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>验证码;toURL:成功后跳转页面_x000D__x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">验证码;toURL:成功后跳转页面_x000D__x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -909,7 +996,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -917,21 +1004,31 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>),成功后跳转注册前页面_x000D__x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">),成功后跳转注册前页面_x000D__x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>RegisterAction</t>
+  </si>
+  <si>
     <t>index</t>
   </si>
   <si>
     <t>首页列出信息</t>
   </si>
   <si>
+    <t>nickname:String;shopItemNumber:int;catalog:二维数组（一个含有名字(name)和简介(desc)的类）;recommendItem:一维数组（一个含有商品ID（itemId)，名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) 的类)；newBook:一维数组（类与recommendItem相同）；hotBook:一维数组（类与recommendItem相同）</t>
+  </si>
+  <si>
+    <t>IndexAction</t>
+  </si>
+  <si>
     <t>item_list</t>
   </si>
   <si>
@@ -941,7 +1038,10 @@
     <t>bookName:string;itemName:publisher:class;publishTime;version;searchPage(页数);binding;booksize;price;discount(待定）;page（第几页)</t>
   </si>
   <si>
-    <t>catalog:二维数组（一个含有名字(name)和简介(desc)的类）；items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(score),市场价（marketPrice))</t>
+    <t>catalog:二维数组（一个含有名字(name)和简介(desc)的类）；items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(score),市场价（marketPrice));recommand:推荐商品（id,itemName,price,picturePath)</t>
+  </si>
+  <si>
+    <t>ItemListAction</t>
   </si>
   <si>
     <t>order_list</t>
@@ -953,6 +1053,12 @@
     <t>time:索引时间(0:所有，1：近一个月，2：近三个月，3：近一年），orderState:订单状态(0：未指定，1：已下单，2：已审核，3：交易成功，4：交易失败）,page:分页</t>
   </si>
   <si>
+    <t>orderList:一维数组（一个含有订单号(orderId)，收货人(receiver)，下单时间(orderTime)，订单状态（orderStatus字符串),订单总价(totalPrice)的类),catalog:二维数组（一个含有名字(name)和简介(desc)的类）</t>
+  </si>
+  <si>
+    <t>OrderListAction</t>
+  </si>
+  <si>
     <t>order_detail</t>
   </si>
   <si>
@@ -962,6 +1068,12 @@
     <t>orderId:int</t>
   </si>
   <si>
+    <t>catalog:二维数组（一个含有名字(name)和简介(desc)的类）;orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber))</t>
+  </si>
+  <si>
+    <t>OrderDetailAction</t>
+  </si>
+  <si>
     <t>order_edit</t>
   </si>
   <si>
@@ -974,6 +1086,9 @@
     <t>catalog:二维数组（一个含有名字(name)和简介(desc)的类）;用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber))</t>
   </si>
   <si>
+    <t>orderEditAction</t>
+  </si>
+  <si>
     <t>order_update</t>
   </si>
   <si>
@@ -982,7 +1097,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -990,7 +1105,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -998,7 +1113,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1006,7 +1121,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1014,7 +1129,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1022,7 +1137,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1030,7 +1145,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1038,7 +1153,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1046,7 +1161,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1054,7 +1169,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1062,7 +1177,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1070,7 +1185,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1078,7 +1193,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1086,7 +1201,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1094,7 +1209,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1102,7 +1217,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1110,7 +1225,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1118,7 +1233,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1126,7 +1241,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1134,7 +1249,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1142,7 +1257,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1150,7 +1265,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1158,7 +1273,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1166,7 +1281,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1174,7 +1289,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1182,7 +1297,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1190,7 +1305,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1198,7 +1313,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1206,7 +1321,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1214,7 +1329,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1222,7 +1337,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1230,11 +1345,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的时候加回去））_x000D__x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的时候加回去））_x000D__x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1242,12 +1358,21 @@
     <t>页面跳转会订单详情详情页面</t>
   </si>
   <si>
+    <t>OrderUpdateAction</t>
+  </si>
+  <si>
     <t>order</t>
   </si>
   <si>
     <t>下单</t>
   </si>
   <si>
+    <t>catalog:二维数组（一个含有名字(name)和简介(desc)的类）;orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));跳转到下单页面</t>
+  </si>
+  <si>
+    <t>OrderEnterAction</t>
+  </si>
+  <si>
     <t>order_submit</t>
   </si>
   <si>
@@ -1256,7 +1381,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1264,7 +1389,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1272,7 +1397,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1280,7 +1405,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1288,7 +1413,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1296,7 +1421,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1304,7 +1429,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1312,7 +1437,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1320,7 +1445,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1328,7 +1453,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1336,7 +1461,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1344,7 +1469,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1352,7 +1477,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1360,7 +1485,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1368,7 +1493,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1376,7 +1501,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1384,7 +1509,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1392,7 +1517,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1400,7 +1525,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1408,7 +1533,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1416,7 +1541,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1424,7 +1549,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1432,7 +1557,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1440,7 +1565,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1448,7 +1573,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1456,7 +1581,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1464,7 +1589,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="12.0"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1472,11 +1597,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>值数组;score:使用的积分_x000D__x000D_</t>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">值数组;score:使用的积分_x000D__x000D_+</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1484,13 +1610,19 @@
     <t>orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；跳转下单成功。</t>
   </si>
   <si>
+    <t>OrderSubmitAction</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
     <t>进入收藏夹</t>
   </si>
   <si>
-    <t>items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(score),市场价（marketPrice))</t>
+    <t>items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(score),市场价（marketPrice));recommand:推荐商品（id,itemName,price,picturePath)</t>
+  </si>
+  <si>
+    <t>FavoriteEnterAction</t>
   </si>
   <si>
     <t>address</t>
@@ -1502,6 +1634,9 @@
     <t>addressList:一维的数组（地址的字符串address，地址的ID ）,level1Districts:一维数组（包含一个地区id(id),地区名字(name))</t>
   </si>
   <si>
+    <t>AddressEnterAction</t>
+  </si>
+  <si>
     <t>submit_address</t>
   </si>
   <si>
@@ -1514,6 +1649,9 @@
     <t>跳转到地址簿</t>
   </si>
   <si>
+    <t>AddressSumbitAction</t>
+  </si>
+  <si>
     <t>address_edit</t>
   </si>
   <si>
@@ -1526,12 +1664,18 @@
     <t>姓名name ，省份 districtLevel1,城市 districtLevel2 ,地区 districtLevel3 ，邮政编码 zipcode ,电话号码 phoneNum ,手机号码mobileNum,addressId:地址ID</t>
   </si>
   <si>
+    <t>AddressEditEnterAction</t>
+  </si>
+  <si>
     <t>address_edit_submit</t>
   </si>
   <si>
     <t>提交地址修改</t>
   </si>
   <si>
+    <t>AddressEditSubmitAction</t>
+  </si>
+  <si>
     <t>deliver</t>
   </si>
   <si>
@@ -1541,7 +1685,10 @@
     <t>information：string的变量</t>
   </si>
   <si>
-    <t>items_details</t>
+    <t>DeliverEnterAction</t>
+  </si>
+  <si>
+    <t>item_detail</t>
   </si>
   <si>
     <t>商品详情</t>
@@ -1550,7 +1697,10 @@
     <t xml:space="preserve">itmeId(商品ID） </t>
   </si>
   <si>
-    <t>ISBN ，itemName(书名）， itemAuthor（作者姓名） ,itemPublishing（出版社） ,itemPublishingTime（出版时间） , itemEdition（版次）， itemPage（页数） ,itemBinding（装帧） , itemFormat（开本） ,itemPrice（价格） , itmePublishingPrice（出版价格） , itemDiscount（折扣） , itemStock（库存） ,itemBookDescribe （书籍描述）,itemBookClassify （书籍分类）, itemUserDiscuss（用户评论），itemComprehensiveRate（综合评级）,commentList(一维数组包含用户名(username),级别(rating),内容(content),时间(date))</t>
+    <t>ISBN ，itemName(书名）， itemAuthor（作者姓名） ,itemPublishing（出版社） ,itemPublishingTime（出版时间） , itemEdition（版次）， itemPage（页数） ,itemBinding（装帧） , itemFormat（开本） ,itemPrice（价格） , itmePublishingPrice（出版价格） , itemDiscount（折扣） , itemStock（库存） ,itemBookDescribe （书籍描述）,itemBookClassify （书籍分类）, itemUserDiscuss（用户评论），itemComprehensiveRate（综合评级）,commentList(一维数组包含用户名(username),级别(rating),内容(content),时间(date));recommandView:推荐商品（id,itemName,price,picturePath);recommandBought:推荐商品（id,itemName,price,picturePath)</t>
+  </si>
+  <si>
+    <t>ItemDetailAction</t>
   </si>
   <si>
     <t>cart</t>
@@ -1559,6 +1709,12 @@
     <t>购物车</t>
   </si>
   <si>
+    <t>items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber),节省金额(savePrice)),总价totalPrice;recommand:推荐商品（id,itemName,price,picturePath)</t>
+  </si>
+  <si>
+    <t>CartEnterAction</t>
+  </si>
+  <si>
     <t>quick_search</t>
   </si>
   <si>
@@ -1571,6 +1727,9 @@
     <t>跳转商品列表</t>
   </si>
   <si>
+    <t>QuickSearchAction</t>
+  </si>
+  <si>
     <t>user</t>
   </si>
   <si>
@@ -1580,6 +1739,9 @@
     <t>userName:用户名，nickName：昵称;totalScore积分;orderList:一维数组包含（订单号(orderId),订单金额(orderPrice),下单时间(orderTime),获得积分（score))</t>
   </si>
   <si>
+    <t>UserInfoEnterAction</t>
+  </si>
+  <si>
     <t>接口</t>
   </si>
   <si>
@@ -1877,6 +2039,18 @@
     <t>bookID:int;comment:BeanComment</t>
   </si>
   <si>
+    <t>DaoCart.getBooks</t>
+  </si>
+  <si>
+    <t>获得会员的购物车中书箱记录</t>
+  </si>
+  <si>
+    <t>usdrName:String</t>
+  </si>
+  <si>
+    <t>List&lt;?bean&gt;(书籍列表）</t>
+  </si>
+  <si>
     <t>DaoCart.addBook</t>
   </si>
   <si>
@@ -1935,241 +2109,32 @@
   </si>
   <si>
     <t>userName:String;bookIDList:List&lt;Integer&gt;</t>
-  </si>
-  <si>
-    <t>catalog:二维数组（一个含有名字(name)和简介(desc)的类）;orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber))</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderList:一维数组（一个含有订单号(orderId)，收货人(receiver)，下单时间(orderTime)，订单状态（orderStatus字符串),订单总价(totalPrice)的类),catalog:二维数组（一个含有名字(name)和简介(desc)的类）</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>catalog:二维数组（一个含有名字(name)和简介(desc)的类）;orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));跳转到下单页面</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>GenerateCaptchaAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckCaptchaAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>action</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>GenetateCapthaAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckUserNameAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoginAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>IndexAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemListAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderListAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderDetailAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderEditAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderUpdateAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderEnterAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderSubmitAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>FavoriteEnterAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddressEnterAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddressSumbitAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddressEditEnterAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddressEditSubmitAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeliverEnterAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemDetailAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>CartEnterAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>QuickSearchAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>order/check_item</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserInfoEnterAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetSessionInfoAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpdateNicknameAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetFirstLevelAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetNextLevelAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddressDeleteAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpdatePasswordAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemCheckInventoryAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderDeleteAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>CartAddItemAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>CartDeleteItemAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckScoreAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>FavoriteDeleteAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>FavoriteAddAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemCommentAction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>nickname:String;shopItemNumber:int;catalog:二维数组（一个含有名字(name)和简介(desc)的类）;recommendItem:一维数组（一个含有商品ID（itemId)，名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) 的类)；newBook:一维数组（类与recommendItem相同）；hotBook:一维数组（类与recommendItem相同）</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>DaoCart.getBooks</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得会员的购物车中书箱记录</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>usdrName:String</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;?bean&gt;(书籍列表）</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber),节省金额(savePrice)),总价totalPrice</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="4">
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <name val="文泉驿正黑"/>
+      <charset val="134"/>
       <b/>
-      <sz val="12"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF00B0F0"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="文泉驿正黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Lucida Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00B0F0"/>
+      <sz val="12.0"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
@@ -2192,30 +2157,33 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2224,318 +2192,28 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.75" style="1" customWidth="1"/>
-    <col min="6" max="256" width="10" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.625" customWidth="1" style="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1" style="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1" style="1"/>
+    <col min="4" max="4" width="33.125" customWidth="1" style="1"/>
+    <col min="5" max="5" width="7.75" customWidth="1" style="1"/>
+    <col min="6" max="256" width="10.0" customWidth="1" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1">
+    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2549,332 +2227,332 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>259</v>
+        <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>260</v>
+        <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="16.5" customHeight="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>282</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="16.5" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="16.5" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" customHeight="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>297</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="1.2477606300293931" right="1.2477606300293931" top="0.99987495602585208" bottom="0.99987495602585208" header="0.49993747801292604" footer="0.49993747801292604"/>
+  <pageMargins left="1.247760630029393" right="1.247760630029393" top="0.9998749560258521" bottom="0.9998749560258521" header="0.49993747801292604" footer="0.49993747801292604"/>
   <pageSetup paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.125" style="1" customWidth="1"/>
-    <col min="5" max="256" width="10" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.125" customWidth="1" style="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1" style="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1" style="1"/>
+    <col min="4" max="4" width="32.125" customWidth="1" style="1"/>
+    <col min="5" max="256" width="10.0" customWidth="1" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1">
+    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2888,894 +2566,899 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" customHeight="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>298</v>
+        <v>101</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" customHeight="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>81</v>
+        <v>105</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>254</v>
+        <v>111</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" customHeight="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>253</v>
+        <v>115</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>91</v>
+        <v>120</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" customHeight="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>255</v>
+        <v>130</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" customHeight="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16.5" customHeight="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" customHeight="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16.5" customHeight="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" customHeight="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>121</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>124</v>
+        <v>164</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" customHeight="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>303</v>
+        <v>169</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" customHeight="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>283</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="1.2477606300293931" right="1.2477606300293931" top="0.99987495602585208" bottom="0.99987495602585208" header="0.49993747801292604" footer="0.49993747801292604"/>
+  <pageMargins left="1.247760630029393" right="1.247760630029393" top="0.9998749560258521" bottom="0.9998749560258521" header="0.49993747801292604" footer="0.49993747801292604"/>
   <pageSetup paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView zoomScaleNormal="100" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="37.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.75" style="1" customWidth="1"/>
-    <col min="5" max="256" width="10" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.625" customWidth="1" style="1"/>
+    <col min="2" max="2" width="43.625" customWidth="1" style="1"/>
+    <col min="3" max="3" width="49.625" customWidth="1" style="1"/>
+    <col min="4" max="4" width="24.75" customWidth="1" style="1"/>
+    <col min="5" max="256" width="10.0" customWidth="1" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" customHeight="1">
+    <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" customHeight="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" customHeight="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" customHeight="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" customHeight="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" customHeight="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" customHeight="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" customHeight="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.5" customHeight="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.5" customHeight="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.5" customHeight="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" customHeight="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>207</v>
+        <v>253</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" customHeight="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16.5" customHeight="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A26" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A27" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A28" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A29" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A30" s="6" t="s">
+    </row>
+    <row r="30" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="D36" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="B37" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="C37" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A31" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A32" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A34" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A36" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A37" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="D37" s="1" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="1.2477606300293931" right="1.2477606300293931" top="0.99987495602585208" bottom="0.99987495602585208" header="0.49993747801292604" footer="0.49993747801292604"/>
+  <pageMargins left="1.247760630029393" right="1.247760630029393" top="0.9998749560258521" bottom="0.9998749560258521" header="0.49993747801292604" footer="0.49993747801292604"/>
   <pageSetup paperSize="9"/>
 </worksheet>
 </file>
--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13851" windowHeight="6380" activeTab="1" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13836" windowHeight="6365" activeTab="0" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="319">
   <si>
     <t>动作</t>
   </si>
@@ -432,19 +432,39 @@
     <t>UpdatePasswordAction</t>
   </si>
   <si>
-    <t>address/get_first_level</t>
-  </si>
-  <si>
-    <t>获得省，直辖市的信息</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>firstLevelList:json_array,元素包含地区id(id)和名字(name)</t>
+    <t>address/get_next_level</t>
+  </si>
+  <si>
+    <t>获得下一级的地区信息</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">上一级的地区id_x000D_+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nextLevelList:json_array,元素包含地区id(id)和名字(name)</t>
     </r>
     <r>
       <rPr>
@@ -458,55 +478,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>GetFirstLevelAction</t>
-  </si>
-  <si>
-    <t>address/get_next_level</t>
-  </si>
-  <si>
-    <t>获得下一级的地区信息</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>id:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">上一级的地区id_x000D_-</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>nextLevelList:json_array,元素包含地区id(id)和名字(name)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_x000D__x000D_-</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>GetNextLevelAction</t>
   </si>
   <si>
@@ -783,6 +754,24 @@
     <t>ItemCommentAction</t>
   </si>
   <si>
+    <t>admin/item_manager/off</t>
+  </si>
+  <si>
+    <t>商品下架</t>
+  </si>
+  <si>
+    <t>itemID;商品ID</t>
+  </si>
+  <si>
+    <t>offResult:boolean(商品下架操作成功与否）</t>
+  </si>
+  <si>
+    <t>admin/item_manager/delete</t>
+  </si>
+  <si>
+    <t>商品删除</t>
+  </si>
+  <si>
     <t>login</t>
   </si>
   <si>
@@ -1038,7 +1027,7 @@
     <t>bookName:string;itemName:publisher:class;publishTime;version;searchPage(页数);binding;booksize;price;discount(待定）;page（第几页)</t>
   </si>
   <si>
-    <t>catalog:二维数组（一个含有名字(name)和简介(desc)的类）；items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(score),市场价（marketPrice));recommand:推荐商品（id,itemName,price,picturePath)</t>
+    <t>catalog:二维数组（id,目录的ID，一个含有名字(name)和简介(desc)的类）；items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(score),市场价（marketPrice));recommand:推荐商品（id,itemName,price,picturePath)</t>
   </si>
   <si>
     <t>ItemListAction</t>
@@ -1053,7 +1042,7 @@
     <t>time:索引时间(0:所有，1：近一个月，2：近三个月，3：近一年），orderState:订单状态(0：未指定，1：已下单，2：已审核，3：交易成功，4：交易失败）,page:分页</t>
   </si>
   <si>
-    <t>orderList:一维数组（一个含有订单号(orderId)，收货人(receiver)，下单时间(orderTime)，订单状态（orderStatus字符串),订单总价(totalPrice)的类),catalog:二维数组（一个含有名字(name)和简介(desc)的类）</t>
+    <t>orderList:一维数组（一个含有订单号(orderId)，收货人(receiver)，下单时间(orderTime)，订单状态（orderStatus字符串),订单总价(totalPrice)的类),catalog:二维数组（id,目录的ID，一个含有名字(name)和简介(desc)的类）</t>
   </si>
   <si>
     <t>OrderListAction</t>
@@ -1068,7 +1057,7 @@
     <t>orderId:int</t>
   </si>
   <si>
-    <t>catalog:二维数组（一个含有名字(name)和简介(desc)的类）;orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber))</t>
+    <t>catalog:二维数组（id,目录的ID，一个含有名字(name)和简介(desc)的类）;orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber))</t>
   </si>
   <si>
     <t>OrderDetailAction</t>
@@ -1083,7 +1072,7 @@
     <t>orderId:订单号</t>
   </si>
   <si>
-    <t>catalog:二维数组（一个含有名字(name)和简介(desc)的类）;用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber))</t>
+    <t>catalog:二维数组（id,目录的ID，一个含有名字(name)和简介(desc)的类）;用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber))</t>
   </si>
   <si>
     <t>orderEditAction</t>
@@ -1367,7 +1356,7 @@
     <t>下单</t>
   </si>
   <si>
-    <t>catalog:二维数组（一个含有名字(name)和简介(desc)的类）;orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));跳转到下单页面</t>
+    <t>catalog:二维数组（id,目录的ID，一个含有名字(name)和简介(desc)的类）;orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));跳转到下单页面</t>
   </si>
   <si>
     <t>OrderEnterAction</t>
@@ -1740,6 +1729,48 @@
   </si>
   <si>
     <t>UserInfoEnterAction</t>
+  </si>
+  <si>
+    <t>admin/index</t>
+  </si>
+  <si>
+    <t>进入管理员首页</t>
+  </si>
+  <si>
+    <t>admin/item_manager</t>
+  </si>
+  <si>
+    <t>进入商品管理页面</t>
+  </si>
+  <si>
+    <t>catalog:二维数组（id,目录的ID，一个含有名字(name)和简介(desc)的类,tems:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(score),市场价（marketPrice));</t>
+  </si>
+  <si>
+    <t>admin/item_add_submit</t>
+  </si>
+  <si>
+    <t>提交商品添加</t>
+  </si>
+  <si>
+    <t>ISBN ，itemName(书名）， itemAuthor（作者姓名） ,itemPublishing（出版社） ,itemPublishingTime（出版时间） , itemEdition（版次）， itemPage（页数） ,itemBinding（装帧） , itemFormat（开本） ,itemPrice（价格） , itmePublishingPrice（出版价格） , itemDiscount（折扣） , itemStock（库存） ,itemBookDescribe （书籍描述）,itemBookClassify （书籍分类）, itemUserDiscuss（用户评论），itemComprehensiveRate（综合评级）,commentList(一维数组包含用户名(username),级别(rating),内容(content),时间(date))</t>
+  </si>
+  <si>
+    <t>跳转admin/item_manager</t>
+  </si>
+  <si>
+    <t>admin/item_modify</t>
+  </si>
+  <si>
+    <t>进入商品商品修改</t>
+  </si>
+  <si>
+    <t>itemID(商品ID）</t>
+  </si>
+  <si>
+    <t>admin/item_modify_submit</t>
+  </si>
+  <si>
+    <t>提交商品修改</t>
   </si>
   <si>
     <t>接口</t>
@@ -2197,10 +2228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV18"/>
+  <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2349,143 +2380,143 @@
         <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>78</v>
@@ -2502,30 +2533,41 @@
         <v>81</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
         <v>84</v>
       </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="D18" s="7" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2537,10 +2579,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV22"/>
+  <dimension ref="A1:IV33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScaleNormal="100" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2571,348 +2613,411 @@
     </row>
     <row r="2" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
-        <v>162</v>
+      <c r="A18" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
+      <c r="A22" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -2940,520 +3045,520 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -1892,9 +1892,6 @@
     <t>发表指定书籍的评论</t>
   </si>
   <si>
-    <t>bookID:int;comment:BeanComment</t>
-  </si>
-  <si>
     <t>DaoCart.addBook</t>
   </si>
   <si>
@@ -1953,6 +1950,9 @@
   </si>
   <si>
     <t>userName:String;bookIDList:List&lt;Integer&gt;</t>
+  </si>
+  <si>
+    <t>comment:BeanComment</t>
   </si>
 </sst>
 </file>
@@ -2927,7 +2927,7 @@
   <dimension ref="A1:IV36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3339,7 +3339,7 @@
         <v>237</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>173</v>
@@ -3347,13 +3347,13 @@
     </row>
     <row r="30" spans="1:4" ht="16.5" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>173</v>
@@ -3361,13 +3361,13 @@
     </row>
     <row r="31" spans="1:4" ht="16.5" customHeight="1">
       <c r="A31" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>173</v>
@@ -3375,13 +3375,13 @@
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1">
       <c r="A32" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>173</v>
@@ -3389,13 +3389,13 @@
     </row>
     <row r="33" spans="1:4" ht="16.5" customHeight="1">
       <c r="A33" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>173</v>
@@ -3403,27 +3403,27 @@
     </row>
     <row r="34" spans="1:4" ht="16.5" customHeight="1">
       <c r="A34" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" customHeight="1">
       <c r="A35" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>173</v>
@@ -3431,13 +3431,13 @@
     </row>
     <row r="36" spans="1:4" ht="16.5" customHeight="1">
       <c r="A36" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>173</v>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13836" windowHeight="6365" activeTab="0" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13821" windowHeight="6349" activeTab="1" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="325">
   <si>
     <t>动作</t>
   </si>
@@ -1282,63 +1282,15 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>;itemIdArray:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>商品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数组，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>itemValueArray:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>值数组</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>(0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">的时候加回去））_x000D__x000D_+      <t>;items:json_array(id:商品ID;value:商品数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">）) </t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -1550,47 +1502,15 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>;itemIdArray:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>商品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数组，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>itemValueArray:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">值数组;score:使用的积分_x000D__x000D_+      <t>;items:json_array(id:商品ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">;value:商品数量）score:使用的积分 </t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -1771,6 +1691,24 @@
   </si>
   <si>
     <t>提交商品修改</t>
+  </si>
+  <si>
+    <t>admin/catalog_manager</t>
+  </si>
+  <si>
+    <t>进入商品目录管理</t>
+  </si>
+  <si>
+    <t>catalog:二维数组（id,目录的ID，一个含有名字(name)和简介(desc)的类</t>
+  </si>
+  <si>
+    <t>admin/catalog_add_subitm</t>
+  </si>
+  <si>
+    <t>提交商品目录添加</t>
+  </si>
+  <si>
+    <t>catalogName:目录名，catalogDesc：目录描述，upID:父目录的ID(-1表示根目录）,</t>
   </si>
   <si>
     <t>接口</t>
@@ -2228,10 +2166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV19"/>
+  <dimension ref="A1:IV20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2543,32 +2481,35 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="1" t="s">
         <v>69</v>
       </c>
+    </row>
+    <row r="20" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -2579,10 +2520,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV33"/>
+  <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2590,7 +2531,7 @@
     <col min="1" max="1" width="27.125" customWidth="1" style="1"/>
     <col min="2" max="2" width="15.875" customWidth="1" style="1"/>
     <col min="3" max="3" width="21.625" customWidth="1" style="1"/>
-    <col min="4" max="4" width="32.125" customWidth="1" style="1"/>
+    <col min="4" max="4" width="27.75" customWidth="1" style="1"/>
     <col min="5" max="256" width="10.0" customWidth="1" style="1"/>
   </cols>
   <sheetData>
@@ -2737,7 +2678,7 @@
       <c r="B9" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>127</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2771,7 +2712,7 @@
       <c r="B11" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>136</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2952,39 +2893,39 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="1" t="s">
         <v>188</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="1" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2992,7 +2933,7 @@
       <c r="A25" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="1" t="s">
         <v>192</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -3003,10 +2944,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="1" t="s">
         <v>195</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -3016,8 +2957,33 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="7"/>
+    <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -3030,8 +2996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView zoomScaleNormal="100" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -3045,520 +3011,520 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13821" windowHeight="6349" activeTab="1" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13806" windowHeight="6334" activeTab="1" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="331">
   <si>
     <t>动作</t>
   </si>
@@ -1649,6 +1649,24 @@
   </si>
   <si>
     <t>UserInfoEnterAction</t>
+  </si>
+  <si>
+    <t>forget_password</t>
+  </si>
+  <si>
+    <t>进入忘记密码页面无</t>
+  </si>
+  <si>
+    <t>forget_password_submit</t>
+  </si>
+  <si>
+    <t>提交密码重置</t>
+  </si>
+  <si>
+    <t>name:用户名；securityQuestion安全问题;securityAnswer:安全问题答案</t>
+  </si>
+  <si>
+    <t>成功跳转成功页面；失败跳转出错页面</t>
   </si>
   <si>
     <t>admin/index</t>
@@ -2169,7 +2187,7 @@
   <dimension ref="A1:IV20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2509,7 +2527,7 @@
       </c>
     </row>
     <row r="20" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
+      <c r="A20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -2520,10 +2538,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV29"/>
+  <dimension ref="A1:IV31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2678,7 +2696,7 @@
       <c r="B9" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2712,7 +2730,7 @@
       <c r="B11" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2892,98 +2910,126 @@
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="7" t="s">
         <v>183</v>
       </c>
       <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+      <c r="D22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="C23" s="7" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C24" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C27" s="7" t="s">
+    </row>
+    <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="7"/>
+      <c r="D29" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -3011,520 +3057,520 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13806" windowHeight="6334" activeTab="1" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13791" windowHeight="6319" activeTab="1" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="380">
   <si>
     <t>动作</t>
   </si>
@@ -772,6 +772,60 @@
     <t>商品删除</t>
   </si>
   <si>
+    <t>admin/catalog_manager/delete</t>
+  </si>
+  <si>
+    <t>目录删除</t>
+  </si>
+  <si>
+    <t>catalogIDList:要删除商品目录ID列表</t>
+  </si>
+  <si>
+    <t>deleteResult:boolean(商品目录删除是否成功）</t>
+  </si>
+  <si>
+    <t>admin/order/pass</t>
+  </si>
+  <si>
+    <t>审核通过</t>
+  </si>
+  <si>
+    <t>orderIDList:订单审核的订单号列表；</t>
+  </si>
+  <si>
+    <t>checkResult:boolean(订单审核成功与否）</t>
+  </si>
+  <si>
+    <t>admin/order/success</t>
+  </si>
+  <si>
+    <t>修改订单为交易成功</t>
+  </si>
+  <si>
+    <t>orderIDList:订单成功的订单号列表；</t>
+  </si>
+  <si>
+    <t>changeResult:boolean(订单状态修改成功与否）</t>
+  </si>
+  <si>
+    <t>admin/order/fail</t>
+  </si>
+  <si>
+    <t>orderIDList:交易失败的订单号列表；</t>
+  </si>
+  <si>
+    <t>admin/order/delete</t>
+  </si>
+  <si>
+    <t>删除指定订单</t>
+  </si>
+  <si>
+    <t>orderID</t>
+  </si>
+  <si>
+    <t>deleteReslult:boolean(订单删除成功与否）</t>
+  </si>
+  <si>
     <t>login</t>
   </si>
   <si>
@@ -1603,7 +1657,7 @@
     <t>商品详情</t>
   </si>
   <si>
-    <t xml:space="preserve">itmeId(商品ID） </t>
+    <t xml:space="preserve">itmeID(商品ID） </t>
   </si>
   <si>
     <t>ISBN ，itemName(书名）， itemAuthor（作者姓名） ,itemPublishing（出版社） ,itemPublishingTime（出版时间） , itemEdition（版次）， itemPage（页数） ,itemBinding（装帧） , itemFormat（开本） ,itemPrice（价格） , itmePublishingPrice（出版价格） , itemDiscount（折扣） , itemStock（库存） ,itemBookDescribe （书籍描述）,itemBookClassify （书籍分类）, itemUserDiscuss（用户评论），itemComprehensiveRate（综合评级）,commentList(一维数组包含用户名(username),级别(rating),内容(content),时间(date));recommandView:推荐商品（id,itemName,price,picturePath);recommandBought:推荐商品（id,itemName,price,picturePath)</t>
@@ -1711,6 +1765,15 @@
     <t>提交商品修改</t>
   </si>
   <si>
+    <t>itemID(商品ID）,ISBN ，itemName(书名）， itemAuthor（作者姓名） ,itemPublishing（出版社） ,itemPublishingTime（出版时间） , itemEdition（版次）， itemPage（页数） ,itemBinding（装帧） , itemFormat（开本） ,itemPrice（价格） , itmePublishingPrice（出版价格） , itemDiscount（折扣） , itemStock（库存） ,itemBookDescribe （书籍描述）,itemBookClassify （书籍分类）, itemUserDiscuss（用户评论），itemComprehensiveRate（综合评级）,commentList(一维数组包含用户名(username),级别(rating),内容(content),时间(date))</t>
+  </si>
+  <si>
+    <t>admin/item_detail</t>
+  </si>
+  <si>
+    <t>进入商品详情</t>
+  </si>
+  <si>
     <t>admin/catalog_manager</t>
   </si>
   <si>
@@ -1720,13 +1783,97 @@
     <t>catalog:二维数组（id,目录的ID，一个含有名字(name)和简介(desc)的类</t>
   </si>
   <si>
-    <t>admin/catalog_add_subitm</t>
+    <t>admin/catalog_add_submit</t>
   </si>
   <si>
     <t>提交商品目录添加</t>
   </si>
   <si>
     <t>catalogName:目录名，catalogDesc：目录描述，upID:父目录的ID(-1表示根目录）,</t>
+  </si>
+  <si>
+    <t>成功跳转目录管理</t>
+  </si>
+  <si>
+    <t>admin/catalog_edit</t>
+  </si>
+  <si>
+    <t>进入商品目录编辑</t>
+  </si>
+  <si>
+    <t>catalogID:目录ID</t>
+  </si>
+  <si>
+    <t>admin/catalog_edit_submit</t>
+  </si>
+  <si>
+    <t>提交商品目录编辑</t>
+  </si>
+  <si>
+    <t>catalogID:目录ID,catalogName:目录名，catalogDesc：目录描述，upID:父目录的ID(-1表示根目录）,</t>
+  </si>
+  <si>
+    <t>admin/order_list</t>
+  </si>
+  <si>
+    <t>管理员进入订单管理</t>
+  </si>
+  <si>
+    <t>startTime:开始索引时间(year:年，month:月;day:日）;endTime:结束索引时间（year：年，month:月，day:日），orderState:订单状态(0：未指定，1：已下单，2：已审核，3：交易成功，4：交易失败）,page:分页</t>
+  </si>
+  <si>
+    <t>orderList:一维数组（一个含有订单号(orderId)，收货人(receiver)，下单时间(orderTime)，订单状态（orderStatus字符串),订单总价(totalPrice)的类)</t>
+  </si>
+  <si>
+    <t>admin/order_detail</t>
+  </si>
+  <si>
+    <t>管理员查看订单详情</t>
+  </si>
+  <si>
+    <t>orderID:订单ID</t>
+  </si>
+  <si>
+    <t>orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber))</t>
+  </si>
+  <si>
+    <t>admin/order_edit</t>
+  </si>
+  <si>
+    <t>管理员进入订单修改</t>
+  </si>
+  <si>
+    <t>admin/order_edit_submit</t>
+  </si>
+  <si>
+    <t>管理员提交订单修改</t>
+  </si>
+  <si>
+    <t>orderID:订单号；addressId:地址ID（使用不在地址簿中的地址的时候为null)；receiverName:收货人；level1Name:一级地区名称；level2Name:二级地区名称;level3Name:三级地区名称；addressDetail:地区详情；zipcode:邮政编码；phoneNumber：电话号码；mobileNumber:手机号码;items:json_array(id:商品ID;value:商品数量）)</t>
+  </si>
+  <si>
+    <t>成功跳转orderDetail</t>
+  </si>
+  <si>
+    <t>admin/order_statistics</t>
+  </si>
+  <si>
+    <t>管理员进入销售量统计</t>
+  </si>
+  <si>
+    <t>startTime:开始索引时间(year:年，month:月;day:日）;endTime:结束索引时间（year：年，month:月，day:日);catalogID:目录ID,limit(销售量下限）</t>
+  </si>
+  <si>
+    <t>catalog:二维数组（id,目录的ID，一个含有名字(name)和简介(desc)的类),items:一维数组(itemID,itemName;sales;totalPrice),allTotalPrice(所有商品的总销售价）</t>
+  </si>
+  <si>
+    <t>admin/user_manager</t>
+  </si>
+  <si>
+    <t>管理员进入用户管理</t>
+  </si>
+  <si>
+    <t>levelList:一维数组(一个包含ID,low</t>
   </si>
   <si>
     <t>接口</t>
@@ -2184,10 +2331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV20"/>
+  <dimension ref="A1:IV24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2526,8 +2673,75 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
+    <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -2538,10 +2752,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV31"/>
+  <dimension ref="A1:IV39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2572,464 +2786,590 @@
     </row>
     <row r="2" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>166</v>
+        <v>183</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>183</v>
+      <c r="A22" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>187</v>
+      <c r="A23" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>256</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -3057,520 +3397,520 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>211</v>
+        <v>260</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>212</v>
+        <v>261</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>214</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>215</v>
+        <v>264</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>217</v>
+        <v>266</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>226</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>230</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>217</v>
+        <v>266</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>238</v>
+        <v>287</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>242</v>
+        <v>291</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>246</v>
+        <v>295</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>247</v>
+        <v>296</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>250</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>252</v>
+        <v>301</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>217</v>
+        <v>266</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>253</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>254</v>
+        <v>303</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>255</v>
+        <v>304</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>256</v>
+        <v>305</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>257</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>258</v>
+        <v>307</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>260</v>
+        <v>309</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>261</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>262</v>
+        <v>311</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>267</v>
+        <v>316</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>260</v>
+        <v>309</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>270</v>
+        <v>319</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>271</v>
+        <v>320</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>274</v>
+        <v>323</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>277</v>
+        <v>326</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>278</v>
+        <v>327</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>279</v>
+        <v>328</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>280</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>281</v>
+        <v>330</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>283</v>
+        <v>332</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>284</v>
+        <v>333</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>285</v>
+        <v>334</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>286</v>
+        <v>335</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>287</v>
+        <v>336</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>279</v>
+        <v>328</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>293</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>296</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>297</v>
+        <v>346</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>298</v>
+        <v>347</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>279</v>
+        <v>328</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>299</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>300</v>
+        <v>349</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>302</v>
+        <v>351</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>303</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>304</v>
+        <v>353</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>305</v>
+        <v>354</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>306</v>
+        <v>355</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>307</v>
+        <v>356</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>313</v>
+        <v>362</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>316</v>
+        <v>365</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>318</v>
+        <v>367</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>313</v>
+        <v>362</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>320</v>
+        <v>369</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>321</v>
+        <v>370</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>322</v>
+        <v>371</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>323</v>
+        <v>372</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>324</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>325</v>
+        <v>374</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>327</v>
+        <v>376</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>328</v>
+        <v>377</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>329</v>
+        <v>378</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -2926,8 +2926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3332,7 +3332,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="5" t="s">
         <v>236</v>
       </c>
       <c r="B29" s="1" t="s">

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -2,14 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13791" windowHeight="6319" activeTab="1" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13785" windowHeight="6315" tabRatio="618" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
-    <sheet name="default" sheetId="2" r:id="rId3"/>
-    <sheet name="LRInterface" sheetId="3" r:id="rId4"/>
+    <sheet name="PLInterface_function" sheetId="1" r:id="rId1"/>
+    <sheet name="default" sheetId="2" r:id="rId2"/>
+    <sheet name="LRInterface" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -60,7 +62,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -68,19 +70,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">验证码_x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证码_x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -88,12 +89,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">表示验证码是否正确）_x000D__x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示验证码是否正确）_x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -106,7 +106,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -114,7 +114,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -122,19 +122,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">信息_x000D__x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息_x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -142,7 +141,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -150,7 +149,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -158,7 +157,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -166,7 +165,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -174,12 +173,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">错误次数_x000D__x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错误次数_x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -195,7 +193,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -203,19 +201,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">用户名_x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户名_x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -223,12 +220,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">表示用户名是否已经被使用）_x000D__x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示用户名是否已经被使用）_x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -241,7 +237,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -249,7 +245,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -257,19 +253,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">的修改_x000D__x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的修改_x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -277,19 +272,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">昵称_x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>昵称_x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -297,7 +291,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -305,7 +299,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -313,12 +307,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">修改成功与否）_x000D__x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改成功与否）_x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -331,7 +324,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -339,7 +332,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -347,19 +340,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">的修改_x000D__x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的修改_x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -367,7 +359,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -375,7 +367,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -383,7 +375,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -391,7 +383,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -399,19 +391,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">新密码确认_x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新密码确认_x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -419,12 +410,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">表示密码修改成功与否）_x000D__x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示密码修改成功与否）_x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -440,7 +430,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -448,19 +438,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">上一级的地区id_x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上一级的地区id_x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -468,12 +457,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_x000D__x000D_-</t>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>_x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -489,7 +477,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -497,7 +485,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -505,19 +493,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ID_x000D_-</t>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID_x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -525,12 +512,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">地址删除与否）_x000D__x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址删除与否）_x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -546,7 +532,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -554,7 +540,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -562,7 +548,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -570,7 +556,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -578,7 +564,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -586,19 +572,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">商品数量（总量）_x000D__x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品数量（总量）_x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -606,12 +591,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">表示库存是否足够）_x000D__x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示库存是否足够）_x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -687,7 +671,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -695,7 +679,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -703,7 +687,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -711,12 +695,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">json_x000D__x000D_-</t>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>json_x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -834,7 +817,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -842,7 +825,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -850,7 +833,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -858,7 +841,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -866,7 +849,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -874,19 +857,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">验证码；toURL:成功后跳转页面_x000D__x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证码；toURL:成功后跳转页面_x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -894,12 +876,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">表示登陆成功与否)，成功后跳转登陆前页面_x000D__x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示登陆成功与否)，成功后跳转登陆前页面_x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -915,7 +896,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -923,7 +904,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -931,7 +912,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -939,7 +920,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -947,7 +928,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -955,7 +936,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -963,7 +944,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -971,7 +952,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -979,7 +960,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -987,7 +968,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -995,7 +976,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1003,7 +984,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1011,7 +992,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1019,19 +1000,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">验证码;toURL:成功后跳转页面_x000D__x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证码;toURL:成功后跳转页面_x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1039,7 +1019,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1047,12 +1027,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">),成功后跳转注册前页面_x000D__x000D_-</t>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>),成功后跳转注册前页面_x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1140,7 +1119,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1148,7 +1127,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1156,7 +1135,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1164,7 +1143,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1172,7 +1151,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1180,7 +1159,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1188,7 +1167,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1196,7 +1175,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1204,7 +1183,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1212,7 +1191,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1220,7 +1199,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1228,7 +1207,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1236,7 +1215,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1244,7 +1223,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1252,7 +1231,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1260,7 +1239,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1268,7 +1247,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1276,7 +1255,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1284,7 +1263,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1292,7 +1271,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1300,7 +1279,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1308,7 +1287,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1316,7 +1295,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1324,7 +1303,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1332,7 +1311,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1340,12 +1319,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">）)-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）)_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1376,7 +1354,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1384,7 +1362,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1392,7 +1370,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1400,7 +1378,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1408,7 +1386,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1416,7 +1394,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1424,7 +1402,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1432,7 +1410,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1440,7 +1418,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1448,7 +1426,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1456,7 +1434,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1464,7 +1442,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1472,7 +1450,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1480,7 +1458,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1488,7 +1466,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1496,7 +1474,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1504,7 +1482,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1512,7 +1490,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1520,7 +1498,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1528,7 +1506,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1536,7 +1514,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1544,7 +1522,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1552,7 +1530,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1560,12 +1538,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">;value:商品数量）score:使用的积分-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;value:商品数量）score:使用的积分_x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -2170,9 +2147,6 @@
     <t>发表指定书籍的评论</t>
   </si>
   <si>
-    <t>bookID:int;comment:BeanComment</t>
-  </si>
-  <si>
     <t>DaoCart.getBooks</t>
   </si>
   <si>
@@ -2243,32 +2217,46 @@
   </si>
   <si>
     <t>userName:String;bookIDList:List&lt;Integer&gt;</t>
+  </si>
+  <si>
+    <t>comment:BeanComment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="4">
+  <fonts count="6">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <b/>
+      <sz val="12"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
-      <b/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <name val="文泉驿正黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
@@ -2291,63 +2279,353 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.625" customWidth="1" style="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1" style="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1" style="1"/>
-    <col min="4" max="4" width="33.125" customWidth="1" style="1"/>
-    <col min="5" max="5" width="7.75" customWidth="1" style="1"/>
-    <col min="6" max="256" width="10.0" customWidth="1" style="1"/>
+    <col min="1" max="1" width="26.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.75" style="1" customWidth="1"/>
+    <col min="6" max="256" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="16.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2367,7 +2645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2387,7 +2665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -2407,7 +2685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -2424,7 +2702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -2441,7 +2719,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -2458,7 +2736,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -2475,7 +2753,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -2492,7 +2770,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -2509,7 +2787,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
@@ -2526,7 +2804,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="16.5" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
@@ -2543,7 +2821,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="16.5" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
@@ -2560,7 +2838,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="16.5" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
@@ -2577,7 +2855,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="16.5" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
@@ -2594,7 +2872,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>71</v>
       </c>
@@ -2611,7 +2889,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="16.5" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>76</v>
       </c>
@@ -2628,7 +2906,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="16.5" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>80</v>
       </c>
@@ -2645,7 +2923,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="16.5" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
@@ -2659,7 +2937,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="16.5" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>89</v>
       </c>
@@ -2673,63 +2951,63 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="16.5" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="16.5" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A22" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>100</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A23" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>104</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="16.5" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>105</v>
       </c>
@@ -2739,35 +3017,35 @@
       <c r="C24" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>108</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="1.247760630029393" right="1.247760630029393" top="0.9998749560258521" bottom="0.9998749560258521" header="0.49993747801292604" footer="0.49993747801292604"/>
+  <pageMargins left="1.2477606300293931" right="1.2477606300293931" top="0.99987495602585208" bottom="0.99987495602585208" header="0.49993747801292604" footer="0.49993747801292604"/>
   <pageSetup paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="27.125" customWidth="1" style="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1" style="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1" style="1"/>
-    <col min="4" max="4" width="27.75" customWidth="1" style="1"/>
-    <col min="5" max="256" width="10.0" customWidth="1" style="1"/>
+    <col min="1" max="1" width="27.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.75" style="1" customWidth="1"/>
+    <col min="5" max="256" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="16.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2784,7 +3062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>109</v>
       </c>
@@ -2801,7 +3079,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>114</v>
       </c>
@@ -2818,7 +3096,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>119</v>
       </c>
@@ -2835,7 +3113,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>123</v>
       </c>
@@ -2852,7 +3130,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>128</v>
       </c>
@@ -2869,7 +3147,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="16.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>133</v>
       </c>
@@ -2886,7 +3164,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="16.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>138</v>
       </c>
@@ -2903,7 +3181,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>143</v>
       </c>
@@ -2920,7 +3198,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="16.5" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>148</v>
       </c>
@@ -2937,7 +3215,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>152</v>
       </c>
@@ -2954,7 +3232,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="16.5" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>157</v>
       </c>
@@ -2971,7 +3249,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="16.5" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>161</v>
       </c>
@@ -2988,7 +3266,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="16.5" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>165</v>
       </c>
@@ -3005,7 +3283,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="16.5" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>170</v>
       </c>
@@ -3022,7 +3300,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="16.5" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>175</v>
       </c>
@@ -3039,7 +3317,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="16.5" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>178</v>
       </c>
@@ -3056,14 +3334,14 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="16.5" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>184</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -3073,7 +3351,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="16.5" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>187</v>
       </c>
@@ -3090,7 +3368,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="16.5" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>191</v>
       </c>
@@ -3107,7 +3385,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="16.5" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>196</v>
       </c>
@@ -3124,20 +3402,18 @@
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="16.5" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:5" ht="16.5" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>202</v>
       </c>
@@ -3150,18 +3426,16 @@
       <c r="D23" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:5" ht="16.5" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:5" ht="16.5" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>208</v>
       </c>
@@ -3175,7 +3449,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="16.5" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>211</v>
       </c>
@@ -3189,7 +3463,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="16.5" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>215</v>
       </c>
@@ -3203,7 +3477,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="16.5" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>218</v>
       </c>
@@ -3217,21 +3491,21 @@
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="16.5" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>217</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="16.5" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>223</v>
       </c>
@@ -3245,8 +3519,8 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A31" s="6" t="s">
         <v>226</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -3255,57 +3529,57 @@
       <c r="C31" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A32" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="16.5" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>235</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A34" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>238</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A35" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>241</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -3315,11 +3589,11 @@
         <v>243</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A36" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>245</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -3329,593 +3603,593 @@
         <v>243</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="16.5" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A38" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A39" s="6" t="s">
         <v>254</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="6" t="s">
         <v>256</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="1.247760630029393" right="1.247760630029393" top="0.9998749560258521" bottom="0.9998749560258521" header="0.49993747801292604" footer="0.49993747801292604"/>
+  <pageMargins left="1.2477606300293931" right="1.2477606300293931" top="0.99987495602585208" bottom="0.99987495602585208" header="0.49993747801292604" footer="0.49993747801292604"/>
   <pageSetup paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="37.625" customWidth="1" style="1"/>
-    <col min="2" max="2" width="43.625" customWidth="1" style="1"/>
-    <col min="3" max="3" width="49.625" customWidth="1" style="1"/>
-    <col min="4" max="4" width="24.75" customWidth="1" style="1"/>
-    <col min="5" max="256" width="10.0" customWidth="1" style="1"/>
+    <col min="1" max="1" width="37.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.75" style="1" customWidth="1"/>
+    <col min="5" max="256" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="5" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="5" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="5" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="5" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="5" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A37" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="1.247760630029393" right="1.247760630029393" top="0.9998749560258521" bottom="0.9998749560258521" header="0.49993747801292604" footer="0.49993747801292604"/>
+  <pageMargins left="1.2477606300293931" right="1.2477606300293931" top="0.99987495602585208" bottom="0.99987495602585208" header="0.49993747801292604" footer="0.49993747801292604"/>
   <pageSetup paperSize="9"/>
 </worksheet>
 </file>
--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13785" windowHeight="6315" tabRatio="618" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13785" windowHeight="6315" tabRatio="618" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId1"/>
     <sheet name="default" sheetId="2" r:id="rId2"/>
     <sheet name="LRInterface" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="407">
   <si>
     <t>动作</t>
   </si>
@@ -866,12 +866,1388 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
+    <t>LoginAction</t>
+  </si>
+  <si>
+    <t>regist</t>
+  </si>
+  <si>
+    <t>提交注册信息</t>
+  </si>
+  <si>
+    <t>RegisterAction</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>首页列出信息</t>
+  </si>
+  <si>
+    <t>IndexAction</t>
+  </si>
+  <si>
+    <t>item_list</t>
+  </si>
+  <si>
+    <t>列出搜索商品</t>
+  </si>
+  <si>
+    <t>bookName:string;itemName:publisher:class;publishTime;version;searchPage(页数);binding;booksize;price;discount(待定）;page（第几页)</t>
+  </si>
+  <si>
+    <t>ItemListAction</t>
+  </si>
+  <si>
+    <t>order_list</t>
+  </si>
+  <si>
+    <t>列出订单</t>
+  </si>
+  <si>
+    <t>order_detail</t>
+  </si>
+  <si>
+    <t>OrderDetailAction</t>
+  </si>
+  <si>
+    <t>order_edit</t>
+  </si>
+  <si>
+    <t>订单修改</t>
+  </si>
+  <si>
+    <t>orderId:订单号</t>
+  </si>
+  <si>
+    <t>orderEditAction</t>
+  </si>
+  <si>
+    <t>order_update</t>
+  </si>
+  <si>
+    <t>提交订单修改</t>
+  </si>
+  <si>
+    <t>OrderUpdateAction</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>下单</t>
+  </si>
+  <si>
+    <t>OrderEnterAction</t>
+  </si>
+  <si>
+    <t>order_submit</t>
+  </si>
+  <si>
+    <t>提交订单</t>
+  </si>
+  <si>
+    <t>OrderSubmitAction</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>进入收藏夹</t>
+  </si>
+  <si>
+    <t>FavoriteEnterAction</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>地址簿地址</t>
+  </si>
+  <si>
+    <t>AddressEnterAction</t>
+  </si>
+  <si>
+    <t>submit_address</t>
+  </si>
+  <si>
+    <t>添加地址</t>
+  </si>
+  <si>
+    <t>姓名name ，省份 districtLevel1,城市 districtLevel2 ,地区 districtLevel3 ，邮政编码 zipcode ,电话号码 phoneNum ,手机号码mobileNum</t>
+  </si>
+  <si>
+    <t>跳转到地址簿</t>
+  </si>
+  <si>
+    <t>AddressSumbitAction</t>
+  </si>
+  <si>
+    <t>address_edit</t>
+  </si>
+  <si>
+    <t>进入地址修改</t>
+  </si>
+  <si>
+    <t>addressId;地址ID</t>
+  </si>
+  <si>
+    <t>姓名name ，省份 districtLevel1,城市 districtLevel2 ,地区 districtLevel3 ，邮政编码 zipcode ,电话号码 phoneNum ,手机号码mobileNum,addressId:地址ID</t>
+  </si>
+  <si>
+    <t>AddressEditEnterAction</t>
+  </si>
+  <si>
+    <t>address_edit_submit</t>
+  </si>
+  <si>
+    <t>提交地址修改</t>
+  </si>
+  <si>
+    <t>AddressEditSubmitAction</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>送货说明</t>
+  </si>
+  <si>
+    <t>DeliverEnterAction</t>
+  </si>
+  <si>
+    <t>商品详情</t>
+  </si>
+  <si>
+    <t xml:space="preserve">itmeID(商品ID） </t>
+  </si>
+  <si>
+    <t>ItemDetailAction</t>
+  </si>
+  <si>
+    <t>cart</t>
+  </si>
+  <si>
+    <t>CartEnterAction</t>
+  </si>
+  <si>
+    <t>quick_search</t>
+  </si>
+  <si>
+    <t>提交快速搜索</t>
+  </si>
+  <si>
+    <t>keyword:关键词；catalog:类别</t>
+  </si>
+  <si>
+    <t>跳转商品列表</t>
+  </si>
+  <si>
+    <t>QuickSearchAction</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>进入用户信息</t>
+  </si>
+  <si>
+    <t>UserInfoEnterAction</t>
+  </si>
+  <si>
+    <t>forget_password</t>
+  </si>
+  <si>
+    <t>进入忘记密码页面无</t>
+  </si>
+  <si>
+    <t>forget_password_submit</t>
+  </si>
+  <si>
+    <t>提交密码重置</t>
+  </si>
+  <si>
+    <t>admin/index</t>
+  </si>
+  <si>
+    <t>进入管理员首页</t>
+  </si>
+  <si>
+    <t>进入商品管理页面</t>
+  </si>
+  <si>
+    <t>admin/item_add_submit</t>
+  </si>
+  <si>
+    <t>提交商品添加</t>
+  </si>
+  <si>
+    <t>跳转admin/item_manager</t>
+  </si>
+  <si>
+    <t>admin/item_modify</t>
+  </si>
+  <si>
+    <t>进入商品商品修改</t>
+  </si>
+  <si>
+    <t>itemID(商品ID）</t>
+  </si>
+  <si>
+    <t>admin/item_modify_submit</t>
+  </si>
+  <si>
+    <t>提交商品修改</t>
+  </si>
+  <si>
+    <t>admin/item_detail</t>
+  </si>
+  <si>
+    <t>进入商品详情</t>
+  </si>
+  <si>
+    <t>admin/catalog_manager</t>
+  </si>
+  <si>
+    <t>进入商品目录管理</t>
+  </si>
+  <si>
+    <t>admin/catalog_add_submit</t>
+  </si>
+  <si>
+    <t>提交商品目录添加</t>
+  </si>
+  <si>
+    <t>catalogName:目录名，catalogDesc：目录描述，upID:父目录的ID(-1表示根目录）,</t>
+  </si>
+  <si>
+    <t>成功跳转目录管理</t>
+  </si>
+  <si>
+    <t>admin/catalog_edit</t>
+  </si>
+  <si>
+    <t>进入商品目录编辑</t>
+  </si>
+  <si>
+    <t>catalogID:目录ID</t>
+  </si>
+  <si>
+    <t>admin/catalog_edit_submit</t>
+  </si>
+  <si>
+    <t>提交商品目录编辑</t>
+  </si>
+  <si>
+    <t>catalogID:目录ID,catalogName:目录名，catalogDesc：目录描述，upID:父目录的ID(-1表示根目录）,</t>
+  </si>
+  <si>
+    <t>admin/order_list</t>
+  </si>
+  <si>
+    <t>管理员进入订单管理</t>
+  </si>
+  <si>
+    <t>admin/order_detail</t>
+  </si>
+  <si>
+    <t>orderID:订单ID</t>
+  </si>
+  <si>
+    <t>admin/order_edit</t>
+  </si>
+  <si>
+    <t>管理员进入订单修改</t>
+  </si>
+  <si>
+    <t>admin/order_edit_submit</t>
+  </si>
+  <si>
+    <t>管理员提交订单修改</t>
+  </si>
+  <si>
+    <t>orderID:订单号；addressId:地址ID（使用不在地址簿中的地址的时候为null)；receiverName:收货人；level1Name:一级地区名称；level2Name:二级地区名称;level3Name:三级地区名称；addressDetail:地区详情；zipcode:邮政编码；phoneNumber：电话号码；mobileNumber:手机号码;items:json_array(id:商品ID;value:商品数量）)</t>
+  </si>
+  <si>
+    <t>成功跳转orderDetail</t>
+  </si>
+  <si>
+    <t>admin/order_statistics</t>
+  </si>
+  <si>
+    <t>管理员进入销售量统计</t>
+  </si>
+  <si>
+    <t>admin/user_manager</t>
+  </si>
+  <si>
+    <t>接口</t>
+  </si>
+  <si>
+    <t>传入参数</t>
+  </si>
+  <si>
+    <t>返回</t>
+  </si>
+  <si>
+    <t>DaoUser.validateUser</t>
+  </si>
+  <si>
+    <t>验证用户名与密码是否匹配</t>
+  </si>
+  <si>
+    <t>userName:String,password:String</t>
+  </si>
+  <si>
+    <t>Boolean(表示用户名和密码匹配与否）</t>
+  </si>
+  <si>
+    <t>DaoUser.validateUserName</t>
+  </si>
+  <si>
+    <t>验证用户名是否已经存在</t>
+  </si>
+  <si>
+    <t>userName:String</t>
+  </si>
+  <si>
+    <t>Boolean(表示用户名是否已经存在）</t>
+  </si>
+  <si>
+    <t>DaoUser.addUser</t>
+  </si>
+  <si>
+    <t>添加用户</t>
+  </si>
+  <si>
+    <t>user:BeanUser</t>
+  </si>
+  <si>
+    <t>Boolean(表示用户是否添加成功）</t>
+  </si>
+  <si>
+    <t>DaoUser.updateNickname</t>
+  </si>
+  <si>
+    <t>修改昵称</t>
+  </si>
+  <si>
+    <t>userName:Stirng, nickName:String</t>
+  </si>
+  <si>
+    <t>Boolean(表示昵称是否修改成功）</t>
+  </si>
+  <si>
+    <t>DaoUser.updatePassword</t>
+  </si>
+  <si>
+    <t>修改密码</t>
+  </si>
+  <si>
+    <t>userName:Stirng, password:String; oldPassword:String</t>
+  </si>
+  <si>
+    <t>Boolean(表示密码修改是否成功）</t>
+  </si>
+  <si>
+    <t>DaoUser.getScore</t>
+  </si>
+  <si>
+    <t>获得指定用户积分</t>
+  </si>
+  <si>
+    <t>int用户积分</t>
+  </si>
+  <si>
+    <t>DaoDistrict.getDistrict</t>
+  </si>
+  <si>
+    <t>返回地址</t>
+  </si>
+  <si>
+    <t>upDistrictID:int(上一级地区的ID，当为0的时候返回省直辖市的列表)</t>
+  </si>
+  <si>
+    <t>List&lt;BeanDistrict&gt;地址</t>
+  </si>
+  <si>
+    <t>DaoUserAddress.addAddress</t>
+  </si>
+  <si>
+    <t>地址簿添加地址</t>
+  </si>
+  <si>
+    <t>address:BeanAddress</t>
+  </si>
+  <si>
+    <t>Boolean(表示成功与否）</t>
+  </si>
+  <si>
+    <t>DaoUserAddress.deleteAddress</t>
+  </si>
+  <si>
+    <t>地址簿删除地址</t>
+  </si>
+  <si>
+    <t>addressID:int</t>
+  </si>
+  <si>
+    <t>DaoUserAddress.modifyAddress</t>
+  </si>
+  <si>
+    <t>地址簿修改地址</t>
+  </si>
+  <si>
+    <t>DaoUserAddress.getAddressNumber</t>
+  </si>
+  <si>
+    <t>获得地址簿的地址项数目</t>
+  </si>
+  <si>
+    <t>username:String</t>
+  </si>
+  <si>
+    <t>int 地址数</t>
+  </si>
+  <si>
+    <t>DaoUserAddress.listAddress</t>
+  </si>
+  <si>
+    <t>列出地址簿的地址</t>
+  </si>
+  <si>
+    <t>List&lt;BeanAddress&gt;</t>
+  </si>
+  <si>
+    <t>DaoUserAddress.getAddressDetail</t>
+  </si>
+  <si>
+    <t>获得指定地址详情</t>
+  </si>
+  <si>
+    <t>userName:String;addressID:地址ID</t>
+  </si>
+  <si>
+    <t>BeanAddress</t>
+  </si>
+  <si>
+    <t>DaoOrder.search</t>
+  </si>
+  <si>
+    <t>搜索订单</t>
+  </si>
+  <si>
+    <t>req:OrderRequire;userName:String</t>
+  </si>
+  <si>
+    <t>List&lt;Order&gt;(订单列表,Order中的Detail为NULL）</t>
+  </si>
+  <si>
+    <t>DaoOrder.getOrderDetail</t>
+  </si>
+  <si>
+    <t>获得订单详情</t>
+  </si>
+  <si>
+    <t>orderID:int;</t>
+  </si>
+  <si>
+    <t>Order(内有Order的detail)</t>
+  </si>
+  <si>
+    <t>DaoOrder.getRowNumber</t>
+  </si>
+  <si>
+    <t>获得符合搜索条件的订单总数</t>
+  </si>
+  <si>
+    <t>int符合条件的订单总数</t>
+  </si>
+  <si>
+    <t>DaoOrder.addOrder</t>
+  </si>
+  <si>
+    <t>userName:Stirng, order:Order</t>
+  </si>
+  <si>
+    <t>DaoOrder.updateOrder</t>
+  </si>
+  <si>
+    <t>修改订单</t>
+  </si>
+  <si>
+    <t>userName:String,order:Order</t>
+  </si>
+  <si>
+    <t>DaoOrder.deleteOrder</t>
+  </si>
+  <si>
+    <t>删除订单</t>
+  </si>
+  <si>
+    <t>userName:String,orderID:int</t>
+  </si>
+  <si>
+    <t>DaoBook.getInventory</t>
+  </si>
+  <si>
+    <t>获得库存数</t>
+  </si>
+  <si>
+    <t>bookID:int</t>
+  </si>
+  <si>
+    <t>int库存数</t>
+  </si>
+  <si>
+    <t>DaoBook.addBook</t>
+  </si>
+  <si>
+    <t>添加书</t>
+  </si>
+  <si>
+    <t>book:BeanBook</t>
+  </si>
+  <si>
+    <t>DaoBook.setInventory</t>
+  </si>
+  <si>
+    <t>设置对应书的库存</t>
+  </si>
+  <si>
+    <t>bookID:int; inventory:int(设置的库存数）</t>
+  </si>
+  <si>
+    <t>DaoBook.getDetail</t>
+  </si>
+  <si>
+    <t>获得书籍详情</t>
+  </si>
+  <si>
+    <t>book:BeanBook(书籍详情类）</t>
+  </si>
+  <si>
+    <t>DaoBook.search</t>
+  </si>
+  <si>
+    <t>搜索书籍</t>
+  </si>
+  <si>
+    <t>req:BookRequire</t>
+  </si>
+  <si>
+    <t>List&lt;BeanBook&gt;</t>
+  </si>
+  <si>
+    <t>DaoBook.getSearchRowNumber</t>
+  </si>
+  <si>
+    <t>获得符合搜索条件的书籍条目总数</t>
+  </si>
+  <si>
+    <t>int书籍搜索结果的条数</t>
+  </si>
+  <si>
+    <t>DaoBook.getCommentRowNumber</t>
+  </si>
+  <si>
+    <t>获得指定书籍的评论总数</t>
+  </si>
+  <si>
+    <t>int书籍评论总数</t>
+  </si>
+  <si>
+    <t>DaoBook.getComment</t>
+  </si>
+  <si>
+    <t>获得书籍评论</t>
+  </si>
+  <si>
+    <t>bookID:int;page:int;lines:int</t>
+  </si>
+  <si>
+    <t>List&lt;BeanComment&gt;</t>
+  </si>
+  <si>
+    <t>DaoBook.publishComment</t>
+  </si>
+  <si>
+    <t>发表指定书籍的评论</t>
+  </si>
+  <si>
+    <t>DaoCart.getBooks</t>
+  </si>
+  <si>
+    <t>获得会员的购物车中书箱记录</t>
+  </si>
+  <si>
+    <t>usdrName:String</t>
+  </si>
+  <si>
+    <t>List&lt;?bean&gt;(书籍列表）</t>
+  </si>
+  <si>
+    <t>DaoCart.addBook</t>
+  </si>
+  <si>
+    <t>往指定用户的购物车中添加书籍记录</t>
+  </si>
+  <si>
+    <t>userName:String;bookID:int;bookNumber:int</t>
+  </si>
+  <si>
+    <t>DaoCart.deleteBook</t>
+  </si>
+  <si>
+    <t>从指定用户的购物车中删除书籍记录</t>
+  </si>
+  <si>
+    <t>userName:String;bookID:int</t>
+  </si>
+  <si>
+    <t>DaoCart.modifyBook</t>
+  </si>
+  <si>
+    <t>修改指定用户的购物车修改书籍数量</t>
+  </si>
+  <si>
+    <t>DaoCart.clean</t>
+  </si>
+  <si>
+    <t>清除指定用户的购物车数据库数据</t>
+  </si>
+  <si>
+    <t>userName:String;</t>
+  </si>
+  <si>
+    <t>DaoCatalog.getCatalog</t>
+  </si>
+  <si>
+    <t>获得所有目录</t>
+  </si>
+  <si>
+    <t>List&lt;BeanCatalog&gt;(书籍目录）</t>
+  </si>
+  <si>
+    <t>DaoFavorityFolder.add</t>
+  </si>
+  <si>
+    <t>添加书籍进入收藏夹</t>
+  </si>
+  <si>
+    <t>userName:String;bookID:int;</t>
+  </si>
+  <si>
+    <t>DaoFavorityFolder.delete</t>
+  </si>
+  <si>
+    <t>删除指定用户的收藏夹书籍</t>
+  </si>
+  <si>
+    <t>userName:String;bookIDList:List&lt;Integer&gt;</t>
+  </si>
+  <si>
+    <t>comment:BeanComment</t>
+  </si>
+  <si>
+    <t>ISBN ，itemName(书名）， itemAuthor（作者姓名） ,itemPublishing（出版社） ,itemPublishingTime（出版时间） , itemEdition（版次）， itemPage（页数） ,itemBinding（装帧） , itemFormat（开本） ,itemPrice（价格） , itmePublishingPrice（出版价格） , itemDiscount（折扣） , itemStock（库存） ,itemBookDescribe （书籍描述）,itemBookClassify （书籍分类）, itemUserDiscuss（用户评论），itemComprehensiveRate（综合评级）,commentList(一维数组包含用户名(username),级别(rating),内容(content),时间(date))</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>startTime:开始索引时间(year:年，month:月;day:日）;endTime:结束索引时间（year：年，month:月，day:日），orderState:订单状态(0：未指定，1：已下单，2：已审核，3：交易成功，4：交易失败）,page:分页</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/item_manager</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemID(商品ID）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>startTime:开始索引时间(year:年，month:月;day:日）;endTime:结束索引时间（year：年，month:月，day:日);catalogID:目录ID,limit(销售量下限）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemName:publisher:catalogID;publishTime(year:年，month:月;day:日);version;searchPage(0:0~200,1:200~400;2:400~600,3:&gt;600);binding;booksize;price;discount(0:0`10,1:10`30,2:30`50,3:50`100,4:&gt;100）;page（第几页)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemID(商品ID）,ISBN ，itemName(书名）， itemAuthor（作者姓名） ,itemPublishing（出版社） ,itemPublishingTime（出版时间） , itemEdition（版次）， itemPage（页数） ,itemBinding（装帧） , itemFormat（开本） ,itemPrice（价格） , itmePublishingPrice（出版价格） , itemDiscount（折扣） , itemStock（库存） ,itemBookDescribe （书籍描述）,itemBookClassify （书籍分类）, itemUserDiscuss（用户评论），itemComprehensiveRate（综合评级）,commentList(一维数组包含用户名(username),级别(rating),内容(content),时间(date))</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/login</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员登录</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>name:用户名；securityQuestion安全问题;securityAnswer:安全问题答案</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到相应URL</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>name:用户名；password：密码；captchaValue:验证码；toURL:跳转的URL</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/user_score_rate_submit</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员提交积分下限和比例</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>low:int;scoreRate:int</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 成功则跳转到用户管理</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 管理员会员查询</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/user_search_submit</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>;password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：密码；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>passwordConfirm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：密码确认；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>nickname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：昵称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>;securityQuestion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安全问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>;securityAnswer:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安全答案</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>;captchaValue:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证码;toURL:成功后跳转页面_x000D__x000D__x000D_</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>orderId:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单号；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>addressId:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（使用不在地址簿中的地址的时候为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>null)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>receiverName:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收货人；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>level1Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一级地区名称；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>level2Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二级地区名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>;level3Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三级地区名称；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>addressDetail:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地区详情；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>zipcode:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮政编码；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>phoneNumber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：电话号码；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>mobileNumber:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手机号码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>;items:json_array(id:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID;value:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）)_x000D_</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> userName:String; userLevel:(0:普通会员,1:银卡会员,2:金卡会员,3:白金会员；);startTime:开始索引时间(year:年，month:月;day:日）;endTime:结束索引时间（year：年，month:月，day:日); </t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功则跳转到用户管理</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/comment_management</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员评论管理</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_detail</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/comment/delete</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除评论</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentID：int</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> deleteResult:boolean(评论删除成功与否)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(score),市场价（marketPrice));currentPage：当前页数；totalPage:总页数；</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；items:一维数组(itemID,itemName;sales;totalPrice),allTotalPrice(所有商品的总销售价）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(score),市场价（marketPrice));recommand:推荐商品（id,itemName,price,picturePath)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));跳转到下单页面</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>addressId:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（使用新地址的时候为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>null)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>receiverName:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收货人；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>level1Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一级地区名称；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>level2Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二级地区名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>;level3Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三级地区名称；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>addressDetail:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地区详情；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>zipcode:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮政编码；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>phoneNumber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：电话号码；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>mobileNumber:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手机号码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>;items:json_array(id:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;value:商品数量）score:使用的积分_x000D_</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISBN ，itemName(书名）， itemAuthor（作者姓名） ,itemPublishing（出版社） ,itemPublishingTime（出版时间） , itemEdition（版次）， itemPage（页数） ,itemBinding（装帧） , itemFormat（开本） ,itemPrice（价格） , itmePublishingPrice（出版价格） , itemDiscount（折扣） , itemStock（库存） ,itemBookDescribe （书籍描述）,itemBookClassify （书籍分类），itemComprehensiveRate（综合评级）,commentList(一维数组包含用户名(username),打分(rating),内容(content),时间(date));recommandView:推荐商品（id,itemName,price,picturePath);recommandBought:推荐商品（id,itemName,price,picturePath)；catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber),节省金额(savePrice)),总价totalPrice;recommand:推荐商品（id,itemName,price,picturePath);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功跳转成功页面；失败跳转出错页面</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>loginResult:boolean(</t>
     </r>
     <r>
@@ -885,136 +2261,7 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>LoginAction</t>
-  </si>
-  <si>
-    <t>regist</t>
-  </si>
-  <si>
-    <t>提交注册信息</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>;password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：密码；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>passwordConfirm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：密码确认；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>nickname</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：昵称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>;securityQuestion:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>安全问题</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>;securityAnswer:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>安全答案</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>;captchaValue:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>验证码;toURL:成功后跳转页面_x000D__x000D__x000D_</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
+    <r>
       <t>register_result:boolean(</t>
     </r>
     <r>
@@ -1031,1202 +2278,125 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>),成功后跳转注册前页面_x000D__x000D__x000D_</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterAction</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>首页列出信息</t>
-  </si>
-  <si>
-    <t>nickname:String;shopItemNumber:int;catalog:二维数组（一个含有名字(name)和简介(desc)的类）;recommendItem:一维数组（一个含有商品ID（itemId)，名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) 的类)；newBook:一维数组（类与recommendItem相同）；hotBook:一维数组（类与recommendItem相同）</t>
-  </si>
-  <si>
-    <t>IndexAction</t>
-  </si>
-  <si>
-    <t>item_list</t>
-  </si>
-  <si>
-    <t>列出搜索商品</t>
-  </si>
-  <si>
-    <t>bookName:string;itemName:publisher:class;publishTime;version;searchPage(页数);binding;booksize;price;discount(待定）;page（第几页)</t>
-  </si>
-  <si>
-    <t>catalog:二维数组（id,目录的ID，一个含有名字(name)和简介(desc)的类）；items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(score),市场价（marketPrice));recommand:推荐商品（id,itemName,price,picturePath)</t>
-  </si>
-  <si>
-    <t>ItemListAction</t>
-  </si>
-  <si>
-    <t>order_list</t>
-  </si>
-  <si>
-    <t>列出订单</t>
-  </si>
-  <si>
-    <t>time:索引时间(0:所有，1：近一个月，2：近三个月，3：近一年），orderState:订单状态(0：未指定，1：已下单，2：已审核，3：交易成功，4：交易失败）,page:分页</t>
-  </si>
-  <si>
-    <t>orderList:一维数组（一个含有订单号(orderId)，收货人(receiver)，下单时间(orderTime)，订单状态（orderStatus字符串),订单总价(totalPrice)的类),catalog:二维数组（id,目录的ID，一个含有名字(name)和简介(desc)的类）</t>
+      <t>),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成功后跳转注册前页面_x000D__x000D__x000D_</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname:String;shopItemNumber:int;catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；recommendItem:一维数组（一个含有商品ID（itemId)，名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) 的类)；newBook:一维数组（类与recommendItem相同）；hotBook:一维数组（类与recommendItem相同）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber))</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber))</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面跳转会订单详情详情页面;catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；跳转下单成功</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>addressList:一维的数组（地址的字符串address，地址的ID ）,level1Districts:一维数组（包含一个地区id(id),地区名字(name));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名name ，省份 districtLevel1,城市 districtLevel2 ,地区 districtLevel3 ，邮政编码 zipcode ,电话号码 phoneNum ,手机号码mobileNum,addressId:地址ID;catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>information：string的变量;catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName:用户名，nickName：昵称;totalScore积分;orderList:一维数组包含（订单号(orderId),订单金额(orderPrice),下单时间(orderTime),获得积分（score));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISBN ，itemName(书名）， itemAuthor（作者姓名） ,itemPublishing（出版社） ,itemPublishingTime（出版时间） , itemEdition（版次）， itemPage（页数） ,itemBinding（装帧） , itemFormat（开本） ,itemPrice（价格） , itmePublishingPrice（出版价格） , itemDiscount（折扣） , itemStock（库存） ,itemBookDescribe （书籍描述）,itemBookClassify （书籍分类）, itemUserDiscuss（用户评论），itemComprehensiveRate（综合评级）,commentList(一维数组包含用户名(username),级别(rating),内容(content),时间(date));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转admin/item_manager</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>catalogName:目录名，catalogDesc：目录描述，upID:父目录的ID(-1表示根目录）;catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>OrderListAction</t>
-  </si>
-  <si>
-    <t>order_detail</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderId:int</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderList:一维数组（一个含有订单号(orderId)，收货人(receiver)，下单时间(orderTime)，订单状态（orderStatus字符串),订单总价(totalPrice)的类),catalog:二维数组（id,目录的ID，一个含有名字(name)和简介(desc)的类）;currentPage(当前页面)；totalPage（总页数）；</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>订单详情</t>
-  </si>
-  <si>
-    <t>orderId:int</t>
-  </si>
-  <si>
-    <t>catalog:二维数组（id,目录的ID，一个含有名字(name)和简介(desc)的类）;orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber))</t>
-  </si>
-  <si>
-    <t>OrderDetailAction</t>
-  </si>
-  <si>
-    <t>order_edit</t>
-  </si>
-  <si>
-    <t>订单修改</t>
-  </si>
-  <si>
-    <t>orderId:订单号</t>
-  </si>
-  <si>
-    <t>catalog:二维数组（id,目录的ID，一个含有名字(name)和简介(desc)的类）;用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber))</t>
-  </si>
-  <si>
-    <t>orderEditAction</t>
-  </si>
-  <si>
-    <t>order_update</t>
-  </si>
-  <si>
-    <t>提交订单修改</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>orderId:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>订单号；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>addressId:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（使用不在地址簿中的地址的时候为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>null)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>receiverName:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>收货人；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>level1Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一级地区名称；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>level2Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>二级地区名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>;level3Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>三级地区名称；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>addressDetail:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地区详情；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>zipcode:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮政编码；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>phoneNumber</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：电话号码；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>mobileNumber:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>手机号码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>;items:json_array(id:商品ID;value:商品数量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）)_x000D_</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面跳转会订单详情详情页面</t>
-  </si>
-  <si>
-    <t>OrderUpdateAction</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>下单</t>
-  </si>
-  <si>
-    <t>catalog:二维数组（id,目录的ID，一个含有名字(name)和简介(desc)的类）;orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));跳转到下单页面</t>
-  </si>
-  <si>
-    <t>OrderEnterAction</t>
-  </si>
-  <si>
-    <t>order_submit</t>
-  </si>
-  <si>
-    <t>提交订单</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>addressId:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（使用新地址的时候为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>null)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>receiverName:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>收货人；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>level1Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一级地区名称；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>level2Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>二级地区名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>;level3Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>三级地区名称；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>addressDetail:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地区详情；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>zipcode:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮政编码；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>phoneNumber</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：电话号码；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>mobileNumber:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>手机号码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>;items:json_array(id:商品ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;value:商品数量）score:使用的积分_x000D_</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；跳转下单成功。</t>
-  </si>
-  <si>
-    <t>OrderSubmitAction</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>进入收藏夹</t>
-  </si>
-  <si>
-    <t>items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(score),市场价（marketPrice));recommand:推荐商品（id,itemName,price,picturePath)</t>
-  </si>
-  <si>
-    <t>FavoriteEnterAction</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>地址簿地址</t>
-  </si>
-  <si>
-    <t>addressList:一维的数组（地址的字符串address，地址的ID ）,level1Districts:一维数组（包含一个地区id(id),地区名字(name))</t>
-  </si>
-  <si>
-    <t>AddressEnterAction</t>
-  </si>
-  <si>
-    <t>submit_address</t>
-  </si>
-  <si>
-    <t>添加地址</t>
-  </si>
-  <si>
-    <t>姓名name ，省份 districtLevel1,城市 districtLevel2 ,地区 districtLevel3 ，邮政编码 zipcode ,电话号码 phoneNum ,手机号码mobileNum</t>
-  </si>
-  <si>
-    <t>跳转到地址簿</t>
-  </si>
-  <si>
-    <t>AddressSumbitAction</t>
-  </si>
-  <si>
-    <t>address_edit</t>
-  </si>
-  <si>
-    <t>进入地址修改</t>
-  </si>
-  <si>
-    <t>addressId;地址ID</t>
-  </si>
-  <si>
-    <t>姓名name ，省份 districtLevel1,城市 districtLevel2 ,地区 districtLevel3 ，邮政编码 zipcode ,电话号码 phoneNum ,手机号码mobileNum,addressId:地址ID</t>
-  </si>
-  <si>
-    <t>AddressEditEnterAction</t>
-  </si>
-  <si>
-    <t>address_edit_submit</t>
-  </si>
-  <si>
-    <t>提交地址修改</t>
-  </si>
-  <si>
-    <t>AddressEditSubmitAction</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>送货说明</t>
-  </si>
-  <si>
-    <t>information：string的变量</t>
-  </si>
-  <si>
-    <t>DeliverEnterAction</t>
-  </si>
-  <si>
-    <t>item_detail</t>
-  </si>
-  <si>
-    <t>商品详情</t>
-  </si>
-  <si>
-    <t xml:space="preserve">itmeID(商品ID） </t>
-  </si>
-  <si>
-    <t>ISBN ，itemName(书名）， itemAuthor（作者姓名） ,itemPublishing（出版社） ,itemPublishingTime（出版时间） , itemEdition（版次）， itemPage（页数） ,itemBinding（装帧） , itemFormat（开本） ,itemPrice（价格） , itmePublishingPrice（出版价格） , itemDiscount（折扣） , itemStock（库存） ,itemBookDescribe （书籍描述）,itemBookClassify （书籍分类）, itemUserDiscuss（用户评论），itemComprehensiveRate（综合评级）,commentList(一维数组包含用户名(username),级别(rating),内容(content),时间(date));recommandView:推荐商品（id,itemName,price,picturePath);recommandBought:推荐商品（id,itemName,price,picturePath)</t>
-  </si>
-  <si>
-    <t>ItemDetailAction</t>
-  </si>
-  <si>
-    <t>cart</t>
-  </si>
-  <si>
-    <t>购物车</t>
-  </si>
-  <si>
-    <t>items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber),节省金额(savePrice)),总价totalPrice;recommand:推荐商品（id,itemName,price,picturePath)</t>
-  </si>
-  <si>
-    <t>CartEnterAction</t>
-  </si>
-  <si>
-    <t>quick_search</t>
-  </si>
-  <si>
-    <t>提交快速搜索</t>
-  </si>
-  <si>
-    <t>keyword:关键词；catalog:类别</t>
-  </si>
-  <si>
-    <t>跳转商品列表</t>
-  </si>
-  <si>
-    <t>QuickSearchAction</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>进入用户信息</t>
-  </si>
-  <si>
-    <t>userName:用户名，nickName：昵称;totalScore积分;orderList:一维数组包含（订单号(orderId),订单金额(orderPrice),下单时间(orderTime),获得积分（score))</t>
-  </si>
-  <si>
-    <t>UserInfoEnterAction</t>
-  </si>
-  <si>
-    <t>forget_password</t>
-  </si>
-  <si>
-    <t>进入忘记密码页面无</t>
-  </si>
-  <si>
-    <t>forget_password_submit</t>
-  </si>
-  <si>
-    <t>提交密码重置</t>
-  </si>
-  <si>
-    <t>name:用户名；securityQuestion安全问题;securityAnswer:安全问题答案</t>
-  </si>
-  <si>
-    <t>成功跳转成功页面；失败跳转出错页面</t>
-  </si>
-  <si>
-    <t>admin/index</t>
-  </si>
-  <si>
-    <t>进入管理员首页</t>
-  </si>
-  <si>
-    <t>admin/item_manager</t>
-  </si>
-  <si>
-    <t>进入商品管理页面</t>
-  </si>
-  <si>
-    <t>catalog:二维数组（id,目录的ID，一个含有名字(name)和简介(desc)的类,tems:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(score),市场价（marketPrice));</t>
-  </si>
-  <si>
-    <t>admin/item_add_submit</t>
-  </si>
-  <si>
-    <t>提交商品添加</t>
-  </si>
-  <si>
-    <t>ISBN ，itemName(书名）， itemAuthor（作者姓名） ,itemPublishing（出版社） ,itemPublishingTime（出版时间） , itemEdition（版次）， itemPage（页数） ,itemBinding（装帧） , itemFormat（开本） ,itemPrice（价格） , itmePublishingPrice（出版价格） , itemDiscount（折扣） , itemStock（库存） ,itemBookDescribe （书籍描述）,itemBookClassify （书籍分类）, itemUserDiscuss（用户评论），itemComprehensiveRate（综合评级）,commentList(一维数组包含用户名(username),级别(rating),内容(content),时间(date))</t>
-  </si>
-  <si>
-    <t>跳转admin/item_manager</t>
-  </si>
-  <si>
-    <t>admin/item_modify</t>
-  </si>
-  <si>
-    <t>进入商品商品修改</t>
-  </si>
-  <si>
-    <t>itemID(商品ID）</t>
-  </si>
-  <si>
-    <t>admin/item_modify_submit</t>
-  </si>
-  <si>
-    <t>提交商品修改</t>
-  </si>
-  <si>
-    <t>itemID(商品ID）,ISBN ，itemName(书名）， itemAuthor（作者姓名） ,itemPublishing（出版社） ,itemPublishingTime（出版时间） , itemEdition（版次）， itemPage（页数） ,itemBinding（装帧） , itemFormat（开本） ,itemPrice（价格） , itmePublishingPrice（出版价格） , itemDiscount（折扣） , itemStock（库存） ,itemBookDescribe （书籍描述）,itemBookClassify （书籍分类）, itemUserDiscuss（用户评论），itemComprehensiveRate（综合评级）,commentList(一维数组包含用户名(username),级别(rating),内容(content),时间(date))</t>
-  </si>
-  <si>
-    <t>admin/item_detail</t>
-  </si>
-  <si>
-    <t>进入商品详情</t>
-  </si>
-  <si>
-    <t>admin/catalog_manager</t>
-  </si>
-  <si>
-    <t>进入商品目录管理</t>
-  </si>
-  <si>
-    <t>catalog:二维数组（id,目录的ID，一个含有名字(name)和简介(desc)的类</t>
-  </si>
-  <si>
-    <t>admin/catalog_add_submit</t>
-  </si>
-  <si>
-    <t>提交商品目录添加</t>
-  </si>
-  <si>
-    <t>catalogName:目录名，catalogDesc：目录描述，upID:父目录的ID(-1表示根目录）,</t>
-  </si>
-  <si>
-    <t>成功跳转目录管理</t>
-  </si>
-  <si>
-    <t>admin/catalog_edit</t>
-  </si>
-  <si>
-    <t>进入商品目录编辑</t>
-  </si>
-  <si>
-    <t>catalogID:目录ID</t>
-  </si>
-  <si>
-    <t>admin/catalog_edit_submit</t>
-  </si>
-  <si>
-    <t>提交商品目录编辑</t>
-  </si>
-  <si>
-    <t>catalogID:目录ID,catalogName:目录名，catalogDesc：目录描述，upID:父目录的ID(-1表示根目录）,</t>
-  </si>
-  <si>
-    <t>admin/order_list</t>
-  </si>
-  <si>
-    <t>管理员进入订单管理</t>
-  </si>
-  <si>
-    <t>startTime:开始索引时间(year:年，month:月;day:日）;endTime:结束索引时间（year：年，month:月，day:日），orderState:订单状态(0：未指定，1：已下单，2：已审核，3：交易成功，4：交易失败）,page:分页</t>
-  </si>
-  <si>
-    <t>orderList:一维数组（一个含有订单号(orderId)，收货人(receiver)，下单时间(orderTime)，订单状态（orderStatus字符串),订单总价(totalPrice)的类)</t>
-  </si>
-  <si>
-    <t>admin/order_detail</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>time:索引时间(0:所有，1：近一个月，2：近三个月，3：近一年）；orderState:订单状态(0：未指定，1：已下单，2：已审核，3：交易成功，4：交易失败）；page:分页</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>page：int(分页)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(score),市场价（marketPrice));recommand:推荐商品（id,itemName,price,picturePath)；currentPage(当前页面)；totalPage（总页数）；</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderList:一维数组（一个含有订单号(orderId)，收货人(receiver)，下单时间(orderTime)，订单状态（orderStatus字符串),订单总价(totalPrice)的类);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；currentPage(当前页面)；totalPage（总页数）；</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>管理员查看订单详情</t>
-  </si>
-  <si>
-    <t>orderID:订单ID</t>
-  </si>
-  <si>
-    <t>orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber))</t>
-  </si>
-  <si>
-    <t>admin/order_edit</t>
-  </si>
-  <si>
-    <t>管理员进入订单修改</t>
-  </si>
-  <si>
-    <t>admin/order_edit_submit</t>
-  </si>
-  <si>
-    <t>管理员提交订单修改</t>
-  </si>
-  <si>
-    <t>orderID:订单号；addressId:地址ID（使用不在地址簿中的地址的时候为null)；receiverName:收货人；level1Name:一级地区名称；level2Name:二级地区名称;level3Name:三级地区名称；addressDetail:地区详情；zipcode:邮政编码；phoneNumber：电话号码；mobileNumber:手机号码;items:json_array(id:商品ID;value:商品数量）)</t>
-  </si>
-  <si>
-    <t>成功跳转orderDetail</t>
-  </si>
-  <si>
-    <t>admin/order_statistics</t>
-  </si>
-  <si>
-    <t>管理员进入销售量统计</t>
-  </si>
-  <si>
-    <t>startTime:开始索引时间(year:年，month:月;day:日）;endTime:结束索引时间（year：年，month:月，day:日);catalogID:目录ID,limit(销售量下限）</t>
-  </si>
-  <si>
-    <t>catalog:二维数组（id,目录的ID，一个含有名字(name)和简介(desc)的类),items:一维数组(itemID,itemName;sales;totalPrice),allTotalPrice(所有商品的总销售价）</t>
-  </si>
-  <si>
-    <t>admin/user_manager</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>管理员进入用户管理</t>
-  </si>
-  <si>
-    <t>levelList:一维数组(一个包含ID,low</t>
-  </si>
-  <si>
-    <t>接口</t>
-  </si>
-  <si>
-    <t>传入参数</t>
-  </si>
-  <si>
-    <t>返回</t>
-  </si>
-  <si>
-    <t>DaoUser.validateUser</t>
-  </si>
-  <si>
-    <t>验证用户名与密码是否匹配</t>
-  </si>
-  <si>
-    <t>userName:String,password:String</t>
-  </si>
-  <si>
-    <t>Boolean(表示用户名和密码匹配与否）</t>
-  </si>
-  <si>
-    <t>DaoUser.validateUserName</t>
-  </si>
-  <si>
-    <t>验证用户名是否已经存在</t>
-  </si>
-  <si>
-    <t>userName:String</t>
-  </si>
-  <si>
-    <t>Boolean(表示用户名是否已经存在）</t>
-  </si>
-  <si>
-    <t>DaoUser.addUser</t>
-  </si>
-  <si>
-    <t>添加用户</t>
-  </si>
-  <si>
-    <t>user:BeanUser</t>
-  </si>
-  <si>
-    <t>Boolean(表示用户是否添加成功）</t>
-  </si>
-  <si>
-    <t>DaoUser.updateNickname</t>
-  </si>
-  <si>
-    <t>修改昵称</t>
-  </si>
-  <si>
-    <t>userName:Stirng, nickName:String</t>
-  </si>
-  <si>
-    <t>Boolean(表示昵称是否修改成功）</t>
-  </si>
-  <si>
-    <t>DaoUser.updatePassword</t>
-  </si>
-  <si>
-    <t>修改密码</t>
-  </si>
-  <si>
-    <t>userName:Stirng, password:String; oldPassword:String</t>
-  </si>
-  <si>
-    <t>Boolean(表示密码修改是否成功）</t>
-  </si>
-  <si>
-    <t>DaoUser.getScore</t>
-  </si>
-  <si>
-    <t>获得指定用户积分</t>
-  </si>
-  <si>
-    <t>int用户积分</t>
-  </si>
-  <si>
-    <t>DaoDistrict.getDistrict</t>
-  </si>
-  <si>
-    <t>返回地址</t>
-  </si>
-  <si>
-    <t>upDistrictID:int(上一级地区的ID，当为0的时候返回省直辖市的列表)</t>
-  </si>
-  <si>
-    <t>List&lt;BeanDistrict&gt;地址</t>
-  </si>
-  <si>
-    <t>DaoUserAddress.addAddress</t>
-  </si>
-  <si>
-    <t>地址簿添加地址</t>
-  </si>
-  <si>
-    <t>address:BeanAddress</t>
-  </si>
-  <si>
-    <t>Boolean(表示成功与否）</t>
-  </si>
-  <si>
-    <t>DaoUserAddress.deleteAddress</t>
-  </si>
-  <si>
-    <t>地址簿删除地址</t>
-  </si>
-  <si>
-    <t>addressID:int</t>
-  </si>
-  <si>
-    <t>DaoUserAddress.modifyAddress</t>
-  </si>
-  <si>
-    <t>地址簿修改地址</t>
-  </si>
-  <si>
-    <t>DaoUserAddress.getAddressNumber</t>
-  </si>
-  <si>
-    <t>获得地址簿的地址项数目</t>
-  </si>
-  <si>
-    <t>username:String</t>
-  </si>
-  <si>
-    <t>int 地址数</t>
-  </si>
-  <si>
-    <t>DaoUserAddress.listAddress</t>
-  </si>
-  <si>
-    <t>列出地址簿的地址</t>
-  </si>
-  <si>
-    <t>List&lt;BeanAddress&gt;</t>
-  </si>
-  <si>
-    <t>DaoUserAddress.getAddressDetail</t>
-  </si>
-  <si>
-    <t>获得指定地址详情</t>
-  </si>
-  <si>
-    <t>userName:String;addressID:地址ID</t>
-  </si>
-  <si>
-    <t>BeanAddress</t>
-  </si>
-  <si>
-    <t>DaoOrder.search</t>
-  </si>
-  <si>
-    <t>搜索订单</t>
-  </si>
-  <si>
-    <t>req:OrderRequire;userName:String</t>
-  </si>
-  <si>
-    <t>List&lt;Order&gt;(订单列表,Order中的Detail为NULL）</t>
-  </si>
-  <si>
-    <t>DaoOrder.getOrderDetail</t>
-  </si>
-  <si>
-    <t>获得订单详情</t>
-  </si>
-  <si>
-    <t>orderID:int;</t>
-  </si>
-  <si>
-    <t>Order(内有Order的detail)</t>
-  </si>
-  <si>
-    <t>DaoOrder.getRowNumber</t>
-  </si>
-  <si>
-    <t>获得符合搜索条件的订单总数</t>
-  </si>
-  <si>
-    <t>int符合条件的订单总数</t>
-  </si>
-  <si>
-    <t>DaoOrder.addOrder</t>
-  </si>
-  <si>
-    <t>userName:Stirng, order:Order</t>
-  </si>
-  <si>
-    <t>DaoOrder.updateOrder</t>
-  </si>
-  <si>
-    <t>修改订单</t>
-  </si>
-  <si>
-    <t>userName:String,order:Order</t>
-  </si>
-  <si>
-    <t>DaoOrder.deleteOrder</t>
-  </si>
-  <si>
-    <t>删除订单</t>
-  </si>
-  <si>
-    <t>userName:String,orderID:int</t>
-  </si>
-  <si>
-    <t>DaoBook.getInventory</t>
-  </si>
-  <si>
-    <t>获得库存数</t>
-  </si>
-  <si>
-    <t>bookID:int</t>
-  </si>
-  <si>
-    <t>int库存数</t>
-  </si>
-  <si>
-    <t>DaoBook.addBook</t>
-  </si>
-  <si>
-    <t>添加书</t>
-  </si>
-  <si>
-    <t>book:BeanBook</t>
-  </si>
-  <si>
-    <t>DaoBook.setInventory</t>
-  </si>
-  <si>
-    <t>设置对应书的库存</t>
-  </si>
-  <si>
-    <t>bookID:int; inventory:int(设置的库存数）</t>
-  </si>
-  <si>
-    <t>DaoBook.getDetail</t>
-  </si>
-  <si>
-    <t>获得书籍详情</t>
-  </si>
-  <si>
-    <t>book:BeanBook(书籍详情类）</t>
-  </si>
-  <si>
-    <t>DaoBook.search</t>
-  </si>
-  <si>
-    <t>搜索书籍</t>
-  </si>
-  <si>
-    <t>req:BookRequire</t>
-  </si>
-  <si>
-    <t>List&lt;BeanBook&gt;</t>
-  </si>
-  <si>
-    <t>DaoBook.getSearchRowNumber</t>
-  </si>
-  <si>
-    <t>获得符合搜索条件的书籍条目总数</t>
-  </si>
-  <si>
-    <t>int书籍搜索结果的条数</t>
-  </si>
-  <si>
-    <t>DaoBook.getCommentRowNumber</t>
-  </si>
-  <si>
-    <t>获得指定书籍的评论总数</t>
-  </si>
-  <si>
-    <t>int书籍评论总数</t>
-  </si>
-  <si>
-    <t>DaoBook.getComment</t>
-  </si>
-  <si>
-    <t>获得书籍评论</t>
-  </si>
-  <si>
-    <t>bookID:int;page:int;lines:int</t>
-  </si>
-  <si>
-    <t>List&lt;BeanComment&gt;</t>
-  </si>
-  <si>
-    <t>DaoBook.publishComment</t>
-  </si>
-  <si>
-    <t>发表指定书籍的评论</t>
-  </si>
-  <si>
-    <t>DaoCart.getBooks</t>
-  </si>
-  <si>
-    <t>获得会员的购物车中书箱记录</t>
-  </si>
-  <si>
-    <t>usdrName:String</t>
-  </si>
-  <si>
-    <t>List&lt;?bean&gt;(书籍列表）</t>
-  </si>
-  <si>
-    <t>DaoCart.addBook</t>
-  </si>
-  <si>
-    <t>往指定用户的购物车中添加书籍记录</t>
-  </si>
-  <si>
-    <t>userName:String;bookID:int;bookNumber:int</t>
-  </si>
-  <si>
-    <t>DaoCart.deleteBook</t>
-  </si>
-  <si>
-    <t>从指定用户的购物车中删除书籍记录</t>
-  </si>
-  <si>
-    <t>userName:String;bookID:int</t>
-  </si>
-  <si>
-    <t>DaoCart.modifyBook</t>
-  </si>
-  <si>
-    <t>修改指定用户的购物车修改书籍数量</t>
-  </si>
-  <si>
-    <t>DaoCart.clean</t>
-  </si>
-  <si>
-    <t>清除指定用户的购物车数据库数据</t>
-  </si>
-  <si>
-    <t>userName:String;</t>
-  </si>
-  <si>
-    <t>DaoCatalog.getCatalog</t>
-  </si>
-  <si>
-    <t>获得所有目录</t>
-  </si>
-  <si>
-    <t>List&lt;BeanCatalog&gt;(书籍目录）</t>
-  </si>
-  <si>
-    <t>DaoFavorityFolder.add</t>
-  </si>
-  <si>
-    <t>添加书籍进入收藏夹</t>
-  </si>
-  <si>
-    <t>userName:String;bookID:int;</t>
-  </si>
-  <si>
-    <t>DaoFavorityFolder.delete</t>
-  </si>
-  <si>
-    <t>删除指定用户的收藏夹书籍</t>
-  </si>
-  <si>
-    <t>userName:String;bookIDList:List&lt;Integer&gt;</t>
-  </si>
-  <si>
-    <t>comment:BeanComment</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelList:一维数组(一个包含ID,low,scoreRate);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；currentPage(当前页面)；totalPage（总页数）；</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentList(一维数组包含评论编号（commentID），用户名(username),打分(rating),内容(content),时间(date))；page（页数);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；currentPage(当前页面)；totalPage（总页数）；</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <name val="文泉驿正黑"/>
@@ -2258,6 +2428,12 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="文泉驿正黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2310,10 +2486,78 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2323,14 +2567,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2397,7 +2641,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2432,7 +2675,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2608,18 +2850,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:IV25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="26.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.75" style="1" customWidth="1"/>
     <col min="6" max="256" width="10" style="1" customWidth="1"/>
@@ -3021,6 +3263,20 @@
         <v>108</v>
       </c>
     </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="1.2477606300293931" right="1.2477606300293931" top="0.99987495602585208" bottom="0.99987495602585208" header="0.49993747801292604" footer="0.49993747801292604"/>
@@ -3029,19 +3285,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="27.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.75" style="1" customWidth="1"/>
+    <col min="2" max="3" width="21.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.625" style="1" customWidth="1"/>
     <col min="5" max="256" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3072,577 +3327,633 @@
       <c r="C2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>121</v>
+      <c r="D4" s="5" t="s">
+        <v>382</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>373</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>383</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>384</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>146</v>
+        <v>132</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>385</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>150</v>
+      <c r="D10" s="5" t="s">
+        <v>374</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>155</v>
+        <v>138</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>386</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>141</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>400</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>159</v>
+        <v>401</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>163</v>
+      <c r="D13" s="5" t="s">
+        <v>387</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>173</v>
+        <v>153</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>388</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>180</v>
+      <c r="D17" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>182</v>
+      <c r="A18" s="5" t="s">
+        <v>365</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>185</v>
+        <v>163</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>376</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>188</v>
+        <v>165</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>377</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>189</v>
+      <c r="D19" s="5" t="s">
+        <v>378</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>198</v>
+      <c r="D21" s="5" t="s">
+        <v>390</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>8</v>
+        <v>176</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>205</v>
+        <v>178</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.5" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>210</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A26" s="1" t="s">
-        <v>211</v>
+      <c r="A26" s="5" t="s">
+        <v>342</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>214</v>
+        <v>181</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>217</v>
+        <v>183</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>340</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.5" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>214</v>
+        <v>186</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>213</v>
+        <v>189</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C30" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A31" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>229</v>
+      <c r="D31" s="5" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.5" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>232</v>
+        <v>194</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>233</v>
+      <c r="A33" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>229</v>
+        <v>200</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A34" s="6" t="s">
-        <v>236</v>
+      <c r="A34" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>243</v>
+        <v>205</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>245</v>
+        <v>206</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>403</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>243</v>
+        <v>207</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A37" s="1" t="s">
-        <v>246</v>
+      <c r="A37" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>249</v>
+        <v>209</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A38" s="6" t="s">
-        <v>250</v>
+      <c r="A38" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" customHeight="1">
       <c r="A39" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>256</v>
+        <v>214</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A40" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -3653,11 +3964,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IV37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD37"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3671,525 +3982,525 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="7" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="5" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="7" t="s">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="7" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="7" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="7" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="5" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="5" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="7" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="5" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>352</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="7" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="5" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="5" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="5" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="5" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="5" t="s">
-        <v>373</v>
+        <v>333</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>375</v>
+        <v>335</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="5" t="s">
-        <v>376</v>
+        <v>336</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>377</v>
+        <v>337</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>378</v>
+        <v>338</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="1.2477606300293931" right="1.2477606300293931" top="0.99987495602585208" bottom="0.99987495602585208" header="0.49993747801292604" footer="0.49993747801292604"/>
-  <pageSetup paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="408">
   <si>
     <t>动作</t>
   </si>
@@ -972,9 +972,6 @@
   </si>
   <si>
     <t>添加地址</t>
-  </si>
-  <si>
-    <t>姓名name ，省份 districtLevel1,城市 districtLevel2 ,地区 districtLevel3 ，邮政编码 zipcode ,电话号码 phoneNum ,手机号码mobileNum</t>
   </si>
   <si>
     <t>跳转到地址簿</t>
@@ -2020,10 +2017,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));跳转到下单页面</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>addressId:</t>
     </r>
@@ -2389,6 +2382,18 @@
   </si>
   <si>
     <t>commentList(一维数组包含评论编号（commentID），用户名(username),打分(rating),内容(content),时间(date))；page（页数);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；currentPage(当前页面)；totalPage（总页数）；</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到地址簿</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名name ，省份 districtLevel1,城市 districtLevel2 ,地区 districtLevel3 ，邮政编码 zipcode ,电话号码 phoneNum ,手机号码mobileNum</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));level1Districts:一维数组（包含一个地区id(id),地区名字(name));跳转到下单页面</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -3265,16 +3270,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>368</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -3288,8 +3293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3328,7 +3333,7 @@
         <v>111</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>112</v>
@@ -3342,10 +3347,10 @@
         <v>114</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>115</v>
@@ -3362,7 +3367,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>118</v>
@@ -3379,7 +3384,7 @@
         <v>121</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>122</v>
@@ -3393,13 +3398,13 @@
         <v>124</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1">
@@ -3407,13 +3412,13 @@
         <v>125</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>126</v>
@@ -3430,7 +3435,7 @@
         <v>129</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>130</v>
@@ -3444,10 +3449,10 @@
         <v>132</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>133</v>
@@ -3464,7 +3469,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>136</v>
@@ -3478,10 +3483,10 @@
         <v>138</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>139</v>
@@ -3495,10 +3500,10 @@
         <v>141</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>142</v>
@@ -3515,7 +3520,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>145</v>
@@ -3528,432 +3533,432 @@
       <c r="B14" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1">
       <c r="A16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" customHeight="1">
       <c r="A21" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" customHeight="1">
       <c r="A22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.5" customHeight="1">
       <c r="A23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="C23" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.5" customHeight="1">
       <c r="A24" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="5" customFormat="1" ht="16.5" customHeight="1">
       <c r="A25" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>348</v>
-      </c>
       <c r="C25" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.5" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.5" customHeight="1">
       <c r="A27" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.5" customHeight="1">
       <c r="A28" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="C28" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.5" customHeight="1">
       <c r="A29" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="C29" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.5" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="C30" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" customHeight="1">
       <c r="A31" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.5" customHeight="1">
       <c r="A32" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" customHeight="1">
       <c r="A33" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>200</v>
-      </c>
       <c r="D33" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" customHeight="1">
       <c r="A34" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>203</v>
-      </c>
       <c r="D34" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" customHeight="1">
       <c r="A35" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>205</v>
-      </c>
       <c r="C35" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" customHeight="1">
       <c r="A36" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="D36" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" customHeight="1">
       <c r="A37" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>209</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" customHeight="1">
       <c r="A38" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" customHeight="1">
       <c r="A39" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>215</v>
-      </c>
       <c r="C39" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" customHeight="1">
       <c r="A40" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>354</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>360</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>363</v>
-      </c>
       <c r="C43" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -3982,520 +3987,520 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>245</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>253</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>255</v>
-      </c>
       <c r="C11" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>261</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>269</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>273</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>138</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>282</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>285</v>
-      </c>
       <c r="D20" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>288</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>292</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>295</v>
-      </c>
       <c r="D23" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C26" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>304</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>311</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>314</v>
-      </c>
       <c r="C29" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>321</v>
-      </c>
       <c r="D30" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>324</v>
-      </c>
       <c r="D31" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>326</v>
-      </c>
       <c r="C32" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>329</v>
-      </c>
       <c r="D33" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>330</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>331</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>335</v>
-      </c>
       <c r="D35" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>338</v>
-      </c>
       <c r="D36" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1">
       <c r="A37" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -2309,10 +2309,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>姓名name ，省份 districtLevel1,城市 districtLevel2 ,地区 districtLevel3 ，邮政编码 zipcode ,电话号码 phoneNum ,手机号码mobileNum,addressId:地址ID;catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>information：string的变量;catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -2394,6 +2390,10 @@
   </si>
   <si>
     <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));level1Districts:一维数组（包含一个地区id(id),地区名字(name));跳转到下单页面</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名name ，省份 districtLevel1List,城市 districtLevel2List,地区 districtLevel3List，邮政编码 zipcode ,电话号码 phoneNum ,手机号码mobileNum,addressId:地址ID;catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -3294,7 +3294,7 @@
   <dimension ref="A1:IV43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3398,13 +3398,13 @@
         <v>124</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1">
@@ -3412,10 +3412,10 @@
         <v>125</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>381</v>
@@ -3469,7 +3469,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>136</v>
@@ -3500,10 +3500,10 @@
         <v>141</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>399</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>142</v>
@@ -3534,10 +3534,10 @@
         <v>147</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>149</v>
@@ -3554,7 +3554,7 @@
         <v>152</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>154</v>
@@ -3588,7 +3588,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>160</v>
@@ -3656,7 +3656,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>173</v>
@@ -3748,7 +3748,7 @@
         <v>342</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.5" customHeight="1">
@@ -3762,7 +3762,7 @@
         <v>345</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.5" customHeight="1">
@@ -3776,7 +3776,7 @@
         <v>186</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" customHeight="1">
@@ -3818,7 +3818,7 @@
         <v>199</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" customHeight="1">
@@ -3846,7 +3846,7 @@
         <v>340</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" customHeight="1">
@@ -3854,13 +3854,13 @@
         <v>205</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>206</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" customHeight="1">
@@ -3874,7 +3874,7 @@
         <v>206</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" customHeight="1">
@@ -3910,13 +3910,13 @@
         <v>215</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>402</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3955,10 +3955,10 @@
         <v>362</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13785" windowHeight="6315" tabRatio="618" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="13785" windowHeight="6255" tabRatio="618" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="434">
   <si>
     <t>动作</t>
   </si>
@@ -1364,27 +1364,18 @@
     <t>DaoOrder.addOrder</t>
   </si>
   <si>
-    <t>userName:Stirng, order:Order</t>
-  </si>
-  <si>
     <t>DaoOrder.updateOrder</t>
   </si>
   <si>
     <t>修改订单</t>
   </si>
   <si>
-    <t>userName:String,order:Order</t>
-  </si>
-  <si>
     <t>DaoOrder.deleteOrder</t>
   </si>
   <si>
     <t>删除订单</t>
   </si>
   <si>
-    <t>userName:String,orderID:int</t>
-  </si>
-  <si>
     <t>DaoBook.getInventory</t>
   </si>
   <si>
@@ -1547,14 +1538,6 @@
     <t>comment:BeanComment</t>
   </si>
   <si>
-    <t>ISBN ，itemName(书名）， itemAuthor（作者姓名） ,itemPublishing（出版社） ,itemPublishingTime（出版时间） , itemEdition（版次）， itemPage（页数） ,itemBinding（装帧） , itemFormat（开本） ,itemPrice（价格） , itmePublishingPrice（出版价格） , itemDiscount（折扣） , itemStock（库存） ,itemBookDescribe （书籍描述）,itemBookClassify （书籍分类）, itemUserDiscuss（用户评论），itemComprehensiveRate（综合评级）,commentList(一维数组包含用户名(username),级别(rating),内容(content),时间(date))</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>startTime:开始索引时间(year:年，month:月;day:日）;endTime:结束索引时间（year：年，month:月，day:日），orderState:订单状态(0：未指定，1：已下单，2：已审核，3：交易成功，4：交易失败）,page:分页</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>admin/item_manager</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1564,10 +1547,6 @@
   </si>
   <si>
     <t>startTime:开始索引时间(year:年，month:月;day:日）;endTime:结束索引时间（year：年，month:月，day:日);catalogID:目录ID,limit(销售量下限）</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemName:publisher:catalogID;publishTime(year:年，month:月;day:日);version;searchPage(0:0~200,1:200~400;2:400~600,3:&gt;600);binding;booksize;price;discount(0:0`10,1:10`30,2:30`50,3:50`100,4:&gt;100）;page（第几页)</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
@@ -1961,10 +1940,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> userName:String; userLevel:(0:普通会员,1:银卡会员,2:金卡会员,3:白金会员；);startTime:开始索引时间(year:年，month:月;day:日）;endTime:结束索引时间（year：年，month:月，day:日); </t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>成功则跳转到用户管理</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -2006,10 +1981,6 @@
   </si>
   <si>
     <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；items:一维数组(itemID,itemName;sales;totalPrice),allTotalPrice(所有商品的总销售价）</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
@@ -2349,59 +2320,160 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>page：int(分页)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(score),市场价（marketPrice));recommand:推荐商品（id,itemName,price,picturePath)；currentPage(当前页面)；totalPage（总页数）；</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderList:一维数组（一个含有订单号(orderId)，收货人(receiver)，下单时间(orderTime)，订单状态（orderStatus字符串),订单总价(totalPrice)的类);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；currentPage(当前页面)；totalPage（总页数）；</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员查看订单详情</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员进入用户管理</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelList:一维数组(一个包含ID,low,scoreRate);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；currentPage(当前页面)；totalPage（总页数）；</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentList(一维数组包含评论编号（commentID），用户名(username),打分(rating),内容(content),时间(date))；page（页数);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；currentPage(当前页面)；totalPage（总页数）；</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到地址簿</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名name ，省份 districtLevel1,城市 districtLevel2 ,地区 districtLevel3 ，邮政编码 zipcode ,电话号码 phoneNum ,手机号码mobileNum</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));level1Districts:一维数组（包含一个地区id(id),地区名字(name));跳转到下单页面</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名name ，省份 districtLevel1List,城市 districtLevel2List,地区 districtLevel3List，邮政编码 zipcode ,电话号码 phoneNum ,手机号码mobileNum,addressId:地址ID;catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>DaoAdmin.validateAdmin</t>
+  </si>
+  <si>
+    <t>验证管理员</t>
+  </si>
+  <si>
+    <t>adminName:String;pwd:String</t>
+  </si>
+  <si>
+    <t>DaoCatalog.addCatalog</t>
+  </si>
+  <si>
+    <t>添加商品目录</t>
+  </si>
+  <si>
+    <t>catalog:BeanCatalog</t>
+  </si>
+  <si>
+    <t>DaoCatalog.modifyCatalog</t>
+  </si>
+  <si>
+    <t>修改商品目录</t>
+  </si>
+  <si>
+    <t>userName:Stirng, order:BeanOrder</t>
+  </si>
+  <si>
+    <t>order:BeanOrder</t>
+  </si>
+  <si>
+    <t>orderID:int</t>
+  </si>
+  <si>
+    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；items:一维数组(itemID,itemName;sales;totalPrice),allTotalPrice(所有商品的总销售价）</t>
+  </si>
+  <si>
+    <t>DaoOrder.getItemOrders</t>
+  </si>
+  <si>
+    <t>获取指定书籍的全部订单信息</t>
+  </si>
+  <si>
+    <t>List&lt;BeanOrder&gt;</t>
+  </si>
+  <si>
+    <t>DaoLevel.add</t>
+  </si>
+  <si>
+    <t>添加等级</t>
+  </si>
+  <si>
+    <t>level:BeanLevel</t>
+  </si>
+  <si>
+    <t>DaoLevel.update</t>
+  </si>
+  <si>
+    <t>修改等级</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> userName:String; userLevel:(0:普通会员,1:银卡会员,2:金卡会员,3:白金会员；);startTime:开始索引时间(year:年，month:月;day:日）;endTime:结束索引时间（year：年，month:月，day:日); </t>
+  </si>
+  <si>
+    <t>DaoUser.search</t>
+  </si>
+  <si>
+    <t>按照指定条件列出用户信息</t>
+  </si>
+  <si>
+    <t>req:UserRequire</t>
+  </si>
+  <si>
+    <t>List&lt;BeanUser&gt;</t>
+  </si>
+  <si>
+    <t>DaoComment.getAllCommment</t>
+  </si>
+  <si>
+    <t>获取所有评论</t>
+  </si>
+  <si>
+    <t>page:int;lines:int</t>
+  </si>
+  <si>
+    <t>DaoCOmment.getAllCommmentRowNum</t>
+  </si>
+  <si>
+    <t>获取评论条数</t>
+  </si>
+  <si>
+    <t>int(条数)</t>
+  </si>
+  <si>
+    <t>startTime:开始索引时间(year:年，month:月;day:日）;endTime:结束索引时间（year：年，month:月，day:日），orderState:订单状态(0：未指定，1：已下单，2：已审核，3：交易成功，4：交易失败）,page:分页</t>
+  </si>
+  <si>
+    <t>ISBN ，itemName(书名）， itemAuthor（作者姓名） ,itemPublishing（出版社） ,itemPublishingTime（出版时间） , itemEdition（版次）， itemPage（页数） ,itemBinding（装帧） , itemFormat（开本） ,itemPrice（价格） , itmePublishingPrice（出版价格） , itemDiscount（折扣） , itemStock（库存） ,itemBookDescribe （书籍描述）,itemBookClassify （书籍分类）, itemUserDiscuss（用户评论），itemComprehensiveRate（综合评级）,commentList(一维数组包含用户名(username),级别(rating),内容(content),时间(date))</t>
+  </si>
+  <si>
+    <t>itemName:publisher:catalogID;publishTime(year:年，month:月;day:日);version;searchPage(0:0~200,1:200~400;2:400~600,3:&gt;600);binding;booksize;price（0:0`10,1:10`30,2:30`50,3:50`100,4:&gt;100）;discount(0：所有；）;page（第几页)</t>
+  </si>
+  <si>
     <t>time:索引时间(0:所有，1：近一个月，2：近三个月，3：近一年）；orderState:订单状态(0：未指定，1：已下单，2：已审核，3：交易成功，4：交易失败）；page:分页</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>page：int(分页)</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(score),市场价（marketPrice));recommand:推荐商品（id,itemName,price,picturePath)；currentPage(当前页面)；totalPage（总页数）；</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderList:一维数组（一个含有订单号(orderId)，收货人(receiver)，下单时间(orderTime)，订单状态（orderStatus字符串),订单总价(totalPrice)的类);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；currentPage(当前页面)；totalPage（总页数）；</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员查看订单详情</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员进入用户管理</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>levelList:一维数组(一个包含ID,low,scoreRate);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；currentPage(当前页面)；totalPage（总页数）；</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>commentList(一维数组包含评论编号（commentID），用户名(username),打分(rating),内容(content),时间(date))；page（页数);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；currentPage(当前页面)；totalPage（总页数）；</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转到地址簿</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名name ，省份 districtLevel1,城市 districtLevel2 ,地区 districtLevel3 ，邮政编码 zipcode ,电话号码 phoneNum ,手机号码mobileNum</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));level1Districts:一维数组（包含一个地区id(id),地区名字(name));跳转到下单页面</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名name ，省份 districtLevel1List,城市 districtLevel2List,地区 districtLevel3List，邮政编码 zipcode ,电话号码 phoneNum ,手机号码mobileNum,addressId:地址ID;catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <name val="文泉驿正黑"/>
@@ -2410,12 +2482,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="文泉驿正黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00B0F0"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
@@ -2477,92 +2543,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2572,14 +2570,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2646,6 +2644,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2680,6 +2679,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2855,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV25"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
@@ -3202,13 +3202,13 @@
       <c r="A20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3219,35 +3219,35 @@
       <c r="B21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>104</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -3264,22 +3264,22 @@
       <c r="C24" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>368</v>
+      <c r="A25" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -3290,11 +3290,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3332,8 +3332,8 @@
       <c r="C2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>378</v>
+      <c r="D2" s="4" t="s">
+        <v>370</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>112</v>
@@ -3346,11 +3346,11 @@
       <c r="B3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>379</v>
+      <c r="C3" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>371</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>115</v>
@@ -3366,8 +3366,8 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>380</v>
+      <c r="D4" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>118</v>
@@ -3383,8 +3383,8 @@
       <c r="C5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>372</v>
+      <c r="D5" s="4" t="s">
+        <v>364</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>122</v>
@@ -3397,28 +3397,28 @@
       <c r="B6" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>392</v>
+      <c r="C6" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>381</v>
+      <c r="B7" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>373</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>126</v>
@@ -3434,8 +3434,8 @@
       <c r="C8" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>382</v>
+      <c r="D8" s="4" t="s">
+        <v>374</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>130</v>
@@ -3448,11 +3448,11 @@
       <c r="B9" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>383</v>
+      <c r="C9" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>375</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>133</v>
@@ -3468,8 +3468,8 @@
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>406</v>
+      <c r="D10" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>136</v>
@@ -3482,11 +3482,11 @@
       <c r="B11" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>384</v>
+      <c r="C11" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>376</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>139</v>
@@ -3499,11 +3499,11 @@
       <c r="B12" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>397</v>
+      <c r="C12" s="4" t="s">
+        <v>388</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>142</v>
@@ -3519,8 +3519,8 @@
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>385</v>
+      <c r="D13" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>145</v>
@@ -3533,11 +3533,11 @@
       <c r="B14" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>404</v>
+      <c r="C14" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>395</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>149</v>
@@ -3553,8 +3553,8 @@
       <c r="C15" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>407</v>
+      <c r="D15" s="4" t="s">
+        <v>398</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>154</v>
@@ -3587,25 +3587,25 @@
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>386</v>
+      <c r="D17" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>364</v>
+      <c r="A18" s="4" t="s">
+        <v>357</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>374</v>
+      <c r="D18" s="4" t="s">
+        <v>366</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>163</v>
@@ -3615,14 +3615,14 @@
       <c r="A19" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>375</v>
+      <c r="B19" s="4" t="s">
+        <v>367</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>376</v>
+      <c r="D19" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>165</v>
@@ -3655,8 +3655,8 @@
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>387</v>
+      <c r="D21" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>173</v>
@@ -3669,8 +3669,8 @@
       <c r="B22" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>363</v>
+      <c r="D22" s="4" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.5" customHeight="1">
@@ -3680,11 +3680,11 @@
       <c r="B23" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>377</v>
+      <c r="C23" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.5" customHeight="1">
@@ -3695,32 +3695,32 @@
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>349</v>
+    <row r="25" spans="1:5" s="4" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A25" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A26" s="5" t="s">
-        <v>341</v>
+      <c r="A26" s="4" t="s">
+        <v>336</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>369</v>
+      <c r="C26" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.5" customHeight="1">
@@ -3730,8 +3730,8 @@
       <c r="B27" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>339</v>
+      <c r="C27" s="4" t="s">
+        <v>431</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>183</v>
@@ -3744,11 +3744,11 @@
       <c r="B28" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>388</v>
+      <c r="C28" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.5" customHeight="1">
@@ -3758,11 +3758,11 @@
       <c r="B29" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>389</v>
+      <c r="C29" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.5" customHeight="1">
@@ -3772,11 +3772,11 @@
       <c r="B30" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>388</v>
+      <c r="D30" s="4" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" customHeight="1">
@@ -3789,12 +3789,12 @@
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>370</v>
+      <c r="D31" s="4" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>193</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -3803,32 +3803,32 @@
       <c r="C32" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>390</v>
+      <c r="D33" s="4" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>202</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -3836,129 +3836,129 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>399</v>
+      <c r="C35" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>400</v>
+      <c r="B36" s="4" t="s">
+        <v>391</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>391</v>
+      <c r="D36" s="4" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>208</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>391</v>
+      <c r="D37" s="4" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>371</v>
+      <c r="C39" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>402</v>
+      <c r="B40" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C41" s="5" t="s">
+      <c r="A41" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="D41" s="5" t="s">
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="4" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="B42" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>403</v>
+      <c r="C43" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -3969,11 +3969,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IV37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3986,521 +3986,644 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:4" s="4" customFormat="1">
+      <c r="A8" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="5" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="5" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="5" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:4" s="4" customFormat="1">
+      <c r="A16" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="5" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="5" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="5" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C20" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="B21" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B19" s="5" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="C22" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="5" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D23" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="7" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="7" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C26" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="D23" s="5" t="s">
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="5" t="s">
+    <row r="32" spans="1:4" s="4" customFormat="1">
+      <c r="A32" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D28" s="5" t="s">
+    </row>
+    <row r="33" spans="1:4" s="4" customFormat="1">
+      <c r="A33" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="4" customFormat="1">
+      <c r="A38" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="4" customFormat="1">
+      <c r="A40" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A43" s="7" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="7" t="s">
+      <c r="B43" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="C43" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="D43" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="D30" s="5" t="s">
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="D31" s="5" t="s">
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A37" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="437">
   <si>
     <t>动作</t>
   </si>
@@ -2467,6 +2467,15 @@
   </si>
   <si>
     <t>time:索引时间(0:所有，1：近一个月，2：近三个月，3：近一年）；orderState:订单状态(0：未指定，1：已下单，2：已审核，3：交易成功，4：交易失败）；page:分页</t>
+  </si>
+  <si>
+    <t>DaoOrder.getLatestOrder</t>
+  </si>
+  <si>
+    <t>获取用户最新的订单信息</t>
+  </si>
+  <si>
+    <t>BeanOrder(订单信息)</t>
   </si>
 </sst>
 </file>
@@ -3970,10 +3979,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV46"/>
+  <dimension ref="A1:IV47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4293,43 +4302,43 @@
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="6" t="s">
-        <v>282</v>
+    <row r="23" spans="1:4" s="4" customFormat="1">
+      <c r="A23" s="4" t="s">
+        <v>434</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>283</v>
+        <v>435</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>285</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>249</v>
@@ -4337,136 +4346,136 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>297</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="6" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="4" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="6" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="4" customFormat="1">
-      <c r="A32" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="4" customFormat="1">
       <c r="A33" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="4" customFormat="1">
+      <c r="A34" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>429</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>249</v>
@@ -4474,13 +4483,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>249</v>
@@ -4488,69 +4497,69 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="4" customFormat="1">
+    <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
-        <v>402</v>
+        <v>323</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>403</v>
+        <v>324</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>404</v>
+        <v>325</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" s="4" customFormat="1">
       <c r="A39" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="4" customFormat="1">
-      <c r="A40" s="4" t="s">
+    <row r="41" spans="1:4" s="4" customFormat="1">
+      <c r="A41" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>404</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>331</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>249</v>
@@ -4558,55 +4567,55 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A43" s="7" t="s">
+    <row r="43" spans="1:4">
+      <c r="A43" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A44" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B44" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D44" s="7" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>249</v>
@@ -4614,15 +4623,29 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>416</v>
       </c>
       <c r="D46" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>249</v>
       </c>
     </row>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3981,8 +3981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="13785" windowHeight="6255" tabRatio="618" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="13785" windowHeight="6195" tabRatio="618" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="439">
   <si>
     <t>动作</t>
   </si>
@@ -2476,6 +2476,12 @@
   </si>
   <si>
     <t>BeanOrder(订单信息)</t>
+  </si>
+  <si>
+    <t>DaoLevel.judgeLevel</t>
+  </si>
+  <si>
+    <t>判断积分等级</t>
   </si>
 </sst>
 </file>
@@ -3979,10 +3985,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV47"/>
+  <dimension ref="A1:IV48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4468,7 +4474,7 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="6" t="s">
         <v>315</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -4482,7 +4488,7 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="6" t="s">
         <v>318</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -4608,7 +4614,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="6" t="s">
         <v>399</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -4647,6 +4653,14 @@
       </c>
       <c r="D47" s="4" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="46" windowWidth="13776" windowHeight="6241" activeTab="1" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="13761" windowHeight="6226" activeTab="1" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="462">
   <si>
     <t>动作</t>
   </si>
@@ -72,7 +72,7 @@
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">验证码_x000D__x000D_+      <t xml:space="preserve">验证码_x000D__x000D__x000D_ </t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -92,7 +92,7 @@
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">表示验证码是否正确）_x000D__x000D__x000D_+      <t xml:space="preserve">表示验证码是否正确）_x000D__x000D__x000D__x000D_ </t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -126,27 +126,77 @@
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">信息_x000D__x000D__x000D_+      <t xml:space="preserve">信息_x000D__x000D__x000D__x000D_ </t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>userName:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户名</t>
+    <t>username:用户名;nickname:昵称;loginErrorTimes:错误次数</t>
+  </si>
+  <si>
+    <t>GetSessionInfoAction</t>
+  </si>
+  <si>
+    <t>regist/check_name</t>
+  </si>
+  <si>
+    <t>检查用户名是否已注册</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">用户名_x000D__x000D__x000D_+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>checkResult:boolean(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">表示用户名是否已经被使用）_x000D__x000D__x000D__x000D_+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckUserNameAction</t>
+  </si>
+  <si>
+    <t>user/update_nickname</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提交</t>
     </r>
     <r>
       <rPr>
@@ -154,15 +204,56 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>;nickName:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>昵称</t>
+      <t>nickname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的修改_x000D__x000D__x000D__x000D_+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nickname:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">昵称_x000D__x000D__x000D_+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateResult:boolean（表示nickname修改成功与否）</t>
+  </si>
+  <si>
+    <t>UpdateNicknameAction</t>
+  </si>
+  <si>
+    <t>user/update_password</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提交</t>
     </r>
     <r>
       <rPr>
@@ -170,82 +261,35 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>;loginErrorTimes:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">错误次数_x000D__x000D__x000D_+      <t>password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的修改_x000D__x000D__x000D__x000D_ </t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>GetSessionInfoAction</t>
-  </si>
-  <si>
-    <t>regist/check_name</t>
-  </si>
-  <si>
-    <t>检查用户名是否已注册</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">用户名_x000D__x000D_-</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>checkResult:boolean(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">表示用户名是否已经被使用）_x000D__x000D__x000D_-</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckUserNameAction</t>
-  </si>
-  <si>
-    <t>user/update_nickname</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>提交</t>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>password:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原密码；</t>
     </r>
     <r>
       <rPr>
@@ -253,55 +297,15 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>nickname</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">的修改_x000D__x000D__x000D_-</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>nickname:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">昵称_x000D__x000D_-</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>updateNicknameResult:boolean</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（表示</t>
+      <t>newPassword</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：新密码</t>
     </r>
     <r>
       <rPr>
@@ -309,33 +313,62 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>nickname</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">修改成功与否）_x000D__x000D__x000D_+      <t>;newPasswordConfirm:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">新密码确认_x000D__x000D__x000D_ </t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>UpdateNicknameAction</t>
-  </si>
-  <si>
-    <t>user/update_password</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>提交</t>
+    <t>updateResult:boolean (表示密码修改成功与否）</t>
+  </si>
+  <si>
+    <t>UpdatePasswordAction</t>
+  </si>
+  <si>
+    <t>address/get_next_level</t>
+  </si>
+  <si>
+    <t>获得下一级的地区信息</t>
+  </si>
+  <si>
+    <t>Id:上一级的地区id</t>
+  </si>
+  <si>
+    <t>nextLevelList:json_array,元素包含地区id(Id)和名字(name)</t>
+  </si>
+  <si>
+    <t>GetNextLevelAction</t>
+  </si>
+  <si>
+    <t>address/delete_address</t>
+  </si>
+  <si>
+    <t>删除地址</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>addressId:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址</t>
     </r>
     <r>
       <rPr>
@@ -343,15 +376,7 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">的修改_x000D__x000D__x000D_+      <t xml:space="preserve">ID_x000D__x000D__x000D_ </t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -363,15 +388,128 @@
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
-      <t>password:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>原密码；</t>
+      <t>deleteResult:boolean(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">地址删除与否）_x000D__x000D__x000D__x000D_+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddressDeleteAction</t>
+  </si>
+  <si>
+    <t>order/check_item</t>
+  </si>
+  <si>
+    <t>检查商品库存是否够</t>
+  </si>
+  <si>
+    <t>itemId:商品ID， itemNum:商品数量（总量）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>checkResult:boolean(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">表示库存是否足够）_x000D__x000D__x000D__x000D_+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemCheckInventoryAction</t>
+  </si>
+  <si>
+    <t>order/delete_order</t>
+  </si>
+  <si>
+    <t>提交订单删除</t>
+  </si>
+  <si>
+    <t>orderId:订单号；</t>
+  </si>
+  <si>
+    <t>deleteResult:boolean(订单删除与否）</t>
+  </si>
+  <si>
+    <t>OrderDeleteAction</t>
+  </si>
+  <si>
+    <t>order/check_score</t>
+  </si>
+  <si>
+    <t>验证积分使用是否合法</t>
+  </si>
+  <si>
+    <t>score:积分</t>
+  </si>
+  <si>
+    <t>checkResult(积分使用是否合法</t>
+  </si>
+  <si>
+    <t>CheckScoreAction</t>
+  </si>
+  <si>
+    <t>cart/add_to_cart</t>
+  </si>
+  <si>
+    <t>将商品添加到购物车不跳转</t>
+  </si>
+  <si>
+    <t>itemId:商品ID， itemNumber:商品数量</t>
+  </si>
+  <si>
+    <t>addResult:boolean(商品添加是否成功）</t>
+  </si>
+  <si>
+    <t>CartAddItemAction</t>
+  </si>
+  <si>
+    <t>cart/delete</t>
+  </si>
+  <si>
+    <t>删除购物车的商品</t>
+  </si>
+  <si>
+    <t>itemId:商品ID</t>
+  </si>
+  <si>
+    <t>deleteResult:boolean(商品删除是否成功）</t>
+  </si>
+  <si>
+    <t>CartDeleteItemAction</t>
+  </si>
+  <si>
+    <t>favortite/delete_favorite</t>
+  </si>
+  <si>
+    <t>提交收藏夹删除</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>itemId:商品</t>
     </r>
     <r>
       <rPr>
@@ -379,15 +517,15 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>newPassword</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：新密码</t>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数组</t>
     </r>
     <r>
       <rPr>
@@ -395,76 +533,153 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>;newPasswordConfirm:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">新密码确认_x000D__x000D_+      <t xml:space="preserve">json_x000D__x000D__x000D__x000D_ </t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>updatePasswordResult:boolean (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">表示密码修改成功与否）_x000D__x000D__x000D_-</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpdatePasswordAction</t>
-  </si>
-  <si>
-    <t>address/get_next_level</t>
-  </si>
-  <si>
-    <t>获得下一级的地区信息</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>id:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">上一级的地区id_x000D__x000D_-</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>nextLevelList:json_array,元素包含地区id(id)和名字(name)</t>
+    <t>deleteResult:boolean(收藏夹删除成功与否）</t>
+  </si>
+  <si>
+    <t>FavoriteDeleteAction</t>
+  </si>
+  <si>
+    <t>favortite/add_favorite</t>
+  </si>
+  <si>
+    <t>添加至收藏夹</t>
+  </si>
+  <si>
+    <t>addResult:boolean(商品添加至收藏夹是否成功）</t>
+  </si>
+  <si>
+    <t>FavoriteAddAction</t>
+  </si>
+  <si>
+    <t>item/comment</t>
+  </si>
+  <si>
+    <t>用户提交评论</t>
+  </si>
+  <si>
+    <t>itemId:商品ID,content:评论内容；rating:int(0-5的整数）</t>
+  </si>
+  <si>
+    <t>submitResult:boolean(评论提交成功与否）</t>
+  </si>
+  <si>
+    <t>ItemCommentAction</t>
+  </si>
+  <si>
+    <t>admin/item_manager/off</t>
+  </si>
+  <si>
+    <t>商品下架</t>
+  </si>
+  <si>
+    <t>itemID;商品ID</t>
+  </si>
+  <si>
+    <t>offResult:boolean(商品下架操作成功与否）</t>
+  </si>
+  <si>
+    <t>admin/item_manager/delete</t>
+  </si>
+  <si>
+    <t>商品删除</t>
+  </si>
+  <si>
+    <t>admin/catalog_manager/delete</t>
+  </si>
+  <si>
+    <t>目录删除</t>
+  </si>
+  <si>
+    <t>catalogIDList:要删除商品目录ID列表</t>
+  </si>
+  <si>
+    <t>deleteResult:boolean(商品目录删除是否成功）</t>
+  </si>
+  <si>
+    <t>admin/order/pass</t>
+  </si>
+  <si>
+    <t>审核通过</t>
+  </si>
+  <si>
+    <t>orderIDList:订单审核的订单号列表；</t>
+  </si>
+  <si>
+    <t>checkResult:boolean(订单审核成功与否）</t>
+  </si>
+  <si>
+    <t>admin/order/success</t>
+  </si>
+  <si>
+    <t>修改订单为交易成功</t>
+  </si>
+  <si>
+    <t>orderIDList:订单成功的订单号列表；</t>
+  </si>
+  <si>
+    <t>changeResult:boolean(订单状态修改成功与否）</t>
+  </si>
+  <si>
+    <t>admin/order/fail</t>
+  </si>
+  <si>
+    <t>orderIDList:交易失败的订单号列表；</t>
+  </si>
+  <si>
+    <t>admin/order/delete</t>
+  </si>
+  <si>
+    <t>删除指定订单</t>
+  </si>
+  <si>
+    <t>orderID</t>
+  </si>
+  <si>
+    <t>deleteReslult:boolean(订单删除成功与否）</t>
+  </si>
+  <si>
+    <t>admin/comment/delete</t>
+  </si>
+  <si>
+    <t>删除评论</t>
+  </si>
+  <si>
+    <t>commentID：int</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> deleteResult:boolean(评论删除成功与否)</t>
+  </si>
+  <si>
+    <t>目标jsp页面</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>提交登陆信息</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户名；</t>
     </r>
     <r>
       <rPr>
@@ -472,36 +687,15 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">_x000D__x000D__x000D_-</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetNextLevelAction</t>
-  </si>
-  <si>
-    <t>address/delete_address</t>
-  </si>
-  <si>
-    <t>删除地址</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>addressId:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地址</t>
+      <t>password:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>密码；</t>
     </r>
     <r>
       <rPr>
@@ -509,7 +703,15 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ID_x000D__x000D_+      <t>captchaValue:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">验证码；toURL:成功后跳转页面_x000D__x000D__x000D__x000D_ </t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -521,44 +723,44 @@
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
-      <t>deleteResult:boolean(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">地址删除与否）_x000D__x000D__x000D_+      <t>loginResult:boolean(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">表示登陆成功与否)，成功后跳转登陆前页面_x000D__x000D__x000D__x000D_ </t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>AddressDeleteAction</t>
-  </si>
-  <si>
-    <t>order/check_item</t>
-  </si>
-  <si>
-    <t>检查商品库存是否够</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>itemId:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>商品</t>
+    <t>LoginAction</t>
+  </si>
+  <si>
+    <t>regist</t>
+  </si>
+  <si>
+    <t>提交注册信息</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户名</t>
     </r>
     <r>
       <rPr>
@@ -566,15 +768,15 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
+      <t>;password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：密码；</t>
     </r>
     <r>
       <rPr>
@@ -582,116 +784,15 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> itemNumber:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">商品数量（总量）_x000D__x000D__x000D_-</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>checkResult:boolean(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">表示库存是否足够）_x000D__x000D__x000D_-</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemCheckInventoryAction</t>
-  </si>
-  <si>
-    <t>order/delete_order</t>
-  </si>
-  <si>
-    <t>提交订单删除</t>
-  </si>
-  <si>
-    <t>orderId:订单号；</t>
-  </si>
-  <si>
-    <t>deleteResult:boolean(订单删除与否）</t>
-  </si>
-  <si>
-    <t>OrderDeleteAction</t>
-  </si>
-  <si>
-    <t>order/check_score</t>
-  </si>
-  <si>
-    <t>验证积分使用是否合法</t>
-  </si>
-  <si>
-    <t>score:积分</t>
-  </si>
-  <si>
-    <t>checkResult(积分使用是否合法</t>
-  </si>
-  <si>
-    <t>CheckScoreAction</t>
-  </si>
-  <si>
-    <t>cart/add_to_cart</t>
-  </si>
-  <si>
-    <t>将商品添加到购物车不跳转</t>
-  </si>
-  <si>
-    <t>itemId:商品ID， itemNumber:商品数量</t>
-  </si>
-  <si>
-    <t>addResult:boolean(商品添加是否成功）</t>
-  </si>
-  <si>
-    <t>CartAddItemAction</t>
-  </si>
-  <si>
-    <t>cart/delete</t>
-  </si>
-  <si>
-    <t>删除购物车的商品</t>
-  </si>
-  <si>
-    <t>itemId:商品ID</t>
-  </si>
-  <si>
-    <t>deleteResult:boolean(商品删除是否成功）</t>
-  </si>
-  <si>
-    <t>CartDeleteItemAction</t>
-  </si>
-  <si>
-    <t>favortite/delete_favorite</t>
-  </si>
-  <si>
-    <t>提交收藏夹删除</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>itemId:商品</t>
+      <t>passwordConfirm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：密码确认；</t>
     </r>
     <r>
       <rPr>
@@ -699,15 +800,15 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数组</t>
+      <t>nickname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：昵称</t>
     </r>
     <r>
       <rPr>
@@ -715,150 +816,15 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">json_x000D__x000D__x000D_-</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>deleteResult:boolean(收藏夹删除成功与否）</t>
-  </si>
-  <si>
-    <t>FavoriteDeleteAction</t>
-  </si>
-  <si>
-    <t>favortite/add_favorite</t>
-  </si>
-  <si>
-    <t>添加至收藏夹</t>
-  </si>
-  <si>
-    <t>addResult:boolean(商品添加至收藏夹是否成功）</t>
-  </si>
-  <si>
-    <t>FavoriteAddAction</t>
-  </si>
-  <si>
-    <t>item/comment</t>
-  </si>
-  <si>
-    <t>用户提交评论</t>
-  </si>
-  <si>
-    <t>itemId:商品ID,content:评论内容；rating:int(0-5的整数）</t>
-  </si>
-  <si>
-    <t>submitResult:boolean(评论提交成功与否）</t>
-  </si>
-  <si>
-    <t>ItemCommentAction</t>
-  </si>
-  <si>
-    <t>admin/item_manager/off</t>
-  </si>
-  <si>
-    <t>商品下架</t>
-  </si>
-  <si>
-    <t>itemID;商品ID</t>
-  </si>
-  <si>
-    <t>offResult:boolean(商品下架操作成功与否）</t>
-  </si>
-  <si>
-    <t>admin/item_manager/delete</t>
-  </si>
-  <si>
-    <t>商品删除</t>
-  </si>
-  <si>
-    <t>admin/catalog_manager/delete</t>
-  </si>
-  <si>
-    <t>目录删除</t>
-  </si>
-  <si>
-    <t>catalogIDList:要删除商品目录ID列表</t>
-  </si>
-  <si>
-    <t>deleteResult:boolean(商品目录删除是否成功）</t>
-  </si>
-  <si>
-    <t>admin/order/pass</t>
-  </si>
-  <si>
-    <t>审核通过</t>
-  </si>
-  <si>
-    <t>orderIDList:订单审核的订单号列表；</t>
-  </si>
-  <si>
-    <t>checkResult:boolean(订单审核成功与否）</t>
-  </si>
-  <si>
-    <t>admin/order/success</t>
-  </si>
-  <si>
-    <t>修改订单为交易成功</t>
-  </si>
-  <si>
-    <t>orderIDList:订单成功的订单号列表；</t>
-  </si>
-  <si>
-    <t>changeResult:boolean(订单状态修改成功与否）</t>
-  </si>
-  <si>
-    <t>admin/order/fail</t>
-  </si>
-  <si>
-    <t>orderIDList:交易失败的订单号列表；</t>
-  </si>
-  <si>
-    <t>admin/order/delete</t>
-  </si>
-  <si>
-    <t>删除指定订单</t>
-  </si>
-  <si>
-    <t>orderID</t>
-  </si>
-  <si>
-    <t>deleteReslult:boolean(订单删除成功与否）</t>
-  </si>
-  <si>
-    <t>admin/comment/delete</t>
-  </si>
-  <si>
-    <t>删除评论</t>
-  </si>
-  <si>
-    <t>commentID：int</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> deleteResult:boolean(评论删除成功与否)</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>提交登陆信息</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户名；</t>
+      <t>;securityQuestion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安全问题</t>
     </r>
     <r>
       <rPr>
@@ -866,15 +832,15 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>password:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>密码；</t>
+      <t>;securityAnswer:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安全答案</t>
     </r>
     <r>
       <rPr>
@@ -882,64 +848,134 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>captchaValue:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">验证码；toURL:成功后跳转页面_x000D__x000D__x000D_+      <t>;captchaValue:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">验证码;toURL:成功后跳转页面_x000D__x000D__x000D__x000D_ </t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>loginResult:boolean(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">表示登陆成功与否)，成功后跳转登陆前页面_x000D__x000D__x000D_-</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoginAction</t>
-  </si>
-  <si>
-    <t>regist</t>
-  </si>
-  <si>
-    <t>提交注册信息</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户名</t>
+    <t>registerResult:boolean(表示注册是否成功),成功后跳转注册前页面</t>
+  </si>
+  <si>
+    <t>RegisterAction</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>首页列出信息</t>
+  </si>
+  <si>
+    <t>nickname:String;cartItemNumber:int;catalog:一维数组（一个含有名字(name)和简介(desc),目录的id，二级目录的一维数组（含有名字(name)和简介(desc),目录的id，一个空的一维数组））；recommendItem:一维数组（一个含有商品ID（itemId)，名字(name)，折扣价(price),折扣(savePrice)和图片路径(picturePath) 的类)；newBook:一维数组（类与recommendItem相同）；hotBook:一维数组（类与recommendItem相同）</t>
+  </si>
+  <si>
+    <t>IndexAction</t>
+  </si>
+  <si>
+    <t>index.jsp</t>
+  </si>
+  <si>
+    <t>item_list</t>
+  </si>
+  <si>
+    <t>列出搜索商品</t>
+  </si>
+  <si>
+    <t>name;publisher:catalogId;publishTime;edition;searchPage();binding;booksize;price;discount;author;description;pageNum（第几页)</t>
+  </si>
+  <si>
+    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(rating),市场价（marketPrice));recommend:推荐商品（itemId,name,price,picturePath)</t>
+  </si>
+  <si>
+    <t>ItemListAction</t>
+  </si>
+  <si>
+    <t>item_list.jsp</t>
+  </si>
+  <si>
+    <t>order_list</t>
+  </si>
+  <si>
+    <t>列出订单</t>
+  </si>
+  <si>
+    <t>time:索引时间(0:所有，1：近一个月，2：近三个月，3：近一年）；orderStatus:订单状态(0：未指定，1：已下单，2：已审核，3：交易成功，4：交易失败）；page:分页</t>
+  </si>
+  <si>
+    <t>orderList:一维数组（一个含有订单号(orderId)，收货人(receiverName)，下单时间(orderTime)，订单状态（orderStatus字符串),订单总价(totalPrice)的类),catalog:二维数组（id,目录的ID，一个含有名字(name)和简介(desc)的类）;currentPage(当前页面)；totalPage（总页数）；</t>
+  </si>
+  <si>
+    <t>OrderListAction</t>
+  </si>
+  <si>
+    <t>order_list.jsp</t>
+  </si>
+  <si>
+    <t>order_detail</t>
+  </si>
+  <si>
+    <t>订单详情</t>
+  </si>
+  <si>
+    <t>orderId:int</t>
+  </si>
+  <si>
+    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiverName);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(mobileNum,收货人电话(phoneNum),items:一维数组（一个包含商品ID（itemId),商品名字（name),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber))</t>
+  </si>
+  <si>
+    <t>OrderDetailAction</t>
+  </si>
+  <si>
+    <t>order_info.jsp</t>
+  </si>
+  <si>
+    <t>order_edit</t>
+  </si>
+  <si>
+    <t>订单修改</t>
+  </si>
+  <si>
+    <t>orderId:订单号</t>
+  </si>
+  <si>
+    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber))省列表</t>
+  </si>
+  <si>
+    <t>orderEditAction</t>
+  </si>
+  <si>
+    <t>order_edit.jsp</t>
+  </si>
+  <si>
+    <t>order_update</t>
+  </si>
+  <si>
+    <t>提交订单修改</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>orderId:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单号；</t>
     </r>
     <r>
       <rPr>
@@ -947,15 +983,15 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>;password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：密码；</t>
+      <t>addressId:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址</t>
     </r>
     <r>
       <rPr>
@@ -963,15 +999,15 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>passwordConfirm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：密码确认；</t>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（使用不在地址簿中的地址的时候为</t>
     </r>
     <r>
       <rPr>
@@ -979,15 +1015,15 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>nickname</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：昵称</t>
+      <t>null)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
     </r>
     <r>
       <rPr>
@@ -995,15 +1031,15 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>;securityQuestion:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>安全问题</t>
+      <t>receiverName:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收货人；</t>
     </r>
     <r>
       <rPr>
@@ -1011,15 +1047,15 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>;securityAnswer:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>安全答案</t>
+      <t>level1Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一级地区名称；</t>
     </r>
     <r>
       <rPr>
@@ -1027,35 +1063,15 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>;captchaValue:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">验证码;toURL:成功后跳转页面_x000D__x000D__x000D_-</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>register_result:boolean(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表示注册是否成功</t>
+      <t>level2Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二级地区名称</t>
     </r>
     <r>
       <rPr>
@@ -1063,116 +1079,15 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>),</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">成功后跳转注册前页面_x000D__x000D__x000D_-</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterAction</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>首页列出信息</t>
-  </si>
-  <si>
-    <t>nickname:String;shopItemNumber:int;catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；recommendItem:一维数组（一个含有商品ID（itemId)，名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) 的类)；newBook:一维数组（类与recommendItem相同）；hotBook:一维数组（类与recommendItem相同）</t>
-  </si>
-  <si>
-    <t>IndexAction</t>
-  </si>
-  <si>
-    <t>item_list</t>
-  </si>
-  <si>
-    <t>列出搜索商品</t>
-  </si>
-  <si>
-    <t>bookName:string;itemName:publisher:class;publishTime;version;searchPage(页数);binding;booksize;price;discount(待定）;page（第几页)</t>
-  </si>
-  <si>
-    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(score),市场价（marketPrice));recommand:推荐商品（id,itemName,price,picturePath)</t>
-  </si>
-  <si>
-    <t>ItemListAction</t>
-  </si>
-  <si>
-    <t>order_list</t>
-  </si>
-  <si>
-    <t>列出订单</t>
-  </si>
-  <si>
-    <t>time:索引时间(0:所有，1：近一个月，2：近三个月，3：近一年）；orderState:订单状态(0：未指定，1：已下单，2：已审核，3：交易成功，4：交易失败）；page:分页</t>
-  </si>
-  <si>
-    <t>orderList:一维数组（一个含有订单号(orderId)，收货人(receiver)，下单时间(orderTime)，订单状态（orderStatus字符串),订单总价(totalPrice)的类),catalog:二维数组（id,目录的ID，一个含有名字(name)和简介(desc)的类）;currentPage(当前页面)；totalPage（总页数）；</t>
-  </si>
-  <si>
-    <t>OrderListAction</t>
-  </si>
-  <si>
-    <t>order_detail</t>
-  </si>
-  <si>
-    <t>订单详情</t>
-  </si>
-  <si>
-    <t>orderId:int</t>
-  </si>
-  <si>
-    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber))</t>
-  </si>
-  <si>
-    <t>OrderDetailAction</t>
-  </si>
-  <si>
-    <t>order_edit</t>
-  </si>
-  <si>
-    <t>订单修改</t>
-  </si>
-  <si>
-    <t>orderId:订单号</t>
-  </si>
-  <si>
-    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber))</t>
-  </si>
-  <si>
-    <t>orderEditAction</t>
-  </si>
-  <si>
-    <t>order_update</t>
-  </si>
-  <si>
-    <t>提交订单修改</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>orderId:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>订单号；</t>
+      <t>;level3Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三级地区名称；</t>
     </r>
     <r>
       <rPr>
@@ -1180,15 +1095,15 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>addressId:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地址</t>
+      <t>addressDetail:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地区详情；</t>
     </r>
     <r>
       <rPr>
@@ -1196,15 +1111,15 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（使用不在地址簿中的地址的时候为</t>
+      <t>zipcode:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮政编码；</t>
     </r>
     <r>
       <rPr>
@@ -1212,15 +1127,15 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>null)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
+      <t>phoneNumber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：电话号码；</t>
     </r>
     <r>
       <rPr>
@@ -1228,15 +1143,15 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>receiverName:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>收货人；</t>
+      <t>mobileNumber:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手机号码</t>
     </r>
     <r>
       <rPr>
@@ -1244,15 +1159,15 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>level1Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一级地区名称；</t>
+      <t>;items:json_array(id:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品</t>
     </r>
     <r>
       <rPr>
@@ -1260,103 +1175,7 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>level2Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>二级地区名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>;level3Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>三级地区名称；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>addressDetail:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地区详情；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>zipcode:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮政编码；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>phoneNumber</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：电话号码；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>mobileNumber:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>手机号码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>;items:json_array(id:</t>
+      <t>ID;value:</t>
     </r>
     <r>
       <rPr>
@@ -1364,22 +1183,6 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>商品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID;value:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>商品数量</t>
     </r>
     <r>
@@ -1388,7 +1191,7 @@
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">）)_x000D_+      <t xml:space="preserve">）)_x000D__x000D_ </t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -1406,236 +1209,33 @@
     <t>下单</t>
   </si>
   <si>
-    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));level1Districts:一维数组（包含一个地区id(id),地区名字(name));跳转到下单页面</t>
+    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiverName);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(mobileNum),收货人电话(phoneNum),items:一维数组（一个包含商品ID（itemId),商品名字（name),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));level1Districts:一维数组（包含一个地区id(Id),地区名字(name));跳转到下单页面</t>
   </si>
   <si>
     <t>OrderEnterAction</t>
   </si>
   <si>
+    <t>order_confirm.jsp</t>
+  </si>
+  <si>
     <t>order_submit</t>
   </si>
   <si>
     <t>提交订单</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>addressId:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（使用新地址的时候为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>null)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>receiverName:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>收货人；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>level1Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一级地区名称；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>level2Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>二级地区名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>;level3Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>三级地区名称；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>addressDetail:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地区详情；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>zipcode:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮政编码；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>phoneNumber</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：电话号码；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>mobileNumber:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>手机号码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>;items:json_array(id:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>商品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">;value:商品数量）score:使用的积分_x000D_-</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；跳转下单成功</t>
+    <t>addressId:地址ID（使用新地址的时候为null)；receiverName:收货人；level1Id:一级地区id；level2Id:二级地区id;level3Id:三级地区id；addressDetail:地区详情；zipcode:邮政编码；phoneNum：电话号码；mobileNum手机号码;items:json_array(itemId:商品ID;itemNumber:商品数量）score:使用的积分</t>
+  </si>
+  <si>
+    <t>用户名(username);下单时间(orderTime字符串);订单金额(price)；跳转下单成功</t>
   </si>
   <si>
     <t>OrderSubmitAction</t>
   </si>
   <si>
+    <t>order_success.jsp</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -1645,24 +1245,30 @@
     <t>page：int(分页)</t>
   </si>
   <si>
-    <t>items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(score),市场价（marketPrice));recommand:推荐商品（id,itemName,price,picturePath)；currentPage(当前页面)；totalPage（总页数）；</t>
+    <t>items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(rating),市场价（marketPrice));recommend:推荐商品（itemId,name,price,picturePath)；currentPage(当前页面)；totalPage（总页数）；</t>
   </si>
   <si>
     <t>FavoriteEnterAction</t>
   </si>
   <si>
+    <t>favorite.jsp</t>
+  </si>
+  <si>
     <t>address</t>
   </si>
   <si>
     <t>地址簿地址</t>
   </si>
   <si>
-    <t>addressList:一维的数组（地址的字符串address，地址的ID ）,level1Districts:一维数组（包含一个地区id(id),地区名字(name));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+    <t>addressList:一维的数组（地址的字符串address，地址的Id ）,level1Districts:一维数组（包含一个地区id(Id),地区名字(name));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
     <t>AddressEnterAction</t>
   </si>
   <si>
+    <t>address.jsp</t>
+  </si>
+  <si>
     <t>submit_address</t>
   </si>
   <si>
@@ -1687,12 +1293,15 @@
     <t>addressId;地址ID</t>
   </si>
   <si>
-    <t>姓名name ，省份 districtLevel1List,城市 districtLevel2List,地区 districtLevel3List，邮政编码 zipcode ,电话号码 phoneNum ,手机号码mobileNum,addressId:地址ID;catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+    <t>姓名name ，省份 districtLevel1List,城市 districtLevel2List,地区 districtLevel3List，邮政编码 zipcode ,电话号码 phoneNum ,手机号码mobileNum,addressId:地址ID;addressDetail(地址详情),catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
     <t>AddressEditEnterAction</t>
   </si>
   <si>
+    <t>address_edit.jsp</t>
+  </si>
+  <si>
     <t>address_edit_submit</t>
   </si>
   <si>
@@ -1717,33 +1326,42 @@
     <t>DeliverEnterAction</t>
   </si>
   <si>
+    <t>send_notes.jsp</t>
+  </si>
+  <si>
     <t>item_detail</t>
   </si>
   <si>
     <t>商品详情</t>
   </si>
   <si>
-    <t xml:space="preserve">itmeID(商品ID） </t>
-  </si>
-  <si>
-    <t>ISBN ，itemName(书名）， itemAuthor（作者姓名） ,itemPublishing（出版社） ,itemPublishingTime（出版时间） , itemEdition（版次）， itemPage（页数） ,itemBinding（装帧） , itemFormat（开本） ,itemPrice（价格） , itmePublishingPrice（出版价格） , itemDiscount（折扣） , itemInventory（库存） ,itemBookDescribe （书籍描述）,itemBookClassify （书籍分类），itemComprehensiveRate（综合评级）,commentList(一维数组包含用户名(username),打分(rating),内容(content),时间(date));recommandView:推荐商品（id,itemName,price,picturePath);recommandBought:推荐商品（id,itemName,price,picturePath)；catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+    <t xml:space="preserve">itmeId(商品ID）  </t>
+  </si>
+  <si>
+    <t>ISBN ，name(书名）， author（作者姓名） ,publisher（出版社） ,publishTime（出版时间） , edition（版次）， page（页数） ,binding（装帧） , size（开本） ,price（价格） , marketPrice（出版价格） , discount（折扣） , inventory（库存） ,description （书籍描述）,bookClassify（书籍分类String），averageRating（综合评级),commentList(一维数组包含用户名(username),打分(rating),内容(content),时间(date));recommendView:推荐商品（id,itemName,price,picturePath);recommendBought:推荐商品（itemId,name,price,picturePath)；catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
     <t>ItemDetailAction</t>
   </si>
   <si>
+    <t>item_info.jsp</t>
+  </si>
+  <si>
     <t>cart</t>
   </si>
   <si>
     <t>购物车</t>
   </si>
   <si>
-    <t>items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber),节省金额(savePrice)),总价totalPrice;recommand:推荐商品（id,itemName,price,picturePath);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+    <t>items:一维数组（一个包含商品ID（itemId),商品名字（name),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber),节省金额(savePrice)),总价totalPrice;recommendItems:推荐商品（itemId,name,price,picturePath);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
     <t>CartEnterAction</t>
   </si>
   <si>
+    <t>cart.jsp</t>
+  </si>
+  <si>
     <t>quick_search</t>
   </si>
   <si>
@@ -1765,12 +1383,15 @@
     <t>进入用户信息</t>
   </si>
   <si>
-    <t>userName:用户名，nickName：昵称;totalScore积分;orderList:一维数组包含（订单号(orderId),订单金额(orderPrice),下单时间(orderTime),获得积分（score));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+    <t>username:用户名，nickname：昵称;totalScore积分;orderList:一维数组包含（订单号(orderId),订单金额(totalPrice),下单时间(orderTime),获得积分（score));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
     <t>UserInfoEnterAction</t>
   </si>
   <si>
+    <t>user.jsp</t>
+  </si>
+  <si>
     <t>forget_password</t>
   </si>
   <si>
@@ -1795,6 +1416,17 @@
     <t>进入管理员首页</t>
   </si>
   <si>
+    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID
+，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID
+，一个空的一维数组））；</t>
+  </si>
+  <si>
+    <t>totalSalesAmount:总销售量；totalSalesRevenue：销售总额；userNum：注册用户数；productNum：产品数量；totalOrderAmout:总订单数；unauditedOrderAmount：待审核订单数；finishOrderAmount：完成订单数；LatestOrders：包含订单信息对象的一维数组（每个数组成员是一个订单信息类的对象：它的成员包括：orderID：订单号，userName：用户名，orderTime：下单时间，orderStatus：订单状态）</t>
+  </si>
+  <si>
+    <t>admin/index.jsp</t>
+  </si>
+  <si>
     <t>admin/login</t>
   </si>
   <si>
@@ -1807,6 +1439,9 @@
     <t>跳转到相应URL</t>
   </si>
   <si>
+    <t>admin/login.jsp</t>
+  </si>
+  <si>
     <t>admin/item_manager</t>
   </si>
   <si>
@@ -1819,13 +1454,16 @@
     <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(score),市场价（marketPrice));currentPage：当前页数；totalPage:总页数；</t>
   </si>
   <si>
+    <t>admin/item_list.jsp</t>
+  </si>
+  <si>
     <t>admin/item_add_submit</t>
   </si>
   <si>
     <t>提交商品添加</t>
   </si>
   <si>
-    <t>ISBN ，itemName(书名）， itemAuthor（作者姓名） ,itemPublishing（出版社） ,itemPublishingTime(year:年，month:月;day:日） , itemEdition（版次）， itemPage（页数） ,itemBinding（装帧） , itemFormat（开本,itmePublishingPrice（出版价格） , itemDiscount（折扣） , itemInventory（库存） ,itemBookDescribe （书籍描述）,itemBookClassID:Json_array （书籍分类)</t>
+    <t>ISBN ，name(书名）， author（作者姓名） ,publisher（出版社） ,publishTime（出版时间）(year:年，month:月;day:日） , edition（版次）， page（页数） ,binding（装帧） , format（开本,marketPrice（出版价格） , discount（折扣） , inventory（库存） ,description （书籍描述）,bookClassify,（书籍分类ID)</t>
   </si>
   <si>
     <t>跳转admin/item_manager</t>
@@ -1843,6 +1481,9 @@
     <t>ISBN ，itemName(书名）， itemAuthor（作者姓名） ,itemPublishing（出版社） ,itemPublishingTime（出版时间） , itemEdition（版次）， itemPage（页数） ,itemBinding（装帧） , itemFormat（开本） ,itemPrice（价格） , itmePublishingPrice（出版价格） , itemDiscount（折扣） , itemInventory（库存） ,itemBookDescribe （书籍描述）,itemBookClassify （书籍分类）, itemUserDiscuss（用户评论），itemComprehensiveRate（综合评级）,commentList(一维数组包含用户名(username),级别(rating),内容(content),时间(date));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
+    <t>admin/item_edit.jsp</t>
+  </si>
+  <si>
     <t>admin/item_modify_submit</t>
   </si>
   <si>
@@ -1858,7 +1499,7 @@
     <t>进入商品详情</t>
   </si>
   <si>
-    <t>ISBN ，itemName(书名）， itemAuthor（作者姓名） ,itemPublishing（出版社） ,itemPublishingTime（出版时间） , itemEdition（版次）， itemPage（页数） ,itemBinding（装帧） , itemFormat（开本） ,itemPrice（价格） , itmePublishingPrice（出版价格） , itemDiscount（折扣） , itemInventory（库存） ,itemBookDescribe （书籍描述）,itemBookClassify （书籍分类)，itemComprehensiveRate（综合评级）,commentList(一维数组包含用户名(username),级别(rating),内容(content),时间(date));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+    <t>admin/item_info.jsp</t>
   </si>
   <si>
     <t>admin/catalog_manager</t>
@@ -1870,6 +1511,9 @@
     <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
+    <t>admin/category_list.jsp</t>
+  </si>
+  <si>
     <t>admin/catalog_add_submit</t>
   </si>
   <si>
@@ -1894,6 +1538,9 @@
     <t>catalogName:目录名，catalogDesc：目录描述，upID:父目录的ID(-1表示根目录）;catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
+    <t>admin/category_edit.jsp</t>
+  </si>
+  <si>
     <t>admin/catalog_edit_submit</t>
   </si>
   <si>
@@ -1915,7 +1562,10 @@
     <t>orderList:一维数组（一个含有订单号(orderId)，收货人(receiver)，下单时间(orderTime)，订单状态（orderStatus字符串),订单总价(totalPrice)的类);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；currentPage(当前页面)；totalPage（总页数）；</t>
   </si>
   <si>
-    <t>admin/order_detail</t>
+    <t>admin/order_list.jsp</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
   <si>
     <t>管理员查看订单详情</t>
@@ -1927,12 +1577,18 @@
     <t>orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
+    <t>admin/order_info.jsp</t>
+  </si>
+  <si>
     <t>admin/order_edit</t>
   </si>
   <si>
     <t>管理员进入订单修改</t>
   </si>
   <si>
+    <t>admin/order_edit.jsp</t>
+  </si>
+  <si>
     <t>admin/order_edit_submit</t>
   </si>
   <si>
@@ -1957,7 +1613,7 @@
     <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；items:一维数组(itemID,itemName;sales;totalPrice),allTotalPrice(所有商品的总销售价）</t>
   </si>
   <si>
-    <t>admin/user_manager</t>
+    <t>admin/salesdata_admin.jsp</t>
   </si>
   <si>
     <t>管理员进入用户管理</t>
@@ -1966,6 +1622,9 @@
     <t>levelList:一维数组(一个包含ID,low,scoreRate);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；currentPage(当前页面)；totalPage（总页数）；</t>
   </si>
   <si>
+    <t>admin/user_admin.jsp</t>
+  </si>
+  <si>
     <t>admin/user_score_rate_submit</t>
   </si>
   <si>
@@ -1997,6 +1656,9 @@
   </si>
   <si>
     <t>commentList(一维数组包含评论编号（commentID），用户名(username),打分(rating),内容(content),时间(date))；page（页数);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；currentPage(当前页面)；totalPage（总页数）；</t>
+  </si>
+  <si>
+    <t>admin/comment_list.jsp</t>
   </si>
   <si>
     <t>接口</t>
@@ -2459,7 +2121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="5">
+  <fonts count="4" x14ac:knownFonts="4">
     <font>
       <sz val="12.0"/>
       <name val="文泉驿正黑"/>
@@ -2474,11 +2136,6 @@
     <font>
       <sz val="12.0"/>
       <color rgb="FFFF0000"/>
-      <name val="文泉驿正黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
@@ -2527,6 +2184,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -2535,12 +2195,9 @@
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2551,15 +2208,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26.625" customWidth="1" style="1"/>
-    <col min="2" max="2" width="29.25" customWidth="1" style="1"/>
-    <col min="3" max="3" width="37.875" customWidth="1" style="1"/>
+    <col min="2" max="3" width="19.375" customWidth="1" style="1"/>
     <col min="4" max="4" width="33.125" customWidth="1" style="1"/>
     <col min="5" max="5" width="7.75" customWidth="1" style="1"/>
     <col min="6" max="256" width="10.0" customWidth="1" style="1"/>
@@ -2700,7 +2356,7 @@
       <c r="B8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -2986,19 +2642,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.125" customWidth="1" style="1"/>
-    <col min="2" max="3" width="21.625" customWidth="1" style="1"/>
-    <col min="4" max="4" width="32.625" customWidth="1" style="1"/>
-    <col min="5" max="256" width="10.0" customWidth="1" style="1"/>
+    <col min="1" max="1" width="17.625" customWidth="1" style="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1" style="1"/>
+    <col min="3" max="3" width="46.25" customWidth="1" style="1"/>
+    <col min="4" max="4" width="28.625" customWidth="1" style="1"/>
+    <col min="5" max="5" width="41.75" customWidth="1" style="1"/>
+    <col min="6" max="6" width="16.0" customWidth="1" style="1"/>
+    <col min="7" max="256" width="10.0" customWidth="1" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3014,353 +2673,404 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>169</v>
+        <v>178</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>179</v>
+        <v>189</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>196</v>
+        <v>209</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>205</v>
+        <v>219</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>207</v>
+        <v>222</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>8</v>
@@ -3368,290 +3078,335 @@
     </row>
     <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>221</v>
+        <v>240</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>229</v>
+        <v>249</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>248</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>238</v>
+        <v>259</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>276</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>281</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>257</v>
+        <v>281</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>293</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>270</v>
+        <v>296</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>281</v>
+        <v>308</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3680,657 +3435,657 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>366</v>
+        <v>394</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>369</v>
+        <v>397</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>371</v>
+        <v>399</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>379</v>
+        <v>407</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>381</v>
+        <v>409</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>383</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>386</v>
+        <v>414</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>387</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>387</v>
+        <v>415</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>394</v>
+        <v>422</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>395</v>
+        <v>423</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>397</v>
+        <v>425</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>398</v>
+        <v>426</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>402</v>
+        <v>430</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>404</v>
+        <v>432</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>408</v>
+        <v>436</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>432</v>
+        <v>460</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="13761" windowHeight="6226" activeTab="1" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="13761" windowHeight="6226" activeTab="2" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
@@ -1463,7 +1463,7 @@
     <t>提交商品添加</t>
   </si>
   <si>
-    <t>ISBN ，name(书名）， author（作者姓名） ,publisher（出版社） ,publishTime（出版时间）(year:年，month:月;day:日） , edition（版次）， page（页数） ,binding（装帧） , format（开本,marketPrice（出版价格） , discount（折扣） , inventory（库存） ,description （书籍描述）,bookClassify,（书籍分类ID)</t>
+    <t>ISBN ，name(书名）， author（作者姓名） ,publisher（出版社） ,publishTime（出版时间）(year:年，month:月;day:日） , edition（版次）， page（页数） ,binding（装帧） , format（开本,marketPrice（出版价格） , discount（折扣） , inventory（库存） ,description （书籍描述）,bookClassify,（书籍分类ID),picture(上传的图片）</t>
   </si>
   <si>
     <t>跳转admin/item_manager</t>
@@ -2642,7 +2642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A13" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -3420,8 +3420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="13761" windowHeight="6226" activeTab="2" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="13746" windowHeight="6210" activeTab="1" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
@@ -1490,7 +1490,7 @@
     <t>提交商品修改</t>
   </si>
   <si>
-    <t>itemID(商品ID）,ISBN ，itemName(书名）， itemAuthor（作者姓名） ,itemPublishing（出版社） ,itemPublishingTime（出版时间） , itemEdition（版次）， itemPage（页数） ,itemBinding（装帧） , itemFormat（开本） ,itemPrice（价格） , itmePublishingPrice（出版价格） , itemDiscount（折扣） , itemStock（库存） ,itemBookDescribe （书籍描述）,itemBookClassify （书籍分类）, itemUserDiscuss（用户评论），itemComprehensiveRate（综合评级）,commentList(一维数组包含用户名(username),级别(rating),内容(content),时间(date))</t>
+    <t>itemID(商品ID）,ISBN ，name(书名）， author（作者姓名） ,publisher（出版社） ,publishTime（出版时间）(year:年，month:月;day:日） , edition（版次）， page（页数） ,binding（装帧） , format（开本,marketPrice（出版价格） , discount（折扣） , inventory（库存） ,description （书籍描述）,bookClassify,（书籍分类ID),picture(上传的图片）</t>
   </si>
   <si>
     <t>admin/item_detail</t>
@@ -2121,7 +2121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="4">
+  <fonts count="7" x14ac:knownFonts="7">
     <font>
       <sz val="12.0"/>
       <name val="文泉驿正黑"/>
@@ -2141,6 +2141,24 @@
     </font>
     <font>
       <sz val="12.0"/>
+      <name val="文泉驿正黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF00FF00"/>
+      <name val="文泉驿正黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF00FFFF"/>
+      <name val="文泉驿正黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFFFF00"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
@@ -2167,7 +2185,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2193,6 +2211,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2642,8 +2681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -3091,7 +3130,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="4" t="s">
         <v>227</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3108,7 +3147,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="11" t="s">
         <v>232</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -3125,7 +3164,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="4" t="s">
         <v>237</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -3142,13 +3181,13 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="11" t="s">
         <v>242</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="1" t="s">
         <v>244</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -3156,13 +3195,13 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="4" t="s">
         <v>246</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="8" t="s">
         <v>248</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -3173,13 +3212,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="15" t="s">
         <v>251</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="8" t="s">
         <v>253</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -3187,7 +3226,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="13" t="s">
         <v>254</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -3204,7 +3243,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="4" t="s">
         <v>257</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -3420,7 +3459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A4" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="13746" windowHeight="6210" activeTab="1" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13731" windowHeight="6195" activeTab="1" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
@@ -2121,7 +2121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="7">
+  <fonts count="6" x14ac:knownFonts="6">
     <font>
       <sz val="12.0"/>
       <name val="文泉驿正黑"/>
@@ -2136,11 +2136,6 @@
     <font>
       <sz val="12.0"/>
       <color rgb="FFFF0000"/>
-      <name val="文泉驿正黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
@@ -2185,7 +2180,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2204,19 +2199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -2225,13 +2208,13 @@
     <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2681,13 +2664,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.625" customWidth="1" style="1"/>
+    <col min="1" max="1" width="29.625" customWidth="1" style="1"/>
     <col min="2" max="2" width="21.625" customWidth="1" style="1"/>
     <col min="3" max="3" width="46.25" customWidth="1" style="1"/>
     <col min="4" max="4" width="28.625" customWidth="1" style="1"/>
@@ -3147,7 +3130,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="6" t="s">
         <v>232</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -3181,7 +3164,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="6" t="s">
         <v>242</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3201,7 +3184,7 @@
       <c r="B28" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="1" t="s">
         <v>248</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -3212,13 +3195,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="8" t="s">
         <v>251</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -3226,7 +3209,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -3260,7 +3243,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="4" t="s">
         <v>261</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -3274,7 +3257,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="4" t="s">
         <v>265</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -3291,7 +3274,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="4" t="s">
         <v>270</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -3305,7 +3288,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="4" t="s">
         <v>273</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -3460,7 +3443,7 @@
   <dimension ref="A1:IV47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13731" windowHeight="6195" activeTab="1" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13716" windowHeight="6180" activeTab="1" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="463">
   <si>
     <t>动作</t>
   </si>
@@ -1565,7 +1565,7 @@
     <t>admin/order_list.jsp</t>
   </si>
   <si>
-    <t>a</t>
+    <t>admin/order_detail</t>
   </si>
   <si>
     <t>管理员查看订单详情</t>
@@ -1614,6 +1614,9 @@
   </si>
   <si>
     <t>admin/salesdata_admin.jsp</t>
+  </si>
+  <si>
+    <t>admin/user_manager</t>
   </si>
   <si>
     <t>管理员进入用户管理</t>
@@ -2121,7 +2124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="6">
+  <fonts count="7" x14ac:knownFonts="7">
     <font>
       <sz val="12.0"/>
       <name val="文泉驿正黑"/>
@@ -2154,6 +2157,11 @@
     <font>
       <sz val="12.0"/>
       <color rgb="FFFFFF00"/>
+      <name val="文泉驿正黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
@@ -2214,7 +2222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2665,7 +2673,7 @@
   <dimension ref="A1:IV43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -3370,65 +3378,65 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>278</v>
+      <c r="A40" s="11" t="s">
+        <v>295</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -3457,657 +3465,657 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="D47" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="464">
   <si>
     <t>动作</t>
   </si>
@@ -1574,16 +1574,19 @@
     <t>orderID:订单ID</t>
   </si>
   <si>
+    <t>orderID:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+  </si>
+  <si>
+    <t>admin/order_info.jsp</t>
+  </si>
+  <si>
+    <t>admin/order_edit</t>
+  </si>
+  <si>
+    <t>管理员进入订单修改</t>
+  </si>
+  <si>
     <t>orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
-  </si>
-  <si>
-    <t>admin/order_info.jsp</t>
-  </si>
-  <si>
-    <t>admin/order_edit</t>
-  </si>
-  <si>
-    <t>管理员进入订单修改</t>
   </si>
   <si>
     <t>admin/order_edit.jsp</t>
@@ -2124,7 +2127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="7">
+  <fonts count="8" x14ac:knownFonts="8">
     <font>
       <sz val="12.0"/>
       <name val="文泉驿正黑"/>
@@ -2165,6 +2168,11 @@
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="文泉驿正黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2188,7 +2196,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2225,6 +2233,9 @@
     <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2673,7 +2684,7 @@
   <dimension ref="A1:IV43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -3322,7 +3333,7 @@
       <c r="C36" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="12" t="s">
         <v>281</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -3340,103 +3351,103 @@
         <v>280</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -3465,657 +3476,657 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>460</v>
-      </c>
       <c r="D47" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13716" windowHeight="6180" activeTab="1" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13701" windowHeight="6180" activeTab="1" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
@@ -983,54 +983,6 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>addressId:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（使用不在地址簿中的地址的时候为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>null)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-      </rPr>
       <t>receiverName:</t>
     </r>
     <r>
@@ -1598,7 +1550,7 @@
     <t>管理员提交订单修改</t>
   </si>
   <si>
-    <t>orderID:订单号；addressId:地址ID（使用不在地址簿中的地址的时候为null)；receiverName:收货人；level1Name:一级地区名称；level2Name:二级地区名称;level3Name:三级地区名称；addressDetail:地区详情；zipcode:邮政编码；phoneNumber：电话号码；mobileNumber:手机号码;items:json_array(id:商品ID;value:商品数量）)</t>
+    <t>orderID:订单号；receiverName:收货人；level1Name:一级地区名称；level2Name:二级地区名称;level3Name:三级地区名称；addressDetail:地区详情；zipcode:邮政编码；phoneNumber：电话号码；mobileNumber:手机号码;items:json_array(id:商品ID;value:商品数量）)</t>
   </si>
   <si>
     <t>成功跳转orderDetail</t>
@@ -2127,7 +2079,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="8">
+  <fonts count="9" x14ac:knownFonts="9">
     <font>
       <sz val="12.0"/>
       <name val="文泉驿正黑"/>
@@ -2173,6 +2125,12 @@
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF00FFFF"/>
+      <name val="文泉驿正黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2196,7 +2154,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2230,10 +2188,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2250,12 +2220,12 @@
   <dimension ref="A1:IV25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.625" customWidth="1" style="1"/>
+    <col min="1" max="1" width="34.5" customWidth="1" style="1"/>
     <col min="2" max="3" width="19.375" customWidth="1" style="1"/>
     <col min="4" max="4" width="33.125" customWidth="1" style="1"/>
     <col min="5" max="5" width="7.75" customWidth="1" style="1"/>
@@ -2560,47 +2530,52 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
@@ -2684,7 +2659,7 @@
   <dimension ref="A1:IV43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2859,7 +2834,7 @@
       <c r="B9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="14" t="s">
         <v>155</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -3214,7 +3189,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="6" t="s">
         <v>251</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -3244,34 +3219,72 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="E31" s="6"/>
+      <c r="F31" s="6" t="s">
         <v>260</v>
       </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="6"/>
+      <c r="AN31" s="6"/>
+      <c r="AO31" s="6"/>
+      <c r="AP31" s="6"/>
+      <c r="AQ31" s="6"/>
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="6" t="s">
         <v>264</v>
       </c>
     </row>
@@ -3307,69 +3320,73 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="7" t="s">
         <v>276</v>
       </c>
+      <c r="E35" s="7"/>
       <c r="F35" s="1" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="7" t="s">
         <v>281</v>
       </c>
+      <c r="E36" s="7"/>
       <c r="F36" s="1" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="7" t="s">
         <v>285</v>
       </c>
+      <c r="E37" s="7"/>
       <c r="F37" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="7" t="s">
         <v>290</v>
       </c>
+      <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
@@ -3389,7 +3406,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="1" t="s">
         <v>296</v>
       </c>
       <c r="B40" s="1" t="s">

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13701" windowHeight="6180" activeTab="1" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13686" windowHeight="6180" activeTab="0" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="463">
   <si>
     <t>动作</t>
   </si>
@@ -1535,9 +1535,6 @@
     <t>admin/order_edit</t>
   </si>
   <si>
-    <t>管理员进入订单修改</t>
-  </si>
-  <si>
     <t>orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
@@ -1565,7 +1562,7 @@
     <t>startTime:开始索引时间(year:年，month:月;day:日）;endTime:结束索引时间（year：年，month:月，day:日);catalogID:目录ID,limit(销售量下限）</t>
   </si>
   <si>
-    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；items:一维数组(itemID,itemName;sales;totalPrice),allTotalPrice(所有商品的总销售价）</t>
+    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；items:一维数组(itemID,itemName;sales;totalPrice),totalSalesRevenue(所有商品的总销售价）</t>
   </si>
   <si>
     <t>admin/salesdata_admin.jsp</t>
@@ -1589,7 +1586,7 @@
     <t>管理员提交积分下限和比例</t>
   </si>
   <si>
-    <t>low:int;scoreRate:int</t>
+    <t>levelID:int;low:int;scoreRate:int</t>
   </si>
   <si>
     <t xml:space="preserve"> 成功则跳转到用户管理</t>
@@ -2079,7 +2076,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="9">
+  <fonts count="6" x14ac:knownFonts="6">
     <font>
       <sz val="12.0"/>
       <name val="文泉驿正黑"/>
@@ -2115,22 +2112,6 @@
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12.0"/>
-      <name val="文泉驿正黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <name val="文泉驿正黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF00FFFF"/>
-      <name val="文泉驿正黑"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2154,7 +2135,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2188,24 +2169,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2219,8 +2182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2658,8 +2621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView zoomScaleNormal="100" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2834,7 +2797,7 @@
       <c r="B9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -3305,19 +3268,20 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="6" t="s">
         <v>264</v>
       </c>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
@@ -3359,112 +3323,165 @@
       <c r="A37" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>284</v>
-      </c>
+      <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
         <v>280</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="C38" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="D38" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="4"/>
+      <c r="F39" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="4"/>
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="4"/>
+      <c r="AH39" s="4"/>
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="4"/>
+      <c r="AK39" s="4"/>
+      <c r="AL39" s="4"/>
+      <c r="AM39" s="4"/>
+      <c r="AN39" s="4"/>
+      <c r="AO39" s="4"/>
+    </row>
+    <row r="40" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>303</v>
-      </c>
+      <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -3493,657 +3510,657 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="C12" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>385</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>397</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>400</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>423</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>429</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>434</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>437</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>440</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>442</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>445</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>448</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>451</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>458</v>
-      </c>
       <c r="D45" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>461</v>
-      </c>
       <c r="D46" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>463</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13686" windowHeight="6180" activeTab="0" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13671" windowHeight="6180" activeTab="1" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
@@ -874,7 +874,7 @@
     <t>首页列出信息</t>
   </si>
   <si>
-    <t>nickname:String;cartItemNumber:int;catalog:一维数组（一个含有名字(name)和简介(desc),目录的id，二级目录的一维数组（含有名字(name)和简介(desc),目录的id，一个空的一维数组））；recommendItem:一维数组（一个含有商品ID（itemId)，名字(name)，折扣价(price),折扣(savePrice)和图片路径(picturePath) 的类)；newBook:一维数组（类与recommendItem相同）；hotBook:一维数组（类与recommendItem相同）</t>
+    <t>sult</t>
   </si>
   <si>
     <t>IndexAction</t>
@@ -2076,7 +2076,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="6">
+  <fonts count="8" x14ac:knownFonts="8">
     <font>
       <sz val="12.0"/>
       <name val="文泉驿正黑"/>
@@ -2112,6 +2112,18 @@
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="文泉驿正黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFFFF00"/>
+      <name val="文泉驿正黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2135,7 +2147,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2169,6 +2181,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2182,14 +2203,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A24"/>
+    <sheetView zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1" style="1"/>
-    <col min="2" max="3" width="19.375" customWidth="1" style="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1" style="1"/>
+    <col min="3" max="3" width="64.125" customWidth="1" style="1"/>
     <col min="4" max="4" width="33.125" customWidth="1" style="1"/>
     <col min="5" max="5" width="7.75" customWidth="1" style="1"/>
     <col min="6" max="256" width="10.0" customWidth="1" style="1"/>
@@ -2621,15 +2643,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.625" customWidth="1" style="1"/>
     <col min="2" max="2" width="21.625" customWidth="1" style="1"/>
-    <col min="3" max="3" width="46.25" customWidth="1" style="1"/>
+    <col min="3" max="3" width="55.875" customWidth="1" style="1"/>
     <col min="4" max="4" width="28.625" customWidth="1" style="1"/>
     <col min="5" max="5" width="41.75" customWidth="1" style="1"/>
     <col min="6" max="6" width="16.0" customWidth="1" style="1"/>
@@ -3070,7 +3092,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="13" t="s">
         <v>227</v>
       </c>
       <c r="B24" s="1" t="s">

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13671" windowHeight="6180" activeTab="1" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13671" windowHeight="6180" activeTab="0" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
@@ -2147,7 +2147,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2190,6 +2190,9 @@
     <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2203,8 +2206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:E24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2562,61 +2565,177 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+    </row>
+    <row r="22" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+    </row>
+    <row r="23" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+    </row>
+    <row r="24" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="4" t="s">
         <v>108</v>
       </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
     </row>
     <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
@@ -2643,7 +2762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A10" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13671" windowHeight="6180" activeTab="0" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13665" windowHeight="6180" tabRatio="618" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
-    <sheet name="default" sheetId="2" r:id="rId3"/>
-    <sheet name="LRInterface" sheetId="3" r:id="rId4"/>
+    <sheet name="PLInterface_function" sheetId="1" r:id="rId1"/>
+    <sheet name="default" sheetId="2" r:id="rId2"/>
+    <sheet name="LRInterface" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -60,7 +62,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -68,19 +70,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">验证码_x000D__x000D__x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证码_x000D__x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -88,12 +89,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">表示验证码是否正确）_x000D__x000D__x000D__x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示验证码是否正确）_x000D__x000D__x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -106,7 +106,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -114,7 +114,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -122,12 +122,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">信息_x000D__x000D__x000D__x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息_x000D__x000D__x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -146,7 +145,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -154,19 +153,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">用户名_x000D__x000D__x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户名_x000D__x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -174,12 +172,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">表示用户名是否已经被使用）_x000D__x000D__x000D__x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示用户名是否已经被使用）_x000D__x000D__x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -192,7 +189,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -200,7 +197,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -208,19 +205,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">的修改_x000D__x000D__x000D__x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的修改_x000D__x000D__x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -228,12 +224,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">昵称_x000D__x000D__x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>昵称_x000D__x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -249,7 +244,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -257,7 +252,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -265,19 +260,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">的修改_x000D__x000D__x000D__x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的修改_x000D__x000D__x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -285,7 +279,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -293,7 +287,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -301,7 +295,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -309,7 +303,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -317,12 +311,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">新密码确认_x000D__x000D__x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新密码确认_x000D__x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -356,7 +349,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -364,7 +357,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -372,19 +365,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ID_x000D__x000D__x000D_-</t>
+      <t>ID_x000D__x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -392,12 +384,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">地址删除与否）_x000D__x000D__x000D__x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址删除与否）_x000D__x000D__x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -416,7 +407,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -424,12 +415,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">表示库存是否足够）_x000D__x000D__x000D__x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示库存是否足够）_x000D__x000D__x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -505,7 +495,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -513,7 +503,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -521,7 +511,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -529,12 +519,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">json_x000D__x000D__x000D__x000D_-</t>
+      <t>json_x000D__x000D__x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -602,9 +591,6 @@
     <t>deleteResult:boolean(商品目录删除是否成功）</t>
   </si>
   <si>
-    <t>admin/order/pass</t>
-  </si>
-  <si>
     <t>审核通过</t>
   </si>
   <si>
@@ -667,7 +653,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -675,7 +661,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -683,7 +669,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -691,7 +677,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -699,7 +685,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -707,19 +693,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">验证码；toURL:成功后跳转页面_x000D__x000D__x000D__x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证码；toURL:成功后跳转页面_x000D__x000D__x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -727,12 +712,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">表示登陆成功与否)，成功后跳转登陆前页面_x000D__x000D__x000D__x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示登陆成功与否)，成功后跳转登陆前页面_x000D__x000D__x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -748,7 +732,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -756,7 +740,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -764,7 +748,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -772,7 +756,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -780,7 +764,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -788,7 +772,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -796,7 +780,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -804,7 +788,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -812,7 +796,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -820,7 +804,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -828,7 +812,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -836,7 +820,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -844,7 +828,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -852,12 +836,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">验证码;toURL:成功后跳转页面_x000D__x000D__x000D__x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证码;toURL:成功后跳转页面_x000D__x000D__x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -963,7 +946,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -971,7 +954,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -979,7 +962,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -987,7 +970,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -995,7 +978,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1003,7 +986,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1011,7 +994,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1019,7 +1002,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1027,7 +1010,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1035,7 +1018,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1043,7 +1026,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1051,7 +1034,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1059,7 +1042,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1067,7 +1050,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1075,7 +1058,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1083,7 +1066,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1091,7 +1074,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1099,7 +1082,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1107,7 +1090,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1115,15 +1098,16 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>商品</t>
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
@@ -1131,20 +1115,20 @@
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
+        <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>商品数量</t>
     </r>
     <r>
       <rPr>
-        <sz val="12.0"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">）)_x000D__x000D_-</t>
+        <sz val="12"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）)_x000D__x000D__x000D_</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -2070,58 +2054,61 @@
   </si>
   <si>
     <t>修改等级</t>
+  </si>
+  <si>
+    <t>admin/order/pass</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="8">
+  <fonts count="8">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <b/>
+      <sz val="12"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
-      <b/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF00FF00"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF00FFFF"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFFFF00"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color rgb="FFFF0000"/>
-      <name val="文泉驿正黑"/>
-      <charset val="134"/>
+      <sz val="12"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color rgb="FFFFFF00"/>
-      <name val="文泉驿正黑"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2143,54 +2130,36 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2199,28 +2168,318 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="34.5" customWidth="1" style="1"/>
-    <col min="2" max="2" width="19.375" customWidth="1" style="1"/>
-    <col min="3" max="3" width="64.125" customWidth="1" style="1"/>
-    <col min="4" max="4" width="33.125" customWidth="1" style="1"/>
-    <col min="5" max="5" width="7.75" customWidth="1" style="1"/>
-    <col min="6" max="256" width="10.0" customWidth="1" style="1"/>
+    <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.75" style="1" customWidth="1"/>
+    <col min="6" max="256" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="16.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2240,7 +2499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2260,7 +2519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -2280,7 +2539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -2297,7 +2556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -2314,7 +2573,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -2331,7 +2590,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -2348,7 +2607,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -2365,7 +2624,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -2382,7 +2641,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
@@ -2399,7 +2658,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="16.5" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
@@ -2416,7 +2675,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="16.5" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
@@ -2433,7 +2692,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="16.5" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
@@ -2450,7 +2709,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="16.5" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,7 +2726,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>71</v>
       </c>
@@ -2484,7 +2743,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="16.5" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>76</v>
       </c>
@@ -2501,7 +2760,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:33" ht="16.5" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>80</v>
       </c>
@@ -2518,7 +2777,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:33" ht="16.5" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>85</v>
       </c>
@@ -2534,7 +2793,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:33" ht="16.5" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>89</v>
       </c>
@@ -2549,7 +2808,7 @@
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:33" ht="16.5" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>91</v>
       </c>
@@ -2565,18 +2824,18 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:33" ht="16.5" customHeight="1">
       <c r="A21" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -2608,18 +2867,18 @@
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
     </row>
-    <row r="22" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:33" ht="16.5" customHeight="1">
       <c r="A22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -2651,18 +2910,18 @@
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
     </row>
-    <row r="23" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:33" ht="16.5" customHeight="1">
       <c r="A23" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -2694,18 +2953,18 @@
       <c r="AF23" s="4"/>
       <c r="AG23" s="4"/>
     </row>
-    <row r="24" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:33" ht="16.5" customHeight="1">
       <c r="A24" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2737,47 +2996,46 @@
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
     </row>
-    <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:33" ht="16.5" customHeight="1">
       <c r="A25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="1.247760630029393" right="1.247760630029393" top="0.9998749560258521" bottom="0.9998749560258521" header="0.49993747801292604" footer="0.49993747801292604"/>
+  <pageMargins left="1.2477606300293931" right="1.2477606300293931" top="0.99987495602585208" bottom="0.99987495602585208" header="0.49993747801292604" footer="0.49993747801292604"/>
   <pageSetup paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="29.625" customWidth="1" style="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1" style="1"/>
-    <col min="3" max="3" width="55.875" customWidth="1" style="1"/>
-    <col min="4" max="4" width="28.625" customWidth="1" style="1"/>
-    <col min="5" max="5" width="41.75" customWidth="1" style="1"/>
-    <col min="6" max="6" width="16.0" customWidth="1" style="1"/>
-    <col min="7" max="256" width="10.0" customWidth="1" style="1"/>
+    <col min="1" max="1" width="29.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="16" style="1" customWidth="1"/>
+    <col min="7" max="256" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2794,400 +3052,400 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A10" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:43" ht="16.5" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:43" ht="16.5" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:43" ht="16.5" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:43" ht="16.5" customHeight="1">
+      <c r="A20" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:43" ht="16.5" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:43" ht="16.5" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
@@ -3196,149 +3454,149 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:43" ht="16.5" customHeight="1">
       <c r="A23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D23" s="1" t="s">
+    </row>
+    <row r="24" spans="1:43" ht="16.5" customHeight="1">
+      <c r="A24" s="8" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="13" t="s">
+      <c r="B24" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:43" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A25" s="6" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
+      <c r="B25" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:43" ht="16.5" customHeight="1">
+      <c r="A26" s="4" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
+      <c r="B26" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F26" s="1" t="s">
+    </row>
+    <row r="27" spans="1:43" ht="16.5" customHeight="1">
+      <c r="A27" s="6" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
+      <c r="B27" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:43" ht="16.5" customHeight="1">
+      <c r="A28" s="4" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
+      <c r="B28" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:43" ht="16.5" customHeight="1">
+      <c r="A29" s="6" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
+      <c r="B29" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43" ht="16.5" customHeight="1">
+      <c r="A30" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
+      <c r="B30" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:43" ht="16.5" customHeight="1">
+      <c r="A31" s="6" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="31" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
+      <c r="B31" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>258</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -3378,135 +3636,135 @@
       <c r="AP31" s="6"/>
       <c r="AQ31" s="6"/>
     </row>
-    <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:43" ht="16.5" customHeight="1">
       <c r="A32" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="D32" s="6" t="s">
+    </row>
+    <row r="33" spans="1:41" ht="16.5" customHeight="1">
+      <c r="A33" s="4" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
+      <c r="B33" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F33" s="1" t="s">
+    </row>
+    <row r="34" spans="1:41" ht="16.5" customHeight="1">
+      <c r="A34" s="6" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="6" t="s">
+      <c r="B34" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:41" ht="16.5" customHeight="1">
+      <c r="A35" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="7" t="s">
+      <c r="B35" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41" ht="16.5" customHeight="1">
+      <c r="A36" s="7" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="7" t="s">
+      <c r="B36" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="D36" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" ht="16.5" customHeight="1">
+      <c r="A37" s="7" t="s">
         <v>282</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" ht="16.5" customHeight="1">
+      <c r="A38" s="7" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="7" t="s">
+      <c r="B38" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="C38" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:41" ht="16.5" customHeight="1">
+      <c r="A39" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>293</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -3544,22 +3802,22 @@
       <c r="AN39" s="4"/>
       <c r="AO39" s="4"/>
     </row>
-    <row r="40" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:41" ht="16.5" customHeight="1">
       <c r="A40" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="C40" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>297</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -3579,734 +3837,734 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
     </row>
-    <row r="41" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:41" ht="16.5" customHeight="1">
       <c r="A41" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:41" ht="16.5" customHeight="1">
+      <c r="A42" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D42" s="1" t="s">
+    </row>
+    <row r="43" spans="1:41" ht="16.5" customHeight="1">
+      <c r="A43" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>310</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="1.247760630029393" right="1.247760630029393" top="0.9998749560258521" bottom="0.9998749560258521" header="0.49993747801292604" footer="0.49993747801292604"/>
+  <pageMargins left="1.2477606300293931" right="1.2477606300293931" top="0.99987495602585208" bottom="0.99987495602585208" header="0.49993747801292604" footer="0.49993747801292604"/>
   <pageSetup paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="37.625" customWidth="1" style="1"/>
-    <col min="2" max="2" width="43.625" customWidth="1" style="1"/>
-    <col min="3" max="3" width="49.625" customWidth="1" style="1"/>
-    <col min="4" max="4" width="24.75" customWidth="1" style="1"/>
-    <col min="5" max="256" width="10.0" customWidth="1" style="1"/>
+    <col min="1" max="1" width="37.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.75" style="1" customWidth="1"/>
+    <col min="5" max="256" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A5" s="4" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A6" s="4" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A7" s="4" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A8" s="4" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A10" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A25" s="4" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4" t="s">
+      <c r="B25" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A26" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
+      <c r="B26" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A27" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
+      <c r="B27" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A28" s="1" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="D28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A29" s="1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A30" s="4" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4" t="s">
+      <c r="B30" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A31" s="1" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="D31" s="1" t="s">
+    </row>
+    <row r="32" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A32" s="4" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4" t="s">
+      <c r="B32" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A33" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
+      <c r="B33" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A34" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4" t="s">
+      <c r="B34" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D34" s="1" t="s">
+    </row>
+    <row r="35" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A35" s="1" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A36" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A37" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A38" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A39" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A40" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>441</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A41" s="1" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A42" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A43" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A44" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D44" s="1" t="s">
+    </row>
+    <row r="45" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A45" s="1" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A46" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A47" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="1.247760630029393" right="1.247760630029393" top="0.9998749560258521" bottom="0.9998749560258521" header="0.49993747801292604" footer="0.49993747801292604"/>
+  <pageMargins left="1.2477606300293931" right="1.2477606300293931" top="0.99987495602585208" bottom="0.99987495602585208" header="0.49993747801292604" footer="0.49993747801292604"/>
   <pageSetup paperSize="9"/>
 </worksheet>
 </file>
--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13671" windowHeight="6180" activeTab="0" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13656" windowHeight="6180" activeTab="1" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
@@ -928,7 +928,7 @@
     <t>orderId:int</t>
   </si>
   <si>
-    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiverName);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(mobileNum,收货人电话(phoneNum),items:一维数组（一个包含商品ID（itemId),商品名字（name),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber))</t>
+    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；zipcode(邮政编码),送货方式(deliverWay送货方式）；收货人(receiverName);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(mobileNum,收货人电话(phoneNum),items:一维数组（一个包含商品ID（itemId),商品名字（name),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber))</t>
   </si>
   <si>
     <t>OrderDetailAction</t>
@@ -1526,7 +1526,7 @@
     <t>orderID:订单ID</t>
   </si>
   <si>
-    <t>orderID:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+    <t>orderID:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),zipcode(邮政编码),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
     <t>admin/order_info.jsp</t>
@@ -2114,13 +2114,12 @@
     </font>
     <font>
       <sz val="12.0"/>
-      <color rgb="FFFF0000"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12.0"/>
-      <color rgb="FFFFFF00"/>
+      <color rgb="FFFFCC00"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
@@ -2147,7 +2146,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2181,6 +2180,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2190,8 +2192,11 @@
     <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2206,7 +2211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A10" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:B24"/>
     </sheetView>
   </sheetViews>
@@ -2762,8 +2767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2901,7 +2906,7 @@
       <c r="C7" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="12" t="s">
         <v>144</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -3210,22 +3215,36 @@
         <v>226</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="E24" s="15"/>
+      <c r="F24" s="15" t="s">
         <v>231</v>
       </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
@@ -3424,41 +3443,164 @@
       </c>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="1" t="s">
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="7" t="s">
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="4"/>
+      <c r="AO35" s="4"/>
+      <c r="AP35" s="4"/>
+      <c r="AQ35" s="4"/>
+      <c r="AR35" s="4"/>
+      <c r="AS35" s="4"/>
+      <c r="AT35" s="4"/>
+      <c r="AU35" s="4"/>
+      <c r="AV35" s="4"/>
+      <c r="AW35" s="4"/>
+      <c r="AX35" s="4"/>
+      <c r="AY35" s="4"/>
+      <c r="AZ35" s="4"/>
+      <c r="BA35" s="4"/>
+      <c r="BB35" s="4"/>
+      <c r="BC35" s="4"/>
+      <c r="BD35" s="4"/>
+      <c r="BE35" s="4"/>
+      <c r="BF35" s="4"/>
+      <c r="BG35" s="4"/>
+      <c r="BH35" s="4"/>
+      <c r="BI35" s="4"/>
+      <c r="BJ35" s="4"/>
+      <c r="BK35" s="4"/>
+      <c r="BL35" s="4"/>
+      <c r="BM35" s="4"/>
+      <c r="BN35" s="4"/>
+      <c r="BO35" s="4"/>
+      <c r="BP35" s="4"/>
+      <c r="BQ35" s="4"/>
+      <c r="BR35" s="4"/>
+    </row>
+    <row r="36" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="1" t="s">
+      <c r="E36" s="15"/>
+      <c r="F36" s="15" t="s">
         <v>282</v>
       </c>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="8"/>
+      <c r="AM36" s="8"/>
+      <c r="AN36" s="8"/>
+      <c r="AO36" s="8"/>
+      <c r="AP36" s="8"/>
+      <c r="AQ36" s="8"/>
+      <c r="AR36" s="8"/>
+      <c r="AS36" s="8"/>
+      <c r="AT36" s="8"/>
+      <c r="AU36" s="8"/>
+      <c r="AV36" s="8"/>
+      <c r="AW36" s="8"/>
+      <c r="AX36" s="8"/>
+      <c r="AY36" s="8"/>
+      <c r="AZ36" s="8"/>
+      <c r="BA36" s="8"/>
+      <c r="BB36" s="8"/>
+      <c r="BC36" s="8"/>
+      <c r="BD36" s="8"/>
+      <c r="BE36" s="8"/>
+      <c r="BF36" s="8"/>
+      <c r="BG36" s="8"/>
+      <c r="BH36" s="8"/>
+      <c r="BI36" s="8"/>
+      <c r="BJ36" s="8"/>
+      <c r="BK36" s="8"/>
+      <c r="BL36" s="8"/>
+      <c r="BM36" s="8"/>
     </row>
     <row r="37" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="462">
   <si>
     <t>动作</t>
   </si>
@@ -1533,9 +1533,6 @@
   </si>
   <si>
     <t>admin/order_edit</t>
-  </si>
-  <si>
-    <t>orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
     <t>admin/order_edit.jsp</t>
@@ -2767,8 +2764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -3602,53 +3599,65 @@
       <c r="BL36" s="8"/>
       <c r="BM36" s="8"/>
     </row>
-    <row r="37" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7" t="s">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="1" t="s">
-        <v>285</v>
-      </c>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="C38" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>293</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -3688,20 +3697,20 @@
     </row>
     <row r="40" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>296</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>171</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -3723,48 +3732,48 @@
     </row>
     <row r="41" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -3793,657 +3802,657 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="C12" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>419</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>422</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>431</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>433</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>439</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>441</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>444</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>450</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>457</v>
-      </c>
       <c r="D45" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>460</v>
-      </c>
       <c r="D46" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13656" windowHeight="6180" activeTab="1" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13641" windowHeight="6180" activeTab="1" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="463">
   <si>
     <t>动作</t>
   </si>
@@ -999,7 +999,7 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>level1Name:</t>
+      <t>level1ID:</t>
     </r>
     <r>
       <rPr>
@@ -1015,7 +1015,7 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>level2Name:</t>
+      <t>level2ID:</t>
     </r>
     <r>
       <rPr>
@@ -1031,7 +1031,7 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>;level3Name:</t>
+      <t>;level3ID:</t>
     </r>
     <r>
       <rPr>
@@ -1227,7 +1227,7 @@
     <t>添加地址</t>
   </si>
   <si>
-    <t>姓名name ，省份 districtLevel1,城市 districtLevel2 ,地区 districtLevel3 ，邮政编码 zipcode ,电话号码 phoneNum ,手机号码mobileNum</t>
+    <t>姓名name ，省份 districtLevel1ID,城市 districtLevel2ID ,地区 districtLevel3ID ，邮政编码 zipcode ,电话号码 phoneNum ,手机号码mobileNum</t>
   </si>
   <si>
     <t>跳转到地址簿</t>
@@ -1260,7 +1260,7 @@
     <t>提交地址修改</t>
   </si>
   <si>
-    <t>姓名name ，省份 districtLevel1,城市 districtLevel2 ,地区 districtLevel3 ，邮政编码 zipcode ,电话号码 phoneNum ,手机号码mobileNum,addressId:地址ID</t>
+    <t>姓名name ，省份 districtLevel1ID,城市 districtLevel2ID ,地区 districtLevel3ID ，邮政编码 zipcode ,电话号码 phoneNum ,手机号码mobileNum,addressId:地址ID</t>
   </si>
   <si>
     <t>AddressEditSubmitAction</t>
@@ -1535,6 +1535,9 @@
     <t>admin/order_edit</t>
   </si>
   <si>
+    <t>orderID:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);selectedLevel1DistrictID,selectedLevel2DistrictID, selectedLevel3DistrictID,level1District, level2District, level3District,zipcode(邮政编码),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+  </si>
+  <si>
     <t>admin/order_edit.jsp</t>
   </si>
   <si>
@@ -1544,7 +1547,7 @@
     <t>管理员提交订单修改</t>
   </si>
   <si>
-    <t>orderID:订单号；receiverName:收货人；level1Name:一级地区名称；level2Name:二级地区名称;level3Name:三级地区名称；addressDetail:地区详情；zipcode:邮政编码；phoneNumber：电话号码；mobileNumber:手机号码;items:json_array(id:商品ID;value:商品数量）)</t>
+    <t>orderID:订单号；receiver:收货人；level1Name:一级地区名称；level2Name:二级地区名称;level3Name:三级地区名称；addressDetail:地区详情；zipcode:邮政编码；phoneNumber：电话号码；mobileNumber:手机号码;items:json_array(id:商品ID;value:商品数量）)</t>
   </si>
   <si>
     <t>成功跳转orderDetail</t>
@@ -2073,7 +2076,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="8">
+  <fonts count="9" x14ac:knownFonts="9">
     <font>
       <sz val="12.0"/>
       <name val="文泉驿正黑"/>
@@ -2111,6 +2114,12 @@
     </font>
     <font>
       <sz val="12.0"/>
+      <color rgb="FFFFCC00"/>
+      <name val="文泉驿正黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
@@ -2143,7 +2152,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2171,19 +2180,16 @@
     <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -2191,9 +2197,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2764,8 +2767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:D37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2903,7 +2906,7 @@
       <c r="C7" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="1" t="s">
         <v>144</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2940,7 +2943,7 @@
       <c r="B9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="13" t="s">
         <v>155</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -3213,35 +3216,35 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15" t="s">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
@@ -3523,36 +3526,36 @@
       <c r="BR35" s="4"/>
     </row>
     <row r="36" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15" t="s">
+      <c r="E36" s="9"/>
+      <c r="F36" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
       <c r="U36" s="8"/>
       <c r="V36" s="8"/>
       <c r="W36" s="8"/>
@@ -3600,64 +3603,64 @@
       <c r="BM36" s="8"/>
     </row>
     <row r="37" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15" t="s">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="D37" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15" t="s">
+      <c r="D37" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C38" s="1" t="s">
         <v>287</v>
       </c>
+      <c r="C38" s="13" t="s">
+        <v>288</v>
+      </c>
       <c r="D38" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -3697,20 +3700,20 @@
     </row>
     <row r="40" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>171</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -3732,48 +3735,48 @@
     </row>
     <row r="41" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -3802,657 +3805,657 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="D47" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13671" windowHeight="6180" activeTab="0" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13641" windowHeight="6180" activeTab="1" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
@@ -928,7 +928,7 @@
     <t>orderId:int</t>
   </si>
   <si>
-    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiverName);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(mobileNum,收货人电话(phoneNum),items:一维数组（一个包含商品ID（itemId),商品名字（name),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber))</t>
+    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；zipcode(邮政编码),送货方式(deliverWay送货方式）；收货人(receiverName);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(mobileNum,收货人电话(phoneNum),items:一维数组（一个包含商品ID（itemId),商品名字（name),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber))</t>
   </si>
   <si>
     <t>OrderDetailAction</t>
@@ -999,7 +999,7 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>level1Name:</t>
+      <t>level1ID:</t>
     </r>
     <r>
       <rPr>
@@ -1015,7 +1015,7 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>level2Name:</t>
+      <t>level2ID:</t>
     </r>
     <r>
       <rPr>
@@ -1031,7 +1031,7 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>;level3Name:</t>
+      <t>;level3ID:</t>
     </r>
     <r>
       <rPr>
@@ -1227,7 +1227,7 @@
     <t>添加地址</t>
   </si>
   <si>
-    <t>姓名name ，省份 districtLevel1,城市 districtLevel2 ,地区 districtLevel3 ，邮政编码 zipcode ,电话号码 phoneNum ,手机号码mobileNum</t>
+    <t>姓名name ，省份 districtLevel1ID,城市 districtLevel2ID ,地区 districtLevel3ID ，邮政编码 zipcode ,电话号码 phoneNum ,手机号码mobileNum</t>
   </si>
   <si>
     <t>跳转到地址簿</t>
@@ -1260,7 +1260,7 @@
     <t>提交地址修改</t>
   </si>
   <si>
-    <t>姓名name ，省份 districtLevel1,城市 districtLevel2 ,地区 districtLevel3 ，邮政编码 zipcode ,电话号码 phoneNum ,手机号码mobileNum,addressId:地址ID</t>
+    <t>姓名name ，省份 districtLevel1ID,城市 districtLevel2ID ,地区 districtLevel3ID ，邮政编码 zipcode ,电话号码 phoneNum ,手机号码mobileNum,addressId:地址ID</t>
   </si>
   <si>
     <t>AddressEditSubmitAction</t>
@@ -1526,7 +1526,7 @@
     <t>orderID:订单ID</t>
   </si>
   <si>
-    <t>orderID:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+    <t>orderID:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),zipcode(邮政编码),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
     <t>admin/order_info.jsp</t>
@@ -1535,7 +1535,7 @@
     <t>admin/order_edit</t>
   </si>
   <si>
-    <t>orderId:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+    <t>orderID:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);selectedLevel1DistrictID,selectedLevel2DistrictID, selectedLevel3DistrictID,level1District, level2District, level3District,zipcode(邮政编码),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
     <t>admin/order_edit.jsp</t>
@@ -1547,7 +1547,7 @@
     <t>管理员提交订单修改</t>
   </si>
   <si>
-    <t>orderID:订单号；receiverName:收货人；level1Name:一级地区名称；level2Name:二级地区名称;level3Name:三级地区名称；addressDetail:地区详情；zipcode:邮政编码；phoneNumber：电话号码；mobileNumber:手机号码;items:json_array(id:商品ID;value:商品数量）)</t>
+    <t>orderID:订单号；receiver:收货人；level1Name:一级地区名称；level2Name:二级地区名称;level3Name:三级地区名称；addressDetail:地区详情；zipcode:邮政编码；phoneNumber：电话号码；mobileNumber:手机号码;items:json_array(id:商品ID;value:商品数量）)</t>
   </si>
   <si>
     <t>成功跳转orderDetail</t>
@@ -2076,7 +2076,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="8">
+  <fonts count="9" x14ac:knownFonts="9">
     <font>
       <sz val="12.0"/>
       <name val="文泉驿正黑"/>
@@ -2114,13 +2114,18 @@
     </font>
     <font>
       <sz val="12.0"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFCC00"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12.0"/>
-      <color rgb="FFFFFF00"/>
+      <name val="文泉驿正黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFFCC00"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
@@ -2175,22 +2180,22 @@
     <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2206,7 +2211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A10" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:B24"/>
     </sheetView>
   </sheetViews>
@@ -2762,8 +2767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2938,7 +2943,7 @@
       <c r="B9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="13" t="s">
         <v>155</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -3210,22 +3215,36 @@
         <v>226</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
         <v>231</v>
       </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
@@ -3424,57 +3443,192 @@
       </c>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="1" t="s">
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="7" t="s">
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="4"/>
+      <c r="AO35" s="4"/>
+      <c r="AP35" s="4"/>
+      <c r="AQ35" s="4"/>
+      <c r="AR35" s="4"/>
+      <c r="AS35" s="4"/>
+      <c r="AT35" s="4"/>
+      <c r="AU35" s="4"/>
+      <c r="AV35" s="4"/>
+      <c r="AW35" s="4"/>
+      <c r="AX35" s="4"/>
+      <c r="AY35" s="4"/>
+      <c r="AZ35" s="4"/>
+      <c r="BA35" s="4"/>
+      <c r="BB35" s="4"/>
+      <c r="BC35" s="4"/>
+      <c r="BD35" s="4"/>
+      <c r="BE35" s="4"/>
+      <c r="BF35" s="4"/>
+      <c r="BG35" s="4"/>
+      <c r="BH35" s="4"/>
+      <c r="BI35" s="4"/>
+      <c r="BJ35" s="4"/>
+      <c r="BK35" s="4"/>
+      <c r="BL35" s="4"/>
+      <c r="BM35" s="4"/>
+      <c r="BN35" s="4"/>
+      <c r="BO35" s="4"/>
+      <c r="BP35" s="4"/>
+      <c r="BQ35" s="4"/>
+      <c r="BR35" s="4"/>
+    </row>
+    <row r="36" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="1" t="s">
+      <c r="E36" s="9"/>
+      <c r="F36" s="9" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="7" t="s">
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="8"/>
+      <c r="AM36" s="8"/>
+      <c r="AN36" s="8"/>
+      <c r="AO36" s="8"/>
+      <c r="AP36" s="8"/>
+      <c r="AQ36" s="8"/>
+      <c r="AR36" s="8"/>
+      <c r="AS36" s="8"/>
+      <c r="AT36" s="8"/>
+      <c r="AU36" s="8"/>
+      <c r="AV36" s="8"/>
+      <c r="AW36" s="8"/>
+      <c r="AX36" s="8"/>
+      <c r="AY36" s="8"/>
+      <c r="AZ36" s="8"/>
+      <c r="BA36" s="8"/>
+      <c r="BB36" s="8"/>
+      <c r="BC36" s="8"/>
+      <c r="BD36" s="8"/>
+      <c r="BE36" s="8"/>
+      <c r="BF36" s="8"/>
+      <c r="BG36" s="8"/>
+      <c r="BH36" s="8"/>
+      <c r="BI36" s="8"/>
+      <c r="BJ36" s="8"/>
+      <c r="BK36" s="8"/>
+      <c r="BL36" s="8"/>
+      <c r="BM36" s="8"/>
+    </row>
+    <row r="37" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7" t="s">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="1" t="s">
+      <c r="E37" s="9"/>
+      <c r="F37" s="9" t="s">
         <v>285</v>
       </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
@@ -3483,7 +3637,7 @@
       <c r="B38" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="13" t="s">
         <v>288</v>
       </c>
       <c r="D38" s="7" t="s">

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="462">
   <si>
     <t>动作</t>
   </si>
@@ -1368,12 +1368,37 @@
     <t>进入管理员首页</t>
   </si>
   <si>
-    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID
-，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID
-，一个空的一维数组））；</t>
-  </si>
-  <si>
-    <t>totalSalesAmount:总销售量；totalSalesRevenue：销售总额；userNum：注册用户数；productNum：产品数量；totalOrderAmout:总订单数；unauditedOrderAmount：待审核订单数；finishOrderAmount：完成订单数；LatestOrders：包含订单信息对象的一维数组（每个数组成员是一个订单信息类的对象：它的成员包括：orderID：订单号，userName：用户名，orderTime：下单时间，orderStatus：订单状态）</t>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <color rgb="FFFFCC00"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <color rgb="FFFFCC00"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <color rgb="FFFFCC00"/>
+        <rFont val="文泉驿正黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，一个空的一维数组））；totalSalesAmount:总销售量；totalSalesRevenue：销售总额；userNum：注册用户数；productNum：产品数量；totalOrderAmout:总订单数；unauditedOrderAmount：待审核订单数；finishOrderAmount：完成订单数；LatestOrders：包含订单信息对象的一维数组（每个数组成员是一个订单信息类的对象：它的成员包括：orderID：订单号，userName：用户名，orderTime：下单时间，orderStatus：订单状态）+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>admin/index.jsp</t>
@@ -2076,7 +2101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="9">
+  <fonts count="10" x14ac:knownFonts="10">
     <font>
       <sz val="12.0"/>
       <name val="文泉驿正黑"/>
@@ -2129,6 +2154,12 @@
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="文泉驿正黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2152,7 +2183,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2198,6 +2229,15 @@
     <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2767,7 +2807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -3222,15 +3262,13 @@
       <c r="B24" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10" t="s">
         <v>229</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>230</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -3248,116 +3286,116 @@
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>203</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>258</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -3399,66 +3437,66 @@
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>272</v>
-      </c>
       <c r="D34" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>276</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -3525,142 +3563,571 @@
       <c r="BQ35" s="4"/>
       <c r="BR35" s="4"/>
     </row>
-    <row r="36" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:256" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="C36" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="D36" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="E36" s="6"/>
+      <c r="F36" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9" t="s">
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="4"/>
+      <c r="AO36" s="4"/>
+      <c r="AP36" s="4"/>
+      <c r="AQ36" s="4"/>
+      <c r="AR36" s="4"/>
+      <c r="AS36" s="4"/>
+      <c r="AT36" s="4"/>
+      <c r="AU36" s="4"/>
+      <c r="AV36" s="4"/>
+      <c r="AW36" s="4"/>
+      <c r="AX36" s="4"/>
+      <c r="AY36" s="4"/>
+      <c r="AZ36" s="4"/>
+      <c r="BA36" s="4"/>
+      <c r="BB36" s="4"/>
+      <c r="BC36" s="4"/>
+      <c r="BD36" s="4"/>
+      <c r="BE36" s="4"/>
+      <c r="BF36" s="4"/>
+      <c r="BG36" s="4"/>
+      <c r="BH36" s="4"/>
+      <c r="BI36" s="4"/>
+      <c r="BJ36" s="4"/>
+      <c r="BK36" s="4"/>
+      <c r="BL36" s="4"/>
+      <c r="BM36" s="4"/>
+      <c r="BN36" s="4"/>
+      <c r="BO36" s="4"/>
+      <c r="BP36" s="4"/>
+      <c r="BQ36" s="4"/>
+      <c r="BR36" s="4"/>
+      <c r="BS36" s="4"/>
+      <c r="BT36" s="4"/>
+      <c r="BU36" s="4"/>
+      <c r="BV36" s="4"/>
+      <c r="BW36" s="4"/>
+      <c r="BX36" s="4"/>
+      <c r="BY36" s="4"/>
+      <c r="BZ36" s="4"/>
+      <c r="CA36" s="4"/>
+      <c r="CB36" s="4"/>
+      <c r="CC36" s="4"/>
+      <c r="CD36" s="4"/>
+      <c r="CE36" s="4"/>
+      <c r="CF36" s="4"/>
+      <c r="CG36" s="4"/>
+      <c r="CH36" s="4"/>
+      <c r="CI36" s="4"/>
+      <c r="CJ36" s="4"/>
+      <c r="CK36" s="4"/>
+      <c r="CL36" s="4"/>
+      <c r="CM36" s="4"/>
+      <c r="CN36" s="4"/>
+      <c r="CO36" s="4"/>
+      <c r="CP36" s="4"/>
+      <c r="CQ36" s="4"/>
+      <c r="CR36" s="4"/>
+      <c r="CS36" s="4"/>
+      <c r="CT36" s="4"/>
+      <c r="CU36" s="4"/>
+      <c r="CV36" s="4"/>
+      <c r="CW36" s="4"/>
+      <c r="CX36" s="4"/>
+      <c r="CY36" s="4"/>
+      <c r="CZ36" s="4"/>
+      <c r="DA36" s="4"/>
+      <c r="DB36" s="4"/>
+      <c r="DC36" s="4"/>
+      <c r="DD36" s="4"/>
+      <c r="DE36" s="4"/>
+      <c r="DF36" s="4"/>
+      <c r="DG36" s="4"/>
+      <c r="DH36" s="4"/>
+      <c r="DI36" s="4"/>
+      <c r="DJ36" s="4"/>
+      <c r="DK36" s="4"/>
+      <c r="DL36" s="4"/>
+      <c r="DM36" s="4"/>
+      <c r="DN36" s="4"/>
+      <c r="DO36" s="4"/>
+      <c r="DP36" s="4"/>
+      <c r="DQ36" s="4"/>
+      <c r="DR36" s="4"/>
+      <c r="DS36" s="4"/>
+      <c r="DT36" s="4"/>
+      <c r="DU36" s="4"/>
+      <c r="DV36" s="4"/>
+      <c r="DW36" s="4"/>
+      <c r="DX36" s="4"/>
+      <c r="DY36" s="4"/>
+      <c r="DZ36" s="4"/>
+      <c r="EA36" s="4"/>
+      <c r="EB36" s="4"/>
+      <c r="EC36" s="4"/>
+      <c r="ED36" s="4"/>
+      <c r="EE36" s="4"/>
+      <c r="EF36" s="4"/>
+      <c r="EG36" s="4"/>
+      <c r="EH36" s="4"/>
+      <c r="EI36" s="4"/>
+      <c r="EJ36" s="4"/>
+      <c r="EK36" s="4"/>
+      <c r="EL36" s="4"/>
+      <c r="EM36" s="4"/>
+      <c r="EN36" s="4"/>
+      <c r="EO36" s="4"/>
+      <c r="EP36" s="4"/>
+      <c r="EQ36" s="4"/>
+      <c r="ER36" s="4"/>
+      <c r="ES36" s="4"/>
+      <c r="ET36" s="4"/>
+      <c r="EU36" s="4"/>
+      <c r="EV36" s="4"/>
+      <c r="EW36" s="4"/>
+      <c r="EX36" s="4"/>
+      <c r="EY36" s="4"/>
+      <c r="EZ36" s="4"/>
+      <c r="FA36" s="4"/>
+      <c r="FB36" s="4"/>
+      <c r="FC36" s="4"/>
+      <c r="FD36" s="4"/>
+      <c r="FE36" s="4"/>
+      <c r="FF36" s="4"/>
+      <c r="FG36" s="4"/>
+      <c r="FH36" s="4"/>
+      <c r="FI36" s="4"/>
+      <c r="FJ36" s="4"/>
+      <c r="FK36" s="4"/>
+      <c r="FL36" s="4"/>
+      <c r="FM36" s="4"/>
+      <c r="FN36" s="4"/>
+      <c r="FO36" s="4"/>
+      <c r="FP36" s="4"/>
+      <c r="FQ36" s="4"/>
+      <c r="FR36" s="4"/>
+      <c r="FS36" s="4"/>
+      <c r="FT36" s="4"/>
+      <c r="FU36" s="4"/>
+      <c r="FV36" s="4"/>
+      <c r="FW36" s="4"/>
+      <c r="FX36" s="4"/>
+      <c r="FY36" s="4"/>
+      <c r="FZ36" s="4"/>
+      <c r="GA36" s="4"/>
+      <c r="GB36" s="4"/>
+      <c r="GC36" s="4"/>
+      <c r="GD36" s="4"/>
+      <c r="GE36" s="4"/>
+      <c r="GF36" s="4"/>
+      <c r="GG36" s="4"/>
+      <c r="GH36" s="4"/>
+      <c r="GI36" s="4"/>
+      <c r="GJ36" s="4"/>
+      <c r="GK36" s="4"/>
+      <c r="GL36" s="4"/>
+      <c r="GM36" s="4"/>
+      <c r="GN36" s="4"/>
+      <c r="GO36" s="4"/>
+      <c r="GP36" s="4"/>
+      <c r="GQ36" s="4"/>
+      <c r="GR36" s="4"/>
+      <c r="GS36" s="4"/>
+      <c r="GT36" s="4"/>
+      <c r="GU36" s="4"/>
+      <c r="GV36" s="4"/>
+      <c r="GW36" s="4"/>
+      <c r="GX36" s="4"/>
+      <c r="GY36" s="4"/>
+      <c r="GZ36" s="4"/>
+      <c r="HA36" s="4"/>
+      <c r="HB36" s="4"/>
+      <c r="HC36" s="4"/>
+      <c r="HD36" s="4"/>
+      <c r="HE36" s="4"/>
+      <c r="HF36" s="4"/>
+      <c r="HG36" s="4"/>
+      <c r="HH36" s="4"/>
+      <c r="HI36" s="4"/>
+      <c r="HJ36" s="4"/>
+      <c r="HK36" s="4"/>
+      <c r="HL36" s="4"/>
+      <c r="HM36" s="4"/>
+      <c r="HN36" s="4"/>
+      <c r="HO36" s="4"/>
+      <c r="HP36" s="4"/>
+      <c r="HQ36" s="4"/>
+      <c r="HR36" s="4"/>
+      <c r="HS36" s="4"/>
+      <c r="HT36" s="4"/>
+      <c r="HU36" s="4"/>
+      <c r="HV36" s="4"/>
+      <c r="HW36" s="4"/>
+      <c r="HX36" s="4"/>
+      <c r="HY36" s="4"/>
+      <c r="HZ36" s="4"/>
+      <c r="IA36" s="4"/>
+      <c r="IB36" s="4"/>
+      <c r="IC36" s="4"/>
+      <c r="ID36" s="4"/>
+      <c r="IE36" s="4"/>
+      <c r="IF36" s="4"/>
+      <c r="IG36" s="4"/>
+      <c r="IH36" s="4"/>
+      <c r="II36" s="4"/>
+      <c r="IJ36" s="4"/>
+      <c r="IK36" s="4"/>
+      <c r="IL36" s="4"/>
+      <c r="IM36" s="4"/>
+      <c r="IN36" s="4"/>
+      <c r="IO36" s="4"/>
+      <c r="IP36" s="4"/>
+      <c r="IQ36" s="4"/>
+      <c r="IR36" s="4"/>
+      <c r="IS36" s="4"/>
+      <c r="IT36" s="4"/>
+      <c r="IU36" s="4"/>
+      <c r="IV36" s="4"/>
+    </row>
+    <row r="37" spans="1:256" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="8"/>
-      <c r="AC36" s="8"/>
-      <c r="AD36" s="8"/>
-      <c r="AE36" s="8"/>
-      <c r="AF36" s="8"/>
-      <c r="AG36" s="8"/>
-      <c r="AH36" s="8"/>
-      <c r="AI36" s="8"/>
-      <c r="AJ36" s="8"/>
-      <c r="AK36" s="8"/>
-      <c r="AL36" s="8"/>
-      <c r="AM36" s="8"/>
-      <c r="AN36" s="8"/>
-      <c r="AO36" s="8"/>
-      <c r="AP36" s="8"/>
-      <c r="AQ36" s="8"/>
-      <c r="AR36" s="8"/>
-      <c r="AS36" s="8"/>
-      <c r="AT36" s="8"/>
-      <c r="AU36" s="8"/>
-      <c r="AV36" s="8"/>
-      <c r="AW36" s="8"/>
-      <c r="AX36" s="8"/>
-      <c r="AY36" s="8"/>
-      <c r="AZ36" s="8"/>
-      <c r="BA36" s="8"/>
-      <c r="BB36" s="8"/>
-      <c r="BC36" s="8"/>
-      <c r="BD36" s="8"/>
-      <c r="BE36" s="8"/>
-      <c r="BF36" s="8"/>
-      <c r="BG36" s="8"/>
-      <c r="BH36" s="8"/>
-      <c r="BI36" s="8"/>
-      <c r="BJ36" s="8"/>
-      <c r="BK36" s="8"/>
-      <c r="BL36" s="8"/>
-      <c r="BM36" s="8"/>
-    </row>
-    <row r="37" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="9" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D37" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="D37" s="14" t="s">
+      <c r="E37" s="4"/>
+      <c r="F37" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="4"/>
+      <c r="AH37" s="4"/>
+      <c r="AI37" s="4"/>
+      <c r="AJ37" s="4"/>
+      <c r="AK37" s="4"/>
+      <c r="AL37" s="4"/>
+      <c r="AM37" s="4"/>
+      <c r="AN37" s="4"/>
+      <c r="AO37" s="4"/>
+      <c r="AP37" s="4"/>
+      <c r="AQ37" s="4"/>
+      <c r="AR37" s="4"/>
+      <c r="AS37" s="4"/>
+      <c r="AT37" s="4"/>
+      <c r="AU37" s="4"/>
+      <c r="AV37" s="4"/>
+      <c r="AW37" s="4"/>
+      <c r="AX37" s="4"/>
+      <c r="AY37" s="4"/>
+      <c r="AZ37" s="4"/>
+      <c r="BA37" s="4"/>
+      <c r="BB37" s="4"/>
+      <c r="BC37" s="4"/>
+      <c r="BD37" s="4"/>
+      <c r="BE37" s="4"/>
+      <c r="BF37" s="4"/>
+      <c r="BG37" s="4"/>
+      <c r="BH37" s="4"/>
+      <c r="BI37" s="4"/>
+      <c r="BJ37" s="4"/>
+      <c r="BK37" s="4"/>
+      <c r="BL37" s="4"/>
+      <c r="BM37" s="4"/>
+      <c r="BN37" s="4"/>
+      <c r="BO37" s="4"/>
+      <c r="BP37" s="4"/>
+      <c r="BQ37" s="4"/>
+      <c r="BR37" s="4"/>
+      <c r="BS37" s="4"/>
+      <c r="BT37" s="4"/>
+      <c r="BU37" s="4"/>
+      <c r="BV37" s="4"/>
+      <c r="BW37" s="4"/>
+      <c r="BX37" s="4"/>
+      <c r="BY37" s="4"/>
+      <c r="BZ37" s="4"/>
+      <c r="CA37" s="4"/>
+      <c r="CB37" s="4"/>
+      <c r="CC37" s="4"/>
+      <c r="CD37" s="4"/>
+      <c r="CE37" s="4"/>
+      <c r="CF37" s="4"/>
+      <c r="CG37" s="4"/>
+      <c r="CH37" s="4"/>
+      <c r="CI37" s="4"/>
+      <c r="CJ37" s="4"/>
+      <c r="CK37" s="4"/>
+      <c r="CL37" s="4"/>
+      <c r="CM37" s="4"/>
+      <c r="CN37" s="4"/>
+      <c r="CO37" s="4"/>
+      <c r="CP37" s="4"/>
+      <c r="CQ37" s="4"/>
+      <c r="CR37" s="4"/>
+      <c r="CS37" s="4"/>
+      <c r="CT37" s="4"/>
+      <c r="CU37" s="4"/>
+      <c r="CV37" s="4"/>
+      <c r="CW37" s="4"/>
+      <c r="CX37" s="4"/>
+      <c r="CY37" s="4"/>
+      <c r="CZ37" s="4"/>
+      <c r="DA37" s="4"/>
+      <c r="DB37" s="4"/>
+      <c r="DC37" s="4"/>
+      <c r="DD37" s="4"/>
+      <c r="DE37" s="4"/>
+      <c r="DF37" s="4"/>
+      <c r="DG37" s="4"/>
+      <c r="DH37" s="4"/>
+      <c r="DI37" s="4"/>
+      <c r="DJ37" s="4"/>
+      <c r="DK37" s="4"/>
+      <c r="DL37" s="4"/>
+      <c r="DM37" s="4"/>
+      <c r="DN37" s="4"/>
+      <c r="DO37" s="4"/>
+      <c r="DP37" s="4"/>
+      <c r="DQ37" s="4"/>
+      <c r="DR37" s="4"/>
+      <c r="DS37" s="4"/>
+      <c r="DT37" s="4"/>
+      <c r="DU37" s="4"/>
+      <c r="DV37" s="4"/>
+      <c r="DW37" s="4"/>
+      <c r="DX37" s="4"/>
+      <c r="DY37" s="4"/>
+      <c r="DZ37" s="4"/>
+      <c r="EA37" s="4"/>
+      <c r="EB37" s="4"/>
+      <c r="EC37" s="4"/>
+      <c r="ED37" s="4"/>
+      <c r="EE37" s="4"/>
+      <c r="EF37" s="4"/>
+      <c r="EG37" s="4"/>
+      <c r="EH37" s="4"/>
+      <c r="EI37" s="4"/>
+      <c r="EJ37" s="4"/>
+      <c r="EK37" s="4"/>
+      <c r="EL37" s="4"/>
+      <c r="EM37" s="4"/>
+      <c r="EN37" s="4"/>
+      <c r="EO37" s="4"/>
+      <c r="EP37" s="4"/>
+      <c r="EQ37" s="4"/>
+      <c r="ER37" s="4"/>
+      <c r="ES37" s="4"/>
+      <c r="ET37" s="4"/>
+      <c r="EU37" s="4"/>
+      <c r="EV37" s="4"/>
+      <c r="EW37" s="4"/>
+      <c r="EX37" s="4"/>
+      <c r="EY37" s="4"/>
+      <c r="EZ37" s="4"/>
+      <c r="FA37" s="4"/>
+      <c r="FB37" s="4"/>
+      <c r="FC37" s="4"/>
+      <c r="FD37" s="4"/>
+      <c r="FE37" s="4"/>
+      <c r="FF37" s="4"/>
+      <c r="FG37" s="4"/>
+      <c r="FH37" s="4"/>
+      <c r="FI37" s="4"/>
+      <c r="FJ37" s="4"/>
+      <c r="FK37" s="4"/>
+      <c r="FL37" s="4"/>
+      <c r="FM37" s="4"/>
+      <c r="FN37" s="4"/>
+      <c r="FO37" s="4"/>
+      <c r="FP37" s="4"/>
+      <c r="FQ37" s="4"/>
+      <c r="FR37" s="4"/>
+      <c r="FS37" s="4"/>
+      <c r="FT37" s="4"/>
+      <c r="FU37" s="4"/>
+      <c r="FV37" s="4"/>
+      <c r="FW37" s="4"/>
+      <c r="FX37" s="4"/>
+      <c r="FY37" s="4"/>
+      <c r="FZ37" s="4"/>
+      <c r="GA37" s="4"/>
+      <c r="GB37" s="4"/>
+      <c r="GC37" s="4"/>
+      <c r="GD37" s="4"/>
+      <c r="GE37" s="4"/>
+      <c r="GF37" s="4"/>
+      <c r="GG37" s="4"/>
+      <c r="GH37" s="4"/>
+      <c r="GI37" s="4"/>
+      <c r="GJ37" s="4"/>
+      <c r="GK37" s="4"/>
+      <c r="GL37" s="4"/>
+      <c r="GM37" s="4"/>
+      <c r="GN37" s="4"/>
+      <c r="GO37" s="4"/>
+      <c r="GP37" s="4"/>
+      <c r="GQ37" s="4"/>
+      <c r="GR37" s="4"/>
+      <c r="GS37" s="4"/>
+      <c r="GT37" s="4"/>
+      <c r="GU37" s="4"/>
+      <c r="GV37" s="4"/>
+      <c r="GW37" s="4"/>
+      <c r="GX37" s="4"/>
+      <c r="GY37" s="4"/>
+      <c r="GZ37" s="4"/>
+      <c r="HA37" s="4"/>
+      <c r="HB37" s="4"/>
+      <c r="HC37" s="4"/>
+      <c r="HD37" s="4"/>
+      <c r="HE37" s="4"/>
+      <c r="HF37" s="4"/>
+      <c r="HG37" s="4"/>
+      <c r="HH37" s="4"/>
+      <c r="HI37" s="4"/>
+      <c r="HJ37" s="4"/>
+      <c r="HK37" s="4"/>
+      <c r="HL37" s="4"/>
+      <c r="HM37" s="4"/>
+      <c r="HN37" s="4"/>
+      <c r="HO37" s="4"/>
+      <c r="HP37" s="4"/>
+      <c r="HQ37" s="4"/>
+      <c r="HR37" s="4"/>
+      <c r="HS37" s="4"/>
+      <c r="HT37" s="4"/>
+      <c r="HU37" s="4"/>
+      <c r="HV37" s="4"/>
+      <c r="HW37" s="4"/>
+      <c r="HX37" s="4"/>
+      <c r="HY37" s="4"/>
+      <c r="HZ37" s="4"/>
+      <c r="IA37" s="4"/>
+      <c r="IB37" s="4"/>
+      <c r="IC37" s="4"/>
+      <c r="ID37" s="4"/>
+      <c r="IE37" s="4"/>
+      <c r="IF37" s="4"/>
+      <c r="IG37" s="4"/>
+      <c r="IH37" s="4"/>
+      <c r="II37" s="4"/>
+      <c r="IJ37" s="4"/>
+      <c r="IK37" s="4"/>
+      <c r="IL37" s="4"/>
+      <c r="IM37" s="4"/>
+      <c r="IN37" s="4"/>
+      <c r="IO37" s="4"/>
+      <c r="IP37" s="4"/>
+      <c r="IQ37" s="4"/>
+      <c r="IR37" s="4"/>
+      <c r="IS37" s="4"/>
+      <c r="IT37" s="4"/>
+      <c r="IU37" s="4"/>
+      <c r="IV37" s="4"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="C38" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="D38" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>293</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -3700,20 +4167,20 @@
     </row>
     <row r="40" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>296</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>171</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -3735,48 +4202,48 @@
     </row>
     <row r="41" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -3805,657 +4272,657 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="C12" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>419</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>422</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>431</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>433</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>439</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>441</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>444</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>450</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>457</v>
-      </c>
       <c r="D45" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>460</v>
-      </c>
       <c r="D46" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="461">
   <si>
     <t>动作</t>
   </si>
@@ -889,7 +889,7 @@
     <t>列出搜索商品</t>
   </si>
   <si>
-    <t>name;publisher:catalogId;publishTime;edition;searchPage();binding;booksize;price;discount;author;description;pageNum（第几页)</t>
+    <t>name(String，书名);publisher(String，出版社):catalogId(int,0不限制，其他数字代表具体的Id）;publishTime(int ,0 不限制，1为2012，2为2011，3为2010，4为2009，5为2009以下;edition（0不限制，其他数字代表具体的版次;searchPage(int 0限制，1 为0-200，2为200-400，3为400-600，4为600以上);binding（int 0 不限制，1为平装，2为精装;booksize（int,0为不限，1为32开，2为16开，3为8开;price（0 为不限制，1为0-10，2为10-30，3为30-50，4为50-100，5为100以上;discount（int ,0为不限，1为3折以下，2为3-5折，3为5-7折，4为7折以上;author(String，作者);description(String，描述);pageNum（第几页默认为1)</t>
   </si>
   <si>
     <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(rating),市场价（marketPrice));recommend:推荐商品（itemId,name,price,picturePath)</t>
@@ -1423,9 +1423,6 @@
   </si>
   <si>
     <t>进入商品管理页面</t>
-  </si>
-  <si>
-    <t>itemName:publisher:catalogID;publishTime(year:年，month:月;day:日);version;searchPage(0:0~200,1:200~400;2:400~600,3:&gt;600);binding;booksize;price（0:0`10,1:10`30,2:30`50,3:50`100,4:&gt;100）;discount(0：所有；）;page（第几页)</t>
   </si>
   <si>
     <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(score),市场价（marketPrice));currentPage：当前页数；totalPage:总页数；</t>
@@ -2101,7 +2098,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="10">
+  <fonts count="11" x14ac:knownFonts="11">
     <font>
       <sz val="12.0"/>
       <name val="文泉驿正黑"/>
@@ -2160,6 +2157,12 @@
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF00FF00"/>
+      <name val="文泉驿正黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2183,7 +2186,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2238,6 +2241,9 @@
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2807,8 +2813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -3309,93 +3315,93 @@
         <v>237</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>203</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>257</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -3437,66 +3443,66 @@
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>271</v>
-      </c>
       <c r="D34" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -3565,20 +3571,20 @@
     </row>
     <row r="36" spans="1:256" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -3832,39 +3838,39 @@
       <c r="IV36" s="4"/>
     </row>
     <row r="37" spans="1:256" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D37" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D37" s="16" t="s">
+      <c r="E37" s="6"/>
+      <c r="F37" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
@@ -4099,35 +4105,35 @@
     </row>
     <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="C38" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="D38" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>292</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -4167,20 +4173,20 @@
     </row>
     <row r="40" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>171</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -4202,48 +4208,48 @@
     </row>
     <row r="41" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>301</v>
       </c>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -4272,657 +4278,657 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="C12" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>383</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>395</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>398</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>418</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>421</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>427</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>435</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>438</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>443</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>446</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>456</v>
-      </c>
       <c r="D45" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="D46" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>461</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -983,7 +983,7 @@
         <rFont val="Lucida Sans"/>
         <family val="2"/>
       </rPr>
-      <t>receiverName:</t>
+      <t>receiver:</t>
     </r>
     <r>
       <rPr>
@@ -1569,7 +1569,7 @@
     <t>管理员提交订单修改</t>
   </si>
   <si>
-    <t>orderID:订单号；receiver:收货人；level1Name:一级地区名称；level2Name:二级地区名称;level3Name:三级地区名称；addressDetail:地区详情；zipcode:邮政编码；phoneNumber：电话号码；mobileNumber:手机号码;items:json_array(id:商品ID;value:商品数量）)</t>
+    <t>orderId:订单号；receiver:收货人；level1ID:一级地区ID；level2ID:二级地区ID;level3ID:三级地区ID；addressDetail:地区详情；zipcode:邮政编码；phoneNumber：电话号码；mobileNumber:手机号码;items:json_array(id:商品ID;value:商品数量）)</t>
   </si>
   <si>
     <t>成功跳转orderDetail</t>
@@ -2186,7 +2186,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2244,6 +2244,9 @@
     <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2813,8 +2816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -3488,40 +3491,40 @@
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4" t="s">
+      <c r="E35" s="7"/>
+      <c r="F35" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13641" windowHeight="6180" activeTab="1" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13626" windowHeight="6180" activeTab="1" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="458">
   <si>
     <t>动作</t>
   </si>
@@ -1371,7 +1371,7 @@
     <r>
       <rPr>
         <sz val="12.0"/>
-        <color rgb="FFFFCC00"/>
+        <color rgb="FF00FF00"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
@@ -1381,23 +1381,14 @@
     <r>
       <rPr>
         <sz val="12.0"/>
-        <color rgb="FFFFCC00"/>
+        <color rgb="FF00FF00"/>
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID+，一个空的一维数组））；totalSalesAmount:总销售量；totalSalesRevenue：销售总额；userNum：注册用户数；productNum：产品数量；totalOrderAmout:总订单数；unauditedOrderAmount：待审核订单数；finishOrderAmount：完成订单数；LatestOrders：包含订单信息对象的一维数组（每个数组成员是一个订单信息类的对象：它的成员包括：orderID：订单号，userName：用户名，orderTime：下单时间，orderStatus：订单状态） </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <color rgb="FFFFCC00"/>
-        <rFont val="文泉驿正黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">，一个空的一维数组））；totalSalesAmount:总销售量；totalSalesRevenue：销售总额；userNum：注册用户数；productNum：产品数量；totalOrderAmout:总订单数；unauditedOrderAmount：待审核订单数；finishOrderAmount：完成订单数；LatestOrders：包含订单信息对象的一维数组（每个数组成员是一个订单信息类的对象：它的成员包括：orderID：订单号，userName：用户名，orderTime：下单时间，orderStatus：订单状态）-</t>
-    </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
@@ -1596,6 +1587,9 @@
     <t>管理员进入用户管理</t>
   </si>
   <si>
+    <t xml:space="preserve"> userName:String; userLevel:(0:普通会员,1:银卡会员,2:金卡会员,3:白金会员；);startTime:开始索引时间(year:年，month:月;day:日）;endTime:结束索引时间（year：年，month:月，day:日); page：int(分页)</t>
+  </si>
+  <si>
     <t>levelList:一维数组(一个包含ID,low,scoreRate);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；currentPage(当前页面)；totalPage（总页数）；</t>
   </si>
   <si>
@@ -1612,18 +1606,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 成功则跳转到用户管理</t>
-  </si>
-  <si>
-    <t>admin/user_search_submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 管理员会员查询</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> userName:String; userLevel:(0:普通会员,1:银卡会员,2:金卡会员,3:白金会员；);startTime:开始索引时间(year:年，month:月;day:日）;endTime:结束索引时间（year：年，month:月，day:日); </t>
-  </si>
-  <si>
-    <t>成功则跳转到用户管理</t>
   </si>
   <si>
     <t>admin/comment_management</t>
@@ -2098,7 +2080,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="11">
+  <fonts count="8" x14ac:knownFonts="8">
     <font>
       <sz val="12.0"/>
       <name val="文泉驿正黑"/>
@@ -2142,24 +2124,7 @@
     </font>
     <font>
       <sz val="12.0"/>
-      <name val="文泉驿正黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FFFFCC00"/>
-      <name val="文泉驿正黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FFFF0000"/>
-      <name val="文泉驿正黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF00FF00"/>
+      <color rgb="FF0000FF"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
@@ -2186,7 +2151,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2226,11 +2191,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -2238,13 +2203,7 @@
     <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2261,7 +2220,7 @@
   <dimension ref="A1:IV25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B24"/>
+      <selection activeCell="A23" sqref="A23:U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2572,21 +2531,58 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
@@ -2620,31 +2616,31 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -2791,19 +2787,36 @@
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
     </row>
-    <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="4" t="s">
         <v>112</v>
       </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -2816,8 +2829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2992,7 +3005,7 @@
       <c r="B9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -3264,51 +3277,79 @@
         <v>226</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9" t="s">
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-    </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+    </row>
+    <row r="25" spans="1:26" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="E25" s="6"/>
+      <c r="F25" s="6" t="s">
         <v>235</v>
       </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
@@ -3572,7 +3613,7 @@
       <c r="BQ35" s="4"/>
       <c r="BR35" s="4"/>
     </row>
-    <row r="36" spans="1:256" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
         <v>276</v>
       </c>
@@ -3603,244 +3644,8 @@
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
-      <c r="AD36" s="4"/>
-      <c r="AE36" s="4"/>
-      <c r="AF36" s="4"/>
-      <c r="AG36" s="4"/>
-      <c r="AH36" s="4"/>
-      <c r="AI36" s="4"/>
-      <c r="AJ36" s="4"/>
-      <c r="AK36" s="4"/>
-      <c r="AL36" s="4"/>
-      <c r="AM36" s="4"/>
-      <c r="AN36" s="4"/>
-      <c r="AO36" s="4"/>
-      <c r="AP36" s="4"/>
-      <c r="AQ36" s="4"/>
-      <c r="AR36" s="4"/>
-      <c r="AS36" s="4"/>
-      <c r="AT36" s="4"/>
-      <c r="AU36" s="4"/>
-      <c r="AV36" s="4"/>
-      <c r="AW36" s="4"/>
-      <c r="AX36" s="4"/>
-      <c r="AY36" s="4"/>
-      <c r="AZ36" s="4"/>
-      <c r="BA36" s="4"/>
-      <c r="BB36" s="4"/>
-      <c r="BC36" s="4"/>
-      <c r="BD36" s="4"/>
-      <c r="BE36" s="4"/>
-      <c r="BF36" s="4"/>
-      <c r="BG36" s="4"/>
-      <c r="BH36" s="4"/>
-      <c r="BI36" s="4"/>
-      <c r="BJ36" s="4"/>
-      <c r="BK36" s="4"/>
-      <c r="BL36" s="4"/>
-      <c r="BM36" s="4"/>
-      <c r="BN36" s="4"/>
-      <c r="BO36" s="4"/>
-      <c r="BP36" s="4"/>
-      <c r="BQ36" s="4"/>
-      <c r="BR36" s="4"/>
-      <c r="BS36" s="4"/>
-      <c r="BT36" s="4"/>
-      <c r="BU36" s="4"/>
-      <c r="BV36" s="4"/>
-      <c r="BW36" s="4"/>
-      <c r="BX36" s="4"/>
-      <c r="BY36" s="4"/>
-      <c r="BZ36" s="4"/>
-      <c r="CA36" s="4"/>
-      <c r="CB36" s="4"/>
-      <c r="CC36" s="4"/>
-      <c r="CD36" s="4"/>
-      <c r="CE36" s="4"/>
-      <c r="CF36" s="4"/>
-      <c r="CG36" s="4"/>
-      <c r="CH36" s="4"/>
-      <c r="CI36" s="4"/>
-      <c r="CJ36" s="4"/>
-      <c r="CK36" s="4"/>
-      <c r="CL36" s="4"/>
-      <c r="CM36" s="4"/>
-      <c r="CN36" s="4"/>
-      <c r="CO36" s="4"/>
-      <c r="CP36" s="4"/>
-      <c r="CQ36" s="4"/>
-      <c r="CR36" s="4"/>
-      <c r="CS36" s="4"/>
-      <c r="CT36" s="4"/>
-      <c r="CU36" s="4"/>
-      <c r="CV36" s="4"/>
-      <c r="CW36" s="4"/>
-      <c r="CX36" s="4"/>
-      <c r="CY36" s="4"/>
-      <c r="CZ36" s="4"/>
-      <c r="DA36" s="4"/>
-      <c r="DB36" s="4"/>
-      <c r="DC36" s="4"/>
-      <c r="DD36" s="4"/>
-      <c r="DE36" s="4"/>
-      <c r="DF36" s="4"/>
-      <c r="DG36" s="4"/>
-      <c r="DH36" s="4"/>
-      <c r="DI36" s="4"/>
-      <c r="DJ36" s="4"/>
-      <c r="DK36" s="4"/>
-      <c r="DL36" s="4"/>
-      <c r="DM36" s="4"/>
-      <c r="DN36" s="4"/>
-      <c r="DO36" s="4"/>
-      <c r="DP36" s="4"/>
-      <c r="DQ36" s="4"/>
-      <c r="DR36" s="4"/>
-      <c r="DS36" s="4"/>
-      <c r="DT36" s="4"/>
-      <c r="DU36" s="4"/>
-      <c r="DV36" s="4"/>
-      <c r="DW36" s="4"/>
-      <c r="DX36" s="4"/>
-      <c r="DY36" s="4"/>
-      <c r="DZ36" s="4"/>
-      <c r="EA36" s="4"/>
-      <c r="EB36" s="4"/>
-      <c r="EC36" s="4"/>
-      <c r="ED36" s="4"/>
-      <c r="EE36" s="4"/>
-      <c r="EF36" s="4"/>
-      <c r="EG36" s="4"/>
-      <c r="EH36" s="4"/>
-      <c r="EI36" s="4"/>
-      <c r="EJ36" s="4"/>
-      <c r="EK36" s="4"/>
-      <c r="EL36" s="4"/>
-      <c r="EM36" s="4"/>
-      <c r="EN36" s="4"/>
-      <c r="EO36" s="4"/>
-      <c r="EP36" s="4"/>
-      <c r="EQ36" s="4"/>
-      <c r="ER36" s="4"/>
-      <c r="ES36" s="4"/>
-      <c r="ET36" s="4"/>
-      <c r="EU36" s="4"/>
-      <c r="EV36" s="4"/>
-      <c r="EW36" s="4"/>
-      <c r="EX36" s="4"/>
-      <c r="EY36" s="4"/>
-      <c r="EZ36" s="4"/>
-      <c r="FA36" s="4"/>
-      <c r="FB36" s="4"/>
-      <c r="FC36" s="4"/>
-      <c r="FD36" s="4"/>
-      <c r="FE36" s="4"/>
-      <c r="FF36" s="4"/>
-      <c r="FG36" s="4"/>
-      <c r="FH36" s="4"/>
-      <c r="FI36" s="4"/>
-      <c r="FJ36" s="4"/>
-      <c r="FK36" s="4"/>
-      <c r="FL36" s="4"/>
-      <c r="FM36" s="4"/>
-      <c r="FN36" s="4"/>
-      <c r="FO36" s="4"/>
-      <c r="FP36" s="4"/>
-      <c r="FQ36" s="4"/>
-      <c r="FR36" s="4"/>
-      <c r="FS36" s="4"/>
-      <c r="FT36" s="4"/>
-      <c r="FU36" s="4"/>
-      <c r="FV36" s="4"/>
-      <c r="FW36" s="4"/>
-      <c r="FX36" s="4"/>
-      <c r="FY36" s="4"/>
-      <c r="FZ36" s="4"/>
-      <c r="GA36" s="4"/>
-      <c r="GB36" s="4"/>
-      <c r="GC36" s="4"/>
-      <c r="GD36" s="4"/>
-      <c r="GE36" s="4"/>
-      <c r="GF36" s="4"/>
-      <c r="GG36" s="4"/>
-      <c r="GH36" s="4"/>
-      <c r="GI36" s="4"/>
-      <c r="GJ36" s="4"/>
-      <c r="GK36" s="4"/>
-      <c r="GL36" s="4"/>
-      <c r="GM36" s="4"/>
-      <c r="GN36" s="4"/>
-      <c r="GO36" s="4"/>
-      <c r="GP36" s="4"/>
-      <c r="GQ36" s="4"/>
-      <c r="GR36" s="4"/>
-      <c r="GS36" s="4"/>
-      <c r="GT36" s="4"/>
-      <c r="GU36" s="4"/>
-      <c r="GV36" s="4"/>
-      <c r="GW36" s="4"/>
-      <c r="GX36" s="4"/>
-      <c r="GY36" s="4"/>
-      <c r="GZ36" s="4"/>
-      <c r="HA36" s="4"/>
-      <c r="HB36" s="4"/>
-      <c r="HC36" s="4"/>
-      <c r="HD36" s="4"/>
-      <c r="HE36" s="4"/>
-      <c r="HF36" s="4"/>
-      <c r="HG36" s="4"/>
-      <c r="HH36" s="4"/>
-      <c r="HI36" s="4"/>
-      <c r="HJ36" s="4"/>
-      <c r="HK36" s="4"/>
-      <c r="HL36" s="4"/>
-      <c r="HM36" s="4"/>
-      <c r="HN36" s="4"/>
-      <c r="HO36" s="4"/>
-      <c r="HP36" s="4"/>
-      <c r="HQ36" s="4"/>
-      <c r="HR36" s="4"/>
-      <c r="HS36" s="4"/>
-      <c r="HT36" s="4"/>
-      <c r="HU36" s="4"/>
-      <c r="HV36" s="4"/>
-      <c r="HW36" s="4"/>
-      <c r="HX36" s="4"/>
-      <c r="HY36" s="4"/>
-      <c r="HZ36" s="4"/>
-      <c r="IA36" s="4"/>
-      <c r="IB36" s="4"/>
-      <c r="IC36" s="4"/>
-      <c r="ID36" s="4"/>
-      <c r="IE36" s="4"/>
-      <c r="IF36" s="4"/>
-      <c r="IG36" s="4"/>
-      <c r="IH36" s="4"/>
-      <c r="II36" s="4"/>
-      <c r="IJ36" s="4"/>
-      <c r="IK36" s="4"/>
-      <c r="IL36" s="4"/>
-      <c r="IM36" s="4"/>
-      <c r="IN36" s="4"/>
-      <c r="IO36" s="4"/>
-      <c r="IP36" s="4"/>
-      <c r="IQ36" s="4"/>
-      <c r="IR36" s="4"/>
-      <c r="IS36" s="4"/>
-      <c r="IT36" s="4"/>
-      <c r="IU36" s="4"/>
-      <c r="IV36" s="4"/>
-    </row>
-    <row r="37" spans="1:256" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:25" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
         <v>281</v>
       </c>
@@ -3848,7 +3653,7 @@
       <c r="C37" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="1" t="s">
         <v>282</v>
       </c>
       <c r="E37" s="6"/>
@@ -3874,252 +3679,43 @@
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="4"/>
-      <c r="AB37" s="4"/>
-      <c r="AC37" s="4"/>
-      <c r="AD37" s="4"/>
-      <c r="AE37" s="4"/>
-      <c r="AF37" s="4"/>
-      <c r="AG37" s="4"/>
-      <c r="AH37" s="4"/>
-      <c r="AI37" s="4"/>
-      <c r="AJ37" s="4"/>
-      <c r="AK37" s="4"/>
-      <c r="AL37" s="4"/>
-      <c r="AM37" s="4"/>
-      <c r="AN37" s="4"/>
-      <c r="AO37" s="4"/>
-      <c r="AP37" s="4"/>
-      <c r="AQ37" s="4"/>
-      <c r="AR37" s="4"/>
-      <c r="AS37" s="4"/>
-      <c r="AT37" s="4"/>
-      <c r="AU37" s="4"/>
-      <c r="AV37" s="4"/>
-      <c r="AW37" s="4"/>
-      <c r="AX37" s="4"/>
-      <c r="AY37" s="4"/>
-      <c r="AZ37" s="4"/>
-      <c r="BA37" s="4"/>
-      <c r="BB37" s="4"/>
-      <c r="BC37" s="4"/>
-      <c r="BD37" s="4"/>
-      <c r="BE37" s="4"/>
-      <c r="BF37" s="4"/>
-      <c r="BG37" s="4"/>
-      <c r="BH37" s="4"/>
-      <c r="BI37" s="4"/>
-      <c r="BJ37" s="4"/>
-      <c r="BK37" s="4"/>
-      <c r="BL37" s="4"/>
-      <c r="BM37" s="4"/>
-      <c r="BN37" s="4"/>
-      <c r="BO37" s="4"/>
-      <c r="BP37" s="4"/>
-      <c r="BQ37" s="4"/>
-      <c r="BR37" s="4"/>
-      <c r="BS37" s="4"/>
-      <c r="BT37" s="4"/>
-      <c r="BU37" s="4"/>
-      <c r="BV37" s="4"/>
-      <c r="BW37" s="4"/>
-      <c r="BX37" s="4"/>
-      <c r="BY37" s="4"/>
-      <c r="BZ37" s="4"/>
-      <c r="CA37" s="4"/>
-      <c r="CB37" s="4"/>
-      <c r="CC37" s="4"/>
-      <c r="CD37" s="4"/>
-      <c r="CE37" s="4"/>
-      <c r="CF37" s="4"/>
-      <c r="CG37" s="4"/>
-      <c r="CH37" s="4"/>
-      <c r="CI37" s="4"/>
-      <c r="CJ37" s="4"/>
-      <c r="CK37" s="4"/>
-      <c r="CL37" s="4"/>
-      <c r="CM37" s="4"/>
-      <c r="CN37" s="4"/>
-      <c r="CO37" s="4"/>
-      <c r="CP37" s="4"/>
-      <c r="CQ37" s="4"/>
-      <c r="CR37" s="4"/>
-      <c r="CS37" s="4"/>
-      <c r="CT37" s="4"/>
-      <c r="CU37" s="4"/>
-      <c r="CV37" s="4"/>
-      <c r="CW37" s="4"/>
-      <c r="CX37" s="4"/>
-      <c r="CY37" s="4"/>
-      <c r="CZ37" s="4"/>
-      <c r="DA37" s="4"/>
-      <c r="DB37" s="4"/>
-      <c r="DC37" s="4"/>
-      <c r="DD37" s="4"/>
-      <c r="DE37" s="4"/>
-      <c r="DF37" s="4"/>
-      <c r="DG37" s="4"/>
-      <c r="DH37" s="4"/>
-      <c r="DI37" s="4"/>
-      <c r="DJ37" s="4"/>
-      <c r="DK37" s="4"/>
-      <c r="DL37" s="4"/>
-      <c r="DM37" s="4"/>
-      <c r="DN37" s="4"/>
-      <c r="DO37" s="4"/>
-      <c r="DP37" s="4"/>
-      <c r="DQ37" s="4"/>
-      <c r="DR37" s="4"/>
-      <c r="DS37" s="4"/>
-      <c r="DT37" s="4"/>
-      <c r="DU37" s="4"/>
-      <c r="DV37" s="4"/>
-      <c r="DW37" s="4"/>
-      <c r="DX37" s="4"/>
-      <c r="DY37" s="4"/>
-      <c r="DZ37" s="4"/>
-      <c r="EA37" s="4"/>
-      <c r="EB37" s="4"/>
-      <c r="EC37" s="4"/>
-      <c r="ED37" s="4"/>
-      <c r="EE37" s="4"/>
-      <c r="EF37" s="4"/>
-      <c r="EG37" s="4"/>
-      <c r="EH37" s="4"/>
-      <c r="EI37" s="4"/>
-      <c r="EJ37" s="4"/>
-      <c r="EK37" s="4"/>
-      <c r="EL37" s="4"/>
-      <c r="EM37" s="4"/>
-      <c r="EN37" s="4"/>
-      <c r="EO37" s="4"/>
-      <c r="EP37" s="4"/>
-      <c r="EQ37" s="4"/>
-      <c r="ER37" s="4"/>
-      <c r="ES37" s="4"/>
-      <c r="ET37" s="4"/>
-      <c r="EU37" s="4"/>
-      <c r="EV37" s="4"/>
-      <c r="EW37" s="4"/>
-      <c r="EX37" s="4"/>
-      <c r="EY37" s="4"/>
-      <c r="EZ37" s="4"/>
-      <c r="FA37" s="4"/>
-      <c r="FB37" s="4"/>
-      <c r="FC37" s="4"/>
-      <c r="FD37" s="4"/>
-      <c r="FE37" s="4"/>
-      <c r="FF37" s="4"/>
-      <c r="FG37" s="4"/>
-      <c r="FH37" s="4"/>
-      <c r="FI37" s="4"/>
-      <c r="FJ37" s="4"/>
-      <c r="FK37" s="4"/>
-      <c r="FL37" s="4"/>
-      <c r="FM37" s="4"/>
-      <c r="FN37" s="4"/>
-      <c r="FO37" s="4"/>
-      <c r="FP37" s="4"/>
-      <c r="FQ37" s="4"/>
-      <c r="FR37" s="4"/>
-      <c r="FS37" s="4"/>
-      <c r="FT37" s="4"/>
-      <c r="FU37" s="4"/>
-      <c r="FV37" s="4"/>
-      <c r="FW37" s="4"/>
-      <c r="FX37" s="4"/>
-      <c r="FY37" s="4"/>
-      <c r="FZ37" s="4"/>
-      <c r="GA37" s="4"/>
-      <c r="GB37" s="4"/>
-      <c r="GC37" s="4"/>
-      <c r="GD37" s="4"/>
-      <c r="GE37" s="4"/>
-      <c r="GF37" s="4"/>
-      <c r="GG37" s="4"/>
-      <c r="GH37" s="4"/>
-      <c r="GI37" s="4"/>
-      <c r="GJ37" s="4"/>
-      <c r="GK37" s="4"/>
-      <c r="GL37" s="4"/>
-      <c r="GM37" s="4"/>
-      <c r="GN37" s="4"/>
-      <c r="GO37" s="4"/>
-      <c r="GP37" s="4"/>
-      <c r="GQ37" s="4"/>
-      <c r="GR37" s="4"/>
-      <c r="GS37" s="4"/>
-      <c r="GT37" s="4"/>
-      <c r="GU37" s="4"/>
-      <c r="GV37" s="4"/>
-      <c r="GW37" s="4"/>
-      <c r="GX37" s="4"/>
-      <c r="GY37" s="4"/>
-      <c r="GZ37" s="4"/>
-      <c r="HA37" s="4"/>
-      <c r="HB37" s="4"/>
-      <c r="HC37" s="4"/>
-      <c r="HD37" s="4"/>
-      <c r="HE37" s="4"/>
-      <c r="HF37" s="4"/>
-      <c r="HG37" s="4"/>
-      <c r="HH37" s="4"/>
-      <c r="HI37" s="4"/>
-      <c r="HJ37" s="4"/>
-      <c r="HK37" s="4"/>
-      <c r="HL37" s="4"/>
-      <c r="HM37" s="4"/>
-      <c r="HN37" s="4"/>
-      <c r="HO37" s="4"/>
-      <c r="HP37" s="4"/>
-      <c r="HQ37" s="4"/>
-      <c r="HR37" s="4"/>
-      <c r="HS37" s="4"/>
-      <c r="HT37" s="4"/>
-      <c r="HU37" s="4"/>
-      <c r="HV37" s="4"/>
-      <c r="HW37" s="4"/>
-      <c r="HX37" s="4"/>
-      <c r="HY37" s="4"/>
-      <c r="HZ37" s="4"/>
-      <c r="IA37" s="4"/>
-      <c r="IB37" s="4"/>
-      <c r="IC37" s="4"/>
-      <c r="ID37" s="4"/>
-      <c r="IE37" s="4"/>
-      <c r="IF37" s="4"/>
-      <c r="IG37" s="4"/>
-      <c r="IH37" s="4"/>
-      <c r="II37" s="4"/>
-      <c r="IJ37" s="4"/>
-      <c r="IK37" s="4"/>
-      <c r="IL37" s="4"/>
-      <c r="IM37" s="4"/>
-      <c r="IN37" s="4"/>
-      <c r="IO37" s="4"/>
-      <c r="IP37" s="4"/>
-      <c r="IQ37" s="4"/>
-      <c r="IR37" s="4"/>
-      <c r="IS37" s="4"/>
-      <c r="IT37" s="4"/>
-      <c r="IU37" s="4"/>
-      <c r="IV37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="7" t="s">
+    </row>
+    <row r="38" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="E38" s="7"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
     </row>
     <row r="39" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
@@ -4174,7 +3770,7 @@
       <c r="AN39" s="4"/>
       <c r="AO39" s="4"/>
     </row>
-    <row r="40" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>293</v>
       </c>
@@ -4182,14 +3778,14 @@
         <v>294</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>171</v>
+        <v>295</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -4208,52 +3804,127 @@
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="4"/>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="4"/>
+      <c r="AK40" s="4"/>
+      <c r="AL40" s="4"/>
+      <c r="AM40" s="4"/>
+      <c r="AN40" s="4"/>
+      <c r="AO40" s="4"/>
+      <c r="AP40" s="4"/>
+      <c r="AQ40" s="4"/>
+      <c r="AR40" s="4"/>
+      <c r="AS40" s="4"/>
+      <c r="AT40" s="4"/>
+      <c r="AU40" s="4"/>
+      <c r="AV40" s="4"/>
+      <c r="AW40" s="4"/>
+      <c r="AX40" s="4"/>
+      <c r="AY40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B42" s="1" t="s">
+    <row r="42" spans="1:66" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="B42" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="C42" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
+      <c r="E42" s="4"/>
+      <c r="F42" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>308</v>
-      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="4"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="4"/>
+      <c r="AL42" s="4"/>
+      <c r="AM42" s="4"/>
+      <c r="AN42" s="4"/>
+      <c r="AO42" s="4"/>
+      <c r="AP42" s="4"/>
+      <c r="AQ42" s="4"/>
+      <c r="AR42" s="4"/>
+      <c r="AS42" s="4"/>
+      <c r="AT42" s="4"/>
+      <c r="AU42" s="4"/>
+      <c r="AV42" s="4"/>
+      <c r="AW42" s="4"/>
+      <c r="AX42" s="4"/>
+      <c r="AY42" s="4"/>
+      <c r="AZ42" s="4"/>
+      <c r="BA42" s="4"/>
+      <c r="BB42" s="4"/>
+      <c r="BC42" s="4"/>
+      <c r="BD42" s="4"/>
+      <c r="BE42" s="4"/>
+      <c r="BF42" s="4"/>
+      <c r="BG42" s="4"/>
+      <c r="BH42" s="4"/>
+      <c r="BI42" s="4"/>
+      <c r="BJ42" s="4"/>
+      <c r="BK42" s="4"/>
+      <c r="BL42" s="4"/>
+      <c r="BM42" s="4"/>
+      <c r="BN42" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -4266,8 +3937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScaleNormal="100" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -4281,657 +3952,657 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13626" windowHeight="6180" activeTab="1" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13611" windowHeight="6180" activeTab="1" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="457">
   <si>
     <t>动作</t>
   </si>
@@ -671,7 +671,7 @@
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
-      <t>name:</t>
+      <t>userName:</t>
     </r>
     <r>
       <rPr>
@@ -752,7 +752,7 @@
         <rFont val="文泉驿正黑"/>
         <charset val="134"/>
       </rPr>
-      <t>name:</t>
+      <t>userName:</t>
     </r>
     <r>
       <rPr>
@@ -1176,10 +1176,10 @@
     <t>提交订单</t>
   </si>
   <si>
-    <t>addressId:地址ID（使用新地址的时候为null)；receiverName:收货人；level1Id:一级地区id；level2Id:二级地区id;level3Id:三级地区id；addressDetail:地区详情；zipcode:邮政编码；phoneNum：电话号码；mobileNum手机号码;items:json_array(itemId:商品ID;itemNumber:商品数量）score:使用的积分</t>
-  </si>
-  <si>
-    <t>用户名(username);下单时间(orderTime字符串);订单金额(price)；跳转下单成功</t>
+    <t>addressId:地址ID（使用新地址的时候为null)；receiver:收货人；level1Id:一级地区id；level2Id:二级地区id;level3Id:三级地区id；addressDetail:地区详情；zipcode:邮政编码；phoneNum：电话号码；mobileNum手机号码;items:json_array(itemId:商品ID;itemNumber:商品数量）score:使用的积分</t>
+  </si>
+  <si>
+    <t>用户名(userName);下单时间(orderTime字符串);订单金额(price)；跳转下单成功</t>
   </si>
   <si>
     <t>OrderSubmitAction</t>
@@ -1335,7 +1335,7 @@
     <t>进入用户信息</t>
   </si>
   <si>
-    <t>username:用户名，nickname：昵称;totalScore积分;orderList:一维数组包含（订单号(orderId),订单金额(totalPrice),下单时间(orderTime),获得积分（score));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+    <t>userName:用户名，nickname：昵称;totalScore积分;orderList:一维数组包含（订单号(orderId),订单金额(totalPrice),下单时间(orderTime),获得积分（score));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
     <t>UserInfoEnterAction</t>
@@ -1356,7 +1356,7 @@
     <t>提交密码重置</t>
   </si>
   <si>
-    <t>name:用户名；securityQuestion安全问题;securityAnswer:安全问题答案</t>
+    <t>userName:用户名；securityQuestion安全问题;securityAnswer:安全问题答案</t>
   </si>
   <si>
     <t>成功跳转成功页面；失败跳转出错页面</t>
@@ -1401,7 +1401,7 @@
     <t>管理员登录</t>
   </si>
   <si>
-    <t>name:用户名；password：密码；captchaValue:验证码；toURL:跳转的URL</t>
+    <t>userName:用户名；password：密码；captchaValue:验证码；toURL:跳转的URL</t>
   </si>
   <si>
     <t>跳转到相应URL</t>
@@ -1441,9 +1441,6 @@
   </si>
   <si>
     <t>itemID(商品ID）</t>
-  </si>
-  <si>
-    <t>ISBN ，itemName(书名）， itemAuthor（作者姓名） ,itemPublishing（出版社） ,itemPublishingTime（出版时间） , itemEdition（版次）， itemPage（页数） ,itemBinding（装帧） , itemFormat（开本） ,itemPrice（价格） , itmePublishingPrice（出版价格） , itemDiscount（折扣） , itemInventory（库存） ,itemBookDescribe （书籍描述）,itemBookClassify （书籍分类）, itemUserDiscuss（用户评论），itemComprehensiveRate（综合评级）,commentList(一维数组包含用户名(username),级别(rating),内容(content),时间(date));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
     <t>admin/item_edit.jsp</t>
@@ -2080,7 +2077,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="8">
+  <fonts count="10" x14ac:knownFonts="10">
     <font>
       <sz val="12.0"/>
       <name val="文泉驿正黑"/>
@@ -2125,6 +2122,17 @@
     <font>
       <sz val="12.0"/>
       <color rgb="FF0000FF"/>
+      <name val="文泉驿正黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF00FF00"/>
+      <name val="文泉驿正黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
@@ -2185,6 +2193,12 @@
     <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2194,16 +2208,10 @@
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2220,7 +2228,7 @@
   <dimension ref="A1:IV25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:U23"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2702,35 +2710,35 @@
       <c r="AG22" s="4"/>
     </row>
     <row r="23" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
@@ -2827,10 +2835,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV43"/>
+  <dimension ref="A1:IV42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2871,7 +2879,7 @@
       <c r="B2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="17" t="s">
         <v>116</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2888,7 +2896,7 @@
       <c r="B3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="17" t="s">
         <v>121</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -3045,10 +3053,10 @@
       <c r="B11" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="17" t="s">
         <v>166</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -3239,7 +3247,7 @@
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="17" t="s">
         <v>218</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -3270,7 +3278,7 @@
       <c r="B23" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="17" t="s">
         <v>225</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -3284,8 +3292,8 @@
       <c r="B24" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11" t="s">
         <v>229</v>
       </c>
       <c r="E24" s="6"/>
@@ -3320,7 +3328,7 @@
       <c r="B25" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="16" t="s">
         <v>233</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -3393,21 +3401,21 @@
         <v>246</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>243</v>
@@ -3415,10 +3423,10 @@
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>246</v>
@@ -3427,25 +3435,25 @@
         <v>203</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>256</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -3487,66 +3495,66 @@
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>270</v>
-      </c>
       <c r="D34" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -3615,20 +3623,20 @@
     </row>
     <row r="36" spans="1:20" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>278</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>279</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -3647,18 +3655,18 @@
     </row>
     <row r="37" spans="1:25" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -3682,16 +3690,16 @@
     </row>
     <row r="38" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>287</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -3719,20 +3727,20 @@
     </row>
     <row r="39" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>291</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -3772,20 +3780,20 @@
     </row>
     <row r="40" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>296</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -3835,35 +3843,35 @@
     </row>
     <row r="41" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>301</v>
       </c>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:66" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>302</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>303</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>171</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -3952,657 +3960,657 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="C12" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>391</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>394</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>417</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>423</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>431</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>434</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>439</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>442</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>445</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>452</v>
-      </c>
       <c r="D45" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>455</v>
-      </c>
       <c r="D46" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>457</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13611" windowHeight="6180" activeTab="1" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13596" windowHeight="6180" activeTab="1" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
@@ -889,7 +889,7 @@
     <t>列出搜索商品</t>
   </si>
   <si>
-    <t>name(String，书名);publisher(String，出版社):catalogId(int,0不限制，其他数字代表具体的Id）;publishTime(int ,0 不限制，1为2012，2为2011，3为2010，4为2009，5为2009以下;edition（0不限制，其他数字代表具体的版次;searchPage(int 0限制，1 为0-200，2为200-400，3为400-600，4为600以上);binding（int 0 不限制，1为平装，2为精装;booksize（int,0为不限，1为32开，2为16开，3为8开;price（0 为不限制，1为0-10，2为10-30，3为30-50，4为50-100，5为100以上;discount（int ,0为不限，1为3折以下，2为3-5折，3为5-7折，4为7折以上;author(String，作者);description(String，描述);pageNum（第几页默认为1)</t>
+    <t>name(String，书名);publisher(String，出版社):catalogID(int,0不限制，其他数字代表具体的Id）;publishTime(int ,0 不限制，1为2012，2为2011，3为2010，4为2009，5为2009以下;edition（0不限制，其他数字代表具体的版次;searchPage(int 0限制，1 为0-200，2为200-400，3为400-600，4为600以上);binding（int 0 不限制，1为平装，2为精装;booksize（int,0为不限，1为32开，2为16开，3为8开;price（0 为不限制，1为0-10，2为10-30，3为30-50，4为50-100，5为100以上;discount（int ,0为不限，1为3折以下，2为3-5折，3为5-7折，4为7折以上;author(String，作者);description(String，描述);page（第几页默认为1)</t>
   </si>
   <si>
     <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(rating),市场价（marketPrice));recommend:推荐商品（itemId,name,price,picturePath)</t>
@@ -1551,7 +1551,7 @@
     <t>admin/order_edit.jsp</t>
   </si>
   <si>
-    <t>admin/order_edit_submit</t>
+    <t>admin/order_edit_subitmit</t>
   </si>
   <si>
     <t>管理员提交订单修改</t>
@@ -2127,12 +2127,12 @@
     </font>
     <font>
       <sz val="12.0"/>
-      <color rgb="FF00FF00"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12.0"/>
+      <color rgb="FFFF0000"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
@@ -2159,7 +2159,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2205,13 +2205,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2837,8 +2834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2879,7 +2876,7 @@
       <c r="B2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2896,7 +2893,7 @@
       <c r="B3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -2933,7 +2930,7 @@
       <c r="B5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="15" t="s">
         <v>131</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -3053,10 +3050,10 @@
       <c r="B11" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="1" t="s">
         <v>166</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -3247,7 +3244,7 @@
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="1" t="s">
         <v>218</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -3278,7 +3275,7 @@
       <c r="B23" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -3328,7 +3325,7 @@
       <c r="B25" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="6" t="s">
         <v>233</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -3366,7 +3363,7 @@
       <c r="B26" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="15" t="s">
         <v>131</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -3689,7 +3686,7 @@
       <c r="Y37" s="6"/>
     </row>
     <row r="38" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="16" t="s">
         <v>283</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -3946,7 +3943,7 @@
   <dimension ref="A1:IV47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:A34"/>
+      <selection activeCell="A33" sqref="A33:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13596" windowHeight="6180" activeTab="1" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13581" windowHeight="6180" activeTab="0" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
@@ -650,7 +650,7 @@
     <t>删除评论</t>
   </si>
   <si>
-    <t>commentID：int</t>
+    <t>userName:用户名，itemID：商品ID</t>
   </si>
   <si>
     <t xml:space="preserve"> deleteResult:boolean(评论删除成功与否)</t>
@@ -2077,7 +2077,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="10">
+  <fonts count="9" x14ac:knownFonts="9">
     <font>
       <sz val="12.0"/>
       <name val="文泉驿正黑"/>
@@ -2127,11 +2127,6 @@
     </font>
     <font>
       <sz val="12.0"/>
-      <name val="文泉驿正黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
       <color rgb="FFFF0000"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
@@ -2159,7 +2154,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2208,9 +2203,6 @@
     <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2224,8 +2216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2799,7 +2791,7 @@
       <c r="B25" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="15" t="s">
         <v>111</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -2834,8 +2826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView zoomScaleNormal="100" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2930,7 +2922,7 @@
       <c r="B5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -3363,7 +3355,7 @@
       <c r="B26" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -3686,7 +3678,7 @@
       <c r="Y37" s="6"/>
     </row>
     <row r="38" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="1" t="s">
         <v>283</v>
       </c>
       <c r="B38" s="4" t="s">

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13581" windowHeight="6180" activeTab="0" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13566" windowHeight="6180" activeTab="0" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="463">
   <si>
     <t>动作</t>
   </si>
@@ -572,6 +572,18 @@
     <t>ItemCommentAction</t>
   </si>
   <si>
+    <t>cart/update（新增接口）</t>
+  </si>
+  <si>
+    <t>修改购物车中的商品数量</t>
+  </si>
+  <si>
+    <t>itemId,itemNumber</t>
+  </si>
+  <si>
+    <t>updateResult:boolean(表示修改成功没）</t>
+  </si>
+  <si>
     <t>admin/item_manager/off</t>
   </si>
   <si>
@@ -1290,7 +1302,7 @@
     <t xml:space="preserve">itmeId(商品ID）  </t>
   </si>
   <si>
-    <t>ISBN ，name(书名）， author（作者姓名） ,publisher（出版社） ,publishTime（出版时间） , edition（版次）， page（页数） ,binding（装帧） , size（开本） ,price（价格） , marketPrice（出版价格） , discount（折扣） , inventory（库存） ,description （书籍描述）,bookClassify（书籍分类String），averageRating（综合评级),commentList(一维数组包含用户名(username),打分(rating),内容(content),时间(date));recommendView:推荐商品（id,itemName,price,picturePath);recommendBought:推荐商品（itemId,name,price,picturePath)；catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+    <t>book:(一个关于书籍信息的bean，其中包括属性isbn ，bookName(书名）， author（作者姓名） ,publisher（出版社） ,publishDate（出版时间） , version（版次）， page（页数） ,binding（装帧） , folio（开本）, marketPrice（出版价格） , discount（折扣） , inventory（库存） ,bookDesc （书籍描述）),offline:(是否下架），catalog：（书籍分类String）,price:(价格），averageRating（综合评级),commentList(一维数组包含用户名(username),打分(rating),内容(content),时间(date));recommendView:推荐商品（id,itemName,price,picturePath);recommendBought:推荐商品（itemId,name,price,picturePath)；catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
     <t>ItemDetailAction</t>
@@ -1299,6 +1311,15 @@
     <t>item_info.jsp</t>
   </si>
   <si>
+    <t>cartDetail</t>
+  </si>
+  <si>
+    <t>购物车（嵌入页面）</t>
+  </si>
+  <si>
+    <t>items:一维数组（一个包含商品ID（itemId),商品名字（name),商品单价(price),商品小计(itemTotalPrice),商品数量,picture(图片）（itemNumber),节省金额(savePrice),),总价totalPrice;</t>
+  </si>
+  <si>
     <t>cart</t>
   </si>
   <si>
@@ -1311,9 +1332,6 @@
     <t>CartEnterAction</t>
   </si>
   <si>
-    <t>cart.jsp</t>
-  </si>
-  <si>
     <t>quick_search</t>
   </si>
   <si>
@@ -1329,6 +1347,9 @@
     <t>QuickSearchAction</t>
   </si>
   <si>
+    <t>user.jsp</t>
+  </si>
+  <si>
     <t>user</t>
   </si>
   <si>
@@ -1341,9 +1362,6 @@
     <t>UserInfoEnterAction</t>
   </si>
   <si>
-    <t>user.jsp</t>
-  </si>
-  <si>
     <t>forget_password</t>
   </si>
   <si>
@@ -1360,6 +1378,9 @@
   </si>
   <si>
     <t>成功跳转成功页面；失败跳转出错页面</t>
+  </si>
+  <si>
+    <t>admin/index.jsp</t>
   </si>
   <si>
     <t>admin/index</t>
@@ -1392,7 +1413,7 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>admin/index.jsp</t>
+    <t>admin/login.jsp</t>
   </si>
   <si>
     <t>admin/login</t>
@@ -1407,7 +1428,7 @@
     <t>跳转到相应URL</t>
   </si>
   <si>
-    <t>admin/login.jsp</t>
+    <t>admin/item_list.jsp</t>
   </si>
   <si>
     <t>admin/item_manager</t>
@@ -1419,9 +1440,6 @@
     <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(score),市场价（marketPrice));currentPage：当前页数；totalPage:总页数；</t>
   </si>
   <si>
-    <t>admin/item_list.jsp</t>
-  </si>
-  <si>
     <t>admin/item_add_submit</t>
   </si>
   <si>
@@ -1434,6 +1452,9 @@
     <t>跳转admin/item_manager</t>
   </si>
   <si>
+    <t>admin/item_edit.jsp</t>
+  </si>
+  <si>
     <t>admin/item_modify</t>
   </si>
   <si>
@@ -1443,9 +1464,6 @@
     <t>itemID(商品ID）</t>
   </si>
   <si>
-    <t>admin/item_edit.jsp</t>
-  </si>
-  <si>
     <t>admin/item_modify_submit</t>
   </si>
   <si>
@@ -1455,13 +1473,16 @@
     <t>itemID(商品ID）,ISBN ，name(书名）， author（作者姓名） ,publisher（出版社） ,publishTime（出版时间）(year:年，month:月;day:日） , edition（版次）， page（页数） ,binding（装帧） , format（开本,marketPrice（出版价格） , discount（折扣） , inventory（库存） ,description （书籍描述）,bookClassify,（书籍分类ID),picture(上传的图片）</t>
   </si>
   <si>
+    <t>admin/item_info.jsp</t>
+  </si>
+  <si>
     <t>admin/item_detail</t>
   </si>
   <si>
     <t>进入商品详情</t>
   </si>
   <si>
-    <t>admin/item_info.jsp</t>
+    <t>admin/category_list.jsp</t>
   </si>
   <si>
     <t>admin/catalog_manager</t>
@@ -1473,9 +1494,6 @@
     <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
-    <t>admin/category_list.jsp</t>
-  </si>
-  <si>
     <t>admin/catalog_add_submit</t>
   </si>
   <si>
@@ -1488,6 +1506,9 @@
     <t>成功跳转目录管理</t>
   </si>
   <si>
+    <t>admin/category_edit.jsp</t>
+  </si>
+  <si>
     <t>admin/catalog_edit</t>
   </si>
   <si>
@@ -1500,9 +1521,6 @@
     <t>catalogName:目录名，catalogDesc：目录描述，upID:父目录的ID(-1表示根目录）;catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
-    <t>admin/category_edit.jsp</t>
-  </si>
-  <si>
     <t>admin/catalog_edit_submit</t>
   </si>
   <si>
@@ -1512,6 +1530,9 @@
     <t>catalogID:目录ID,catalogName:目录名，catalogDesc：目录描述，upID:父目录的ID(-1表示根目录）,</t>
   </si>
   <si>
+    <t>admin/order_list.jsp</t>
+  </si>
+  <si>
     <t>admin/order_list</t>
   </si>
   <si>
@@ -1524,7 +1545,7 @@
     <t>orderList:一维数组（一个含有订单号(orderId)，收货人(receiver)，下单时间(orderTime)，订单状态（orderStatus字符串),订单总价(totalPrice)的类);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；currentPage(当前页面)；totalPage（总页数）；</t>
   </si>
   <si>
-    <t>admin/order_list.jsp</t>
+    <t>admin/order_info.jsp</t>
   </si>
   <si>
     <t>admin/order_detail</t>
@@ -1539,7 +1560,7 @@
     <t>orderID:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),zipcode(邮政编码),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
-    <t>admin/order_info.jsp</t>
+    <t>admin/order_edit.jsp</t>
   </si>
   <si>
     <t>admin/order_edit</t>
@@ -1548,9 +1569,6 @@
     <t>orderID:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);selectedLevel1DistrictID,selectedLevel2DistrictID, selectedLevel3DistrictID,level1District, level2District, level3District,zipcode(邮政编码),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
-    <t>admin/order_edit.jsp</t>
-  </si>
-  <si>
     <t>admin/order_edit_subitmit</t>
   </si>
   <si>
@@ -1563,6 +1581,9 @@
     <t>成功跳转orderDetail</t>
   </si>
   <si>
+    <t>admin/salesdata_admin.jsp</t>
+  </si>
+  <si>
     <t>admin/order_statistics</t>
   </si>
   <si>
@@ -1575,7 +1596,7 @@
     <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；items:一维数组(itemID,itemName;sales;totalPrice),totalSalesRevenue(所有商品的总销售价）</t>
   </si>
   <si>
-    <t>admin/salesdata_admin.jsp</t>
+    <t>admin/user_admin.jsp</t>
   </si>
   <si>
     <t>admin/user_manager</t>
@@ -1590,9 +1611,6 @@
     <t>levelList:一维数组(一个包含ID,low,scoreRate);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；currentPage(当前页面)；totalPage（总页数）；</t>
   </si>
   <si>
-    <t>admin/user_admin.jsp</t>
-  </si>
-  <si>
     <t>admin/user_score_rate_submit</t>
   </si>
   <si>
@@ -1605,6 +1623,9 @@
     <t xml:space="preserve"> 成功则跳转到用户管理</t>
   </si>
   <si>
+    <t>admin/comment_list.jsp</t>
+  </si>
+  <si>
     <t>admin/comment_management</t>
   </si>
   <si>
@@ -1612,9 +1633,6 @@
   </si>
   <si>
     <t>commentList(一维数组包含评论编号（commentID），用户名(username),打分(rating),内容(content),时间(date))；page（页数);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；currentPage(当前页面)；totalPage（总页数）；</t>
-  </si>
-  <si>
-    <t>admin/comment_list.jsp</t>
   </si>
   <si>
     <t>接口</t>
@@ -2127,7 +2145,7 @@
     </font>
     <font>
       <sz val="12.0"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
@@ -2154,7 +2172,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2200,6 +2218,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2214,10 +2238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV25"/>
+  <dimension ref="A1:IV26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2529,16 +2553,16 @@
       </c>
     </row>
     <row r="18" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="17" t="s">
         <v>88</v>
       </c>
       <c r="E18" s="6"/>
@@ -2582,47 +2606,47 @@
       <c r="AQ18" s="6"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>69</v>
+      <c r="C19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="4" t="s">
         <v>98</v>
       </c>
       <c r="E21" s="6"/>
@@ -2656,16 +2680,16 @@
       <c r="AG21" s="4"/>
     </row>
     <row r="22" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E22" s="4"/>
@@ -2699,17 +2723,17 @@
       <c r="AG22" s="4"/>
     </row>
     <row r="23" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>102</v>
+      <c r="C23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -2742,17 +2766,17 @@
       <c r="AG23" s="4"/>
     </row>
     <row r="24" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="A24" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2791,7 +2815,7 @@
       <c r="B25" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="4" t="s">
         <v>111</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -2815,6 +2839,20 @@
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
     </row>
+    <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="1.247760630029393" right="1.247760630029393" top="0.9998749560258521" bottom="0.9998749560258521" header="0.49993747801292604" footer="0.49993747801292604"/>
@@ -2824,17 +2862,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV42"/>
+  <dimension ref="A1:IV44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView zoomScaleNormal="100" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.625" customWidth="1" style="1"/>
     <col min="2" max="2" width="21.625" customWidth="1" style="1"/>
-    <col min="3" max="3" width="55.875" customWidth="1" style="1"/>
+    <col min="3" max="3" width="69.875" customWidth="1" style="1"/>
     <col min="4" max="4" width="28.625" customWidth="1" style="1"/>
     <col min="5" max="5" width="41.75" customWidth="1" style="1"/>
     <col min="6" max="6" width="16.0" customWidth="1" style="1"/>
@@ -2858,436 +2896,534 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E19" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F19" s="1" t="s">
+    </row>
+    <row r="19" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="17" t="s">
         <v>210</v>
       </c>
+      <c r="B19" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="17"/>
+      <c r="AL19" s="17"/>
+      <c r="AM19" s="17"/>
+      <c r="AN19" s="17"/>
+      <c r="AO19" s="17"/>
+      <c r="AP19" s="17"/>
+      <c r="AQ19" s="17"/>
+      <c r="AR19" s="17"/>
+      <c r="AS19" s="17"/>
+      <c r="AT19" s="17"/>
+      <c r="AU19" s="17"/>
+      <c r="AV19" s="17"/>
+      <c r="AW19" s="17"/>
+      <c r="AX19" s="17"/>
+      <c r="AY19" s="17"/>
+      <c r="AZ19" s="17"/>
+      <c r="BA19" s="17"/>
+      <c r="BB19" s="17"/>
+      <c r="BC19" s="17"/>
+      <c r="BD19" s="17"/>
+      <c r="BE19" s="17"/>
+      <c r="BF19" s="17"/>
+      <c r="BG19" s="17"/>
+      <c r="BH19" s="17"/>
+      <c r="BI19" s="17"/>
+      <c r="BJ19" s="17"/>
+      <c r="BK19" s="17"/>
+      <c r="BL19" s="17"/>
+      <c r="BM19" s="17"/>
+      <c r="BN19" s="17"/>
+      <c r="BO19" s="17"/>
+      <c r="BP19" s="17"/>
+      <c r="BQ19" s="17"/>
+      <c r="BR19" s="17"/>
+      <c r="BS19" s="17"/>
+      <c r="BT19" s="17"/>
+      <c r="BU19" s="17"/>
+      <c r="BV19" s="17"/>
+      <c r="BW19" s="17"/>
+      <c r="BX19" s="17"/>
+      <c r="BY19" s="17"/>
+      <c r="BZ19" s="17"/>
+      <c r="CA19" s="17"/>
+      <c r="CB19" s="17"/>
+      <c r="CC19" s="17"/>
+      <c r="CD19" s="17"/>
+      <c r="CE19" s="17"/>
+      <c r="CF19" s="17"/>
+      <c r="CG19" s="17"/>
+      <c r="CH19" s="17"/>
     </row>
     <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>8</v>
+        <v>219</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+    </row>
+    <row r="24" spans="1:26" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="B24" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="F24" s="6" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -3310,322 +3446,568 @@
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
     </row>
-    <row r="25" spans="1:26" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11" t="s">
+        <v>236</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
+        <v>237</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="A26" s="6" t="s">
         <v>238</v>
       </c>
+      <c r="B26" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E26" s="6"/>
       <c r="F26" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
-        <v>240</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:256" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>242</v>
+        <v>135</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>243</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="7"/>
+      <c r="AK27" s="7"/>
+      <c r="AL27" s="7"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="7"/>
+      <c r="AO27" s="7"/>
+      <c r="AP27" s="7"/>
+      <c r="AQ27" s="7"/>
+      <c r="AR27" s="7"/>
+      <c r="AS27" s="7"/>
+      <c r="AT27" s="7"/>
+      <c r="AU27" s="7"/>
+      <c r="AV27" s="7"/>
+      <c r="AW27" s="7"/>
+      <c r="AX27" s="7"/>
+      <c r="AY27" s="7"/>
+      <c r="AZ27" s="7"/>
+      <c r="BA27" s="7"/>
+      <c r="BB27" s="7"/>
+      <c r="BC27" s="7"/>
+      <c r="BD27" s="7"/>
+      <c r="BE27" s="7"/>
+      <c r="BF27" s="7"/>
+      <c r="BG27" s="7"/>
+      <c r="BH27" s="7"/>
+      <c r="BI27" s="7"/>
+      <c r="BJ27" s="7"/>
+      <c r="BK27" s="7"/>
+      <c r="BL27" s="7"/>
+      <c r="BM27" s="7"/>
+      <c r="BN27" s="7"/>
+      <c r="BO27" s="7"/>
+      <c r="BP27" s="7"/>
+      <c r="BQ27" s="7"/>
+      <c r="BR27" s="7"/>
+      <c r="BS27" s="7"/>
+      <c r="BT27" s="7"/>
+      <c r="BU27" s="7"/>
+      <c r="BV27" s="7"/>
+      <c r="BW27" s="7"/>
+      <c r="BX27" s="7"/>
+      <c r="BY27" s="7"/>
+      <c r="BZ27" s="7"/>
+      <c r="CA27" s="7"/>
+      <c r="CB27" s="7"/>
+      <c r="CC27" s="7"/>
+      <c r="CD27" s="7"/>
+      <c r="CE27" s="7"/>
+      <c r="CF27" s="7"/>
+      <c r="CG27" s="7"/>
+      <c r="CH27" s="7"/>
+      <c r="CI27" s="7"/>
+      <c r="CJ27" s="7"/>
+      <c r="CK27" s="7"/>
+      <c r="CL27" s="7"/>
+      <c r="CM27" s="7"/>
+      <c r="CN27" s="7"/>
+      <c r="CO27" s="7"/>
+      <c r="CP27" s="7"/>
+      <c r="CQ27" s="7"/>
+      <c r="CR27" s="7"/>
+      <c r="CS27" s="7"/>
+      <c r="CT27" s="7"/>
+      <c r="CU27" s="7"/>
+      <c r="CV27" s="7"/>
+      <c r="CW27" s="7"/>
+      <c r="CX27" s="7"/>
+      <c r="CY27" s="7"/>
+      <c r="CZ27" s="7"/>
+      <c r="DA27" s="7"/>
+      <c r="DB27" s="7"/>
+      <c r="DC27" s="7"/>
+      <c r="DD27" s="7"/>
+      <c r="DE27" s="7"/>
+      <c r="DF27" s="7"/>
+      <c r="DG27" s="7"/>
+      <c r="DH27" s="7"/>
+      <c r="DI27" s="7"/>
+      <c r="DJ27" s="7"/>
+      <c r="DK27" s="7"/>
+      <c r="DL27" s="7"/>
+      <c r="DM27" s="7"/>
+      <c r="DN27" s="7"/>
+      <c r="DO27" s="7"/>
+      <c r="DP27" s="7"/>
+      <c r="DQ27" s="7"/>
+      <c r="DR27" s="7"/>
+      <c r="DS27" s="7"/>
+      <c r="DT27" s="7"/>
+      <c r="DU27" s="7"/>
+      <c r="DV27" s="7"/>
+      <c r="DW27" s="7"/>
+      <c r="DX27" s="7"/>
+      <c r="DY27" s="7"/>
+      <c r="DZ27" s="7"/>
+      <c r="EA27" s="7"/>
+      <c r="EB27" s="7"/>
+      <c r="EC27" s="7"/>
+      <c r="ED27" s="7"/>
+      <c r="EE27" s="7"/>
+      <c r="EF27" s="7"/>
+      <c r="EG27" s="7"/>
+      <c r="EH27" s="7"/>
+      <c r="EI27" s="7"/>
+      <c r="EJ27" s="7"/>
+      <c r="EK27" s="7"/>
+      <c r="EL27" s="7"/>
+      <c r="EM27" s="7"/>
+      <c r="EN27" s="7"/>
+      <c r="EO27" s="7"/>
+      <c r="EP27" s="7"/>
+      <c r="EQ27" s="7"/>
+      <c r="ER27" s="7"/>
+      <c r="ES27" s="7"/>
+      <c r="ET27" s="7"/>
+      <c r="EU27" s="7"/>
+      <c r="EV27" s="7"/>
+      <c r="EW27" s="7"/>
+      <c r="EX27" s="7"/>
+      <c r="EY27" s="7"/>
+      <c r="EZ27" s="7"/>
+      <c r="FA27" s="7"/>
+      <c r="FB27" s="7"/>
+      <c r="FC27" s="7"/>
+      <c r="FD27" s="7"/>
+      <c r="FE27" s="7"/>
+      <c r="FF27" s="7"/>
+      <c r="FG27" s="7"/>
+      <c r="FH27" s="7"/>
+      <c r="FI27" s="7"/>
+      <c r="FJ27" s="7"/>
+      <c r="FK27" s="7"/>
+      <c r="FL27" s="7"/>
+      <c r="FM27" s="7"/>
+      <c r="FN27" s="7"/>
+      <c r="FO27" s="7"/>
+      <c r="FP27" s="7"/>
+      <c r="FQ27" s="7"/>
+      <c r="FR27" s="7"/>
+      <c r="FS27" s="7"/>
+      <c r="FT27" s="7"/>
+      <c r="FU27" s="7"/>
+      <c r="FV27" s="7"/>
+      <c r="FW27" s="7"/>
+      <c r="FX27" s="7"/>
+      <c r="FY27" s="7"/>
+      <c r="FZ27" s="7"/>
+      <c r="GA27" s="7"/>
+      <c r="GB27" s="7"/>
+      <c r="GC27" s="7"/>
+      <c r="GD27" s="7"/>
+      <c r="GE27" s="7"/>
+      <c r="GF27" s="7"/>
+      <c r="GG27" s="7"/>
+      <c r="GH27" s="7"/>
+      <c r="GI27" s="7"/>
+      <c r="GJ27" s="7"/>
+      <c r="GK27" s="7"/>
+      <c r="GL27" s="7"/>
+      <c r="GM27" s="7"/>
+      <c r="GN27" s="7"/>
+      <c r="GO27" s="7"/>
+      <c r="GP27" s="7"/>
+      <c r="GQ27" s="7"/>
+      <c r="GR27" s="7"/>
+      <c r="GS27" s="7"/>
+      <c r="GT27" s="7"/>
+      <c r="GU27" s="7"/>
+      <c r="GV27" s="7"/>
+      <c r="GW27" s="7"/>
+      <c r="GX27" s="7"/>
+      <c r="GY27" s="7"/>
+      <c r="GZ27" s="7"/>
+      <c r="HA27" s="7"/>
+      <c r="HB27" s="7"/>
+      <c r="HC27" s="7"/>
+      <c r="HD27" s="7"/>
+      <c r="HE27" s="7"/>
+      <c r="HF27" s="7"/>
+      <c r="HG27" s="7"/>
+      <c r="HH27" s="7"/>
+      <c r="HI27" s="7"/>
+      <c r="HJ27" s="7"/>
+      <c r="HK27" s="7"/>
+      <c r="HL27" s="7"/>
+      <c r="HM27" s="7"/>
+      <c r="HN27" s="7"/>
+      <c r="HO27" s="7"/>
+      <c r="HP27" s="7"/>
+      <c r="HQ27" s="7"/>
+      <c r="HR27" s="7"/>
+      <c r="HS27" s="7"/>
+      <c r="HT27" s="7"/>
+      <c r="HU27" s="7"/>
+      <c r="HV27" s="7"/>
+      <c r="HW27" s="7"/>
+      <c r="HX27" s="7"/>
+      <c r="HY27" s="7"/>
+      <c r="HZ27" s="7"/>
+      <c r="IA27" s="7"/>
+      <c r="IB27" s="7"/>
+      <c r="IC27" s="7"/>
+      <c r="ID27" s="7"/>
+      <c r="IE27" s="7"/>
+      <c r="IF27" s="7"/>
+      <c r="IG27" s="7"/>
+      <c r="IH27" s="7"/>
+      <c r="II27" s="7"/>
+      <c r="IJ27" s="7"/>
+      <c r="IK27" s="7"/>
+      <c r="IL27" s="7"/>
+      <c r="IM27" s="7"/>
+      <c r="IN27" s="7"/>
+      <c r="IO27" s="7"/>
+      <c r="IP27" s="7"/>
+      <c r="IQ27" s="7"/>
+      <c r="IR27" s="7"/>
+      <c r="IS27" s="7"/>
+      <c r="IT27" s="7"/>
+      <c r="IU27" s="7"/>
+      <c r="IV27" s="7"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
-        <v>244</v>
+      <c r="A28" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="B29" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="E28" s="1"/>
+      <c r="F28" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
+    </row>
+    <row r="29" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="7" t="s">
         <v>251</v>
       </c>
+      <c r="B29" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
+        <v>254</v>
+      </c>
       <c r="B30" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="6"/>
+      <c r="AL30" s="6"/>
+      <c r="AM30" s="6"/>
+      <c r="AN30" s="6"/>
+      <c r="AO30" s="6"/>
+      <c r="AP30" s="6"/>
+      <c r="AQ30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="31" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
-      <c r="AB31" s="6"/>
-      <c r="AC31" s="6"/>
-      <c r="AD31" s="6"/>
-      <c r="AE31" s="6"/>
-      <c r="AF31" s="6"/>
-      <c r="AG31" s="6"/>
-      <c r="AH31" s="6"/>
-      <c r="AI31" s="6"/>
-      <c r="AJ31" s="6"/>
-      <c r="AK31" s="6"/>
-      <c r="AL31" s="6"/>
-      <c r="AM31" s="6"/>
-      <c r="AN31" s="6"/>
-      <c r="AO31" s="6"/>
-      <c r="AP31" s="6"/>
-      <c r="AQ31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>260</v>
-      </c>
       <c r="D32" s="6" t="s">
-        <v>261</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="A33" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="B33" s="6" t="s">
         <v>265</v>
       </c>
+      <c r="C33" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>267</v>
+      </c>
       <c r="F33" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="4"/>
+      <c r="AL34" s="4"/>
+      <c r="AM34" s="4"/>
+      <c r="AN34" s="4"/>
+      <c r="AO34" s="4"/>
+      <c r="AP34" s="4"/>
+      <c r="AQ34" s="4"/>
+      <c r="AR34" s="4"/>
+      <c r="AS34" s="4"/>
+      <c r="AT34" s="4"/>
+      <c r="AU34" s="4"/>
+      <c r="AV34" s="4"/>
+      <c r="AW34" s="4"/>
+      <c r="AX34" s="4"/>
+      <c r="AY34" s="4"/>
+      <c r="AZ34" s="4"/>
+      <c r="BA34" s="4"/>
+      <c r="BB34" s="4"/>
+      <c r="BC34" s="4"/>
+      <c r="BD34" s="4"/>
+      <c r="BE34" s="4"/>
+      <c r="BF34" s="4"/>
+      <c r="BG34" s="4"/>
+      <c r="BH34" s="4"/>
+      <c r="BI34" s="4"/>
+      <c r="BJ34" s="4"/>
+      <c r="BK34" s="4"/>
+      <c r="BL34" s="4"/>
+      <c r="BM34" s="4"/>
+      <c r="BN34" s="4"/>
+      <c r="BO34" s="4"/>
+      <c r="BP34" s="4"/>
+      <c r="BQ34" s="4"/>
+      <c r="BR34" s="4"/>
+    </row>
+    <row r="35" spans="1:20" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="E35" s="7"/>
+      <c r="E35" s="6"/>
       <c r="F35" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
-      <c r="AD35" s="4"/>
-      <c r="AE35" s="4"/>
-      <c r="AF35" s="4"/>
-      <c r="AG35" s="4"/>
-      <c r="AH35" s="4"/>
-      <c r="AI35" s="4"/>
-      <c r="AJ35" s="4"/>
-      <c r="AK35" s="4"/>
-      <c r="AL35" s="4"/>
-      <c r="AM35" s="4"/>
-      <c r="AN35" s="4"/>
-      <c r="AO35" s="4"/>
-      <c r="AP35" s="4"/>
-      <c r="AQ35" s="4"/>
-      <c r="AR35" s="4"/>
-      <c r="AS35" s="4"/>
-      <c r="AT35" s="4"/>
-      <c r="AU35" s="4"/>
-      <c r="AV35" s="4"/>
-      <c r="AW35" s="4"/>
-      <c r="AX35" s="4"/>
-      <c r="AY35" s="4"/>
-      <c r="AZ35" s="4"/>
-      <c r="BA35" s="4"/>
-      <c r="BB35" s="4"/>
-      <c r="BC35" s="4"/>
-      <c r="BD35" s="4"/>
-      <c r="BE35" s="4"/>
-      <c r="BF35" s="4"/>
-      <c r="BG35" s="4"/>
-      <c r="BH35" s="4"/>
-      <c r="BI35" s="4"/>
-      <c r="BJ35" s="4"/>
-      <c r="BK35" s="4"/>
-      <c r="BL35" s="4"/>
-      <c r="BM35" s="4"/>
-      <c r="BN35" s="4"/>
-      <c r="BO35" s="4"/>
-      <c r="BP35" s="4"/>
-      <c r="BQ35" s="4"/>
-      <c r="BR35" s="4"/>
-    </row>
-    <row r="36" spans="1:20" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="B36" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+    </row>
+    <row r="36" spans="1:25" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="B36" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="E36" s="6"/>
+      <c r="C36" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E36" s="7"/>
       <c r="F36" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -3641,56 +4023,63 @@
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
-    </row>
-    <row r="37" spans="1:25" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+    </row>
+    <row r="37" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="B37" s="6"/>
+        <v>282</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>283</v>
+      </c>
       <c r="C37" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>285</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-    </row>
-    <row r="38" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B38" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+    </row>
+    <row r="38" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="E38" s="4"/>
+      <c r="D38" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E38" s="6"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -3713,23 +4102,37 @@
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
-    </row>
-    <row r="39" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
+      <c r="AH38" s="4"/>
+      <c r="AI38" s="4"/>
+      <c r="AJ38" s="4"/>
+      <c r="AK38" s="4"/>
+      <c r="AL38" s="4"/>
+      <c r="AM38" s="4"/>
+      <c r="AN38" s="4"/>
+      <c r="AO38" s="4"/>
+    </row>
+    <row r="39" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -3766,162 +4169,142 @@
       <c r="AM39" s="4"/>
       <c r="AN39" s="4"/>
       <c r="AO39" s="4"/>
-    </row>
-    <row r="40" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AP39" s="4"/>
+      <c r="AQ39" s="4"/>
+      <c r="AR39" s="4"/>
+      <c r="AS39" s="4"/>
+      <c r="AT39" s="4"/>
+      <c r="AU39" s="4"/>
+      <c r="AV39" s="4"/>
+      <c r="AW39" s="4"/>
+      <c r="AX39" s="4"/>
+      <c r="AY39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
-      <c r="AB40" s="4"/>
-      <c r="AC40" s="4"/>
-      <c r="AD40" s="4"/>
-      <c r="AE40" s="4"/>
-      <c r="AF40" s="4"/>
-      <c r="AG40" s="4"/>
-      <c r="AH40" s="4"/>
-      <c r="AI40" s="4"/>
-      <c r="AJ40" s="4"/>
-      <c r="AK40" s="4"/>
-      <c r="AL40" s="4"/>
-      <c r="AM40" s="4"/>
-      <c r="AN40" s="4"/>
-      <c r="AO40" s="4"/>
-      <c r="AP40" s="4"/>
-      <c r="AQ40" s="4"/>
-      <c r="AR40" s="4"/>
-      <c r="AS40" s="4"/>
-      <c r="AT40" s="4"/>
-      <c r="AU40" s="4"/>
-      <c r="AV40" s="4"/>
-      <c r="AW40" s="4"/>
-      <c r="AX40" s="4"/>
-      <c r="AY40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:66" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:66" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4"/>
+      <c r="AL41" s="4"/>
+      <c r="AM41" s="4"/>
+      <c r="AN41" s="4"/>
+      <c r="AO41" s="4"/>
+      <c r="AP41" s="4"/>
+      <c r="AQ41" s="4"/>
+      <c r="AR41" s="4"/>
+      <c r="AS41" s="4"/>
+      <c r="AT41" s="4"/>
+      <c r="AU41" s="4"/>
+      <c r="AV41" s="4"/>
+      <c r="AW41" s="4"/>
+      <c r="AX41" s="4"/>
+      <c r="AY41" s="4"/>
+      <c r="AZ41" s="4"/>
+      <c r="BA41" s="4"/>
+      <c r="BB41" s="4"/>
+      <c r="BC41" s="4"/>
+      <c r="BD41" s="4"/>
+      <c r="BE41" s="4"/>
+      <c r="BF41" s="4"/>
+      <c r="BG41" s="4"/>
+      <c r="BH41" s="4"/>
+      <c r="BI41" s="4"/>
+      <c r="BJ41" s="4"/>
+      <c r="BK41" s="4"/>
+      <c r="BL41" s="4"/>
+      <c r="BM41" s="4"/>
+      <c r="BN41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>171</v>
+        <v>305</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
-      <c r="AB42" s="4"/>
-      <c r="AC42" s="4"/>
-      <c r="AD42" s="4"/>
-      <c r="AE42" s="4"/>
-      <c r="AF42" s="4"/>
-      <c r="AG42" s="4"/>
-      <c r="AH42" s="4"/>
-      <c r="AI42" s="4"/>
-      <c r="AJ42" s="4"/>
-      <c r="AK42" s="4"/>
-      <c r="AL42" s="4"/>
-      <c r="AM42" s="4"/>
-      <c r="AN42" s="4"/>
-      <c r="AO42" s="4"/>
-      <c r="AP42" s="4"/>
-      <c r="AQ42" s="4"/>
-      <c r="AR42" s="4"/>
-      <c r="AS42" s="4"/>
-      <c r="AT42" s="4"/>
-      <c r="AU42" s="4"/>
-      <c r="AV42" s="4"/>
-      <c r="AW42" s="4"/>
-      <c r="AX42" s="4"/>
-      <c r="AY42" s="4"/>
-      <c r="AZ42" s="4"/>
-      <c r="BA42" s="4"/>
-      <c r="BB42" s="4"/>
-      <c r="BC42" s="4"/>
-      <c r="BD42" s="4"/>
-      <c r="BE42" s="4"/>
-      <c r="BF42" s="4"/>
-      <c r="BG42" s="4"/>
-      <c r="BH42" s="4"/>
-      <c r="BI42" s="4"/>
-      <c r="BJ42" s="4"/>
-      <c r="BK42" s="4"/>
-      <c r="BL42" s="4"/>
-      <c r="BM42" s="4"/>
-      <c r="BN42" s="4"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E43" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -3949,657 +4332,657 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13566" windowHeight="6180" activeTab="0" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13611" windowHeight="6180" activeTab="1" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="457">
   <si>
     <t>动作</t>
   </si>
@@ -572,18 +572,6 @@
     <t>ItemCommentAction</t>
   </si>
   <si>
-    <t>cart/update（新增接口）</t>
-  </si>
-  <si>
-    <t>修改购物车中的商品数量</t>
-  </si>
-  <si>
-    <t>itemId,itemNumber</t>
-  </si>
-  <si>
-    <t>updateResult:boolean(表示修改成功没）</t>
-  </si>
-  <si>
     <t>admin/item_manager/off</t>
   </si>
   <si>
@@ -662,7 +650,7 @@
     <t>删除评论</t>
   </si>
   <si>
-    <t>userName:用户名，itemID：商品ID</t>
+    <t>commentID：int</t>
   </si>
   <si>
     <t xml:space="preserve"> deleteResult:boolean(评论删除成功与否)</t>
@@ -901,7 +889,7 @@
     <t>列出搜索商品</t>
   </si>
   <si>
-    <t>name(String，书名);publisher(String，出版社):catalogID(int,0不限制，其他数字代表具体的Id）;publishTime(int ,0 不限制，1为2012，2为2011，3为2010，4为2009，5为2009以下;edition（0不限制，其他数字代表具体的版次;searchPage(int 0限制，1 为0-200，2为200-400，3为400-600，4为600以上);binding（int 0 不限制，1为平装，2为精装;booksize（int,0为不限，1为32开，2为16开，3为8开;price（0 为不限制，1为0-10，2为10-30，3为30-50，4为50-100，5为100以上;discount（int ,0为不限，1为3折以下，2为3-5折，3为5-7折，4为7折以上;author(String，作者);description(String，描述);page（第几页默认为1)</t>
+    <t>name(String，书名);publisher(String，出版社):catalogId(int,0不限制，其他数字代表具体的Id）;publishTime(int ,0 不限制，1为2012，2为2011，3为2010，4为2009，5为2009以下;edition（0不限制，其他数字代表具体的版次;searchPage(int 0限制，1 为0-200，2为200-400，3为400-600，4为600以上);binding（int 0 不限制，1为平装，2为精装;booksize（int,0为不限，1为32开，2为16开，3为8开;price（0 为不限制，1为0-10，2为10-30，3为30-50，4为50-100，5为100以上;discount（int ,0为不限，1为3折以下，2为3-5折，3为5-7折，4为7折以上;author(String，作者);description(String，描述);pageNum（第几页默认为1)</t>
   </si>
   <si>
     <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(rating),市场价（marketPrice));recommend:推荐商品（itemId,name,price,picturePath)</t>
@@ -1302,7 +1290,7 @@
     <t xml:space="preserve">itmeId(商品ID）  </t>
   </si>
   <si>
-    <t>book:(一个关于书籍信息的bean，其中包括属性isbn ，bookName(书名）， author（作者姓名） ,publisher（出版社） ,publishDate（出版时间） , version（版次）， page（页数） ,binding（装帧） , folio（开本）, marketPrice（出版价格） , discount（折扣） , inventory（库存） ,bookDesc （书籍描述）),offline:(是否下架），catalog：（书籍分类String）,price:(价格），averageRating（综合评级),commentList(一维数组包含用户名(username),打分(rating),内容(content),时间(date));recommendView:推荐商品（id,itemName,price,picturePath);recommendBought:推荐商品（itemId,name,price,picturePath)；catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+    <t>ISBN ，name(书名）， author（作者姓名） ,publisher（出版社） ,publishTime（出版时间） , edition（版次）， page（页数） ,binding（装帧） , size（开本） ,price（价格） , marketPrice（出版价格） , discount（折扣） , inventory（库存） ,description （书籍描述）,bookClassify（书籍分类String），averageRating（综合评级),commentList(一维数组包含用户名(username),打分(rating),内容(content),时间(date));recommendView:推荐商品（id,itemName,price,picturePath);recommendBought:推荐商品（itemId,name,price,picturePath)；catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
     <t>ItemDetailAction</t>
@@ -1311,15 +1299,6 @@
     <t>item_info.jsp</t>
   </si>
   <si>
-    <t>cartDetail</t>
-  </si>
-  <si>
-    <t>购物车（嵌入页面）</t>
-  </si>
-  <si>
-    <t>items:一维数组（一个包含商品ID（itemId),商品名字（name),商品单价(price),商品小计(itemTotalPrice),商品数量,picture(图片）（itemNumber),节省金额(savePrice),),总价totalPrice;</t>
-  </si>
-  <si>
     <t>cart</t>
   </si>
   <si>
@@ -1332,6 +1311,9 @@
     <t>CartEnterAction</t>
   </si>
   <si>
+    <t>cart.jsp</t>
+  </si>
+  <si>
     <t>quick_search</t>
   </si>
   <si>
@@ -1347,21 +1329,21 @@
     <t>QuickSearchAction</t>
   </si>
   <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>进入用户信息</t>
+  </si>
+  <si>
+    <t>userName:用户名，nickname：昵称;totalScore积分;orderList:一维数组包含（订单号(orderId),订单金额(totalPrice),下单时间(orderTime),获得积分（score));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+  </si>
+  <si>
+    <t>UserInfoEnterAction</t>
+  </si>
+  <si>
     <t>user.jsp</t>
   </si>
   <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>进入用户信息</t>
-  </si>
-  <si>
-    <t>userName:用户名，nickname：昵称;totalScore积分;orderList:一维数组包含（订单号(orderId),订单金额(totalPrice),下单时间(orderTime),获得积分（score));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
-  </si>
-  <si>
-    <t>UserInfoEnterAction</t>
-  </si>
-  <si>
     <t>forget_password</t>
   </si>
   <si>
@@ -1378,9 +1360,6 @@
   </si>
   <si>
     <t>成功跳转成功页面；失败跳转出错页面</t>
-  </si>
-  <si>
-    <t>admin/index.jsp</t>
   </si>
   <si>
     <t>admin/index</t>
@@ -1413,33 +1392,36 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>admin/index.jsp</t>
+  </si>
+  <si>
+    <t>admin/login</t>
+  </si>
+  <si>
+    <t>管理员登录</t>
+  </si>
+  <si>
+    <t>userName:用户名；password：密码；captchaValue:验证码；toURL:跳转的URL</t>
+  </si>
+  <si>
+    <t>跳转到相应URL</t>
+  </si>
+  <si>
     <t>admin/login.jsp</t>
   </si>
   <si>
-    <t>admin/login</t>
-  </si>
-  <si>
-    <t>管理员登录</t>
-  </si>
-  <si>
-    <t>userName:用户名；password：密码；captchaValue:验证码；toURL:跳转的URL</t>
-  </si>
-  <si>
-    <t>跳转到相应URL</t>
+    <t>admin/item_manager</t>
+  </si>
+  <si>
+    <t>进入商品管理页面</t>
+  </si>
+  <si>
+    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(score),市场价（marketPrice));currentPage：当前页数；totalPage:总页数；</t>
   </si>
   <si>
     <t>admin/item_list.jsp</t>
   </si>
   <si>
-    <t>admin/item_manager</t>
-  </si>
-  <si>
-    <t>进入商品管理页面</t>
-  </si>
-  <si>
-    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(score),市场价（marketPrice));currentPage：当前页数；totalPage:总页数；</t>
-  </si>
-  <si>
     <t>admin/item_add_submit</t>
   </si>
   <si>
@@ -1452,18 +1434,18 @@
     <t>跳转admin/item_manager</t>
   </si>
   <si>
+    <t>admin/item_modify</t>
+  </si>
+  <si>
+    <t>进入商品商品修改</t>
+  </si>
+  <si>
+    <t>itemID(商品ID）</t>
+  </si>
+  <si>
     <t>admin/item_edit.jsp</t>
   </si>
   <si>
-    <t>admin/item_modify</t>
-  </si>
-  <si>
-    <t>进入商品商品修改</t>
-  </si>
-  <si>
-    <t>itemID(商品ID）</t>
-  </si>
-  <si>
     <t>admin/item_modify_submit</t>
   </si>
   <si>
@@ -1473,27 +1455,27 @@
     <t>itemID(商品ID）,ISBN ，name(书名）， author（作者姓名） ,publisher（出版社） ,publishTime（出版时间）(year:年，month:月;day:日） , edition（版次）， page（页数） ,binding（装帧） , format（开本,marketPrice（出版价格） , discount（折扣） , inventory（库存） ,description （书籍描述）,bookClassify,（书籍分类ID),picture(上传的图片）</t>
   </si>
   <si>
+    <t>admin/item_detail</t>
+  </si>
+  <si>
+    <t>进入商品详情</t>
+  </si>
+  <si>
     <t>admin/item_info.jsp</t>
   </si>
   <si>
-    <t>admin/item_detail</t>
-  </si>
-  <si>
-    <t>进入商品详情</t>
+    <t>admin/catalog_manager</t>
+  </si>
+  <si>
+    <t>进入商品目录管理</t>
+  </si>
+  <si>
+    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
     <t>admin/category_list.jsp</t>
   </si>
   <si>
-    <t>admin/catalog_manager</t>
-  </si>
-  <si>
-    <t>进入商品目录管理</t>
-  </si>
-  <si>
-    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
-  </si>
-  <si>
     <t>admin/catalog_add_submit</t>
   </si>
   <si>
@@ -1506,21 +1488,21 @@
     <t>成功跳转目录管理</t>
   </si>
   <si>
+    <t>admin/catalog_edit</t>
+  </si>
+  <si>
+    <t>进入商品目录编辑</t>
+  </si>
+  <si>
+    <t>catalogID:目录ID</t>
+  </si>
+  <si>
+    <t>catalogName:目录名，catalogDesc：目录描述，upID:父目录的ID(-1表示根目录）;catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+  </si>
+  <si>
     <t>admin/category_edit.jsp</t>
   </si>
   <si>
-    <t>admin/catalog_edit</t>
-  </si>
-  <si>
-    <t>进入商品目录编辑</t>
-  </si>
-  <si>
-    <t>catalogID:目录ID</t>
-  </si>
-  <si>
-    <t>catalogName:目录名，catalogDesc：目录描述，upID:父目录的ID(-1表示根目录）;catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
-  </si>
-  <si>
     <t>admin/catalog_edit_submit</t>
   </si>
   <si>
@@ -1530,46 +1512,46 @@
     <t>catalogID:目录ID,catalogName:目录名，catalogDesc：目录描述，upID:父目录的ID(-1表示根目录）,</t>
   </si>
   <si>
+    <t>admin/order_list</t>
+  </si>
+  <si>
+    <t>管理员进入订单管理</t>
+  </si>
+  <si>
+    <t>startTime:开始索引时间(year:年，month:月;day:日）;endTime:结束索引时间（year：年，month:月，day:日），orderState:订单状态(0：未指定，1：已下单，2：已审核，3：交易成功，4：交易失败）,page:分页</t>
+  </si>
+  <si>
+    <t>orderList:一维数组（一个含有订单号(orderId)，收货人(receiver)，下单时间(orderTime)，订单状态（orderStatus字符串),订单总价(totalPrice)的类);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；currentPage(当前页面)；totalPage（总页数）；</t>
+  </si>
+  <si>
     <t>admin/order_list.jsp</t>
   </si>
   <si>
-    <t>admin/order_list</t>
-  </si>
-  <si>
-    <t>管理员进入订单管理</t>
-  </si>
-  <si>
-    <t>startTime:开始索引时间(year:年，month:月;day:日）;endTime:结束索引时间（year：年，month:月，day:日），orderState:订单状态(0：未指定，1：已下单，2：已审核，3：交易成功，4：交易失败）,page:分页</t>
-  </si>
-  <si>
-    <t>orderList:一维数组（一个含有订单号(orderId)，收货人(receiver)，下单时间(orderTime)，订单状态（orderStatus字符串),订单总价(totalPrice)的类);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；currentPage(当前页面)；totalPage（总页数）；</t>
+    <t>admin/order_detail</t>
+  </si>
+  <si>
+    <t>管理员查看订单详情</t>
+  </si>
+  <si>
+    <t>orderID:订单ID</t>
+  </si>
+  <si>
+    <t>orderID:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),zipcode(邮政编码),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
     <t>admin/order_info.jsp</t>
   </si>
   <si>
-    <t>admin/order_detail</t>
-  </si>
-  <si>
-    <t>管理员查看订单详情</t>
-  </si>
-  <si>
-    <t>orderID:订单ID</t>
-  </si>
-  <si>
-    <t>orderID:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),zipcode(邮政编码),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+    <t>admin/order_edit</t>
+  </si>
+  <si>
+    <t>orderID:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);selectedLevel1DistrictID,selectedLevel2DistrictID, selectedLevel3DistrictID,level1District, level2District, level3District,zipcode(邮政编码),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
     <t>admin/order_edit.jsp</t>
   </si>
   <si>
-    <t>admin/order_edit</t>
-  </si>
-  <si>
-    <t>orderID:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);selectedLevel1DistrictID,selectedLevel2DistrictID, selectedLevel3DistrictID,level1District, level2District, level3District,zipcode(邮政编码),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
-  </si>
-  <si>
-    <t>admin/order_edit_subitmit</t>
+    <t>admin/order_edit_submit</t>
   </si>
   <si>
     <t>管理员提交订单修改</t>
@@ -1581,36 +1563,36 @@
     <t>成功跳转orderDetail</t>
   </si>
   <si>
+    <t>admin/order_statistics</t>
+  </si>
+  <si>
+    <t>管理员进入销售量统计</t>
+  </si>
+  <si>
+    <t>startTime:开始索引时间(year:年，month:月;day:日）;endTime:结束索引时间（year：年，month:月，day:日);catalogID:目录ID,limit(销售量下限）</t>
+  </si>
+  <si>
+    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；items:一维数组(itemID,itemName;sales;totalPrice),totalSalesRevenue(所有商品的总销售价）</t>
+  </si>
+  <si>
     <t>admin/salesdata_admin.jsp</t>
   </si>
   <si>
-    <t>admin/order_statistics</t>
-  </si>
-  <si>
-    <t>管理员进入销售量统计</t>
-  </si>
-  <si>
-    <t>startTime:开始索引时间(year:年，month:月;day:日）;endTime:结束索引时间（year：年，month:月，day:日);catalogID:目录ID,limit(销售量下限）</t>
-  </si>
-  <si>
-    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；items:一维数组(itemID,itemName;sales;totalPrice),totalSalesRevenue(所有商品的总销售价）</t>
+    <t>admin/user_manager</t>
+  </si>
+  <si>
+    <t>管理员进入用户管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> userName:String; userLevel:(0:普通会员,1:银卡会员,2:金卡会员,3:白金会员；);startTime:开始索引时间(year:年，month:月;day:日）;endTime:结束索引时间（year：年，month:月，day:日); page：int(分页)</t>
+  </si>
+  <si>
+    <t>levelList:一维数组(一个包含ID,low,scoreRate);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；currentPage(当前页面)；totalPage（总页数）；</t>
   </si>
   <si>
     <t>admin/user_admin.jsp</t>
   </si>
   <si>
-    <t>admin/user_manager</t>
-  </si>
-  <si>
-    <t>管理员进入用户管理</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> userName:String; userLevel:(0:普通会员,1:银卡会员,2:金卡会员,3:白金会员；);startTime:开始索引时间(year:年，month:月;day:日）;endTime:结束索引时间（year：年，month:月，day:日); page：int(分页)</t>
-  </si>
-  <si>
-    <t>levelList:一维数组(一个包含ID,low,scoreRate);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；currentPage(当前页面)；totalPage（总页数）；</t>
-  </si>
-  <si>
     <t>admin/user_score_rate_submit</t>
   </si>
   <si>
@@ -1623,16 +1605,16 @@
     <t xml:space="preserve"> 成功则跳转到用户管理</t>
   </si>
   <si>
+    <t>admin/comment_management</t>
+  </si>
+  <si>
+    <t>管理员评论管理</t>
+  </si>
+  <si>
+    <t>commentList(一维数组包含评论编号（commentID），用户名(username),打分(rating),内容(content),时间(date))；page（页数);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；currentPage(当前页面)；totalPage（总页数）；</t>
+  </si>
+  <si>
     <t>admin/comment_list.jsp</t>
-  </si>
-  <si>
-    <t>admin/comment_management</t>
-  </si>
-  <si>
-    <t>管理员评论管理</t>
-  </si>
-  <si>
-    <t>commentList(一维数组包含评论编号（commentID），用户名(username),打分(rating),内容(content),时间(date))；page（页数);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；currentPage(当前页面)；totalPage（总页数）；</t>
   </si>
   <si>
     <t>接口</t>
@@ -2095,7 +2077,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="9">
+  <fonts count="10" x14ac:knownFonts="10">
     <font>
       <sz val="12.0"/>
       <name val="文泉驿正黑"/>
@@ -2145,7 +2127,12 @@
     </font>
     <font>
       <sz val="12.0"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF00FF00"/>
+      <name val="文泉驿正黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
@@ -2218,13 +2205,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2238,10 +2225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV26"/>
+  <dimension ref="A1:IV25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView zoomScaleNormal="100" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2553,16 +2540,16 @@
       </c>
     </row>
     <row r="18" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="6" t="s">
         <v>88</v>
       </c>
       <c r="E18" s="6"/>
@@ -2606,47 +2593,47 @@
       <c r="AQ18" s="6"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>92</v>
+      <c r="C19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E21" s="6"/>
@@ -2680,16 +2667,16 @@
       <c r="AG21" s="4"/>
     </row>
     <row r="22" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>102</v>
       </c>
       <c r="E22" s="4"/>
@@ -2723,17 +2710,17 @@
       <c r="AG22" s="4"/>
     </row>
     <row r="23" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>106</v>
+      <c r="D23" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -2766,17 +2753,17 @@
       <c r="AG23" s="4"/>
     </row>
     <row r="24" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2839,20 +2826,6 @@
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
     </row>
-    <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="1.247760630029393" right="1.247760630029393" top="0.9998749560258521" bottom="0.9998749560258521" header="0.49993747801292604" footer="0.49993747801292604"/>
@@ -2862,17 +2835,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV44"/>
+  <dimension ref="A1:IV42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.625" customWidth="1" style="1"/>
     <col min="2" max="2" width="21.625" customWidth="1" style="1"/>
-    <col min="3" max="3" width="69.875" customWidth="1" style="1"/>
+    <col min="3" max="3" width="55.875" customWidth="1" style="1"/>
     <col min="4" max="4" width="28.625" customWidth="1" style="1"/>
     <col min="5" max="5" width="41.75" customWidth="1" style="1"/>
     <col min="6" max="6" width="16.0" customWidth="1" style="1"/>
@@ -2896,534 +2869,436 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="19" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="17" t="s">
+      <c r="F19" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="17"/>
-      <c r="AI19" s="17"/>
-      <c r="AJ19" s="17"/>
-      <c r="AK19" s="17"/>
-      <c r="AL19" s="17"/>
-      <c r="AM19" s="17"/>
-      <c r="AN19" s="17"/>
-      <c r="AO19" s="17"/>
-      <c r="AP19" s="17"/>
-      <c r="AQ19" s="17"/>
-      <c r="AR19" s="17"/>
-      <c r="AS19" s="17"/>
-      <c r="AT19" s="17"/>
-      <c r="AU19" s="17"/>
-      <c r="AV19" s="17"/>
-      <c r="AW19" s="17"/>
-      <c r="AX19" s="17"/>
-      <c r="AY19" s="17"/>
-      <c r="AZ19" s="17"/>
-      <c r="BA19" s="17"/>
-      <c r="BB19" s="17"/>
-      <c r="BC19" s="17"/>
-      <c r="BD19" s="17"/>
-      <c r="BE19" s="17"/>
-      <c r="BF19" s="17"/>
-      <c r="BG19" s="17"/>
-      <c r="BH19" s="17"/>
-      <c r="BI19" s="17"/>
-      <c r="BJ19" s="17"/>
-      <c r="BK19" s="17"/>
-      <c r="BL19" s="17"/>
-      <c r="BM19" s="17"/>
-      <c r="BN19" s="17"/>
-      <c r="BO19" s="17"/>
-      <c r="BP19" s="17"/>
-      <c r="BQ19" s="17"/>
-      <c r="BR19" s="17"/>
-      <c r="BS19" s="17"/>
-      <c r="BT19" s="17"/>
-      <c r="BU19" s="17"/>
-      <c r="BV19" s="17"/>
-      <c r="BW19" s="17"/>
-      <c r="BX19" s="17"/>
-      <c r="BY19" s="17"/>
-      <c r="BZ19" s="17"/>
-      <c r="CA19" s="17"/>
-      <c r="CB19" s="17"/>
-      <c r="CC19" s="17"/>
-      <c r="CD19" s="17"/>
-      <c r="CE19" s="17"/>
-      <c r="CF19" s="17"/>
-      <c r="CG19" s="17"/>
-      <c r="CH19" s="17"/>
     </row>
     <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-    </row>
-    <row r="24" spans="1:26" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -3446,568 +3321,322 @@
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
     </row>
-    <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:26" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11" t="s">
-        <v>236</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
+      <c r="C26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="F26" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C26" s="6" t="s">
+    </row>
+    <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="B27" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="27" spans="1:256" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
+      <c r="D27" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="7"/>
-      <c r="AD27" s="7"/>
-      <c r="AE27" s="7"/>
-      <c r="AF27" s="7"/>
-      <c r="AG27" s="7"/>
-      <c r="AH27" s="7"/>
-      <c r="AI27" s="7"/>
-      <c r="AJ27" s="7"/>
-      <c r="AK27" s="7"/>
-      <c r="AL27" s="7"/>
-      <c r="AM27" s="7"/>
-      <c r="AN27" s="7"/>
-      <c r="AO27" s="7"/>
-      <c r="AP27" s="7"/>
-      <c r="AQ27" s="7"/>
-      <c r="AR27" s="7"/>
-      <c r="AS27" s="7"/>
-      <c r="AT27" s="7"/>
-      <c r="AU27" s="7"/>
-      <c r="AV27" s="7"/>
-      <c r="AW27" s="7"/>
-      <c r="AX27" s="7"/>
-      <c r="AY27" s="7"/>
-      <c r="AZ27" s="7"/>
-      <c r="BA27" s="7"/>
-      <c r="BB27" s="7"/>
-      <c r="BC27" s="7"/>
-      <c r="BD27" s="7"/>
-      <c r="BE27" s="7"/>
-      <c r="BF27" s="7"/>
-      <c r="BG27" s="7"/>
-      <c r="BH27" s="7"/>
-      <c r="BI27" s="7"/>
-      <c r="BJ27" s="7"/>
-      <c r="BK27" s="7"/>
-      <c r="BL27" s="7"/>
-      <c r="BM27" s="7"/>
-      <c r="BN27" s="7"/>
-      <c r="BO27" s="7"/>
-      <c r="BP27" s="7"/>
-      <c r="BQ27" s="7"/>
-      <c r="BR27" s="7"/>
-      <c r="BS27" s="7"/>
-      <c r="BT27" s="7"/>
-      <c r="BU27" s="7"/>
-      <c r="BV27" s="7"/>
-      <c r="BW27" s="7"/>
-      <c r="BX27" s="7"/>
-      <c r="BY27" s="7"/>
-      <c r="BZ27" s="7"/>
-      <c r="CA27" s="7"/>
-      <c r="CB27" s="7"/>
-      <c r="CC27" s="7"/>
-      <c r="CD27" s="7"/>
-      <c r="CE27" s="7"/>
-      <c r="CF27" s="7"/>
-      <c r="CG27" s="7"/>
-      <c r="CH27" s="7"/>
-      <c r="CI27" s="7"/>
-      <c r="CJ27" s="7"/>
-      <c r="CK27" s="7"/>
-      <c r="CL27" s="7"/>
-      <c r="CM27" s="7"/>
-      <c r="CN27" s="7"/>
-      <c r="CO27" s="7"/>
-      <c r="CP27" s="7"/>
-      <c r="CQ27" s="7"/>
-      <c r="CR27" s="7"/>
-      <c r="CS27" s="7"/>
-      <c r="CT27" s="7"/>
-      <c r="CU27" s="7"/>
-      <c r="CV27" s="7"/>
-      <c r="CW27" s="7"/>
-      <c r="CX27" s="7"/>
-      <c r="CY27" s="7"/>
-      <c r="CZ27" s="7"/>
-      <c r="DA27" s="7"/>
-      <c r="DB27" s="7"/>
-      <c r="DC27" s="7"/>
-      <c r="DD27" s="7"/>
-      <c r="DE27" s="7"/>
-      <c r="DF27" s="7"/>
-      <c r="DG27" s="7"/>
-      <c r="DH27" s="7"/>
-      <c r="DI27" s="7"/>
-      <c r="DJ27" s="7"/>
-      <c r="DK27" s="7"/>
-      <c r="DL27" s="7"/>
-      <c r="DM27" s="7"/>
-      <c r="DN27" s="7"/>
-      <c r="DO27" s="7"/>
-      <c r="DP27" s="7"/>
-      <c r="DQ27" s="7"/>
-      <c r="DR27" s="7"/>
-      <c r="DS27" s="7"/>
-      <c r="DT27" s="7"/>
-      <c r="DU27" s="7"/>
-      <c r="DV27" s="7"/>
-      <c r="DW27" s="7"/>
-      <c r="DX27" s="7"/>
-      <c r="DY27" s="7"/>
-      <c r="DZ27" s="7"/>
-      <c r="EA27" s="7"/>
-      <c r="EB27" s="7"/>
-      <c r="EC27" s="7"/>
-      <c r="ED27" s="7"/>
-      <c r="EE27" s="7"/>
-      <c r="EF27" s="7"/>
-      <c r="EG27" s="7"/>
-      <c r="EH27" s="7"/>
-      <c r="EI27" s="7"/>
-      <c r="EJ27" s="7"/>
-      <c r="EK27" s="7"/>
-      <c r="EL27" s="7"/>
-      <c r="EM27" s="7"/>
-      <c r="EN27" s="7"/>
-      <c r="EO27" s="7"/>
-      <c r="EP27" s="7"/>
-      <c r="EQ27" s="7"/>
-      <c r="ER27" s="7"/>
-      <c r="ES27" s="7"/>
-      <c r="ET27" s="7"/>
-      <c r="EU27" s="7"/>
-      <c r="EV27" s="7"/>
-      <c r="EW27" s="7"/>
-      <c r="EX27" s="7"/>
-      <c r="EY27" s="7"/>
-      <c r="EZ27" s="7"/>
-      <c r="FA27" s="7"/>
-      <c r="FB27" s="7"/>
-      <c r="FC27" s="7"/>
-      <c r="FD27" s="7"/>
-      <c r="FE27" s="7"/>
-      <c r="FF27" s="7"/>
-      <c r="FG27" s="7"/>
-      <c r="FH27" s="7"/>
-      <c r="FI27" s="7"/>
-      <c r="FJ27" s="7"/>
-      <c r="FK27" s="7"/>
-      <c r="FL27" s="7"/>
-      <c r="FM27" s="7"/>
-      <c r="FN27" s="7"/>
-      <c r="FO27" s="7"/>
-      <c r="FP27" s="7"/>
-      <c r="FQ27" s="7"/>
-      <c r="FR27" s="7"/>
-      <c r="FS27" s="7"/>
-      <c r="FT27" s="7"/>
-      <c r="FU27" s="7"/>
-      <c r="FV27" s="7"/>
-      <c r="FW27" s="7"/>
-      <c r="FX27" s="7"/>
-      <c r="FY27" s="7"/>
-      <c r="FZ27" s="7"/>
-      <c r="GA27" s="7"/>
-      <c r="GB27" s="7"/>
-      <c r="GC27" s="7"/>
-      <c r="GD27" s="7"/>
-      <c r="GE27" s="7"/>
-      <c r="GF27" s="7"/>
-      <c r="GG27" s="7"/>
-      <c r="GH27" s="7"/>
-      <c r="GI27" s="7"/>
-      <c r="GJ27" s="7"/>
-      <c r="GK27" s="7"/>
-      <c r="GL27" s="7"/>
-      <c r="GM27" s="7"/>
-      <c r="GN27" s="7"/>
-      <c r="GO27" s="7"/>
-      <c r="GP27" s="7"/>
-      <c r="GQ27" s="7"/>
-      <c r="GR27" s="7"/>
-      <c r="GS27" s="7"/>
-      <c r="GT27" s="7"/>
-      <c r="GU27" s="7"/>
-      <c r="GV27" s="7"/>
-      <c r="GW27" s="7"/>
-      <c r="GX27" s="7"/>
-      <c r="GY27" s="7"/>
-      <c r="GZ27" s="7"/>
-      <c r="HA27" s="7"/>
-      <c r="HB27" s="7"/>
-      <c r="HC27" s="7"/>
-      <c r="HD27" s="7"/>
-      <c r="HE27" s="7"/>
-      <c r="HF27" s="7"/>
-      <c r="HG27" s="7"/>
-      <c r="HH27" s="7"/>
-      <c r="HI27" s="7"/>
-      <c r="HJ27" s="7"/>
-      <c r="HK27" s="7"/>
-      <c r="HL27" s="7"/>
-      <c r="HM27" s="7"/>
-      <c r="HN27" s="7"/>
-      <c r="HO27" s="7"/>
-      <c r="HP27" s="7"/>
-      <c r="HQ27" s="7"/>
-      <c r="HR27" s="7"/>
-      <c r="HS27" s="7"/>
-      <c r="HT27" s="7"/>
-      <c r="HU27" s="7"/>
-      <c r="HV27" s="7"/>
-      <c r="HW27" s="7"/>
-      <c r="HX27" s="7"/>
-      <c r="HY27" s="7"/>
-      <c r="HZ27" s="7"/>
-      <c r="IA27" s="7"/>
-      <c r="IB27" s="7"/>
-      <c r="IC27" s="7"/>
-      <c r="ID27" s="7"/>
-      <c r="IE27" s="7"/>
-      <c r="IF27" s="7"/>
-      <c r="IG27" s="7"/>
-      <c r="IH27" s="7"/>
-      <c r="II27" s="7"/>
-      <c r="IJ27" s="7"/>
-      <c r="IK27" s="7"/>
-      <c r="IL27" s="7"/>
-      <c r="IM27" s="7"/>
-      <c r="IN27" s="7"/>
-      <c r="IO27" s="7"/>
-      <c r="IP27" s="7"/>
-      <c r="IQ27" s="7"/>
-      <c r="IR27" s="7"/>
-      <c r="IS27" s="7"/>
-      <c r="IT27" s="7"/>
-      <c r="IU27" s="7"/>
-      <c r="IV27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
+      <c r="C28" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="7" t="s">
+      <c r="C29" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="7" t="s">
+      <c r="D29" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B30" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C30" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6" t="s">
+    </row>
+    <row r="31" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="E31" s="6"/>
+      <c r="F31" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="6"/>
-      <c r="AD30" s="6"/>
-      <c r="AE30" s="6"/>
-      <c r="AF30" s="6"/>
-      <c r="AG30" s="6"/>
-      <c r="AH30" s="6"/>
-      <c r="AI30" s="6"/>
-      <c r="AJ30" s="6"/>
-      <c r="AK30" s="6"/>
-      <c r="AL30" s="6"/>
-      <c r="AM30" s="6"/>
-      <c r="AN30" s="6"/>
-      <c r="AO30" s="6"/>
-      <c r="AP30" s="6"/>
-      <c r="AQ30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="6"/>
+      <c r="AN31" s="6"/>
+      <c r="AO31" s="6"/>
+      <c r="AP31" s="6"/>
+      <c r="AQ31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F31" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B32" s="6" t="s">
+    </row>
+    <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="6" t="s">
+      <c r="B33" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="6" t="s">
+      <c r="C33" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="D33" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="F33" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D33" s="6" t="s">
+    </row>
+    <row r="34" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="B34" s="6" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="34" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4" t="s">
+      <c r="C34" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="D34" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="B35" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="C35" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
-      <c r="AD34" s="4"/>
-      <c r="AE34" s="4"/>
-      <c r="AF34" s="4"/>
-      <c r="AG34" s="4"/>
-      <c r="AH34" s="4"/>
-      <c r="AI34" s="4"/>
-      <c r="AJ34" s="4"/>
-      <c r="AK34" s="4"/>
-      <c r="AL34" s="4"/>
-      <c r="AM34" s="4"/>
-      <c r="AN34" s="4"/>
-      <c r="AO34" s="4"/>
-      <c r="AP34" s="4"/>
-      <c r="AQ34" s="4"/>
-      <c r="AR34" s="4"/>
-      <c r="AS34" s="4"/>
-      <c r="AT34" s="4"/>
-      <c r="AU34" s="4"/>
-      <c r="AV34" s="4"/>
-      <c r="AW34" s="4"/>
-      <c r="AX34" s="4"/>
-      <c r="AY34" s="4"/>
-      <c r="AZ34" s="4"/>
-      <c r="BA34" s="4"/>
-      <c r="BB34" s="4"/>
-      <c r="BC34" s="4"/>
-      <c r="BD34" s="4"/>
-      <c r="BE34" s="4"/>
-      <c r="BF34" s="4"/>
-      <c r="BG34" s="4"/>
-      <c r="BH34" s="4"/>
-      <c r="BI34" s="4"/>
-      <c r="BJ34" s="4"/>
-      <c r="BK34" s="4"/>
-      <c r="BL34" s="4"/>
-      <c r="BM34" s="4"/>
-      <c r="BN34" s="4"/>
-      <c r="BO34" s="4"/>
-      <c r="BP34" s="4"/>
-      <c r="BQ34" s="4"/>
-      <c r="BR34" s="4"/>
-    </row>
-    <row r="35" spans="1:20" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="6" t="s">
+      <c r="D35" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="E35" s="7"/>
+      <c r="F35" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="4"/>
+      <c r="AO35" s="4"/>
+      <c r="AP35" s="4"/>
+      <c r="AQ35" s="4"/>
+      <c r="AR35" s="4"/>
+      <c r="AS35" s="4"/>
+      <c r="AT35" s="4"/>
+      <c r="AU35" s="4"/>
+      <c r="AV35" s="4"/>
+      <c r="AW35" s="4"/>
+      <c r="AX35" s="4"/>
+      <c r="AY35" s="4"/>
+      <c r="AZ35" s="4"/>
+      <c r="BA35" s="4"/>
+      <c r="BB35" s="4"/>
+      <c r="BC35" s="4"/>
+      <c r="BD35" s="4"/>
+      <c r="BE35" s="4"/>
+      <c r="BF35" s="4"/>
+      <c r="BG35" s="4"/>
+      <c r="BH35" s="4"/>
+      <c r="BI35" s="4"/>
+      <c r="BJ35" s="4"/>
+      <c r="BK35" s="4"/>
+      <c r="BL35" s="4"/>
+      <c r="BM35" s="4"/>
+      <c r="BN35" s="4"/>
+      <c r="BO35" s="4"/>
+      <c r="BP35" s="4"/>
+      <c r="BQ35" s="4"/>
+      <c r="BR35" s="4"/>
+    </row>
+    <row r="36" spans="1:20" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-    </row>
-    <row r="36" spans="1:25" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="E36" s="6"/>
+      <c r="F36" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="6" t="s">
-        <v>281</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -4023,63 +3652,56 @@
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-    </row>
-    <row r="37" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:25" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>283</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>285</v>
+        <v>277</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+    </row>
+    <row r="38" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="4"/>
-    </row>
-    <row r="38" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E38" s="6"/>
+      <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -4102,37 +3724,23 @@
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
-      <c r="AB38" s="4"/>
-      <c r="AC38" s="4"/>
-      <c r="AD38" s="4"/>
-      <c r="AE38" s="4"/>
-      <c r="AF38" s="4"/>
-      <c r="AG38" s="4"/>
-      <c r="AH38" s="4"/>
-      <c r="AI38" s="4"/>
-      <c r="AJ38" s="4"/>
-      <c r="AK38" s="4"/>
-      <c r="AL38" s="4"/>
-      <c r="AM38" s="4"/>
-      <c r="AN38" s="4"/>
-      <c r="AO38" s="4"/>
-    </row>
-    <row r="39" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>292</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -4169,142 +3777,162 @@
       <c r="AM39" s="4"/>
       <c r="AN39" s="4"/>
       <c r="AO39" s="4"/>
-      <c r="AP39" s="4"/>
-      <c r="AQ39" s="4"/>
-      <c r="AR39" s="4"/>
-      <c r="AS39" s="4"/>
-      <c r="AT39" s="4"/>
-      <c r="AU39" s="4"/>
-      <c r="AV39" s="4"/>
-      <c r="AW39" s="4"/>
-      <c r="AX39" s="4"/>
-      <c r="AY39" s="4"/>
-    </row>
-    <row r="40" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>297</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="4"/>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="4"/>
+      <c r="AK40" s="4"/>
+      <c r="AL40" s="4"/>
+      <c r="AM40" s="4"/>
+      <c r="AN40" s="4"/>
+      <c r="AO40" s="4"/>
+      <c r="AP40" s="4"/>
+      <c r="AQ40" s="4"/>
+      <c r="AR40" s="4"/>
+      <c r="AS40" s="4"/>
+      <c r="AT40" s="4"/>
+      <c r="AU40" s="4"/>
+      <c r="AV40" s="4"/>
+      <c r="AW40" s="4"/>
+      <c r="AX40" s="4"/>
+      <c r="AY40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="41" spans="1:66" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:66" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
-      <c r="AA41" s="4"/>
-      <c r="AB41" s="4"/>
-      <c r="AC41" s="4"/>
-      <c r="AD41" s="4"/>
-      <c r="AE41" s="4"/>
-      <c r="AF41" s="4"/>
-      <c r="AG41" s="4"/>
-      <c r="AH41" s="4"/>
-      <c r="AI41" s="4"/>
-      <c r="AJ41" s="4"/>
-      <c r="AK41" s="4"/>
-      <c r="AL41" s="4"/>
-      <c r="AM41" s="4"/>
-      <c r="AN41" s="4"/>
-      <c r="AO41" s="4"/>
-      <c r="AP41" s="4"/>
-      <c r="AQ41" s="4"/>
-      <c r="AR41" s="4"/>
-      <c r="AS41" s="4"/>
-      <c r="AT41" s="4"/>
-      <c r="AU41" s="4"/>
-      <c r="AV41" s="4"/>
-      <c r="AW41" s="4"/>
-      <c r="AX41" s="4"/>
-      <c r="AY41" s="4"/>
-      <c r="AZ41" s="4"/>
-      <c r="BA41" s="4"/>
-      <c r="BB41" s="4"/>
-      <c r="BC41" s="4"/>
-      <c r="BD41" s="4"/>
-      <c r="BE41" s="4"/>
-      <c r="BF41" s="4"/>
-      <c r="BG41" s="4"/>
-      <c r="BH41" s="4"/>
-      <c r="BI41" s="4"/>
-      <c r="BJ41" s="4"/>
-      <c r="BK41" s="4"/>
-      <c r="BL41" s="4"/>
-      <c r="BM41" s="4"/>
-      <c r="BN41" s="4"/>
-    </row>
-    <row r="42" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
+      <c r="C42" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>306</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="E43" s="4"/>
+        <v>304</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="4"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="4"/>
+      <c r="AL42" s="4"/>
+      <c r="AM42" s="4"/>
+      <c r="AN42" s="4"/>
+      <c r="AO42" s="4"/>
+      <c r="AP42" s="4"/>
+      <c r="AQ42" s="4"/>
+      <c r="AR42" s="4"/>
+      <c r="AS42" s="4"/>
+      <c r="AT42" s="4"/>
+      <c r="AU42" s="4"/>
+      <c r="AV42" s="4"/>
+      <c r="AW42" s="4"/>
+      <c r="AX42" s="4"/>
+      <c r="AY42" s="4"/>
+      <c r="AZ42" s="4"/>
+      <c r="BA42" s="4"/>
+      <c r="BB42" s="4"/>
+      <c r="BC42" s="4"/>
+      <c r="BD42" s="4"/>
+      <c r="BE42" s="4"/>
+      <c r="BF42" s="4"/>
+      <c r="BG42" s="4"/>
+      <c r="BH42" s="4"/>
+      <c r="BI42" s="4"/>
+      <c r="BJ42" s="4"/>
+      <c r="BK42" s="4"/>
+      <c r="BL42" s="4"/>
+      <c r="BM42" s="4"/>
+      <c r="BN42" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -4318,7 +3946,7 @@
   <dimension ref="A1:IV47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:D34"/>
+      <selection activeCell="A33" sqref="A33:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -4332,657 +3960,657 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13611" windowHeight="6180" activeTab="1" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13596" windowHeight="6180" activeTab="1" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="458">
   <si>
     <t>动作</t>
   </si>
@@ -650,7 +650,7 @@
     <t>删除评论</t>
   </si>
   <si>
-    <t>commentID：int</t>
+    <t>userName:用户名，itemID：商品ID</t>
   </si>
   <si>
     <t xml:space="preserve"> deleteResult:boolean(评论删除成功与否)</t>
@@ -1416,6 +1416,9 @@
     <t>进入商品管理页面</t>
   </si>
   <si>
+    <t>name(String，书名);publisher(String，出版社):catalogId(int,0不限制，其他数字代表具体的Id）;publishTime(int ,0 不限制，1为2012，2为2011，3为2010，4为2009，5为2009以下;edition（0不限制，其他数字代表具体的版次;searchPage(int 0限制，1 为0-200，2为200-400，3为400-600，4为600以上);binding（int 0 不限制，1为平装，2为精装;booksize（int,0为不限，1为32开，2为16开，3为8开;price（0 为不限制，1为0-10，2为10-30，3为30-50，4为50-100，5为100以上;discount（int ,0为不限，1为3折以下，2为3-5折，3为5-7折，4为7折以上;author(String，作者);description(String，描述);page（第几页默认为1)</t>
+  </si>
+  <si>
     <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(score),市场价（marketPrice));currentPage：当前页数；totalPage:总页数；</t>
   </si>
   <si>
@@ -1482,7 +1485,7 @@
     <t>提交商品目录添加</t>
   </si>
   <si>
-    <t>catalogName:目录名，catalogDesc：目录描述，upID:父目录的ID(-1表示根目录）,</t>
+    <t>catalogName:目录名，catalogDesc：目录描述，upID:父目录的ID(0表示根目录）,</t>
   </si>
   <si>
     <t>成功跳转目录管理</t>
@@ -1497,7 +1500,7 @@
     <t>catalogID:目录ID</t>
   </si>
   <si>
-    <t>catalogName:目录名，catalogDesc：目录描述，upID:父目录的ID(-1表示根目录）;catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+    <t>catalogName:目录名，catalogDesc：目录描述，upID:父目录的ID(0表示根目录）;catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
     <t>admin/category_edit.jsp</t>
@@ -2077,7 +2080,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="10">
+  <fonts count="12" x14ac:knownFonts="12">
     <font>
       <sz val="12.0"/>
       <name val="文泉驿正黑"/>
@@ -2127,12 +2130,24 @@
     </font>
     <font>
       <sz val="12.0"/>
-      <color rgb="FF00FF00"/>
+      <color rgb="FFFF0000"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12.0"/>
+      <name val="文泉驿正黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF00FFFF"/>
+      <name val="文泉驿正黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF00FF00"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
@@ -2159,7 +2174,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2205,10 +2220,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -2228,7 +2249,7 @@
   <dimension ref="A1:IV25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2802,7 +2823,7 @@
       <c r="B25" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="15" t="s">
         <v>111</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -2837,8 +2858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2879,7 +2900,7 @@
       <c r="B2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2896,7 +2917,7 @@
       <c r="B3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -3053,10 +3074,10 @@
       <c r="B11" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="1" t="s">
         <v>166</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -3247,7 +3268,7 @@
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="1" t="s">
         <v>218</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -3278,7 +3299,7 @@
       <c r="B23" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -3328,7 +3349,7 @@
       <c r="B25" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="6" t="s">
         <v>233</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -3359,101 +3380,129 @@
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
     </row>
-    <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="C26" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="D26" s="7" t="s">
         <v>239</v>
       </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B28" s="1" t="s">
+    </row>
+    <row r="28" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="C28" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>247</v>
-      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>203</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -3495,66 +3544,66 @@
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C32" s="6" t="s">
         <v>260</v>
       </c>
+      <c r="C32" s="19" t="s">
+        <v>261</v>
+      </c>
       <c r="D32" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D33" s="1" t="s">
         <v>265</v>
       </c>
+      <c r="D33" s="17" t="s">
+        <v>266</v>
+      </c>
       <c r="F33" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -3623,20 +3672,20 @@
     </row>
     <row r="36" spans="1:20" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -3655,18 +3704,18 @@
     </row>
     <row r="37" spans="1:25" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -3690,16 +3739,16 @@
     </row>
     <row r="38" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -3727,20 +3776,20 @@
     </row>
     <row r="39" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -3780,20 +3829,20 @@
     </row>
     <row r="40" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -3843,35 +3892,35 @@
     </row>
     <row r="41" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:66" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>171</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -3960,657 +4009,657 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>454</v>
-      </c>
       <c r="D47" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -1560,7 +1560,7 @@
     <t>管理员提交订单修改</t>
   </si>
   <si>
-    <t>orderId:订单号；receiver:收货人；level1ID:一级地区ID；level2ID:二级地区ID;level3ID:三级地区ID；addressDetail:地区详情；zipcode:邮政编码；phoneNumber：电话号码；mobileNumber:手机号码;items:json_array(id:商品ID;value:商品数量）)</t>
+    <t>orderId:订单号；receiver:收货人；level1ID:一级地区ID；level2ID:二级地区ID;level3ID:三级地区ID；addressDetail:地区详情；zipcode:邮政编码；phoneNumber：电话号码；mobileNumber:手机号码;items:json_array(id:商品ID;number:商品数量）)</t>
   </si>
   <si>
     <t>成功跳转orderDetail</t>
@@ -2174,7 +2174,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2235,6 +2235,9 @@
     <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2859,7 +2862,7 @@
   <dimension ref="A1:IV42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -3556,22 +3559,68 @@
         <v>262</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="E33" s="6"/>
+      <c r="F33" s="6" t="s">
         <v>267</v>
       </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="6"/>
+      <c r="AG33" s="6"/>
+      <c r="AH33" s="6"/>
+      <c r="AI33" s="6"/>
+      <c r="AJ33" s="6"/>
+      <c r="AK33" s="6"/>
+      <c r="AL33" s="6"/>
+      <c r="AM33" s="6"/>
+      <c r="AN33" s="6"/>
+      <c r="AO33" s="6"/>
+      <c r="AP33" s="6"/>
+      <c r="AQ33" s="6"/>
+      <c r="AR33" s="6"/>
+      <c r="AS33" s="6"/>
+      <c r="AT33" s="6"/>
+      <c r="AU33" s="6"/>
+      <c r="AV33" s="6"/>
+      <c r="AW33" s="6"/>
+      <c r="AX33" s="6"/>
+      <c r="AY33" s="6"/>
     </row>
     <row r="34" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13596" windowHeight="6180" activeTab="1" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13596" windowHeight="6180" activeTab="0" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
@@ -2251,8 +2251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2631,21 +2631,271 @@
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:256" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
+      <c r="AN20" s="6"/>
+      <c r="AO20" s="6"/>
+      <c r="AP20" s="6"/>
+      <c r="AQ20" s="6"/>
+      <c r="AR20" s="6"/>
+      <c r="AS20" s="6"/>
+      <c r="AT20" s="6"/>
+      <c r="AU20" s="6"/>
+      <c r="AV20" s="6"/>
+      <c r="AW20" s="6"/>
+      <c r="AX20" s="6"/>
+      <c r="AY20" s="6"/>
+      <c r="AZ20" s="6"/>
+      <c r="BA20" s="6"/>
+      <c r="BB20" s="6"/>
+      <c r="BC20" s="6"/>
+      <c r="BD20" s="6"/>
+      <c r="BE20" s="6"/>
+      <c r="BF20" s="6"/>
+      <c r="BG20" s="6"/>
+      <c r="BH20" s="6"/>
+      <c r="BI20" s="6"/>
+      <c r="BJ20" s="6"/>
+      <c r="BK20" s="6"/>
+      <c r="BL20" s="6"/>
+      <c r="BM20" s="6"/>
+      <c r="BN20" s="6"/>
+      <c r="BO20" s="6"/>
+      <c r="BP20" s="6"/>
+      <c r="BQ20" s="6"/>
+      <c r="BR20" s="6"/>
+      <c r="BS20" s="6"/>
+      <c r="BT20" s="6"/>
+      <c r="BU20" s="6"/>
+      <c r="BV20" s="6"/>
+      <c r="BW20" s="6"/>
+      <c r="BX20" s="6"/>
+      <c r="BY20" s="6"/>
+      <c r="BZ20" s="6"/>
+      <c r="CA20" s="6"/>
+      <c r="CB20" s="6"/>
+      <c r="CC20" s="6"/>
+      <c r="CD20" s="6"/>
+      <c r="CE20" s="6"/>
+      <c r="CF20" s="6"/>
+      <c r="CG20" s="6"/>
+      <c r="CH20" s="6"/>
+      <c r="CI20" s="6"/>
+      <c r="CJ20" s="6"/>
+      <c r="CK20" s="6"/>
+      <c r="CL20" s="6"/>
+      <c r="CM20" s="6"/>
+      <c r="CN20" s="6"/>
+      <c r="CO20" s="6"/>
+      <c r="CP20" s="6"/>
+      <c r="CQ20" s="6"/>
+      <c r="CR20" s="6"/>
+      <c r="CS20" s="6"/>
+      <c r="CT20" s="6"/>
+      <c r="CU20" s="6"/>
+      <c r="CV20" s="6"/>
+      <c r="CW20" s="6"/>
+      <c r="CX20" s="6"/>
+      <c r="CY20" s="6"/>
+      <c r="CZ20" s="6"/>
+      <c r="DA20" s="6"/>
+      <c r="DB20" s="6"/>
+      <c r="DC20" s="6"/>
+      <c r="DD20" s="6"/>
+      <c r="DE20" s="6"/>
+      <c r="DF20" s="6"/>
+      <c r="DG20" s="6"/>
+      <c r="DH20" s="6"/>
+      <c r="DI20" s="6"/>
+      <c r="DJ20" s="6"/>
+      <c r="DK20" s="6"/>
+      <c r="DL20" s="6"/>
+      <c r="DM20" s="6"/>
+      <c r="DN20" s="6"/>
+      <c r="DO20" s="6"/>
+      <c r="DP20" s="6"/>
+      <c r="DQ20" s="6"/>
+      <c r="DR20" s="6"/>
+      <c r="DS20" s="6"/>
+      <c r="DT20" s="6"/>
+      <c r="DU20" s="6"/>
+      <c r="DV20" s="6"/>
+      <c r="DW20" s="6"/>
+      <c r="DX20" s="6"/>
+      <c r="DY20" s="6"/>
+      <c r="DZ20" s="6"/>
+      <c r="EA20" s="6"/>
+      <c r="EB20" s="6"/>
+      <c r="EC20" s="6"/>
+      <c r="ED20" s="6"/>
+      <c r="EE20" s="6"/>
+      <c r="EF20" s="6"/>
+      <c r="EG20" s="6"/>
+      <c r="EH20" s="6"/>
+      <c r="EI20" s="6"/>
+      <c r="EJ20" s="6"/>
+      <c r="EK20" s="6"/>
+      <c r="EL20" s="6"/>
+      <c r="EM20" s="6"/>
+      <c r="EN20" s="6"/>
+      <c r="EO20" s="6"/>
+      <c r="EP20" s="6"/>
+      <c r="EQ20" s="6"/>
+      <c r="ER20" s="6"/>
+      <c r="ES20" s="6"/>
+      <c r="ET20" s="6"/>
+      <c r="EU20" s="6"/>
+      <c r="EV20" s="6"/>
+      <c r="EW20" s="6"/>
+      <c r="EX20" s="6"/>
+      <c r="EY20" s="6"/>
+      <c r="EZ20" s="6"/>
+      <c r="FA20" s="6"/>
+      <c r="FB20" s="6"/>
+      <c r="FC20" s="6"/>
+      <c r="FD20" s="6"/>
+      <c r="FE20" s="6"/>
+      <c r="FF20" s="6"/>
+      <c r="FG20" s="6"/>
+      <c r="FH20" s="6"/>
+      <c r="FI20" s="6"/>
+      <c r="FJ20" s="6"/>
+      <c r="FK20" s="6"/>
+      <c r="FL20" s="6"/>
+      <c r="FM20" s="6"/>
+      <c r="FN20" s="6"/>
+      <c r="FO20" s="6"/>
+      <c r="FP20" s="6"/>
+      <c r="FQ20" s="6"/>
+      <c r="FR20" s="6"/>
+      <c r="FS20" s="6"/>
+      <c r="FT20" s="6"/>
+      <c r="FU20" s="6"/>
+      <c r="FV20" s="6"/>
+      <c r="FW20" s="6"/>
+      <c r="FX20" s="6"/>
+      <c r="FY20" s="6"/>
+      <c r="FZ20" s="6"/>
+      <c r="GA20" s="6"/>
+      <c r="GB20" s="6"/>
+      <c r="GC20" s="6"/>
+      <c r="GD20" s="6"/>
+      <c r="GE20" s="6"/>
+      <c r="GF20" s="6"/>
+      <c r="GG20" s="6"/>
+      <c r="GH20" s="6"/>
+      <c r="GI20" s="6"/>
+      <c r="GJ20" s="6"/>
+      <c r="GK20" s="6"/>
+      <c r="GL20" s="6"/>
+      <c r="GM20" s="6"/>
+      <c r="GN20" s="6"/>
+      <c r="GO20" s="6"/>
+      <c r="GP20" s="6"/>
+      <c r="GQ20" s="6"/>
+      <c r="GR20" s="6"/>
+      <c r="GS20" s="6"/>
+      <c r="GT20" s="6"/>
+      <c r="GU20" s="6"/>
+      <c r="GV20" s="6"/>
+      <c r="GW20" s="6"/>
+      <c r="GX20" s="6"/>
+      <c r="GY20" s="6"/>
+      <c r="GZ20" s="6"/>
+      <c r="HA20" s="6"/>
+      <c r="HB20" s="6"/>
+      <c r="HC20" s="6"/>
+      <c r="HD20" s="6"/>
+      <c r="HE20" s="6"/>
+      <c r="HF20" s="6"/>
+      <c r="HG20" s="6"/>
+      <c r="HH20" s="6"/>
+      <c r="HI20" s="6"/>
+      <c r="HJ20" s="6"/>
+      <c r="HK20" s="6"/>
+      <c r="HL20" s="6"/>
+      <c r="HM20" s="6"/>
+      <c r="HN20" s="6"/>
+      <c r="HO20" s="6"/>
+      <c r="HP20" s="6"/>
+      <c r="HQ20" s="6"/>
+      <c r="HR20" s="6"/>
+      <c r="HS20" s="6"/>
+      <c r="HT20" s="6"/>
+      <c r="HU20" s="6"/>
+      <c r="HV20" s="6"/>
+      <c r="HW20" s="6"/>
+      <c r="HX20" s="6"/>
+      <c r="HY20" s="6"/>
+      <c r="HZ20" s="6"/>
+      <c r="IA20" s="6"/>
+      <c r="IB20" s="6"/>
+      <c r="IC20" s="6"/>
+      <c r="ID20" s="6"/>
+      <c r="IE20" s="6"/>
+      <c r="IF20" s="6"/>
+      <c r="IG20" s="6"/>
+      <c r="IH20" s="6"/>
+      <c r="II20" s="6"/>
+      <c r="IJ20" s="6"/>
+      <c r="IK20" s="6"/>
+      <c r="IL20" s="6"/>
+      <c r="IM20" s="6"/>
+      <c r="IN20" s="6"/>
+      <c r="IO20" s="6"/>
+      <c r="IP20" s="6"/>
+      <c r="IQ20" s="6"/>
+      <c r="IR20" s="6"/>
+      <c r="IS20" s="6"/>
+      <c r="IT20" s="6"/>
+      <c r="IU20" s="6"/>
+      <c r="IV20" s="6"/>
     </row>
     <row r="21" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
@@ -2777,35 +3027,35 @@
       <c r="AG23" s="4"/>
     </row>
     <row r="24" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
@@ -2861,8 +3111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView zoomScaleNormal="100" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -3786,42 +4036,45 @@
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
     </row>
-    <row r="38" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
-      <c r="AA38" s="4"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
     </row>
     <row r="39" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13596" windowHeight="6180" activeTab="0" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13596" windowHeight="6180" activeTab="1" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
@@ -1602,7 +1602,7 @@
     <t>管理员提交积分下限和比例</t>
   </si>
   <si>
-    <t>levelID:int;low:int;scoreRate:int</t>
+    <t>levelID:int;low(积分下限）:float;scoreRate:int;hight(积分上限）:float;levelName:等级名字</t>
   </si>
   <si>
     <t xml:space="preserve"> 成功则跳转到用户管理</t>
@@ -2251,7 +2251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A10" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
@@ -3111,8 +3111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -4192,20 +4192,36 @@
       <c r="AX40" s="4"/>
       <c r="AY40" s="4"/>
     </row>
-    <row r="41" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="E41" s="4"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
     </row>
     <row r="42" spans="1:66" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13596" windowHeight="6180" activeTab="1" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13581" windowHeight="6180" activeTab="1" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
@@ -1590,7 +1590,7 @@
     <t xml:space="preserve"> userName:String; userLevel:(0:普通会员,1:银卡会员,2:金卡会员,3:白金会员；);startTime:开始索引时间(year:年，month:月;day:日）;endTime:结束索引时间（year：年，month:月，day:日); page：int(分页)</t>
   </si>
   <si>
-    <t>levelList:一维数组(一个包含ID,low,scoreRate);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；currentPage(当前页面)；totalPage（总页数）；</t>
+    <t>levelList:一维数组(levelID:int;low(积分下限）:float;scoreRate:int;hight(积分上限）:float;levelName:等级名字);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；currentPage(当前页面)；totalPage（总页数）；</t>
   </si>
   <si>
     <t>admin/user_admin.jsp</t>
@@ -2080,7 +2080,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="12">
+  <fonts count="8" x14ac:knownFonts="8">
     <font>
       <sz val="12.0"/>
       <name val="文泉驿正黑"/>
@@ -2128,29 +2128,6 @@
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FFFF0000"/>
-      <name val="文泉驿正黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <name val="文泉驿正黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF00FFFF"/>
-      <name val="文泉驿正黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF00FF00"/>
-      <name val="文泉驿正黑"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2174,7 +2151,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2220,21 +2197,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2631,271 +2593,19 @@
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:256" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:4" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
-      <c r="AH20" s="6"/>
-      <c r="AI20" s="6"/>
-      <c r="AJ20" s="6"/>
-      <c r="AK20" s="6"/>
-      <c r="AL20" s="6"/>
-      <c r="AM20" s="6"/>
-      <c r="AN20" s="6"/>
-      <c r="AO20" s="6"/>
-      <c r="AP20" s="6"/>
-      <c r="AQ20" s="6"/>
-      <c r="AR20" s="6"/>
-      <c r="AS20" s="6"/>
-      <c r="AT20" s="6"/>
-      <c r="AU20" s="6"/>
-      <c r="AV20" s="6"/>
-      <c r="AW20" s="6"/>
-      <c r="AX20" s="6"/>
-      <c r="AY20" s="6"/>
-      <c r="AZ20" s="6"/>
-      <c r="BA20" s="6"/>
-      <c r="BB20" s="6"/>
-      <c r="BC20" s="6"/>
-      <c r="BD20" s="6"/>
-      <c r="BE20" s="6"/>
-      <c r="BF20" s="6"/>
-      <c r="BG20" s="6"/>
-      <c r="BH20" s="6"/>
-      <c r="BI20" s="6"/>
-      <c r="BJ20" s="6"/>
-      <c r="BK20" s="6"/>
-      <c r="BL20" s="6"/>
-      <c r="BM20" s="6"/>
-      <c r="BN20" s="6"/>
-      <c r="BO20" s="6"/>
-      <c r="BP20" s="6"/>
-      <c r="BQ20" s="6"/>
-      <c r="BR20" s="6"/>
-      <c r="BS20" s="6"/>
-      <c r="BT20" s="6"/>
-      <c r="BU20" s="6"/>
-      <c r="BV20" s="6"/>
-      <c r="BW20" s="6"/>
-      <c r="BX20" s="6"/>
-      <c r="BY20" s="6"/>
-      <c r="BZ20" s="6"/>
-      <c r="CA20" s="6"/>
-      <c r="CB20" s="6"/>
-      <c r="CC20" s="6"/>
-      <c r="CD20" s="6"/>
-      <c r="CE20" s="6"/>
-      <c r="CF20" s="6"/>
-      <c r="CG20" s="6"/>
-      <c r="CH20" s="6"/>
-      <c r="CI20" s="6"/>
-      <c r="CJ20" s="6"/>
-      <c r="CK20" s="6"/>
-      <c r="CL20" s="6"/>
-      <c r="CM20" s="6"/>
-      <c r="CN20" s="6"/>
-      <c r="CO20" s="6"/>
-      <c r="CP20" s="6"/>
-      <c r="CQ20" s="6"/>
-      <c r="CR20" s="6"/>
-      <c r="CS20" s="6"/>
-      <c r="CT20" s="6"/>
-      <c r="CU20" s="6"/>
-      <c r="CV20" s="6"/>
-      <c r="CW20" s="6"/>
-      <c r="CX20" s="6"/>
-      <c r="CY20" s="6"/>
-      <c r="CZ20" s="6"/>
-      <c r="DA20" s="6"/>
-      <c r="DB20" s="6"/>
-      <c r="DC20" s="6"/>
-      <c r="DD20" s="6"/>
-      <c r="DE20" s="6"/>
-      <c r="DF20" s="6"/>
-      <c r="DG20" s="6"/>
-      <c r="DH20" s="6"/>
-      <c r="DI20" s="6"/>
-      <c r="DJ20" s="6"/>
-      <c r="DK20" s="6"/>
-      <c r="DL20" s="6"/>
-      <c r="DM20" s="6"/>
-      <c r="DN20" s="6"/>
-      <c r="DO20" s="6"/>
-      <c r="DP20" s="6"/>
-      <c r="DQ20" s="6"/>
-      <c r="DR20" s="6"/>
-      <c r="DS20" s="6"/>
-      <c r="DT20" s="6"/>
-      <c r="DU20" s="6"/>
-      <c r="DV20" s="6"/>
-      <c r="DW20" s="6"/>
-      <c r="DX20" s="6"/>
-      <c r="DY20" s="6"/>
-      <c r="DZ20" s="6"/>
-      <c r="EA20" s="6"/>
-      <c r="EB20" s="6"/>
-      <c r="EC20" s="6"/>
-      <c r="ED20" s="6"/>
-      <c r="EE20" s="6"/>
-      <c r="EF20" s="6"/>
-      <c r="EG20" s="6"/>
-      <c r="EH20" s="6"/>
-      <c r="EI20" s="6"/>
-      <c r="EJ20" s="6"/>
-      <c r="EK20" s="6"/>
-      <c r="EL20" s="6"/>
-      <c r="EM20" s="6"/>
-      <c r="EN20" s="6"/>
-      <c r="EO20" s="6"/>
-      <c r="EP20" s="6"/>
-      <c r="EQ20" s="6"/>
-      <c r="ER20" s="6"/>
-      <c r="ES20" s="6"/>
-      <c r="ET20" s="6"/>
-      <c r="EU20" s="6"/>
-      <c r="EV20" s="6"/>
-      <c r="EW20" s="6"/>
-      <c r="EX20" s="6"/>
-      <c r="EY20" s="6"/>
-      <c r="EZ20" s="6"/>
-      <c r="FA20" s="6"/>
-      <c r="FB20" s="6"/>
-      <c r="FC20" s="6"/>
-      <c r="FD20" s="6"/>
-      <c r="FE20" s="6"/>
-      <c r="FF20" s="6"/>
-      <c r="FG20" s="6"/>
-      <c r="FH20" s="6"/>
-      <c r="FI20" s="6"/>
-      <c r="FJ20" s="6"/>
-      <c r="FK20" s="6"/>
-      <c r="FL20" s="6"/>
-      <c r="FM20" s="6"/>
-      <c r="FN20" s="6"/>
-      <c r="FO20" s="6"/>
-      <c r="FP20" s="6"/>
-      <c r="FQ20" s="6"/>
-      <c r="FR20" s="6"/>
-      <c r="FS20" s="6"/>
-      <c r="FT20" s="6"/>
-      <c r="FU20" s="6"/>
-      <c r="FV20" s="6"/>
-      <c r="FW20" s="6"/>
-      <c r="FX20" s="6"/>
-      <c r="FY20" s="6"/>
-      <c r="FZ20" s="6"/>
-      <c r="GA20" s="6"/>
-      <c r="GB20" s="6"/>
-      <c r="GC20" s="6"/>
-      <c r="GD20" s="6"/>
-      <c r="GE20" s="6"/>
-      <c r="GF20" s="6"/>
-      <c r="GG20" s="6"/>
-      <c r="GH20" s="6"/>
-      <c r="GI20" s="6"/>
-      <c r="GJ20" s="6"/>
-      <c r="GK20" s="6"/>
-      <c r="GL20" s="6"/>
-      <c r="GM20" s="6"/>
-      <c r="GN20" s="6"/>
-      <c r="GO20" s="6"/>
-      <c r="GP20" s="6"/>
-      <c r="GQ20" s="6"/>
-      <c r="GR20" s="6"/>
-      <c r="GS20" s="6"/>
-      <c r="GT20" s="6"/>
-      <c r="GU20" s="6"/>
-      <c r="GV20" s="6"/>
-      <c r="GW20" s="6"/>
-      <c r="GX20" s="6"/>
-      <c r="GY20" s="6"/>
-      <c r="GZ20" s="6"/>
-      <c r="HA20" s="6"/>
-      <c r="HB20" s="6"/>
-      <c r="HC20" s="6"/>
-      <c r="HD20" s="6"/>
-      <c r="HE20" s="6"/>
-      <c r="HF20" s="6"/>
-      <c r="HG20" s="6"/>
-      <c r="HH20" s="6"/>
-      <c r="HI20" s="6"/>
-      <c r="HJ20" s="6"/>
-      <c r="HK20" s="6"/>
-      <c r="HL20" s="6"/>
-      <c r="HM20" s="6"/>
-      <c r="HN20" s="6"/>
-      <c r="HO20" s="6"/>
-      <c r="HP20" s="6"/>
-      <c r="HQ20" s="6"/>
-      <c r="HR20" s="6"/>
-      <c r="HS20" s="6"/>
-      <c r="HT20" s="6"/>
-      <c r="HU20" s="6"/>
-      <c r="HV20" s="6"/>
-      <c r="HW20" s="6"/>
-      <c r="HX20" s="6"/>
-      <c r="HY20" s="6"/>
-      <c r="HZ20" s="6"/>
-      <c r="IA20" s="6"/>
-      <c r="IB20" s="6"/>
-      <c r="IC20" s="6"/>
-      <c r="ID20" s="6"/>
-      <c r="IE20" s="6"/>
-      <c r="IF20" s="6"/>
-      <c r="IG20" s="6"/>
-      <c r="IH20" s="6"/>
-      <c r="II20" s="6"/>
-      <c r="IJ20" s="6"/>
-      <c r="IK20" s="6"/>
-      <c r="IL20" s="6"/>
-      <c r="IM20" s="6"/>
-      <c r="IN20" s="6"/>
-      <c r="IO20" s="6"/>
-      <c r="IP20" s="6"/>
-      <c r="IQ20" s="6"/>
-      <c r="IR20" s="6"/>
-      <c r="IS20" s="6"/>
-      <c r="IT20" s="6"/>
-      <c r="IU20" s="6"/>
-      <c r="IV20" s="6"/>
     </row>
     <row r="21" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
@@ -3076,7 +2786,7 @@
       <c r="B25" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="4" t="s">
         <v>111</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -3112,7 +2822,7 @@
   <dimension ref="A1:IV42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -3640,7 +3350,7 @@
       <c r="B26" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="1" t="s">
         <v>238</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -3802,7 +3512,7 @@
       <c r="B32" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="1" t="s">
         <v>261</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -3819,7 +3529,7 @@
       <c r="C33" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="1" t="s">
         <v>266</v>
       </c>
       <c r="E33" s="6"/>
@@ -4199,7 +3909,7 @@
       <c r="B41" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="6" t="s">
         <v>300</v>
       </c>
       <c r="D41" s="6" t="s">

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13581" windowHeight="6180" activeTab="1" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13551" windowHeight="6180" activeTab="1" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="468">
   <si>
     <t>动作</t>
   </si>
@@ -874,7 +874,7 @@
     <t>首页列出信息</t>
   </si>
   <si>
-    <t>sult</t>
+    <t>nickname:String;cartItemNumber:int;catalog:一维数组（一个含有名字(name)和简介(desc),目录的id，二级目录的一维数组（含有名字(name)和简介(desc),目录的id，一个空的一维数组））；recommendItem(浏览最多）:一维数组（一个含有商品ID（itemId)，名字(name)，折扣价(price)，图片路径(picturePath) 的类)；newBook:一维数组（类与recommendItem相同）；hotBook:一维数组（类与recommendItem相同）</t>
   </si>
   <si>
     <t>IndexAction</t>
@@ -889,10 +889,10 @@
     <t>列出搜索商品</t>
   </si>
   <si>
-    <t>name(String，书名);publisher(String，出版社):catalogId(int,0不限制，其他数字代表具体的Id）;publishTime(int ,0 不限制，1为2012，2为2011，3为2010，4为2009，5为2009以下;edition（0不限制，其他数字代表具体的版次;searchPage(int 0限制，1 为0-200，2为200-400，3为400-600，4为600以上);binding（int 0 不限制，1为平装，2为精装;booksize（int,0为不限，1为32开，2为16开，3为8开;price（0 为不限制，1为0-10，2为10-30，3为30-50，4为50-100，5为100以上;discount（int ,0为不限，1为3折以下，2为3-5折，3为5-7折，4为7折以上;author(String，作者);description(String，描述);pageNum（第几页默认为1)</t>
-  </si>
-  <si>
-    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(rating),市场价（marketPrice));recommend:推荐商品（itemId,name,price,picturePath)</t>
+    <t>name(String，书名);publisher(String，出版社):catalogId(int,0不限制，其他数字代表具体的Id）;publishTime(int ,0 不限制，1为2012，2为2011，3为2010，4为2009，5为2009以下;edition（0不限制，其他数字代表具体的版次;searchPage(int 0限制，1 为0-200，2为200-400，3为400-600，4为600以上);binding（int 0 不限制，1为平装，2为精装;booksize（int,0为不限，1为32开，2为16开，3为8开;price（0 为不限制，1为0-10，2为10-30，3为30-50，4为50-100，5为100以上;discount（int ,0为不限，1为3折以下，2为3-5折，3为5-7折，4为7折以上;author(String，作者);pageNum（第几页默认为1)</t>
+  </si>
+  <si>
+    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(rating),市场价（marketPrice),offline(int,0为下架,1为上架);recommend:推荐商品（itemId,name,price,picturePath)</t>
   </si>
   <si>
     <t>ItemListAction</t>
@@ -1197,7 +1197,7 @@
     <t>page：int(分页)</t>
   </si>
   <si>
-    <t>items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(rating),市场价（marketPrice));recommend:推荐商品（itemId,name,price,picturePath)；currentPage(当前页面)；totalPage（总页数）；</t>
+    <t>items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(rating),市场价（marketPrice)库存（inventory)，offline(0为下架）);recommend:推荐商品（itemId,name,price,picturePath);totalPage（总页数）；</t>
   </si>
   <si>
     <t>FavoriteEnterAction</t>
@@ -1281,6 +1281,24 @@
     <t>send_notes.jsp</t>
   </si>
   <si>
+    <t>comment（页面嵌入）</t>
+  </si>
+  <si>
+    <t>分页显示评论（一页20条）</t>
+  </si>
+  <si>
+    <t>page：int(分页)，itemId</t>
+  </si>
+  <si>
+    <t>commentList(一维数组包含用户名(username),打分(rating),内容(content),时间(commentDate))</t>
+  </si>
+  <si>
+    <t>ItemDetailAction</t>
+  </si>
+  <si>
+    <t>item_info.jsp</t>
+  </si>
+  <si>
     <t>item_detail</t>
   </si>
   <si>
@@ -1293,10 +1311,22 @@
     <t>ISBN ，name(书名）， author（作者姓名） ,publisher（出版社） ,publishTime（出版时间） , edition（版次）， page（页数） ,binding（装帧） , size（开本） ,price（价格） , marketPrice（出版价格） , discount（折扣） , inventory（库存） ,description （书籍描述）,bookClassify（书籍分类String），averageRating（综合评级),commentList(一维数组包含用户名(username),打分(rating),内容(content),时间(date));recommendView:推荐商品（id,itemName,price,picturePath);recommendBought:推荐商品（itemId,name,price,picturePath)；catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
-    <t>ItemDetailAction</t>
-  </si>
-  <si>
-    <t>item_info.jsp</t>
+    <t>CartEnterAction</t>
+  </si>
+  <si>
+    <t>cart.jsp</t>
+  </si>
+  <si>
+    <t>cart/update（新增接口）</t>
+  </si>
+  <si>
+    <t>修改购物车中的商品数量</t>
+  </si>
+  <si>
+    <t>itemId,itemNumber</t>
+  </si>
+  <si>
+    <t>updateResult:boolean(表示修改成功没）</t>
   </si>
   <si>
     <t>cart</t>
@@ -1308,10 +1338,19 @@
     <t>items:一维数组（一个包含商品ID（itemId),商品名字（name),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber),节省金额(savePrice)),总价totalPrice;recommendItems:推荐商品（itemId,name,price,picturePath);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
-    <t>CartEnterAction</t>
-  </si>
-  <si>
-    <t>cart.jsp</t>
+    <t>QuickSearchAction</t>
+  </si>
+  <si>
+    <t>cartDetail</t>
+  </si>
+  <si>
+    <t>购物车（嵌入页面）</t>
+  </si>
+  <si>
+    <t>items:一维数组（一个包含商品ID（itemId),商品名字（name),商品单价(price),商品小计(itemTotalPrice),商品数量,picture(图片）（itemNumber),节省金额(savePrice),),总价totalPrice;</t>
+  </si>
+  <si>
+    <t>user.jsp</t>
   </si>
   <si>
     <t>quick_search</t>
@@ -1323,10 +1362,7 @@
     <t>keyword:关键词；catalog:类别</t>
   </si>
   <si>
-    <t>跳转商品列表</t>
-  </si>
-  <si>
-    <t>QuickSearchAction</t>
+    <t>UserInfoEnterAction</t>
   </si>
   <si>
     <t>user</t>
@@ -1338,18 +1374,15 @@
     <t>userName:用户名，nickname：昵称;totalScore积分;orderList:一维数组包含（订单号(orderId),订单金额(totalPrice),下单时间(orderTime),获得积分（score));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
-    <t>UserInfoEnterAction</t>
-  </si>
-  <si>
-    <t>user.jsp</t>
-  </si>
-  <si>
     <t>forget_password</t>
   </si>
   <si>
     <t>进入忘记密码页面无</t>
   </si>
   <si>
+    <t>admin/index.jsp</t>
+  </si>
+  <si>
     <t>forget_password_submit</t>
   </si>
   <si>
@@ -1360,6 +1393,9 @@
   </si>
   <si>
     <t>成功跳转成功页面；失败跳转出错页面</t>
+  </si>
+  <si>
+    <t>admin/login.jsp</t>
   </si>
   <si>
     <t>admin/index</t>
@@ -1392,7 +1428,7 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>admin/index.jsp</t>
+    <t>admin/item_list.jsp</t>
   </si>
   <si>
     <t>admin/login</t>
@@ -1407,9 +1443,6 @@
     <t>跳转到相应URL</t>
   </si>
   <si>
-    <t>admin/login.jsp</t>
-  </si>
-  <si>
     <t>admin/item_manager</t>
   </si>
   <si>
@@ -1422,7 +1455,7 @@
     <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(score),市场价（marketPrice));currentPage：当前页数；totalPage:总页数；</t>
   </si>
   <si>
-    <t>admin/item_list.jsp</t>
+    <t>admin/item_edit.jsp</t>
   </si>
   <si>
     <t>admin/item_add_submit</t>
@@ -1446,7 +1479,7 @@
     <t>itemID(商品ID）</t>
   </si>
   <si>
-    <t>admin/item_edit.jsp</t>
+    <t>admin/item_info.jsp</t>
   </si>
   <si>
     <t>admin/item_modify_submit</t>
@@ -1458,15 +1491,15 @@
     <t>itemID(商品ID）,ISBN ，name(书名）， author（作者姓名） ,publisher（出版社） ,publishTime（出版时间）(year:年，month:月;day:日） , edition（版次）， page（页数） ,binding（装帧） , format（开本,marketPrice（出版价格） , discount（折扣） , inventory（库存） ,description （书籍描述）,bookClassify,（书籍分类ID),picture(上传的图片）</t>
   </si>
   <si>
+    <t>admin/category_list.jsp</t>
+  </si>
+  <si>
     <t>admin/item_detail</t>
   </si>
   <si>
     <t>进入商品详情</t>
   </si>
   <si>
-    <t>admin/item_info.jsp</t>
-  </si>
-  <si>
     <t>admin/catalog_manager</t>
   </si>
   <si>
@@ -1476,7 +1509,7 @@
     <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
-    <t>admin/category_list.jsp</t>
+    <t>admin/category_edit.jsp</t>
   </si>
   <si>
     <t>admin/catalog_add_submit</t>
@@ -1503,7 +1536,7 @@
     <t>catalogName:目录名，catalogDesc：目录描述，upID:父目录的ID(0表示根目录）;catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
-    <t>admin/category_edit.jsp</t>
+    <t>admin/order_list.jsp</t>
   </si>
   <si>
     <t>admin/catalog_edit_submit</t>
@@ -1515,6 +1548,9 @@
     <t>catalogID:目录ID,catalogName:目录名，catalogDesc：目录描述，upID:父目录的ID(-1表示根目录）,</t>
   </si>
   <si>
+    <t>admin/order_info.jsp</t>
+  </si>
+  <si>
     <t>admin/order_list</t>
   </si>
   <si>
@@ -1527,7 +1563,7 @@
     <t>orderList:一维数组（一个含有订单号(orderId)，收货人(receiver)，下单时间(orderTime)，订单状态（orderStatus字符串),订单总价(totalPrice)的类);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；currentPage(当前页面)；totalPage（总页数）；</t>
   </si>
   <si>
-    <t>admin/order_list.jsp</t>
+    <t>admin/order_edit.jsp</t>
   </si>
   <si>
     <t>admin/order_detail</t>
@@ -1542,16 +1578,13 @@
     <t>orderID:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),zipcode(邮政编码),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
-    <t>admin/order_info.jsp</t>
-  </si>
-  <si>
     <t>admin/order_edit</t>
   </si>
   <si>
     <t>orderID:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);selectedLevel1DistrictID,selectedLevel2DistrictID, selectedLevel3DistrictID,level1District, level2District, level3District,zipcode(邮政编码),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
-    <t>admin/order_edit.jsp</t>
+    <t>admin/salesdata_admin.jsp</t>
   </si>
   <si>
     <t>admin/order_edit_submit</t>
@@ -1566,6 +1599,9 @@
     <t>成功跳转orderDetail</t>
   </si>
   <si>
+    <t>admin/user_admin.jsp</t>
+  </si>
+  <si>
     <t>admin/order_statistics</t>
   </si>
   <si>
@@ -1578,9 +1614,6 @@
     <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；items:一维数组(itemID,itemName;sales;totalPrice),totalSalesRevenue(所有商品的总销售价）</t>
   </si>
   <si>
-    <t>admin/salesdata_admin.jsp</t>
-  </si>
-  <si>
     <t>admin/user_manager</t>
   </si>
   <si>
@@ -1593,7 +1626,7 @@
     <t>levelList:一维数组(levelID:int;low(积分下限）:float;scoreRate:int;hight(积分上限）:float;levelName:等级名字);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；currentPage(当前页面)；totalPage（总页数）；</t>
   </si>
   <si>
-    <t>admin/user_admin.jsp</t>
+    <t>admin/comment_list.jsp</t>
   </si>
   <si>
     <t>admin/user_score_rate_submit</t>
@@ -1615,9 +1648,6 @@
   </si>
   <si>
     <t>commentList(一维数组包含评论编号（commentID），用户名(username),打分(rating),内容(content),时间(date))；page（页数);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；currentPage(当前页面)；totalPage（总页数）；</t>
-  </si>
-  <si>
-    <t>admin/comment_list.jsp</t>
   </si>
   <si>
     <t>接口</t>
@@ -2080,7 +2110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="8">
+  <fonts count="10" x14ac:knownFonts="10">
     <font>
       <sz val="12.0"/>
       <name val="文泉驿正黑"/>
@@ -2128,6 +2158,17 @@
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="文泉驿正黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="文泉驿正黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2151,7 +2192,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2191,13 +2232,19 @@
     <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2213,8 +2260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2593,19 +2640,36 @@
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:4" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:21" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
     </row>
     <row r="21" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
@@ -2819,10 +2883,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV42"/>
+  <dimension ref="A1:IV45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2917,7 +2981,7 @@
       <c r="B5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="17" t="s">
         <v>131</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -3165,16 +3229,16 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="13" t="s">
         <v>203</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -3192,36 +3256,36 @@
         <v>207</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B20" s="1" t="s">
+    </row>
+    <row r="20" spans="1:7" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="D20" s="13" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>216</v>
       </c>
@@ -3237,90 +3301,69 @@
       <c r="E21" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="13" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="E22" s="13"/>
+      <c r="F22" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-    </row>
-    <row r="25" spans="1:26" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6" t="s">
-        <v>235</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -3343,388 +3386,394 @@
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
     </row>
-    <row r="26" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:26" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="D26" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="E26" s="6"/>
+      <c r="F26" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+    </row>
+    <row r="27" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-    </row>
-    <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="E27" s="6"/>
+      <c r="F27" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="B28" s="6" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7" t="s">
+      <c r="B29" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
+      <c r="C29" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="D29" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="F29" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
         <v>252</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>253</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="31" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="B31" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="6"/>
+      <c r="AI32" s="6"/>
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="6"/>
+      <c r="AM32" s="6"/>
+      <c r="AN32" s="6"/>
+      <c r="AO32" s="6"/>
+      <c r="AP32" s="6"/>
+      <c r="AQ32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
-      <c r="AB31" s="6"/>
-      <c r="AC31" s="6"/>
-      <c r="AD31" s="6"/>
-      <c r="AE31" s="6"/>
-      <c r="AF31" s="6"/>
-      <c r="AG31" s="6"/>
-      <c r="AH31" s="6"/>
-      <c r="AI31" s="6"/>
-      <c r="AJ31" s="6"/>
-      <c r="AK31" s="6"/>
-      <c r="AL31" s="6"/>
-      <c r="AM31" s="6"/>
-      <c r="AN31" s="6"/>
-      <c r="AO31" s="6"/>
-      <c r="AP31" s="6"/>
-      <c r="AQ31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="33" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
-      <c r="AB33" s="6"/>
-      <c r="AC33" s="6"/>
-      <c r="AD33" s="6"/>
-      <c r="AE33" s="6"/>
-      <c r="AF33" s="6"/>
-      <c r="AG33" s="6"/>
-      <c r="AH33" s="6"/>
-      <c r="AI33" s="6"/>
-      <c r="AJ33" s="6"/>
-      <c r="AK33" s="6"/>
-      <c r="AL33" s="6"/>
-      <c r="AM33" s="6"/>
-      <c r="AN33" s="6"/>
-      <c r="AO33" s="6"/>
-      <c r="AP33" s="6"/>
-      <c r="AQ33" s="6"/>
-      <c r="AR33" s="6"/>
-      <c r="AS33" s="6"/>
-      <c r="AT33" s="6"/>
-      <c r="AU33" s="6"/>
-      <c r="AV33" s="6"/>
-      <c r="AW33" s="6"/>
-      <c r="AX33" s="6"/>
-      <c r="AY33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="6"/>
+      <c r="AH34" s="6"/>
+      <c r="AI34" s="6"/>
+      <c r="AJ34" s="6"/>
+      <c r="AK34" s="6"/>
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="6"/>
+      <c r="AN34" s="6"/>
+      <c r="AO34" s="6"/>
+      <c r="AP34" s="6"/>
+      <c r="AQ34" s="6"/>
+      <c r="AR34" s="6"/>
+      <c r="AS34" s="6"/>
+      <c r="AT34" s="6"/>
+      <c r="AU34" s="6"/>
+      <c r="AV34" s="6"/>
+      <c r="AW34" s="6"/>
+      <c r="AX34" s="6"/>
+      <c r="AY34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="C35" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
-      <c r="AD35" s="4"/>
-      <c r="AE35" s="4"/>
-      <c r="AF35" s="4"/>
-      <c r="AG35" s="4"/>
-      <c r="AH35" s="4"/>
-      <c r="AI35" s="4"/>
-      <c r="AJ35" s="4"/>
-      <c r="AK35" s="4"/>
-      <c r="AL35" s="4"/>
-      <c r="AM35" s="4"/>
-      <c r="AN35" s="4"/>
-      <c r="AO35" s="4"/>
-      <c r="AP35" s="4"/>
-      <c r="AQ35" s="4"/>
-      <c r="AR35" s="4"/>
-      <c r="AS35" s="4"/>
-      <c r="AT35" s="4"/>
-      <c r="AU35" s="4"/>
-      <c r="AV35" s="4"/>
-      <c r="AW35" s="4"/>
-      <c r="AX35" s="4"/>
-      <c r="AY35" s="4"/>
-      <c r="AZ35" s="4"/>
-      <c r="BA35" s="4"/>
-      <c r="BB35" s="4"/>
-      <c r="BC35" s="4"/>
-      <c r="BD35" s="4"/>
-      <c r="BE35" s="4"/>
-      <c r="BF35" s="4"/>
-      <c r="BG35" s="4"/>
-      <c r="BH35" s="4"/>
-      <c r="BI35" s="4"/>
-      <c r="BJ35" s="4"/>
-      <c r="BK35" s="4"/>
-      <c r="BL35" s="4"/>
-      <c r="BM35" s="4"/>
-      <c r="BN35" s="4"/>
-      <c r="BO35" s="4"/>
-      <c r="BP35" s="4"/>
-      <c r="BQ35" s="4"/>
-      <c r="BR35" s="4"/>
-    </row>
-    <row r="36" spans="1:20" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="D36" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="E36" s="6"/>
+      <c r="F36" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="4"/>
+      <c r="AO36" s="4"/>
+      <c r="AP36" s="4"/>
+      <c r="AQ36" s="4"/>
+      <c r="AR36" s="4"/>
+      <c r="AS36" s="4"/>
+      <c r="AT36" s="4"/>
+      <c r="AU36" s="4"/>
+      <c r="AV36" s="4"/>
+      <c r="AW36" s="4"/>
+      <c r="AX36" s="4"/>
+      <c r="AY36" s="4"/>
+      <c r="AZ36" s="4"/>
+      <c r="BA36" s="4"/>
+      <c r="BB36" s="4"/>
+      <c r="BC36" s="4"/>
+      <c r="BD36" s="4"/>
+      <c r="BE36" s="4"/>
+      <c r="BF36" s="4"/>
+      <c r="BG36" s="4"/>
+      <c r="BH36" s="4"/>
+      <c r="BI36" s="4"/>
+      <c r="BJ36" s="4"/>
+      <c r="BK36" s="4"/>
+      <c r="BL36" s="4"/>
+      <c r="BM36" s="4"/>
+      <c r="BN36" s="4"/>
+      <c r="BO36" s="4"/>
+      <c r="BP36" s="4"/>
+      <c r="BQ36" s="4"/>
+      <c r="BR36" s="4"/>
+    </row>
+    <row r="37" spans="1:20" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6" t="s">
+      <c r="B37" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-    </row>
-    <row r="37" spans="1:25" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -3740,27 +3789,24 @@
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-    </row>
-    <row r="38" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="6" t="s">
+    </row>
+    <row r="38" spans="1:25" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="C38" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="E38" s="6"/>
+      <c r="F38" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -3780,81 +3826,61 @@
       <c r="W38" s="6"/>
       <c r="X38" s="6"/>
       <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
-      <c r="AA38" s="6"/>
-      <c r="AB38" s="6"/>
-      <c r="AC38" s="6"/>
-      <c r="AD38" s="6"/>
-    </row>
-    <row r="39" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
+    </row>
+    <row r="39" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4" t="s">
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+    </row>
+    <row r="40" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
-      <c r="Z39" s="4"/>
-      <c r="AA39" s="4"/>
-      <c r="AB39" s="4"/>
-      <c r="AC39" s="4"/>
-      <c r="AD39" s="4"/>
-      <c r="AE39" s="4"/>
-      <c r="AF39" s="4"/>
-      <c r="AG39" s="4"/>
-      <c r="AH39" s="4"/>
-      <c r="AI39" s="4"/>
-      <c r="AJ39" s="4"/>
-      <c r="AK39" s="4"/>
-      <c r="AL39" s="4"/>
-      <c r="AM39" s="4"/>
-      <c r="AN39" s="4"/>
-      <c r="AO39" s="4"/>
-    </row>
-    <row r="40" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4" t="s">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="E40" s="6"/>
+      <c r="F40" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4" t="s">
-        <v>297</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -3891,125 +3917,207 @@
       <c r="AM40" s="4"/>
       <c r="AN40" s="4"/>
       <c r="AO40" s="4"/>
-      <c r="AP40" s="4"/>
-      <c r="AQ40" s="4"/>
-      <c r="AR40" s="4"/>
-      <c r="AS40" s="4"/>
-      <c r="AT40" s="4"/>
-      <c r="AU40" s="4"/>
-      <c r="AV40" s="4"/>
-      <c r="AW40" s="4"/>
-      <c r="AX40" s="4"/>
-      <c r="AY40" s="4"/>
-    </row>
-    <row r="41" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="E41" s="4"/>
+      <c r="F41" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4"/>
+      <c r="AL41" s="4"/>
+      <c r="AM41" s="4"/>
+      <c r="AN41" s="4"/>
+      <c r="AO41" s="4"/>
+      <c r="AP41" s="4"/>
+      <c r="AQ41" s="4"/>
+      <c r="AR41" s="4"/>
+      <c r="AS41" s="4"/>
+      <c r="AT41" s="4"/>
+      <c r="AU41" s="4"/>
+      <c r="AV41" s="4"/>
+      <c r="AW41" s="4"/>
+      <c r="AX41" s="4"/>
+      <c r="AY41" s="4"/>
+    </row>
+    <row r="42" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="B42" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-    </row>
-    <row r="42" spans="1:66" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="E42" s="4"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+    </row>
+    <row r="43" spans="1:66" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="4"/>
+      <c r="AF43" s="4"/>
+      <c r="AG43" s="4"/>
+      <c r="AH43" s="4"/>
+      <c r="AI43" s="4"/>
+      <c r="AJ43" s="4"/>
+      <c r="AK43" s="4"/>
+      <c r="AL43" s="4"/>
+      <c r="AM43" s="4"/>
+      <c r="AN43" s="4"/>
+      <c r="AO43" s="4"/>
+      <c r="AP43" s="4"/>
+      <c r="AQ43" s="4"/>
+      <c r="AR43" s="4"/>
+      <c r="AS43" s="4"/>
+      <c r="AT43" s="4"/>
+      <c r="AU43" s="4"/>
+      <c r="AV43" s="4"/>
+      <c r="AW43" s="4"/>
+      <c r="AX43" s="4"/>
+      <c r="AY43" s="4"/>
+      <c r="AZ43" s="4"/>
+      <c r="BA43" s="4"/>
+      <c r="BB43" s="4"/>
+      <c r="BC43" s="4"/>
+      <c r="BD43" s="4"/>
+      <c r="BE43" s="4"/>
+      <c r="BF43" s="4"/>
+      <c r="BG43" s="4"/>
+      <c r="BH43" s="4"/>
+      <c r="BI43" s="4"/>
+      <c r="BJ43" s="4"/>
+      <c r="BK43" s="4"/>
+      <c r="BL43" s="4"/>
+      <c r="BM43" s="4"/>
+      <c r="BN43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
-      <c r="AB42" s="4"/>
-      <c r="AC42" s="4"/>
-      <c r="AD42" s="4"/>
-      <c r="AE42" s="4"/>
-      <c r="AF42" s="4"/>
-      <c r="AG42" s="4"/>
-      <c r="AH42" s="4"/>
-      <c r="AI42" s="4"/>
-      <c r="AJ42" s="4"/>
-      <c r="AK42" s="4"/>
-      <c r="AL42" s="4"/>
-      <c r="AM42" s="4"/>
-      <c r="AN42" s="4"/>
-      <c r="AO42" s="4"/>
-      <c r="AP42" s="4"/>
-      <c r="AQ42" s="4"/>
-      <c r="AR42" s="4"/>
-      <c r="AS42" s="4"/>
-      <c r="AT42" s="4"/>
-      <c r="AU42" s="4"/>
-      <c r="AV42" s="4"/>
-      <c r="AW42" s="4"/>
-      <c r="AX42" s="4"/>
-      <c r="AY42" s="4"/>
-      <c r="AZ42" s="4"/>
-      <c r="BA42" s="4"/>
-      <c r="BB42" s="4"/>
-      <c r="BC42" s="4"/>
-      <c r="BD42" s="4"/>
-      <c r="BE42" s="4"/>
-      <c r="BF42" s="4"/>
-      <c r="BG42" s="4"/>
-      <c r="BH42" s="4"/>
-      <c r="BI42" s="4"/>
-      <c r="BJ42" s="4"/>
-      <c r="BK42" s="4"/>
-      <c r="BL42" s="4"/>
-      <c r="BM42" s="4"/>
-      <c r="BN42" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>315</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -4037,657 +4145,657 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13551" windowHeight="6180" activeTab="1" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13536" windowHeight="6180" activeTab="1" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
@@ -1308,7 +1308,7 @@
     <t xml:space="preserve">itmeId(商品ID）  </t>
   </si>
   <si>
-    <t>ISBN ，name(书名）， author（作者姓名） ,publisher（出版社） ,publishTime（出版时间） , edition（版次）， page（页数） ,binding（装帧） , size（开本） ,price（价格） , marketPrice（出版价格） , discount（折扣） , inventory（库存） ,description （书籍描述）,bookClassify（书籍分类String），averageRating（综合评级),commentList(一维数组包含用户名(username),打分(rating),内容(content),时间(date));recommendView:推荐商品（id,itemName,price,picturePath);recommendBought:推荐商品（itemId,name,price,picturePath)；catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+    <t>ISBN ，name(书名）， author（作者姓名） ,publisher（出版社） ,publishTime（出版时间） , edition（版次）， page（页数） ,binding（装帧） , size（开本） ,price（价格） , marketPrice（出版价格） , discount（折扣） , inventory（库存） ,description （书籍描述）,bookClassify（书籍分类String），picturePath(图片接口）,averageRating（综合评级),commentList(一维数组包含用户名(username),打分(rating),内容(content),时间(date));recommendView:推荐商品（id,itemName,price,picturePath);recommendBought:推荐商品（itemId,name,price,picturePath)；catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
     <t>CartEnterAction</t>
@@ -1464,7 +1464,7 @@
     <t>提交商品添加</t>
   </si>
   <si>
-    <t>ISBN ，name(书名）， author（作者姓名） ,publisher（出版社） ,publishTime（出版时间）(year:年，month:月;day:日） , edition（版次）， page（页数） ,binding（装帧） , format（开本,marketPrice（出版价格） , discount（折扣） , inventory（库存） ,description （书籍描述）,bookClassify,（书籍分类ID),picture(上传的图片）</t>
+    <t>ISBN ，name(书名）， author（作者姓名） ,publisher（出版社） ,publishTime（出版时间）(year:年，month:月;day:日） , edition（版次）， page（页数） ,binding（装帧） , size（开本,marketPrice（出版价格） , discount（折扣） , inventory（库存） ,description （书籍描述）,bookClassify,（书籍分类ID),picture(上传的图片）</t>
   </si>
   <si>
     <t>跳转admin/item_manager</t>
@@ -1488,7 +1488,7 @@
     <t>提交商品修改</t>
   </si>
   <si>
-    <t>itemID(商品ID）,ISBN ，name(书名）， author（作者姓名） ,publisher（出版社） ,publishTime（出版时间）(year:年，month:月;day:日） , edition（版次）， page（页数） ,binding（装帧） , format（开本,marketPrice（出版价格） , discount（折扣） , inventory（库存） ,description （书籍描述）,bookClassify,（书籍分类ID),picture(上传的图片）</t>
+    <t>itemID(商品ID）,ISBN ，name(书名）， author（作者姓名） ,publisher（出版社） ,publishTime（出版时间）(year:年，month:月;day:日） , edition（版次）， page（页数） ,binding（装帧） , size（开本,marketPrice（出版价格） , discount（折扣） , inventory（库存） ,description （书籍描述）,bookClassify,（书籍分类ID),picture(上传的图片）</t>
   </si>
   <si>
     <t>admin/category_list.jsp</t>
@@ -2192,7 +2192,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2241,9 +2241,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2885,8 +2882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2981,7 +2978,7 @@
       <c r="B5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -3258,7 +3255,7 @@
       <c r="C19" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="16" t="s">
         <v>209</v>
       </c>
       <c r="E19" s="1" t="s">

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -2110,7 +2110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="10">
+  <fonts count="11" x14ac:knownFonts="11">
     <font>
       <sz val="12.0"/>
       <name val="文泉驿正黑"/>
@@ -2169,6 +2169,12 @@
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF00FFFF"/>
+      <name val="文泉驿正黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2192,7 +2198,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2244,6 +2250,9 @@
     <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2883,7 +2892,7 @@
   <dimension ref="A1:IV45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -3520,7 +3529,7 @@
       <c r="C31" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F31" s="1" t="s">

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13536" windowHeight="6180" activeTab="1" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13536" windowHeight="6180" activeTab="0" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="471">
   <si>
     <t>动作</t>
   </si>
@@ -582,6 +582,15 @@
   </si>
   <si>
     <t>offResult:boolean(商品下架操作成功与否）</t>
+  </si>
+  <si>
+    <t>admin/item_manager/up</t>
+  </si>
+  <si>
+    <t>商品上架</t>
+  </si>
+  <si>
+    <t>upResult:boolean(商品下架操作成功与否）</t>
   </si>
   <si>
     <t>admin/item_manager/delete</t>
@@ -2110,7 +2119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="11">
+  <fonts count="10" x14ac:knownFonts="10">
     <font>
       <sz val="12.0"/>
       <name val="文泉驿正黑"/>
@@ -2166,12 +2175,7 @@
     </font>
     <font>
       <sz val="12.0"/>
-      <name val="文泉驿正黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF00FFFF"/>
+      <color rgb="FF00FF00"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
@@ -2198,7 +2202,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2250,9 +2254,6 @@
     <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2264,10 +2265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV25"/>
+  <dimension ref="A1:IV26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:U20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2631,121 +2632,131 @@
       <c r="AP18" s="6"/>
       <c r="AQ18" s="6"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
+      <c r="AN19" s="6"/>
+      <c r="AO19" s="6"/>
+      <c r="AP19" s="6"/>
+      <c r="AQ19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:21" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:21" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-    </row>
-    <row r="21" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
     </row>
     <row r="22" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
@@ -2764,35 +2775,35 @@
       <c r="AG22" s="4"/>
     </row>
     <row r="23" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
+      <c r="D23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
@@ -2808,16 +2819,16 @@
     </row>
     <row r="24" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>107</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -2849,36 +2860,79 @@
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
     </row>
-    <row r="25" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+    </row>
+    <row r="26" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -2891,7 +2945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A22" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -2923,369 +2977,369 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>209</v>
+        <v>211</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="13" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -3293,74 +3347,74 @@
     </row>
     <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="13" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
@@ -3369,7 +3423,7 @@
         <v>8</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -3394,20 +3448,20 @@
     </row>
     <row r="26" spans="1:26" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -3432,18 +3486,18 @@
     </row>
     <row r="27" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -3458,34 +3512,34 @@
     </row>
     <row r="28" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -3506,51 +3560,51 @@
     </row>
     <row r="30" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>209</v>
+        <v>261</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -3592,34 +3646,34 @@
     </row>
     <row r="33" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -3669,35 +3723,35 @@
     </row>
     <row r="35" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
@@ -3766,20 +3820,20 @@
     </row>
     <row r="37" spans="1:20" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="6" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -3798,20 +3852,20 @@
     </row>
     <row r="38" spans="1:25" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -3835,16 +3889,16 @@
     </row>
     <row r="39" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -3875,18 +3929,18 @@
     </row>
     <row r="40" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="4" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -3926,20 +3980,20 @@
     </row>
     <row r="41" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -3989,16 +4043,16 @@
     </row>
     <row r="42" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="6"/>
@@ -4020,20 +4074,20 @@
     </row>
     <row r="43" spans="1:66" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -4098,31 +4152,31 @@
     </row>
     <row r="44" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -4151,657 +4205,657 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>410</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -2119,7 +2119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="10">
+  <fonts count="9" x14ac:knownFonts="9">
     <font>
       <sz val="12.0"/>
       <name val="文泉驿正黑"/>
@@ -2170,12 +2170,6 @@
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
-      <name val="文泉驿正黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF00FF00"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
@@ -2251,7 +2245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2267,8 +2261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2633,16 +2627,16 @@
       <c r="AQ18" s="6"/>
     </row>
     <row r="19" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E19" s="6"/>
@@ -2685,51 +2679,302 @@
       <c r="AP19" s="6"/>
       <c r="AQ19" s="6"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:256" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
+      <c r="AN20" s="6"/>
+      <c r="AO20" s="6"/>
+      <c r="AP20" s="6"/>
+      <c r="AQ20" s="6"/>
+      <c r="AR20" s="6"/>
+      <c r="AS20" s="6"/>
+      <c r="AT20" s="6"/>
+      <c r="AU20" s="6"/>
+      <c r="AV20" s="6"/>
+      <c r="AW20" s="6"/>
+      <c r="AX20" s="6"/>
+      <c r="AY20" s="6"/>
+      <c r="AZ20" s="6"/>
+      <c r="BA20" s="6"/>
+      <c r="BB20" s="6"/>
+      <c r="BC20" s="6"/>
+      <c r="BD20" s="6"/>
+      <c r="BE20" s="6"/>
+      <c r="BF20" s="6"/>
+      <c r="BG20" s="6"/>
+      <c r="BH20" s="6"/>
+      <c r="BI20" s="6"/>
+      <c r="BJ20" s="6"/>
+      <c r="BK20" s="6"/>
+      <c r="BL20" s="6"/>
+      <c r="BM20" s="6"/>
+      <c r="BN20" s="6"/>
+      <c r="BO20" s="6"/>
+      <c r="BP20" s="6"/>
+      <c r="BQ20" s="6"/>
+      <c r="BR20" s="6"/>
+      <c r="BS20" s="6"/>
+      <c r="BT20" s="6"/>
+      <c r="BU20" s="6"/>
+      <c r="BV20" s="6"/>
+      <c r="BW20" s="6"/>
+      <c r="BX20" s="6"/>
+      <c r="BY20" s="6"/>
+      <c r="BZ20" s="6"/>
+      <c r="CA20" s="6"/>
+      <c r="CB20" s="6"/>
+      <c r="CC20" s="6"/>
+      <c r="CD20" s="6"/>
+      <c r="CE20" s="6"/>
+      <c r="CF20" s="6"/>
+      <c r="CG20" s="6"/>
+      <c r="CH20" s="6"/>
+      <c r="CI20" s="6"/>
+      <c r="CJ20" s="6"/>
+      <c r="CK20" s="6"/>
+      <c r="CL20" s="6"/>
+      <c r="CM20" s="6"/>
+      <c r="CN20" s="6"/>
+      <c r="CO20" s="6"/>
+      <c r="CP20" s="6"/>
+      <c r="CQ20" s="6"/>
+      <c r="CR20" s="6"/>
+      <c r="CS20" s="6"/>
+      <c r="CT20" s="6"/>
+      <c r="CU20" s="6"/>
+      <c r="CV20" s="6"/>
+      <c r="CW20" s="6"/>
+      <c r="CX20" s="6"/>
+      <c r="CY20" s="6"/>
+      <c r="CZ20" s="6"/>
+      <c r="DA20" s="6"/>
+      <c r="DB20" s="6"/>
+      <c r="DC20" s="6"/>
+      <c r="DD20" s="6"/>
+      <c r="DE20" s="6"/>
+      <c r="DF20" s="6"/>
+      <c r="DG20" s="6"/>
+      <c r="DH20" s="6"/>
+      <c r="DI20" s="6"/>
+      <c r="DJ20" s="6"/>
+      <c r="DK20" s="6"/>
+      <c r="DL20" s="6"/>
+      <c r="DM20" s="6"/>
+      <c r="DN20" s="6"/>
+      <c r="DO20" s="6"/>
+      <c r="DP20" s="6"/>
+      <c r="DQ20" s="6"/>
+      <c r="DR20" s="6"/>
+      <c r="DS20" s="6"/>
+      <c r="DT20" s="6"/>
+      <c r="DU20" s="6"/>
+      <c r="DV20" s="6"/>
+      <c r="DW20" s="6"/>
+      <c r="DX20" s="6"/>
+      <c r="DY20" s="6"/>
+      <c r="DZ20" s="6"/>
+      <c r="EA20" s="6"/>
+      <c r="EB20" s="6"/>
+      <c r="EC20" s="6"/>
+      <c r="ED20" s="6"/>
+      <c r="EE20" s="6"/>
+      <c r="EF20" s="6"/>
+      <c r="EG20" s="6"/>
+      <c r="EH20" s="6"/>
+      <c r="EI20" s="6"/>
+      <c r="EJ20" s="6"/>
+      <c r="EK20" s="6"/>
+      <c r="EL20" s="6"/>
+      <c r="EM20" s="6"/>
+      <c r="EN20" s="6"/>
+      <c r="EO20" s="6"/>
+      <c r="EP20" s="6"/>
+      <c r="EQ20" s="6"/>
+      <c r="ER20" s="6"/>
+      <c r="ES20" s="6"/>
+      <c r="ET20" s="6"/>
+      <c r="EU20" s="6"/>
+      <c r="EV20" s="6"/>
+      <c r="EW20" s="6"/>
+      <c r="EX20" s="6"/>
+      <c r="EY20" s="6"/>
+      <c r="EZ20" s="6"/>
+      <c r="FA20" s="6"/>
+      <c r="FB20" s="6"/>
+      <c r="FC20" s="6"/>
+      <c r="FD20" s="6"/>
+      <c r="FE20" s="6"/>
+      <c r="FF20" s="6"/>
+      <c r="FG20" s="6"/>
+      <c r="FH20" s="6"/>
+      <c r="FI20" s="6"/>
+      <c r="FJ20" s="6"/>
+      <c r="FK20" s="6"/>
+      <c r="FL20" s="6"/>
+      <c r="FM20" s="6"/>
+      <c r="FN20" s="6"/>
+      <c r="FO20" s="6"/>
+      <c r="FP20" s="6"/>
+      <c r="FQ20" s="6"/>
+      <c r="FR20" s="6"/>
+      <c r="FS20" s="6"/>
+      <c r="FT20" s="6"/>
+      <c r="FU20" s="6"/>
+      <c r="FV20" s="6"/>
+      <c r="FW20" s="6"/>
+      <c r="FX20" s="6"/>
+      <c r="FY20" s="6"/>
+      <c r="FZ20" s="6"/>
+      <c r="GA20" s="6"/>
+      <c r="GB20" s="6"/>
+      <c r="GC20" s="6"/>
+      <c r="GD20" s="6"/>
+      <c r="GE20" s="6"/>
+      <c r="GF20" s="6"/>
+      <c r="GG20" s="6"/>
+      <c r="GH20" s="6"/>
+      <c r="GI20" s="6"/>
+      <c r="GJ20" s="6"/>
+      <c r="GK20" s="6"/>
+      <c r="GL20" s="6"/>
+      <c r="GM20" s="6"/>
+      <c r="GN20" s="6"/>
+      <c r="GO20" s="6"/>
+      <c r="GP20" s="6"/>
+      <c r="GQ20" s="6"/>
+      <c r="GR20" s="6"/>
+      <c r="GS20" s="6"/>
+      <c r="GT20" s="6"/>
+      <c r="GU20" s="6"/>
+      <c r="GV20" s="6"/>
+      <c r="GW20" s="6"/>
+      <c r="GX20" s="6"/>
+      <c r="GY20" s="6"/>
+      <c r="GZ20" s="6"/>
+      <c r="HA20" s="6"/>
+      <c r="HB20" s="6"/>
+      <c r="HC20" s="6"/>
+      <c r="HD20" s="6"/>
+      <c r="HE20" s="6"/>
+      <c r="HF20" s="6"/>
+      <c r="HG20" s="6"/>
+      <c r="HH20" s="6"/>
+      <c r="HI20" s="6"/>
+      <c r="HJ20" s="6"/>
+      <c r="HK20" s="6"/>
+      <c r="HL20" s="6"/>
+      <c r="HM20" s="6"/>
+      <c r="HN20" s="6"/>
+      <c r="HO20" s="6"/>
+      <c r="HP20" s="6"/>
+      <c r="HQ20" s="6"/>
+      <c r="HR20" s="6"/>
+      <c r="HS20" s="6"/>
+      <c r="HT20" s="6"/>
+      <c r="HU20" s="6"/>
+      <c r="HV20" s="6"/>
+      <c r="HW20" s="6"/>
+      <c r="HX20" s="6"/>
+      <c r="HY20" s="6"/>
+      <c r="HZ20" s="6"/>
+      <c r="IA20" s="6"/>
+      <c r="IB20" s="6"/>
+      <c r="IC20" s="6"/>
+      <c r="ID20" s="6"/>
+      <c r="IE20" s="6"/>
+      <c r="IF20" s="6"/>
+      <c r="IG20" s="6"/>
+      <c r="IH20" s="6"/>
+      <c r="II20" s="6"/>
+      <c r="IJ20" s="6"/>
+      <c r="IK20" s="6"/>
+      <c r="IL20" s="6"/>
+      <c r="IM20" s="6"/>
+      <c r="IN20" s="6"/>
+      <c r="IO20" s="6"/>
+      <c r="IP20" s="6"/>
+      <c r="IQ20" s="6"/>
+      <c r="IR20" s="6"/>
+      <c r="IS20" s="6"/>
+      <c r="IT20" s="6"/>
+      <c r="IU20" s="6"/>
+      <c r="IV20" s="6"/>
     </row>
     <row r="21" spans="1:21" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
     </row>
     <row r="22" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
@@ -2945,8 +3190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView zoomScaleNormal="100" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>

--- a/doc/接口.xlsx
+++ b/doc/接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13536" windowHeight="6180" activeTab="0" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13536" windowHeight="6180" activeTab="1" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="PLInterface_function" sheetId="1" r:id="rId2"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="472">
   <si>
     <t>动作</t>
   </si>
@@ -919,7 +919,7 @@
     <t>time:索引时间(0:所有，1：近一个月，2：近三个月，3：近一年）；orderStatus:订单状态(0：未指定，1：已下单，2：已审核，3：交易成功，4：交易失败）；page:分页</t>
   </si>
   <si>
-    <t>orderList:一维数组（一个含有订单号(orderId)，收货人(receiverName)，下单时间(orderTime)，订单状态（orderStatus字符串),订单总价(totalPrice)的类),catalog:二维数组（id,目录的ID，一个含有名字(name)和简介(desc)的类）;currentPage(当前页面)；totalPage（总页数）；</t>
+    <t>orderList:一维数组（一个含有订单号(orderId)，收货人(receiverName)，下单时间(orderTime)，订单状态（orderStatus字符串),userName:用户名,订单总价(totalPrice)的类),catalog:二维数组（id,目录的ID，一个含有名字(name)和简介(desc)的类）;currentPage(当前页面)；totalPage（总页数）；</t>
   </si>
   <si>
     <t>OrderListAction</t>
@@ -1437,36 +1437,33 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>admin/login</t>
+  </si>
+  <si>
+    <t>管理员登录</t>
+  </si>
+  <si>
+    <t>userName:用户名；password：密码；captchaValue:验证码；toURL:跳转的URL</t>
+  </si>
+  <si>
+    <t>跳转到相应URL</t>
+  </si>
+  <si>
+    <t>admin/item_manager</t>
+  </si>
+  <si>
+    <t>进入商品管理页面</t>
+  </si>
+  <si>
+    <t>name(String，书名);publisher(String，出版社):catalogId(int,0不限制，其他数字代表具体的Id）;publishTime(int ,0 不限制，1为2012，2为2011，3为2010，4为2009，5为2009以下;edition（0不限制，其他数字代表具体的版次;searchPage(int 0限制，1 为0-200，2为200-400，3为400-600，4为600以上);binding（int 0 不限制，1为平装，2为精装;booksize（int,0为不限，1为32开，2为16开，3为8开;price（0 为不限制，1为0-10，2为10-30，3为30-50，4为50-100，5为100以上;discount（int ,0为不限，1为3折以下，2为3-5折，3为5-7折，4为7折以上;author(String，作者);description(String，描述);page（第几页默认为1)</t>
+  </si>
+  <si>
+    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(score),市场价（marketPrice));currentPage：当前页数；totalPage:总页数；</t>
+  </si>
+  <si>
     <t>admin/item_list.jsp</t>
   </si>
   <si>
-    <t>admin/login</t>
-  </si>
-  <si>
-    <t>管理员登录</t>
-  </si>
-  <si>
-    <t>userName:用户名；password：密码；captchaValue:验证码；toURL:跳转的URL</t>
-  </si>
-  <si>
-    <t>跳转到相应URL</t>
-  </si>
-  <si>
-    <t>admin/item_manager</t>
-  </si>
-  <si>
-    <t>进入商品管理页面</t>
-  </si>
-  <si>
-    <t>name(String，书名);publisher(String，出版社):catalogId(int,0不限制，其他数字代表具体的Id）;publishTime(int ,0 不限制，1为2012，2为2011，3为2010，4为2009，5为2009以下;edition（0不限制，其他数字代表具体的版次;searchPage(int 0限制，1 为0-200，2为200-400，3为400-600，4为600以上);binding（int 0 不限制，1为平装，2为精装;booksize（int,0为不限，1为32开，2为16开，3为8开;price（0 为不限制，1为0-10，2为10-30，3为30-50，4为50-100，5为100以上;discount（int ,0为不限，1为3折以下，2为3-5折，3为5-7折，4为7折以上;author(String，作者);description(String，描述);page（第几页默认为1)</t>
-  </si>
-  <si>
-    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；items:一维数组（商品ID（itemId),一个含有名字(name)，折扣价(price),折扣(discount)和图片路径(picturePath) ,出版日期(publishTime), 出版社(publisher),作者(author),用户评分(score),市场价（marketPrice));currentPage：当前页数；totalPage:总页数；</t>
-  </si>
-  <si>
-    <t>admin/item_edit.jsp</t>
-  </si>
-  <si>
     <t>admin/item_add_submit</t>
   </si>
   <si>
@@ -1476,7 +1473,7 @@
     <t>ISBN ，name(书名）， author（作者姓名） ,publisher（出版社） ,publishTime（出版时间）(year:年，month:月;day:日） , edition（版次）， page（页数） ,binding（装帧） , size（开本,marketPrice（出版价格） , discount（折扣） , inventory（库存） ,description （书籍描述）,bookClassify,（书籍分类ID),picture(上传的图片）</t>
   </si>
   <si>
-    <t>跳转admin/item_manager</t>
+    <t>跳转admin/item_list</t>
   </si>
   <si>
     <t>admin/item_modify</t>
@@ -1500,102 +1497,105 @@
     <t>itemID(商品ID）,ISBN ，name(书名）， author（作者姓名） ,publisher（出版社） ,publishTime（出版时间）(year:年，month:月;day:日） , edition（版次）， page（页数） ,binding（装帧） , size（开本,marketPrice（出版价格） , discount（折扣） , inventory（库存） ,description （书籍描述）,bookClassify,（书籍分类ID),picture(上传的图片）</t>
   </si>
   <si>
+    <t>跳转admin/item_info</t>
+  </si>
+  <si>
+    <t>admin/item_detail</t>
+  </si>
+  <si>
+    <t>进入商品详情</t>
+  </si>
+  <si>
+    <t>admin/catalog_manager</t>
+  </si>
+  <si>
+    <t>进入商品目录管理</t>
+  </si>
+  <si>
+    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+  </si>
+  <si>
     <t>admin/category_list.jsp</t>
   </si>
   <si>
-    <t>admin/item_detail</t>
-  </si>
-  <si>
-    <t>进入商品详情</t>
-  </si>
-  <si>
-    <t>admin/catalog_manager</t>
-  </si>
-  <si>
-    <t>进入商品目录管理</t>
-  </si>
-  <si>
-    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+    <t>admin/catalog_add_submit</t>
+  </si>
+  <si>
+    <t>提交商品目录添加</t>
+  </si>
+  <si>
+    <t>catalogName:目录名，catalogDesc：目录描述，upID:父目录的ID(0表示根目录）,</t>
+  </si>
+  <si>
+    <t>成功跳转admin/category_list</t>
+  </si>
+  <si>
+    <t>admin/catalog_edit</t>
+  </si>
+  <si>
+    <t>进入商品目录编辑</t>
+  </si>
+  <si>
+    <t>catalogID:目录ID</t>
+  </si>
+  <si>
+    <t>catalogName:目录名，catalogDesc：目录描述，upID:父目录的ID(0表示根目录）;catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
     <t>admin/category_edit.jsp</t>
   </si>
   <si>
-    <t>admin/catalog_add_submit</t>
-  </si>
-  <si>
-    <t>提交商品目录添加</t>
-  </si>
-  <si>
-    <t>catalogName:目录名，catalogDesc：目录描述，upID:父目录的ID(0表示根目录）,</t>
-  </si>
-  <si>
-    <t>成功跳转目录管理</t>
-  </si>
-  <si>
-    <t>admin/catalog_edit</t>
-  </si>
-  <si>
-    <t>进入商品目录编辑</t>
-  </si>
-  <si>
-    <t>catalogID:目录ID</t>
-  </si>
-  <si>
-    <t>catalogName:目录名，catalogDesc：目录描述，upID:父目录的ID(0表示根目录）;catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
+    <t>admin/catalog_edit_submit</t>
+  </si>
+  <si>
+    <t>提交商品目录编辑</t>
+  </si>
+  <si>
+    <t>catalogID:目录ID,catalogName:目录名，catalogDesc：目录描述，upID:父目录的ID(-1表示根目录）,</t>
+  </si>
+  <si>
+    <t>admin/order_list</t>
+  </si>
+  <si>
+    <t>管理员进入订单搜索</t>
+  </si>
+  <si>
+    <t>startTime:开始索引时间(year:年，month:月;day:日）;endTime:结束索引时间（year：年，month:月，day:日），orderState:订单状态(0：未指定，1：已下单，2：已审核，3：交易成功，4：交易失败）,page:分页</t>
+  </si>
+  <si>
+    <t>orderList:一维数组（一个含有订单号(orderId)，收货人(receiver)，下单时间(orderTime)，订单状态（orderStatus字符串),订单总价(totalPrice)的类,userName,用户名);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；currentPage(当前页面)；totalPage（总页数）；</t>
   </si>
   <si>
     <t>admin/order_list.jsp</t>
   </si>
   <si>
-    <t>admin/catalog_edit_submit</t>
-  </si>
-  <si>
-    <t>提交商品目录编辑</t>
-  </si>
-  <si>
-    <t>catalogID:目录ID,catalogName:目录名，catalogDesc：目录描述，upID:父目录的ID(-1表示根目录）,</t>
+    <t>admin/order_detail</t>
+  </si>
+  <si>
+    <t>管理员查看订单详情</t>
+  </si>
+  <si>
+    <t>orderID:订单ID</t>
+  </si>
+  <si>
+    <t>orderID:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),zipcode(邮政编码),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
     <t>admin/order_info.jsp</t>
   </si>
   <si>
-    <t>admin/order_list</t>
-  </si>
-  <si>
-    <t>管理员进入订单管理</t>
-  </si>
-  <si>
-    <t>startTime:开始索引时间(year:年，month:月;day:日）;endTime:结束索引时间（year：年，month:月，day:日），orderState:订单状态(0：未指定，1：已下单，2：已审核，3：交易成功，4：交易失败）,page:分页</t>
-  </si>
-  <si>
-    <t>orderList:一维数组（一个含有订单号(orderId)，收货人(receiver)，下单时间(orderTime)，订单状态（orderStatus字符串),订单总价(totalPrice)的类);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；currentPage(当前页面)；totalPage（总页数）；</t>
+    <t>admin/order_edit</t>
+  </si>
+  <si>
+    <t>管理员进入订单修改</t>
+  </si>
+  <si>
+    <t>orderID:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);selectedLevel1DistrictID,selectedLevel2DistrictID, selectedLevel3DistrictID,level1District, level2District, level3District,zipcode(邮政编码),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
   </si>
   <si>
     <t>admin/order_edit.jsp</t>
   </si>
   <si>
-    <t>admin/order_detail</t>
-  </si>
-  <si>
-    <t>管理员查看订单详情</t>
-  </si>
-  <si>
-    <t>orderID:订单ID</t>
-  </si>
-  <si>
-    <t>orderID:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);收货人地址(receiverAddress),zipcode(邮政编码),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
-  </si>
-  <si>
-    <t>admin/order_edit</t>
-  </si>
-  <si>
-    <t>orderID:订单号；用户名(username);下单时间(orderTime字符串);订单金额(price)；支付方式(payment字符串）；送货方式(deliverWay送货方式）；收货人(receiver);selectedLevel1DistrictID,selectedLevel2DistrictID, selectedLevel3DistrictID,level1District, level2District, level3District,zipcode(邮政编码),订单状态(orderStatus),收货人手机(receiverMobile),收货人电话(receiverPhone),items:一维数组（一个包含商品ID（itemId),商品名字（itemName),商品单价(price),商品小计(itemTotalPrice),商品数量（itemNumber));catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；</t>
-  </si>
-  <si>
-    <t>admin/salesdata_admin.jsp</t>
-  </si>
-  <si>
     <t>admin/order_edit_submit</t>
   </si>
   <si>
@@ -1608,46 +1608,49 @@
     <t>成功跳转orderDetail</t>
   </si>
   <si>
+    <t>admin/order_statistics</t>
+  </si>
+  <si>
+    <t>管理员进入销售量统计</t>
+  </si>
+  <si>
+    <t>startTime:开始索引时间(year:年，month:月;day:日）;endTime:结束索引时间（year：年，month:月，day:日);catalogID:目录ID,limit(销售量下限）,page(请求的页面）</t>
+  </si>
+  <si>
+    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；items:一维数组(itemID,itemName;sales;totalPrice),totalSalesRevenue(所有商品的总销售价）</t>
+  </si>
+  <si>
+    <t>admin/salesdata_list.jsp</t>
+  </si>
+  <si>
+    <t>admin/user_manager</t>
+  </si>
+  <si>
+    <t>管理员进入会员查询</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> userName:String; userLevel:对应的levelID;startTime:开始索引时间(year:年，month:月;day:日）;endTime:结束索引时间（year：年，month:月，day:日); page：int(分页)</t>
+  </si>
+  <si>
+    <t>levelList:一维数组(levelID:int;low(积分下限）:float;scoreRate:float;hight(积分上限）:float;levelName:等级名字);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；currentPage(当前页面)；totalPage（总页数）；</t>
+  </si>
+  <si>
+    <t>admin/user_list.jsp</t>
+  </si>
+  <si>
+    <t>admin/user_score_rate_submit</t>
+  </si>
+  <si>
+    <t>管理员提交积分下限和比例</t>
+  </si>
+  <si>
+    <t>levelID:int;low(积分下限）:float;scoreRate:int;hight(积分上限）:float;levelName:等级名字</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 成功则跳转到用户管理</t>
+  </si>
+  <si>
     <t>admin/user_admin.jsp</t>
-  </si>
-  <si>
-    <t>admin/order_statistics</t>
-  </si>
-  <si>
-    <t>管理员进入销售量统计</t>
-  </si>
-  <si>
-    <t>startTime:开始索引时间(year:年，month:月;day:日）;endTime:结束索引时间（year：年，month:月，day:日);catalogID:目录ID,limit(销售量下限）</t>
-  </si>
-  <si>
-    <t>catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；items:一维数组(itemID,itemName;sales;totalPrice),totalSalesRevenue(所有商品的总销售价）</t>
-  </si>
-  <si>
-    <t>admin/user_manager</t>
-  </si>
-  <si>
-    <t>管理员进入用户管理</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> userName:String; userLevel:(0:普通会员,1:银卡会员,2:金卡会员,3:白金会员；);startTime:开始索引时间(year:年，month:月;day:日）;endTime:结束索引时间（year：年，month:月，day:日); page：int(分页)</t>
-  </si>
-  <si>
-    <t>levelList:一维数组(levelID:int;low(积分下限）:float;scoreRate:int;hight(积分上限）:float;levelName:等级名字);catalog:一维数组（一个含有名字(name)和简介(desc)id,目录的ID，二级目录的一维数组（含有名字(name)和简介(desc)id,目录的ID，一个空的一维数组））；currentPage(当前页面)；totalPage（总页数）；</t>
-  </si>
-  <si>
-    <t>admin/comment_list.jsp</t>
-  </si>
-  <si>
-    <t>admin/user_score_rate_submit</t>
-  </si>
-  <si>
-    <t>管理员提交积分下限和比例</t>
-  </si>
-  <si>
-    <t>levelID:int;low(积分下限）:float;scoreRate:int;hight(积分上限）:float;levelName:等级名字</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 成功则跳转到用户管理</t>
   </si>
   <si>
     <t>admin/comment_management</t>
@@ -2119,7 +2122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="9">
+  <fonts count="11" x14ac:knownFonts="11">
     <font>
       <sz val="12.0"/>
       <name val="文泉驿正黑"/>
@@ -2173,6 +2176,17 @@
       <name val="文泉驿正黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF00FFFF"/>
+      <name val="文泉驿正黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="文泉驿正黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2196,7 +2210,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2245,7 +2259,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2261,8 +2278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView zoomScaleNormal="100" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2679,7 +2696,7 @@
       <c r="AP19" s="6"/>
       <c r="AQ19" s="6"/>
     </row>
-    <row r="20" spans="1:256" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:256" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>92</v>
       </c>
@@ -3190,8 +3207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadshee